--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53506364-D990-48F2-B2C0-D4651D3D21D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225CE160-0159-4866-8737-040E08969196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="18315" windowWidth="14400" windowHeight="7665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="12165" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -10272,8 +10272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A438D7E5-8263-4C39-A225-69711465BDE9}">
   <dimension ref="A1:E540"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10314,83 +10314,83 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="C3" s="3">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>IF(ISBLANK(C3), "",INDEX(People!$A$3:$K$1048576,MATCH(C3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Давыдова Влада</v>
+        <v>Гущина Маша</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <f>IF(ISBLANK(B4), "", A3 + 1)</f>
+        <f>IF(ISBLANK(B5), "", A3 + 1)</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(C4), "",INDEX(People!$A$3:$K$1048576,MATCH(C4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Северьянова Юля</v>
+        <v>Давыдова Влада</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A68" si="0">IF(ISBLANK(B5), "", A4 + 1)</f>
+        <f>IF(ISBLANK(B7), "", A4 + 1)</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>IF(ISBLANK(C5), "",INDEX(People!$A$3:$K$1048576,MATCH(C5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Михайлов Кирилл</v>
+        <v>Северьянова Юля</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B10), "", A5 + 1)</f>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C6" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>IF(ISBLANK(C6), "",INDEX(People!$A$3:$K$1048576,MATCH(C6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Гурьев Гоша</v>
+        <v>Романенко Гриша</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B3), "", A6 + 1)</f>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>IF(ISBLANK(C7), "",INDEX(People!$A$3:$K$1048576,MATCH(C7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Гущина Маша</v>
+        <v>Михайлов Кирилл</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B8), "", A7 + 1)</f>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -10406,71 +10406,71 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B12), "", A8 + 1)</f>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C9" s="3">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>IF(ISBLANK(C9), "",INDEX(People!$A$3:$K$1048576,MATCH(C9, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Образцова Арина</v>
+        <v>Хоменко Лера</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B11), "", A9 + 1)</f>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>IF(ISBLANK(C10), "",INDEX(People!$A$3:$K$1048576,MATCH(C10, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Варзина Настя</v>
+        <v>Гурьев Гоша</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B6), "", A10 + 1)</f>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>IF(ISBLANK(C11), "",INDEX(People!$A$3:$K$1048576,MATCH(C11, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Романенко Гриша</v>
+        <v>Варзина Настя</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B9), "", A11 + 1)</f>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C12" s="3">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>IF(ISBLANK(C12), "",INDEX(People!$A$3:$K$1048576,MATCH(C12, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Хоменко Лера</v>
+        <v>Образцова Арина</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A5:A68" si="0">IF(ISBLANK(B13), "", A12 + 1)</f>
         <v/>
       </c>
       <c r="E13" s="1" t="str">
@@ -10500,7 +10500,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B16), "", A15 + 1)</f>
         <v/>
       </c>
       <c r="E16" s="1" t="str">
@@ -10519,140 +10519,84 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E18" s="1" t="str">
         <f>IF(ISBLANK(C18), "",INDEX(People!$A$3:$K$1048576,MATCH(C18, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E19" s="1" t="str">
         <f>IF(ISBLANK(C19), "",INDEX(People!$A$3:$K$1048576,MATCH(C19, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E20" s="1" t="str">
         <f>IF(ISBLANK(C20), "",INDEX(People!$A$3:$K$1048576,MATCH(C20, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E21" s="1" t="str">
         <f>IF(ISBLANK(C21), "",INDEX(People!$A$3:$K$1048576,MATCH(C21, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E22" s="1" t="str">
         <f>IF(ISBLANK(C22), "",INDEX(People!$A$3:$K$1048576,MATCH(C22, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E23" s="1" t="str">
         <f>IF(ISBLANK(C23), "",INDEX(People!$A$3:$K$1048576,MATCH(C23, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E24" s="1" t="str">
         <f>IF(ISBLANK(C24), "",INDEX(People!$A$3:$K$1048576,MATCH(C24, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E25" s="1" t="str">
         <f>IF(ISBLANK(C25), "",INDEX(People!$A$3:$K$1048576,MATCH(C25, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E26" s="1" t="str">
         <f>IF(ISBLANK(C26), "",INDEX(People!$A$3:$K$1048576,MATCH(C26, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E27" s="1" t="str">
         <f>IF(ISBLANK(C27), "",INDEX(People!$A$3:$K$1048576,MATCH(C27, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E28" s="1" t="str">
         <f>IF(ISBLANK(C28), "",INDEX(People!$A$3:$K$1048576,MATCH(C28, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E29" s="1" t="str">
         <f>IF(ISBLANK(C29), "",INDEX(People!$A$3:$K$1048576,MATCH(C29, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E30" s="1" t="str">
         <f>IF(ISBLANK(C30), "",INDEX(People!$A$3:$K$1048576,MATCH(C30, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="E31" s="1" t="str">
         <f>IF(ISBLANK(C31), "",INDEX(People!$A$3:$K$1048576,MATCH(C31, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
@@ -13771,15 +13715,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B87EE89-0CC3-44DB-BFD2-BC893EF0CD3E}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0358C182-E343-4BA4-B2A8-22F36E226049}">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>Info!B2</xm:f>
           </x14:formula2>
-          <xm:sqref>C3:C1048576</xm:sqref>
+          <xm:sqref>C11 C4:C5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBE6206E-8173-4DB9-A28A-4D679E4BB0B0}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B8</xm:f>
+          </x14:formula2>
+          <xm:sqref>C12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FF03B55-EAF8-4A3B-92C8-8241786C22BE}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B5</xm:f>
+          </x14:formula2>
+          <xm:sqref>C10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7734BEAA-98DA-4F17-B175-34A77132C2B8}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B11</xm:f>
+          </x14:formula2>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8D72E6F-724A-4A89-9B03-83472FA9E97D}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B4</xm:f>
+          </x14:formula2>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD8398F2-8906-4824-BE92-F6056B9C8F43}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B7</xm:f>
+          </x14:formula2>
+          <xm:sqref>C8 C32:C1048576 C13:C17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26EFB6ED-480F-4EEE-89BA-D1B0EE215B15}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B10</xm:f>
+          </x14:formula2>
+          <xm:sqref>C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03307CB1-D0F6-4040-B744-FF0CBD21D651}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B6</xm:f>
+          </x14:formula2>
+          <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13791,7 +13798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258A606B-917B-4336-BAD0-F77BD5A896D1}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egorvkimow/Documents/Personal/sbor-bot/resource/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225CE160-0159-4866-8737-040E08969196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2240C9-CB32-C24A-8BB3-2DDD2D75D610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="12165" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -616,6 +616,30 @@
   </si>
   <si>
     <t>Музтех</t>
+  </si>
+  <si>
+    <t>Видео</t>
+  </si>
+  <si>
+    <t>Оформление</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>Спортивная</t>
+  </si>
+  <si>
+    <t>Горнисты</t>
+  </si>
+  <si>
+    <t>Знаменная</t>
+  </si>
+  <si>
+    <t>Барабанщики</t>
+  </si>
+  <si>
+    <t>Танцевальная</t>
   </si>
 </sst>
 </file>
@@ -991,30 +1015,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M583"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="16"/>
-    <col min="6" max="6" width="10.90625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" style="7"/>
-    <col min="8" max="8" width="23.6328125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="16"/>
+    <col min="6" max="6" width="10.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="23.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="17" customWidth="1"/>
     <col min="10" max="10" width="12" style="17" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" style="7"/>
-    <col min="13" max="13" width="12.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6328125" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="10.90625" style="7"/>
+    <col min="11" max="11" width="18.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="7"/>
+    <col min="13" max="13" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>42</v>
       </c>
@@ -1031,7 +1055,7 @@
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1102,7 +1126,7 @@
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1139,7 +1163,7 @@
         <v>9111368924</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1176,7 +1200,7 @@
         <v>9532643448</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1213,7 +1237,7 @@
         <v>9111368924</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1250,7 +1274,7 @@
         <v>9111368924</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1287,7 +1311,7 @@
         <v>9111368924</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1324,7 +1348,7 @@
         <v>9111368924</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1361,7 +1385,7 @@
         <v>9111368924</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1398,7 +1422,7 @@
         <v>9115898960</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1435,7 +1459,7 @@
         <v>9115574147</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1472,7 +1496,7 @@
         <v>9539378410</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1509,7 +1533,7 @@
         <v>9111368924</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1547,7 +1571,7 @@
       </c>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1585,7 +1609,7 @@
       </c>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -1623,7 +1647,7 @@
       </c>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1661,7 +1685,7 @@
       </c>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1699,7 +1723,7 @@
       </c>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1737,7 +1761,7 @@
       </c>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -1775,7 +1799,7 @@
       </c>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1813,7 +1837,7 @@
       </c>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1851,7 +1875,7 @@
       </c>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1889,7 +1913,7 @@
       </c>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1927,7 +1951,7 @@
       </c>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -1965,7 +1989,7 @@
       </c>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -2003,7 +2027,7 @@
       </c>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -2041,7 +2065,7 @@
       </c>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -2078,7 +2102,7 @@
         <v>9095564124</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -2115,7 +2139,7 @@
         <v>9815549422</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -2152,7 +2176,7 @@
         <v>9600041442</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -2189,7 +2213,7 @@
         <v>9626620852</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -2224,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -2261,7 +2285,7 @@
         <v>9642934275</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -2298,7 +2322,7 @@
         <v>9600077240</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -2335,7 +2359,7 @@
         <v>9027080210</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -2372,7 +2396,7 @@
         <v>9115708643</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -2409,7 +2433,7 @@
         <v>9991460009</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -2446,7 +2470,7 @@
         <v>9052936055</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -2483,7 +2507,7 @@
         <v>9600079977</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -2520,7 +2544,7 @@
         <v>9027054886</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -2557,7 +2581,7 @@
         <v>9115950608</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -2594,7 +2618,7 @@
         <v>9314153251</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -2631,7 +2655,7 @@
         <v>9116573329</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -2668,7 +2692,7 @@
         <v>9116869084</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -2705,7 +2729,7 @@
         <v>9009136809</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -2742,7 +2766,7 @@
         <v>9657329507</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -2779,7 +2803,7 @@
         <v>9523040674</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -2816,7 +2840,7 @@
         <v>9522545149</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -2853,7 +2877,7 @@
         <v>9539315895</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -2890,7 +2914,7 @@
         <v>9314145713</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -2927,7 +2951,7 @@
         <v>9502506035</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -2964,7 +2988,7 @@
         <v>9210890586</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -3001,7 +3025,7 @@
         <v>9062844526</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>53</v>
       </c>
@@ -3038,7 +3062,7 @@
         <v>9009120532</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -3075,7 +3099,7 @@
         <v>9965038313</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>55</v>
       </c>
@@ -3112,7 +3136,7 @@
         <v>9212957552</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -3149,7 +3173,7 @@
         <v>9600198519</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>57</v>
       </c>
@@ -3186,7 +3210,7 @@
         <v>9502537642</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>58</v>
       </c>
@@ -3221,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -3258,7 +3282,7 @@
         <v>9021982289</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>60</v>
       </c>
@@ -3295,7 +3319,7 @@
         <v>9210787810</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>61</v>
       </c>
@@ -3332,7 +3356,7 @@
         <v>9600036043</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -3369,7 +3393,7 @@
         <v>9025073259</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -3406,7 +3430,7 @@
         <v>9626624368</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>64</v>
       </c>
@@ -3443,7 +3467,7 @@
         <v>9532677435</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>65</v>
       </c>
@@ -3480,7 +3504,7 @@
         <v>9116851539</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -3517,7 +3541,7 @@
         <v>9600007061</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -3554,7 +3578,7 @@
         <v>9118785661</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -3591,7 +3615,7 @@
         <v>9642900185</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>69</v>
       </c>
@@ -3628,7 +3652,7 @@
         <v>9600090480</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -3665,7 +3689,7 @@
         <v>9210723677</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>71</v>
       </c>
@@ -3702,7 +3726,7 @@
         <v>9532632864</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -3739,7 +3763,7 @@
         <v>9600133311</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>73</v>
       </c>
@@ -3776,7 +3800,7 @@
         <v>9115730722</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>74</v>
       </c>
@@ -3813,7 +3837,7 @@
         <v>9115667093</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>75</v>
       </c>
@@ -3850,7 +3874,7 @@
         <v>9991682955</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>76</v>
       </c>
@@ -3887,7 +3911,7 @@
         <v>9214888784</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>77</v>
       </c>
@@ -3924,7 +3948,7 @@
         <v>9539361130</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>78</v>
       </c>
@@ -3961,7 +3985,7 @@
         <v>9532649499</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>79</v>
       </c>
@@ -3998,7 +4022,7 @@
         <v>9539314404</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>80</v>
       </c>
@@ -4035,7 +4059,7 @@
         <v>9115803941</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>81</v>
       </c>
@@ -4072,7 +4096,7 @@
         <v>9210859610</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>82</v>
       </c>
@@ -4109,7 +4133,7 @@
         <v>9210815080</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>83</v>
       </c>
@@ -4146,7 +4170,7 @@
         <v>9969214573</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>84</v>
       </c>
@@ -4183,7 +4207,7 @@
         <v>9115800840</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>85</v>
       </c>
@@ -4220,7 +4244,7 @@
         <v>9969216837</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>86</v>
       </c>
@@ -4257,7 +4281,7 @@
         <v>9115724303</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>87</v>
       </c>
@@ -4294,7 +4318,7 @@
         <v>9626649990</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>88</v>
       </c>
@@ -4331,7 +4355,7 @@
         <v>9009203089</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>89</v>
       </c>
@@ -4368,7 +4392,7 @@
         <v>9022854509</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>90</v>
       </c>
@@ -4403,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>91</v>
       </c>
@@ -4440,7 +4464,7 @@
         <v>9502559803</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <v>92</v>
       </c>
@@ -4477,7 +4501,7 @@
         <v>9110581233</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
         <v>93</v>
       </c>
@@ -4514,7 +4538,7 @@
         <v>9115812807</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
         <v>94</v>
       </c>
@@ -4551,7 +4575,7 @@
         <v>9522528224</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>95</v>
       </c>
@@ -4588,7 +4612,7 @@
         <v>9116721129</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <v>96</v>
       </c>
@@ -4625,7 +4649,7 @@
         <v>9643006592</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
         <v>97</v>
       </c>
@@ -4662,7 +4686,7 @@
         <v>9027000003</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <v>98</v>
       </c>
@@ -4699,7 +4723,7 @@
         <v>9642958484</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
         <v>99</v>
       </c>
@@ -4736,7 +4760,7 @@
         <v>9642936307</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
         <v>100</v>
       </c>
@@ -4773,7 +4797,7 @@
         <v>9115994619</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -4792,7 +4816,7 @@
       </c>
       <c r="K103" s="13"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -4811,7 +4835,7 @@
       </c>
       <c r="K104" s="13"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -4830,7 +4854,7 @@
       </c>
       <c r="K105" s="13"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -4846,7 +4870,7 @@
       </c>
       <c r="K106" s="13"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -4862,7 +4886,7 @@
       </c>
       <c r="K107" s="13"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4878,7 +4902,7 @@
       </c>
       <c r="K108" s="13"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4894,7 +4918,7 @@
       </c>
       <c r="K109" s="13"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4910,7 +4934,7 @@
       </c>
       <c r="K110" s="13"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4926,7 +4950,7 @@
       </c>
       <c r="K111" s="13"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4942,7 +4966,7 @@
       </c>
       <c r="K112" s="13"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4958,7 +4982,7 @@
       </c>
       <c r="K113" s="13"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4974,7 +4998,7 @@
       </c>
       <c r="K114" s="13"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4990,7 +5014,7 @@
       </c>
       <c r="K115" s="13"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -5006,7 +5030,7 @@
       </c>
       <c r="K116" s="13"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5022,7 +5046,7 @@
       </c>
       <c r="K117" s="13"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -5038,7 +5062,7 @@
       </c>
       <c r="K118" s="13"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -5054,7 +5078,7 @@
       </c>
       <c r="K119" s="13"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -5070,7 +5094,7 @@
       </c>
       <c r="K120" s="13"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -5086,7 +5110,7 @@
       </c>
       <c r="K121" s="13"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -5102,7 +5126,7 @@
       </c>
       <c r="K122" s="13"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -5118,7 +5142,7 @@
       </c>
       <c r="K123" s="13"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -5134,7 +5158,7 @@
       </c>
       <c r="K124" s="13"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -5150,7 +5174,7 @@
       </c>
       <c r="K125" s="13"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -5166,7 +5190,7 @@
       </c>
       <c r="K126" s="13"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -5182,7 +5206,7 @@
       </c>
       <c r="K127" s="13"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -5198,7 +5222,7 @@
       </c>
       <c r="K128" s="13"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -5214,7 +5238,7 @@
       </c>
       <c r="K129" s="13"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -5230,7 +5254,7 @@
       </c>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -5246,7 +5270,7 @@
       </c>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -5262,7 +5286,7 @@
       </c>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -5278,7 +5302,7 @@
       </c>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -5294,7 +5318,7 @@
       </c>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="10"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -5310,7 +5334,7 @@
       </c>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="10"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -5326,7 +5350,7 @@
       </c>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -5342,7 +5366,7 @@
       </c>
       <c r="K137" s="12"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -5358,7 +5382,7 @@
       </c>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="10"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -5374,7 +5398,7 @@
       </c>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="10"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -5390,7 +5414,7 @@
       </c>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -5406,7 +5430,7 @@
       </c>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -5422,7 +5446,7 @@
       </c>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -5438,7 +5462,7 @@
       </c>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -5454,7 +5478,7 @@
       </c>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -5470,7 +5494,7 @@
       </c>
       <c r="K145" s="12"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -5486,7 +5510,7 @@
       </c>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -5502,7 +5526,7 @@
       </c>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -5518,7 +5542,7 @@
       </c>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -5534,7 +5558,7 @@
       </c>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -5550,7 +5574,7 @@
       </c>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="10"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -5566,7 +5590,7 @@
       </c>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -5582,7 +5606,7 @@
       </c>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -5598,7 +5622,7 @@
       </c>
       <c r="K153" s="12"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -5614,7 +5638,7 @@
       </c>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -5630,7 +5654,7 @@
       </c>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -5646,7 +5670,7 @@
       </c>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -5662,7 +5686,7 @@
       </c>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -5678,7 +5702,7 @@
       </c>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -5694,7 +5718,7 @@
       </c>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -5710,7 +5734,7 @@
       </c>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -5726,7 +5750,7 @@
       </c>
       <c r="K161" s="12"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -5742,7 +5766,7 @@
       </c>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -5758,7 +5782,7 @@
       </c>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -5774,7 +5798,7 @@
       </c>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -5790,7 +5814,7 @@
       </c>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -5806,7 +5830,7 @@
       </c>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -5822,7 +5846,7 @@
       </c>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -5838,7 +5862,7 @@
       </c>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -5854,7 +5878,7 @@
       </c>
       <c r="K169" s="12"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -5870,7 +5894,7 @@
       </c>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -5886,7 +5910,7 @@
       </c>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -5902,7 +5926,7 @@
       </c>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -5918,7 +5942,7 @@
       </c>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -5934,7 +5958,7 @@
       </c>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -5950,7 +5974,7 @@
       </c>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -5966,7 +5990,7 @@
       </c>
       <c r="K176" s="12"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -5982,7 +6006,7 @@
       </c>
       <c r="K177" s="12"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -5998,7 +6022,7 @@
       </c>
       <c r="K178" s="12"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="10"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -6014,7 +6038,7 @@
       </c>
       <c r="K179" s="12"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -6030,7 +6054,7 @@
       </c>
       <c r="K180" s="12"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -6046,7 +6070,7 @@
       </c>
       <c r="K181" s="12"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -6062,7 +6086,7 @@
       </c>
       <c r="K182" s="12"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="10"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -6078,7 +6102,7 @@
       </c>
       <c r="K183" s="12"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -6094,7 +6118,7 @@
       </c>
       <c r="K184" s="12"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -6110,7 +6134,7 @@
       </c>
       <c r="K185" s="12"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -6126,7 +6150,7 @@
       </c>
       <c r="K186" s="12"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -6142,7 +6166,7 @@
       </c>
       <c r="K187" s="12"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -6158,7 +6182,7 @@
       </c>
       <c r="K188" s="12"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -6174,7 +6198,7 @@
       </c>
       <c r="K189" s="12"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -6190,7 +6214,7 @@
       </c>
       <c r="K190" s="12"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -6206,7 +6230,7 @@
       </c>
       <c r="K191" s="12"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -6222,7 +6246,7 @@
       </c>
       <c r="K192" s="12"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -6238,7 +6262,7 @@
       </c>
       <c r="K193" s="12"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -6254,7 +6278,7 @@
       </c>
       <c r="K194" s="12"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="10"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -6270,7 +6294,7 @@
       </c>
       <c r="K195" s="12"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -6286,7 +6310,7 @@
       </c>
       <c r="K196" s="12"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="10"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -6302,7 +6326,7 @@
       </c>
       <c r="K197" s="12"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -6321,7 +6345,7 @@
       </c>
       <c r="K198" s="12"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -6337,7 +6361,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="12"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -6353,7 +6377,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="12"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -6369,7 +6393,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="12"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="10"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -6385,7 +6409,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="12"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="10"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -6401,7 +6425,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="12"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="10"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -6417,7 +6441,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="12"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -6433,7 +6457,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="12"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -6449,7 +6473,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="12"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -6465,7 +6489,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="12"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -6481,7 +6505,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="12"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="10"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -6497,7 +6521,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="12"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="10"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -6513,7 +6537,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="12"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -6529,7 +6553,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="12"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -6545,7 +6569,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="12"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -6561,7 +6585,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="12"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -6577,7 +6601,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="12"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -6593,7 +6617,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="12"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -6609,629 +6633,629 @@
       <c r="J216" s="11"/>
       <c r="K216" s="12"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E217" s="16" t="str">
         <f>IF(ISBLANK(F217), "",INDEX(Squads!A$3:B$1048576,MATCH(F217, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I217" s="8"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E218" s="16" t="str">
         <f>IF(ISBLANK(F218), "",INDEX(Squads!A$3:B$1048576,MATCH(F218, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I218" s="8"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E219" s="16" t="str">
         <f>IF(ISBLANK(F219), "",INDEX(Squads!A$3:B$1048576,MATCH(F219, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I219" s="8"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E220" s="16" t="str">
         <f>IF(ISBLANK(F220), "",INDEX(Squads!A$3:B$1048576,MATCH(F220, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I220" s="8"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E221" s="16" t="str">
         <f>IF(ISBLANK(F221), "",INDEX(Squads!A$3:B$1048576,MATCH(F221, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I221" s="8"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E222" s="16" t="str">
         <f>IF(ISBLANK(F222), "",INDEX(Squads!A$3:B$1048576,MATCH(F222, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I222" s="8"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E223" s="16" t="str">
         <f>IF(ISBLANK(F223), "",INDEX(Squads!A$3:B$1048576,MATCH(F223, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I223" s="8"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E224" s="16" t="str">
         <f>IF(ISBLANK(F224), "",INDEX(Squads!A$3:B$1048576,MATCH(F224, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I224" s="8"/>
     </row>
-    <row r="225" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E225" s="16" t="str">
         <f>IF(ISBLANK(F225), "",INDEX(Squads!A$3:B$1048576,MATCH(F225, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I225" s="8"/>
     </row>
-    <row r="226" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E226" s="16" t="str">
         <f>IF(ISBLANK(F226), "",INDEX(Squads!A$3:B$1048576,MATCH(F226, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I226" s="8"/>
     </row>
-    <row r="227" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E227" s="16" t="str">
         <f>IF(ISBLANK(F227), "",INDEX(Squads!A$3:B$1048576,MATCH(F227, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I227" s="8"/>
     </row>
-    <row r="228" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E228" s="16" t="str">
         <f>IF(ISBLANK(F228), "",INDEX(Squads!A$3:B$1048576,MATCH(F228, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I228" s="8"/>
     </row>
-    <row r="229" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E229" s="16" t="str">
         <f>IF(ISBLANK(F229), "",INDEX(Squads!A$3:B$1048576,MATCH(F229, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I229" s="8"/>
     </row>
-    <row r="230" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E230" s="16" t="str">
         <f>IF(ISBLANK(F230), "",INDEX(Squads!A$3:B$1048576,MATCH(F230, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I230" s="8"/>
     </row>
-    <row r="231" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E231" s="16" t="str">
         <f>IF(ISBLANK(F231), "",INDEX(Squads!A$3:B$1048576,MATCH(F231, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I231" s="8"/>
     </row>
-    <row r="232" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E232" s="16" t="str">
         <f>IF(ISBLANK(F232), "",INDEX(Squads!A$3:B$1048576,MATCH(F232, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I232" s="8"/>
     </row>
-    <row r="233" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E233" s="16" t="str">
         <f>IF(ISBLANK(F233), "",INDEX(Squads!A$3:B$1048576,MATCH(F233, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I233" s="8"/>
     </row>
-    <row r="234" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E234" s="16" t="str">
         <f>IF(ISBLANK(F234), "",INDEX(Squads!A$3:B$1048576,MATCH(F234, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I234" s="8"/>
     </row>
-    <row r="235" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E235" s="16" t="str">
         <f>IF(ISBLANK(F235), "",INDEX(Squads!A$3:B$1048576,MATCH(F235, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I235" s="8"/>
     </row>
-    <row r="236" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E236" s="16" t="str">
         <f>IF(ISBLANK(F236), "",INDEX(Squads!A$3:B$1048576,MATCH(F236, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I236" s="8"/>
     </row>
-    <row r="237" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E237" s="16" t="str">
         <f>IF(ISBLANK(F237), "",INDEX(Squads!A$3:B$1048576,MATCH(F237, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I237" s="8"/>
     </row>
-    <row r="238" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E238" s="16" t="str">
         <f>IF(ISBLANK(F238), "",INDEX(Squads!A$3:B$1048576,MATCH(F238, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I238" s="8"/>
     </row>
-    <row r="239" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E239" s="16" t="str">
         <f>IF(ISBLANK(F239), "",INDEX(Squads!A$3:B$1048576,MATCH(F239, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I239" s="8"/>
     </row>
-    <row r="240" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E240" s="16" t="str">
         <f>IF(ISBLANK(F240), "",INDEX(Squads!A$3:B$1048576,MATCH(F240, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I240" s="8"/>
     </row>
-    <row r="241" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E241" s="16" t="str">
         <f>IF(ISBLANK(F241), "",INDEX(Squads!A$3:B$1048576,MATCH(F241, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I241" s="8"/>
     </row>
-    <row r="242" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E242" s="16" t="str">
         <f>IF(ISBLANK(F242), "",INDEX(Squads!A$3:B$1048576,MATCH(F242, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I242" s="8"/>
     </row>
-    <row r="243" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E243" s="16" t="str">
         <f>IF(ISBLANK(F243), "",INDEX(Squads!A$3:B$1048576,MATCH(F243, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I243" s="8"/>
     </row>
-    <row r="244" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E244" s="16" t="str">
         <f>IF(ISBLANK(F244), "",INDEX(Squads!A$3:B$1048576,MATCH(F244, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I244" s="8"/>
     </row>
-    <row r="245" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E245" s="16" t="str">
         <f>IF(ISBLANK(F245), "",INDEX(Squads!A$3:B$1048576,MATCH(F245, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I245" s="8"/>
     </row>
-    <row r="246" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E246" s="16" t="str">
         <f>IF(ISBLANK(F246), "",INDEX(Squads!A$3:B$1048576,MATCH(F246, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I246" s="8"/>
     </row>
-    <row r="247" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E247" s="16" t="str">
         <f>IF(ISBLANK(F247), "",INDEX(Squads!A$3:B$1048576,MATCH(F247, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I247" s="8"/>
     </row>
-    <row r="248" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E248" s="16" t="str">
         <f>IF(ISBLANK(F248), "",INDEX(Squads!A$3:B$1048576,MATCH(F248, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I248" s="8"/>
     </row>
-    <row r="249" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E249" s="16" t="str">
         <f>IF(ISBLANK(F249), "",INDEX(Squads!A$3:B$1048576,MATCH(F249, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I249" s="8"/>
     </row>
-    <row r="250" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E250" s="16" t="str">
         <f>IF(ISBLANK(F250), "",INDEX(Squads!A$3:B$1048576,MATCH(F250, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I250" s="8"/>
     </row>
-    <row r="251" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E251" s="16" t="str">
         <f>IF(ISBLANK(F251), "",INDEX(Squads!A$3:B$1048576,MATCH(F251, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I251" s="8"/>
     </row>
-    <row r="252" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E252" s="16" t="str">
         <f>IF(ISBLANK(F252), "",INDEX(Squads!A$3:B$1048576,MATCH(F252, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I252" s="8"/>
     </row>
-    <row r="253" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E253" s="16" t="str">
         <f>IF(ISBLANK(F253), "",INDEX(Squads!A$3:B$1048576,MATCH(F253, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I253" s="8"/>
     </row>
-    <row r="254" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E254" s="16" t="str">
         <f>IF(ISBLANK(F254), "",INDEX(Squads!A$3:B$1048576,MATCH(F254, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I254" s="8"/>
     </row>
-    <row r="255" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E255" s="16" t="str">
         <f>IF(ISBLANK(F255), "",INDEX(Squads!A$3:B$1048576,MATCH(F255, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I255" s="8"/>
     </row>
-    <row r="256" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E256" s="16" t="str">
         <f>IF(ISBLANK(F256), "",INDEX(Squads!A$3:B$1048576,MATCH(F256, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I256" s="8"/>
     </row>
-    <row r="257" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E257" s="16" t="str">
         <f>IF(ISBLANK(F257), "",INDEX(Squads!A$3:B$1048576,MATCH(F257, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I257" s="8"/>
     </row>
-    <row r="258" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E258" s="16" t="str">
         <f>IF(ISBLANK(F258), "",INDEX(Squads!A$3:B$1048576,MATCH(F258, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I258" s="8"/>
     </row>
-    <row r="259" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E259" s="16" t="str">
         <f>IF(ISBLANK(F259), "",INDEX(Squads!A$3:B$1048576,MATCH(F259, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I259" s="8"/>
     </row>
-    <row r="260" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E260" s="16" t="str">
         <f>IF(ISBLANK(F260), "",INDEX(Squads!A$3:B$1048576,MATCH(F260, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I260" s="8"/>
     </row>
-    <row r="261" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E261" s="16" t="str">
         <f>IF(ISBLANK(F261), "",INDEX(Squads!A$3:B$1048576,MATCH(F261, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I261" s="8"/>
     </row>
-    <row r="262" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E262" s="16" t="str">
         <f>IF(ISBLANK(F262), "",INDEX(Squads!A$3:B$1048576,MATCH(F262, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I262" s="8"/>
     </row>
-    <row r="263" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E263" s="16" t="str">
         <f>IF(ISBLANK(F263), "",INDEX(Squads!A$3:B$1048576,MATCH(F263, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I263" s="8"/>
     </row>
-    <row r="264" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E264" s="16" t="str">
         <f>IF(ISBLANK(F264), "",INDEX(Squads!A$3:B$1048576,MATCH(F264, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I264" s="8"/>
     </row>
-    <row r="265" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E265" s="16" t="str">
         <f>IF(ISBLANK(F265), "",INDEX(Squads!A$3:B$1048576,MATCH(F265, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I265" s="8"/>
     </row>
-    <row r="266" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E266" s="16" t="str">
         <f>IF(ISBLANK(F266), "",INDEX(Squads!A$3:B$1048576,MATCH(F266, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I266" s="8"/>
     </row>
-    <row r="267" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E267" s="16" t="str">
         <f>IF(ISBLANK(F267), "",INDEX(Squads!A$3:B$1048576,MATCH(F267, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I267" s="8"/>
     </row>
-    <row r="268" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E268" s="16" t="str">
         <f>IF(ISBLANK(F268), "",INDEX(Squads!A$3:B$1048576,MATCH(F268, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I268" s="8"/>
     </row>
-    <row r="269" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E269" s="16" t="str">
         <f>IF(ISBLANK(F269), "",INDEX(Squads!A$3:B$1048576,MATCH(F269, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I269" s="8"/>
     </row>
-    <row r="270" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E270" s="16" t="str">
         <f>IF(ISBLANK(F270), "",INDEX(Squads!A$3:B$1048576,MATCH(F270, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I270" s="8"/>
     </row>
-    <row r="271" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E271" s="16" t="str">
         <f>IF(ISBLANK(F271), "",INDEX(Squads!A$3:B$1048576,MATCH(F271, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I271" s="8"/>
     </row>
-    <row r="272" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E272" s="16" t="str">
         <f>IF(ISBLANK(F272), "",INDEX(Squads!A$3:B$1048576,MATCH(F272, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I272" s="8"/>
     </row>
-    <row r="273" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E273" s="16" t="str">
         <f>IF(ISBLANK(F273), "",INDEX(Squads!A$3:B$1048576,MATCH(F273, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I273" s="8"/>
     </row>
-    <row r="274" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E274" s="16" t="str">
         <f>IF(ISBLANK(F274), "",INDEX(Squads!A$3:B$1048576,MATCH(F274, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I274" s="8"/>
     </row>
-    <row r="275" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E275" s="16" t="str">
         <f>IF(ISBLANK(F275), "",INDEX(Squads!A$3:B$1048576,MATCH(F275, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I275" s="8"/>
     </row>
-    <row r="276" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E276" s="16" t="str">
         <f>IF(ISBLANK(F276), "",INDEX(Squads!A$3:B$1048576,MATCH(F276, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I276" s="8"/>
     </row>
-    <row r="277" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E277" s="16" t="str">
         <f>IF(ISBLANK(F277), "",INDEX(Squads!A$3:B$1048576,MATCH(F277, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I277" s="8"/>
     </row>
-    <row r="278" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E278" s="16" t="str">
         <f>IF(ISBLANK(F278), "",INDEX(Squads!A$3:B$1048576,MATCH(F278, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I278" s="8"/>
     </row>
-    <row r="279" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E279" s="16" t="str">
         <f>IF(ISBLANK(F279), "",INDEX(Squads!A$3:B$1048576,MATCH(F279, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I279" s="8"/>
     </row>
-    <row r="280" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E280" s="16" t="str">
         <f>IF(ISBLANK(F280), "",INDEX(Squads!A$3:B$1048576,MATCH(F280, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I280" s="8"/>
     </row>
-    <row r="281" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E281" s="16" t="str">
         <f>IF(ISBLANK(F281), "",INDEX(Squads!A$3:B$1048576,MATCH(F281, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I281" s="8"/>
     </row>
-    <row r="282" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E282" s="16" t="str">
         <f>IF(ISBLANK(F282), "",INDEX(Squads!A$3:B$1048576,MATCH(F282, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I282" s="8"/>
     </row>
-    <row r="283" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E283" s="16" t="str">
         <f>IF(ISBLANK(F283), "",INDEX(Squads!A$3:B$1048576,MATCH(F283, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I283" s="8"/>
     </row>
-    <row r="284" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E284" s="16" t="str">
         <f>IF(ISBLANK(F284), "",INDEX(Squads!A$3:B$1048576,MATCH(F284, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I284" s="8"/>
     </row>
-    <row r="285" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E285" s="16" t="str">
         <f>IF(ISBLANK(F285), "",INDEX(Squads!A$3:B$1048576,MATCH(F285, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I285" s="8"/>
     </row>
-    <row r="286" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E286" s="16" t="str">
         <f>IF(ISBLANK(F286), "",INDEX(Squads!A$3:B$1048576,MATCH(F286, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I286" s="8"/>
     </row>
-    <row r="287" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E287" s="16" t="str">
         <f>IF(ISBLANK(F287), "",INDEX(Squads!A$3:B$1048576,MATCH(F287, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I287" s="8"/>
     </row>
-    <row r="288" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E288" s="16" t="str">
         <f>IF(ISBLANK(F288), "",INDEX(Squads!A$3:B$1048576,MATCH(F288, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I288" s="8"/>
     </row>
-    <row r="289" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E289" s="16" t="str">
         <f>IF(ISBLANK(F289), "",INDEX(Squads!A$3:B$1048576,MATCH(F289, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I289" s="8"/>
     </row>
-    <row r="290" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E290" s="16" t="str">
         <f>IF(ISBLANK(F290), "",INDEX(Squads!A$3:B$1048576,MATCH(F290, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I290" s="8"/>
     </row>
-    <row r="291" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E291" s="16" t="str">
         <f>IF(ISBLANK(F291), "",INDEX(Squads!A$3:B$1048576,MATCH(F291, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I291" s="8"/>
     </row>
-    <row r="292" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E292" s="16" t="str">
         <f>IF(ISBLANK(F292), "",INDEX(Squads!A$3:B$1048576,MATCH(F292, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I292" s="8"/>
     </row>
-    <row r="293" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E293" s="16" t="str">
         <f>IF(ISBLANK(F293), "",INDEX(Squads!A$3:B$1048576,MATCH(F293, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I293" s="8"/>
     </row>
-    <row r="294" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E294" s="16" t="str">
         <f>IF(ISBLANK(F294), "",INDEX(Squads!A$3:B$1048576,MATCH(F294, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I294" s="8"/>
     </row>
-    <row r="295" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E295" s="16" t="str">
         <f>IF(ISBLANK(F295), "",INDEX(Squads!A$3:B$1048576,MATCH(F295, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I295" s="8"/>
     </row>
-    <row r="296" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E296" s="16" t="str">
         <f>IF(ISBLANK(F296), "",INDEX(Squads!A$3:B$1048576,MATCH(F296, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I296" s="8"/>
     </row>
-    <row r="297" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E297" s="16" t="str">
         <f>IF(ISBLANK(F297), "",INDEX(Squads!A$3:B$1048576,MATCH(F297, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I297" s="8"/>
     </row>
-    <row r="298" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E298" s="16" t="str">
         <f>IF(ISBLANK(F298), "",INDEX(Squads!A$3:B$1048576,MATCH(F298, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I298" s="8"/>
     </row>
-    <row r="299" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E299" s="16" t="str">
         <f>IF(ISBLANK(F299), "",INDEX(Squads!A$3:B$1048576,MATCH(F299, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="300" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E300" s="16" t="str">
         <f>IF(ISBLANK(F300), "",INDEX(Squads!A$3:B$1048576,MATCH(F300, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="301" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E301" s="16" t="str">
         <f>IF(ISBLANK(F301), "",INDEX(Squads!A$3:B$1048576,MATCH(F301, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="302" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E302" s="16" t="str">
         <f>IF(ISBLANK(F302), "",INDEX(Squads!A$3:B$1048576,MATCH(F302, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="303" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E303" s="16" t="str">
         <f>IF(ISBLANK(F303), "",INDEX(Squads!A$3:B$1048576,MATCH(F303, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="304" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E304" s="16" t="str">
         <f>IF(ISBLANK(F304), "",INDEX(Squads!A$3:B$1048576,MATCH(F304, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E305" s="16" t="str">
         <f>IF(ISBLANK(F305), "",INDEX(Squads!A$3:B$1048576,MATCH(F305, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E306" s="16" t="str">
         <f>IF(ISBLANK(F306), "",INDEX(Squads!A$3:B$1048576,MATCH(F306, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E307" s="16" t="str">
         <f>IF(ISBLANK(F307), "",INDEX(Squads!A$3:B$1048576,MATCH(F307, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7241,7 +7265,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E308" s="16" t="str">
         <f>IF(ISBLANK(F308), "",INDEX(Squads!A$3:B$1048576,MATCH(F308, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7251,7 +7275,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E309" s="16" t="str">
         <f>IF(ISBLANK(F309), "",INDEX(Squads!A$3:B$1048576,MATCH(F309, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7261,7 +7285,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E310" s="16" t="str">
         <f>IF(ISBLANK(F310), "",INDEX(Squads!A$3:B$1048576,MATCH(F310, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7271,7 +7295,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E311" s="16" t="str">
         <f>IF(ISBLANK(F311), "",INDEX(Squads!A$3:B$1048576,MATCH(F311, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7281,7 +7305,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E312" s="16" t="str">
         <f>IF(ISBLANK(F312), "",INDEX(Squads!A$3:B$1048576,MATCH(F312, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7291,7 +7315,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E313" s="16" t="str">
         <f>IF(ISBLANK(F313), "",INDEX(Squads!A$3:B$1048576,MATCH(F313, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7301,7 +7325,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E314" s="16" t="str">
         <f>IF(ISBLANK(F314), "",INDEX(Squads!A$3:B$1048576,MATCH(F314, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7311,7 +7335,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E315" s="16" t="str">
         <f>IF(ISBLANK(F315), "",INDEX(Squads!A$3:B$1048576,MATCH(F315, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7321,7 +7345,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E316" s="16" t="str">
         <f>IF(ISBLANK(F316), "",INDEX(Squads!A$3:B$1048576,MATCH(F316, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7331,7 +7355,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E317" s="16" t="str">
         <f>IF(ISBLANK(F317), "",INDEX(Squads!A$3:B$1048576,MATCH(F317, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7341,7 +7365,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E318" s="16" t="str">
         <f>IF(ISBLANK(F318), "",INDEX(Squads!A$3:B$1048576,MATCH(F318, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7351,7 +7375,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E319" s="16" t="str">
         <f>IF(ISBLANK(F319), "",INDEX(Squads!A$3:B$1048576,MATCH(F319, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7361,7 +7385,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E320" s="16" t="str">
         <f>IF(ISBLANK(F320), "",INDEX(Squads!A$3:B$1048576,MATCH(F320, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7371,7 +7395,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E321" s="16" t="str">
         <f>IF(ISBLANK(F321), "",INDEX(Squads!A$3:B$1048576,MATCH(F321, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7381,7 +7405,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E322" s="16" t="str">
         <f>IF(ISBLANK(F322), "",INDEX(Squads!A$3:B$1048576,MATCH(F322, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7391,7 +7415,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E323" s="16" t="str">
         <f>IF(ISBLANK(F323), "",INDEX(Squads!A$3:B$1048576,MATCH(F323, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7401,7 +7425,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E324" s="16" t="str">
         <f>IF(ISBLANK(F324), "",INDEX(Squads!A$3:B$1048576,MATCH(F324, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7411,7 +7435,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E325" s="16" t="str">
         <f>IF(ISBLANK(F325), "",INDEX(Squads!A$3:B$1048576,MATCH(F325, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7421,7 +7445,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E326" s="16" t="str">
         <f>IF(ISBLANK(F326), "",INDEX(Squads!A$3:B$1048576,MATCH(F326, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7431,7 +7455,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E327" s="16" t="str">
         <f>IF(ISBLANK(F327), "",INDEX(Squads!A$3:B$1048576,MATCH(F327, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7441,7 +7465,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E328" s="16" t="str">
         <f>IF(ISBLANK(F328), "",INDEX(Squads!A$3:B$1048576,MATCH(F328, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7451,7 +7475,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E329" s="16" t="str">
         <f>IF(ISBLANK(F329), "",INDEX(Squads!A$3:B$1048576,MATCH(F329, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7461,7 +7485,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E330" s="16" t="str">
         <f>IF(ISBLANK(F330), "",INDEX(Squads!A$3:B$1048576,MATCH(F330, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7471,7 +7495,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E331" s="16" t="str">
         <f>IF(ISBLANK(F331), "",INDEX(Squads!A$3:B$1048576,MATCH(F331, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7481,7 +7505,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E332" s="16" t="str">
         <f>IF(ISBLANK(F332), "",INDEX(Squads!A$3:B$1048576,MATCH(F332, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7491,7 +7515,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E333" s="16" t="str">
         <f>IF(ISBLANK(F333), "",INDEX(Squads!A$3:B$1048576,MATCH(F333, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7501,7 +7525,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E334" s="16" t="str">
         <f>IF(ISBLANK(F334), "",INDEX(Squads!A$3:B$1048576,MATCH(F334, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7511,7 +7535,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E335" s="16" t="str">
         <f>IF(ISBLANK(F335), "",INDEX(Squads!A$3:B$1048576,MATCH(F335, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7521,7 +7545,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E336" s="16" t="str">
         <f>IF(ISBLANK(F336), "",INDEX(Squads!A$3:B$1048576,MATCH(F336, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7531,7 +7555,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E337" s="16" t="str">
         <f>IF(ISBLANK(F337), "",INDEX(Squads!A$3:B$1048576,MATCH(F337, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7541,7 +7565,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E338" s="16" t="str">
         <f>IF(ISBLANK(F338), "",INDEX(Squads!A$3:B$1048576,MATCH(F338, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7551,7 +7575,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E339" s="16" t="str">
         <f>IF(ISBLANK(F339), "",INDEX(Squads!A$3:B$1048576,MATCH(F339, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7561,7 +7585,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E340" s="16" t="str">
         <f>IF(ISBLANK(F340), "",INDEX(Squads!A$3:B$1048576,MATCH(F340, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7571,7 +7595,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E341" s="16" t="str">
         <f>IF(ISBLANK(F341), "",INDEX(Squads!A$3:B$1048576,MATCH(F341, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7581,7 +7605,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E342" s="16" t="str">
         <f>IF(ISBLANK(F342), "",INDEX(Squads!A$3:B$1048576,MATCH(F342, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7591,7 +7615,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E343" s="16" t="str">
         <f>IF(ISBLANK(F343), "",INDEX(Squads!A$3:B$1048576,MATCH(F343, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7601,7 +7625,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E344" s="16" t="str">
         <f>IF(ISBLANK(F344), "",INDEX(Squads!A$3:B$1048576,MATCH(F344, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7611,7 +7635,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E345" s="16" t="str">
         <f>IF(ISBLANK(F345), "",INDEX(Squads!A$3:B$1048576,MATCH(F345, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7621,7 +7645,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E346" s="16" t="str">
         <f>IF(ISBLANK(F346), "",INDEX(Squads!A$3:B$1048576,MATCH(F346, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7631,7 +7655,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E347" s="16" t="str">
         <f>IF(ISBLANK(F347), "",INDEX(Squads!A$3:B$1048576,MATCH(F347, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7641,7 +7665,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E348" s="16" t="str">
         <f>IF(ISBLANK(F348), "",INDEX(Squads!A$3:B$1048576,MATCH(F348, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7651,7 +7675,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E349" s="16" t="str">
         <f>IF(ISBLANK(F349), "",INDEX(Squads!A$3:B$1048576,MATCH(F349, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7661,7 +7685,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E350" s="16" t="str">
         <f>IF(ISBLANK(F350), "",INDEX(Squads!A$3:B$1048576,MATCH(F350, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7671,7 +7695,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E351" s="16" t="str">
         <f>IF(ISBLANK(F351), "",INDEX(Squads!A$3:B$1048576,MATCH(F351, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7681,7 +7705,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E352" s="16" t="str">
         <f>IF(ISBLANK(F352), "",INDEX(Squads!A$3:B$1048576,MATCH(F352, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7691,7 +7715,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E353" s="16" t="str">
         <f>IF(ISBLANK(F353), "",INDEX(Squads!A$3:B$1048576,MATCH(F353, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7701,7 +7725,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E354" s="16" t="str">
         <f>IF(ISBLANK(F354), "",INDEX(Squads!A$3:B$1048576,MATCH(F354, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7711,7 +7735,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E355" s="16" t="str">
         <f>IF(ISBLANK(F355), "",INDEX(Squads!A$3:B$1048576,MATCH(F355, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7721,7 +7745,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E356" s="16" t="str">
         <f>IF(ISBLANK(F356), "",INDEX(Squads!A$3:B$1048576,MATCH(F356, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7731,7 +7755,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E357" s="16" t="str">
         <f>IF(ISBLANK(F357), "",INDEX(Squads!A$3:B$1048576,MATCH(F357, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7741,7 +7765,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E358" s="16" t="str">
         <f>IF(ISBLANK(F358), "",INDEX(Squads!A$3:B$1048576,MATCH(F358, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7751,7 +7775,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E359" s="16" t="str">
         <f>IF(ISBLANK(F359), "",INDEX(Squads!A$3:B$1048576,MATCH(F359, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7761,7 +7785,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E360" s="16" t="str">
         <f>IF(ISBLANK(F360), "",INDEX(Squads!A$3:B$1048576,MATCH(F360, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7771,7 +7795,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E361" s="16" t="str">
         <f>IF(ISBLANK(F361), "",INDEX(Squads!A$3:B$1048576,MATCH(F361, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7781,7 +7805,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E362" s="16" t="str">
         <f>IF(ISBLANK(F362), "",INDEX(Squads!A$3:B$1048576,MATCH(F362, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7791,7 +7815,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E363" s="16" t="str">
         <f>IF(ISBLANK(F363), "",INDEX(Squads!A$3:B$1048576,MATCH(F363, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7801,7 +7825,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E364" s="16" t="str">
         <f>IF(ISBLANK(F364), "",INDEX(Squads!A$3:B$1048576,MATCH(F364, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7811,7 +7835,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E365" s="16" t="str">
         <f>IF(ISBLANK(F365), "",INDEX(Squads!A$3:B$1048576,MATCH(F365, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7821,7 +7845,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E366" s="16" t="str">
         <f>IF(ISBLANK(F366), "",INDEX(Squads!A$3:B$1048576,MATCH(F366, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7831,7 +7855,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E367" s="16" t="str">
         <f>IF(ISBLANK(F367), "",INDEX(Squads!A$3:B$1048576,MATCH(F367, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7841,7 +7865,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E368" s="16" t="str">
         <f>IF(ISBLANK(F368), "",INDEX(Squads!A$3:B$1048576,MATCH(F368, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7851,7 +7875,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E369" s="16" t="str">
         <f>IF(ISBLANK(F369), "",INDEX(Squads!A$3:B$1048576,MATCH(F369, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7861,7 +7885,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E370" s="16" t="str">
         <f>IF(ISBLANK(F370), "",INDEX(Squads!A$3:B$1048576,MATCH(F370, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7871,7 +7895,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E371" s="16" t="str">
         <f>IF(ISBLANK(F371), "",INDEX(Squads!A$3:B$1048576,MATCH(F371, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7881,7 +7905,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E372" s="16" t="str">
         <f>IF(ISBLANK(F372), "",INDEX(Squads!A$3:B$1048576,MATCH(F372, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7891,7 +7915,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E373" s="16" t="str">
         <f>IF(ISBLANK(F373), "",INDEX(Squads!A$3:B$1048576,MATCH(F373, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7901,7 +7925,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E374" s="16" t="str">
         <f>IF(ISBLANK(F374), "",INDEX(Squads!A$3:B$1048576,MATCH(F374, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7911,7 +7935,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E375" s="16" t="str">
         <f>IF(ISBLANK(F375), "",INDEX(Squads!A$3:B$1048576,MATCH(F375, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7921,7 +7945,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E376" s="16" t="str">
         <f>IF(ISBLANK(F376), "",INDEX(Squads!A$3:B$1048576,MATCH(F376, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7931,7 +7955,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E377" s="16" t="str">
         <f>IF(ISBLANK(F377), "",INDEX(Squads!A$3:B$1048576,MATCH(F377, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7941,7 +7965,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E378" s="16" t="str">
         <f>IF(ISBLANK(F378), "",INDEX(Squads!A$3:B$1048576,MATCH(F378, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7951,7 +7975,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E379" s="16" t="str">
         <f>IF(ISBLANK(F379), "",INDEX(Squads!A$3:B$1048576,MATCH(F379, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7961,7 +7985,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E380" s="16" t="str">
         <f>IF(ISBLANK(F380), "",INDEX(Squads!A$3:B$1048576,MATCH(F380, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7971,7 +7995,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E381" s="16" t="str">
         <f>IF(ISBLANK(F381), "",INDEX(Squads!A$3:B$1048576,MATCH(F381, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7981,7 +8005,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E382" s="16" t="str">
         <f>IF(ISBLANK(F382), "",INDEX(Squads!A$3:B$1048576,MATCH(F382, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7991,7 +8015,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E383" s="16" t="str">
         <f>IF(ISBLANK(F383), "",INDEX(Squads!A$3:B$1048576,MATCH(F383, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8001,7 +8025,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E384" s="16" t="str">
         <f>IF(ISBLANK(F384), "",INDEX(Squads!A$3:B$1048576,MATCH(F384, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8011,7 +8035,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E385" s="16" t="str">
         <f>IF(ISBLANK(F385), "",INDEX(Squads!A$3:B$1048576,MATCH(F385, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8021,7 +8045,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E386" s="16" t="str">
         <f>IF(ISBLANK(F386), "",INDEX(Squads!A$3:B$1048576,MATCH(F386, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8031,7 +8055,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E387" s="16" t="str">
         <f>IF(ISBLANK(F387), "",INDEX(Squads!A$3:B$1048576,MATCH(F387, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8041,7 +8065,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E388" s="16" t="str">
         <f>IF(ISBLANK(F388), "",INDEX(Squads!A$3:B$1048576,MATCH(F388, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8051,7 +8075,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E389" s="16" t="str">
         <f>IF(ISBLANK(F389), "",INDEX(Squads!A$3:B$1048576,MATCH(F389, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8061,7 +8085,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E390" s="16" t="str">
         <f>IF(ISBLANK(F390), "",INDEX(Squads!A$3:B$1048576,MATCH(F390, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8071,7 +8095,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E391" s="16" t="str">
         <f>IF(ISBLANK(F391), "",INDEX(Squads!A$3:B$1048576,MATCH(F391, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8081,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E392" s="16" t="str">
         <f>IF(ISBLANK(F392), "",INDEX(Squads!A$3:B$1048576,MATCH(F392, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8091,7 +8115,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E393" s="16" t="str">
         <f>IF(ISBLANK(F393), "",INDEX(Squads!A$3:B$1048576,MATCH(F393, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8101,7 +8125,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E394" s="16" t="str">
         <f>IF(ISBLANK(F394), "",INDEX(Squads!A$3:B$1048576,MATCH(F394, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8111,7 +8135,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E395" s="16" t="str">
         <f>IF(ISBLANK(F395), "",INDEX(Squads!A$3:B$1048576,MATCH(F395, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8121,7 +8145,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E396" s="16" t="str">
         <f>IF(ISBLANK(F396), "",INDEX(Squads!A$3:B$1048576,MATCH(F396, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8131,7 +8155,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E397" s="16" t="str">
         <f>IF(ISBLANK(F397), "",INDEX(Squads!A$3:B$1048576,MATCH(F397, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8141,7 +8165,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E398" s="16" t="str">
         <f>IF(ISBLANK(F398), "",INDEX(Squads!A$3:B$1048576,MATCH(F398, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8151,7 +8175,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E399" s="16" t="str">
         <f>IF(ISBLANK(F399), "",INDEX(Squads!A$3:B$1048576,MATCH(F399, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8161,7 +8185,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E400" s="16" t="str">
         <f>IF(ISBLANK(F400), "",INDEX(Squads!A$3:B$1048576,MATCH(F400, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8171,7 +8195,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E401" s="16" t="str">
         <f>IF(ISBLANK(F401), "",INDEX(Squads!A$3:B$1048576,MATCH(F401, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8181,7 +8205,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E402" s="16" t="str">
         <f>IF(ISBLANK(F402), "",INDEX(Squads!A$3:B$1048576,MATCH(F402, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8191,7 +8215,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E403" s="16" t="str">
         <f>IF(ISBLANK(F403), "",INDEX(Squads!A$3:B$1048576,MATCH(F403, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8201,7 +8225,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E404" s="16" t="str">
         <f>IF(ISBLANK(F404), "",INDEX(Squads!A$3:B$1048576,MATCH(F404, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8211,7 +8235,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E405" s="16" t="str">
         <f>IF(ISBLANK(F405), "",INDEX(Squads!A$3:B$1048576,MATCH(F405, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8221,7 +8245,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E406" s="16" t="str">
         <f>IF(ISBLANK(F406), "",INDEX(Squads!A$3:B$1048576,MATCH(F406, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8231,7 +8255,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E407" s="16" t="str">
         <f>IF(ISBLANK(F407), "",INDEX(Squads!A$3:B$1048576,MATCH(F407, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8241,7 +8265,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E408" s="16" t="str">
         <f>IF(ISBLANK(F408), "",INDEX(Squads!A$3:B$1048576,MATCH(F408, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8251,7 +8275,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E409" s="16" t="str">
         <f>IF(ISBLANK(F409), "",INDEX(Squads!A$3:B$1048576,MATCH(F409, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8261,7 +8285,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E410" s="16" t="str">
         <f>IF(ISBLANK(F410), "",INDEX(Squads!A$3:B$1048576,MATCH(F410, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8271,7 +8295,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E411" s="16" t="str">
         <f>IF(ISBLANK(F411), "",INDEX(Squads!A$3:B$1048576,MATCH(F411, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8281,7 +8305,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E412" s="16" t="str">
         <f>IF(ISBLANK(F412), "",INDEX(Squads!A$3:B$1048576,MATCH(F412, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8291,7 +8315,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E413" s="16" t="str">
         <f>IF(ISBLANK(F413), "",INDEX(Squads!A$3:B$1048576,MATCH(F413, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8301,7 +8325,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E414" s="16" t="str">
         <f>IF(ISBLANK(F414), "",INDEX(Squads!A$3:B$1048576,MATCH(F414, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8311,7 +8335,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E415" s="16" t="str">
         <f>IF(ISBLANK(F415), "",INDEX(Squads!A$3:B$1048576,MATCH(F415, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8321,7 +8345,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E416" s="16" t="str">
         <f>IF(ISBLANK(F416), "",INDEX(Squads!A$3:B$1048576,MATCH(F416, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8331,7 +8355,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E417" s="16" t="str">
         <f>IF(ISBLANK(F417), "",INDEX(Squads!A$3:B$1048576,MATCH(F417, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8341,7 +8365,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E418" s="16" t="str">
         <f>IF(ISBLANK(F418), "",INDEX(Squads!A$3:B$1048576,MATCH(F418, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8351,7 +8375,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E419" s="16" t="str">
         <f>IF(ISBLANK(F419), "",INDEX(Squads!A$3:B$1048576,MATCH(F419, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8361,7 +8385,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E420" s="16" t="str">
         <f>IF(ISBLANK(F420), "",INDEX(Squads!A$3:B$1048576,MATCH(F420, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8371,7 +8395,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E421" s="16" t="str">
         <f>IF(ISBLANK(F421), "",INDEX(Squads!A$3:B$1048576,MATCH(F421, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8381,7 +8405,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E422" s="16" t="str">
         <f>IF(ISBLANK(F422), "",INDEX(Squads!A$3:B$1048576,MATCH(F422, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8391,7 +8415,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E423" s="16" t="str">
         <f>IF(ISBLANK(F423), "",INDEX(Squads!A$3:B$1048576,MATCH(F423, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8401,7 +8425,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E424" s="16" t="str">
         <f>IF(ISBLANK(F424), "",INDEX(Squads!A$3:B$1048576,MATCH(F424, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8411,7 +8435,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E425" s="16" t="str">
         <f>IF(ISBLANK(F425), "",INDEX(Squads!A$3:B$1048576,MATCH(F425, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8421,7 +8445,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E426" s="16" t="str">
         <f>IF(ISBLANK(F426), "",INDEX(Squads!A$3:B$1048576,MATCH(F426, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8431,7 +8455,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E427" s="16" t="str">
         <f>IF(ISBLANK(F427), "",INDEX(Squads!A$3:B$1048576,MATCH(F427, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8441,7 +8465,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E428" s="16" t="str">
         <f>IF(ISBLANK(F428), "",INDEX(Squads!A$3:B$1048576,MATCH(F428, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8451,7 +8475,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E429" s="16" t="str">
         <f>IF(ISBLANK(F429), "",INDEX(Squads!A$3:B$1048576,MATCH(F429, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8461,7 +8485,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E430" s="16" t="str">
         <f>IF(ISBLANK(F430), "",INDEX(Squads!A$3:B$1048576,MATCH(F430, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8471,7 +8495,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E431" s="16" t="str">
         <f>IF(ISBLANK(F431), "",INDEX(Squads!A$3:B$1048576,MATCH(F431, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8481,7 +8505,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E432" s="16" t="str">
         <f>IF(ISBLANK(F432), "",INDEX(Squads!A$3:B$1048576,MATCH(F432, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8491,7 +8515,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E433" s="16" t="str">
         <f>IF(ISBLANK(F433), "",INDEX(Squads!A$3:B$1048576,MATCH(F433, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8501,7 +8525,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E434" s="16" t="str">
         <f>IF(ISBLANK(F434), "",INDEX(Squads!A$3:B$1048576,MATCH(F434, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8511,7 +8535,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E435" s="16" t="str">
         <f>IF(ISBLANK(F435), "",INDEX(Squads!A$3:B$1048576,MATCH(F435, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8521,7 +8545,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E436" s="16" t="str">
         <f>IF(ISBLANK(F436), "",INDEX(Squads!A$3:B$1048576,MATCH(F436, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8531,7 +8555,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E437" s="16" t="str">
         <f>IF(ISBLANK(F437), "",INDEX(Squads!A$3:B$1048576,MATCH(F437, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8541,7 +8565,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E438" s="16" t="str">
         <f>IF(ISBLANK(F438), "",INDEX(Squads!A$3:B$1048576,MATCH(F438, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8551,7 +8575,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E439" s="16" t="str">
         <f>IF(ISBLANK(F439), "",INDEX(Squads!A$3:B$1048576,MATCH(F439, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8561,7 +8585,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E440" s="16" t="str">
         <f>IF(ISBLANK(F440), "",INDEX(Squads!A$3:B$1048576,MATCH(F440, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8571,7 +8595,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E441" s="16" t="str">
         <f>IF(ISBLANK(F441), "",INDEX(Squads!A$3:B$1048576,MATCH(F441, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8581,7 +8605,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E442" s="16" t="str">
         <f>IF(ISBLANK(F442), "",INDEX(Squads!A$3:B$1048576,MATCH(F442, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8591,7 +8615,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E443" s="16" t="str">
         <f>IF(ISBLANK(F443), "",INDEX(Squads!A$3:B$1048576,MATCH(F443, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8601,7 +8625,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E444" s="16" t="str">
         <f>IF(ISBLANK(F444), "",INDEX(Squads!A$3:B$1048576,MATCH(F444, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8611,7 +8635,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E445" s="16" t="str">
         <f>IF(ISBLANK(F445), "",INDEX(Squads!A$3:B$1048576,MATCH(F445, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8621,7 +8645,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E446" s="16" t="str">
         <f>IF(ISBLANK(F446), "",INDEX(Squads!A$3:B$1048576,MATCH(F446, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8631,7 +8655,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E447" s="16" t="str">
         <f>IF(ISBLANK(F447), "",INDEX(Squads!A$3:B$1048576,MATCH(F447, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8641,7 +8665,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E448" s="16" t="str">
         <f>IF(ISBLANK(F448), "",INDEX(Squads!A$3:B$1048576,MATCH(F448, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8651,7 +8675,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E449" s="16" t="str">
         <f>IF(ISBLANK(F449), "",INDEX(Squads!A$3:B$1048576,MATCH(F449, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8661,7 +8685,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E450" s="16" t="str">
         <f>IF(ISBLANK(F450), "",INDEX(Squads!A$3:B$1048576,MATCH(F450, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8671,7 +8695,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E451" s="16" t="str">
         <f>IF(ISBLANK(F451), "",INDEX(Squads!A$3:B$1048576,MATCH(F451, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8681,7 +8705,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E452" s="16" t="str">
         <f>IF(ISBLANK(F452), "",INDEX(Squads!A$3:B$1048576,MATCH(F452, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8691,7 +8715,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E453" s="16" t="str">
         <f>IF(ISBLANK(F453), "",INDEX(Squads!A$3:B$1048576,MATCH(F453, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8701,7 +8725,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E454" s="16" t="str">
         <f>IF(ISBLANK(F454), "",INDEX(Squads!A$3:B$1048576,MATCH(F454, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8711,7 +8735,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E455" s="16" t="str">
         <f>IF(ISBLANK(F455), "",INDEX(Squads!A$3:B$1048576,MATCH(F455, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8721,7 +8745,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E456" s="16" t="str">
         <f>IF(ISBLANK(F456), "",INDEX(Squads!A$3:B$1048576,MATCH(F456, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8731,7 +8755,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E457" s="16" t="str">
         <f>IF(ISBLANK(F457), "",INDEX(Squads!A$3:B$1048576,MATCH(F457, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8741,7 +8765,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E458" s="16" t="str">
         <f>IF(ISBLANK(F458), "",INDEX(Squads!A$3:B$1048576,MATCH(F458, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8751,7 +8775,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E459" s="16" t="str">
         <f>IF(ISBLANK(F459), "",INDEX(Squads!A$3:B$1048576,MATCH(F459, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8761,7 +8785,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E460" s="16" t="str">
         <f>IF(ISBLANK(F460), "",INDEX(Squads!A$3:B$1048576,MATCH(F460, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8771,7 +8795,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E461" s="16" t="str">
         <f>IF(ISBLANK(F461), "",INDEX(Squads!A$3:B$1048576,MATCH(F461, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8781,7 +8805,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E462" s="16" t="str">
         <f>IF(ISBLANK(F462), "",INDEX(Squads!A$3:B$1048576,MATCH(F462, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8791,7 +8815,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E463" s="16" t="str">
         <f>IF(ISBLANK(F463), "",INDEX(Squads!A$3:B$1048576,MATCH(F463, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8801,7 +8825,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E464" s="16" t="str">
         <f>IF(ISBLANK(F464), "",INDEX(Squads!A$3:B$1048576,MATCH(F464, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8811,7 +8835,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E465" s="16" t="str">
         <f>IF(ISBLANK(F465), "",INDEX(Squads!A$3:B$1048576,MATCH(F465, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8821,7 +8845,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E466" s="16" t="str">
         <f>IF(ISBLANK(F466), "",INDEX(Squads!A$3:B$1048576,MATCH(F466, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8831,7 +8855,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E467" s="16" t="str">
         <f>IF(ISBLANK(F467), "",INDEX(Squads!A$3:B$1048576,MATCH(F467, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8841,7 +8865,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="468" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E468" s="16" t="str">
         <f>IF(ISBLANK(F468), "",INDEX(Squads!A$3:B$1048576,MATCH(F468, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8851,7 +8875,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="469" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E469" s="16" t="str">
         <f>IF(ISBLANK(F469), "",INDEX(Squads!A$3:B$1048576,MATCH(F469, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8861,7 +8885,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="470" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E470" s="16" t="str">
         <f>IF(ISBLANK(F470), "",INDEX(Squads!A$3:B$1048576,MATCH(F470, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8871,7 +8895,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E471" s="16" t="str">
         <f>IF(ISBLANK(F471), "",INDEX(Squads!A$3:B$1048576,MATCH(F471, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8881,7 +8905,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E472" s="16" t="str">
         <f>IF(ISBLANK(F472), "",INDEX(Squads!A$3:B$1048576,MATCH(F472, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8891,7 +8915,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="473" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E473" s="16" t="str">
         <f>IF(ISBLANK(F473), "",INDEX(Squads!A$3:B$1048576,MATCH(F473, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8901,7 +8925,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="474" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E474" s="16" t="str">
         <f>IF(ISBLANK(F474), "",INDEX(Squads!A$3:B$1048576,MATCH(F474, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8911,7 +8935,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="475" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E475" s="16" t="str">
         <f>IF(ISBLANK(F475), "",INDEX(Squads!A$3:B$1048576,MATCH(F475, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8921,7 +8945,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E476" s="16" t="str">
         <f>IF(ISBLANK(F476), "",INDEX(Squads!A$3:B$1048576,MATCH(F476, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8931,7 +8955,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="477" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E477" s="16" t="str">
         <f>IF(ISBLANK(F477), "",INDEX(Squads!A$3:B$1048576,MATCH(F477, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8941,7 +8965,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="478" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E478" s="16" t="str">
         <f>IF(ISBLANK(F478), "",INDEX(Squads!A$3:B$1048576,MATCH(F478, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8951,7 +8975,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E479" s="16" t="str">
         <f>IF(ISBLANK(F479), "",INDEX(Squads!A$3:B$1048576,MATCH(F479, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8961,7 +8985,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E480" s="16" t="str">
         <f>IF(ISBLANK(F480), "",INDEX(Squads!A$3:B$1048576,MATCH(F480, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8971,7 +8995,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E481" s="16" t="str">
         <f>IF(ISBLANK(F481), "",INDEX(Squads!A$3:B$1048576,MATCH(F481, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8981,7 +9005,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E482" s="16" t="str">
         <f>IF(ISBLANK(F482), "",INDEX(Squads!A$3:B$1048576,MATCH(F482, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8991,7 +9015,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E483" s="16" t="str">
         <f>IF(ISBLANK(F483), "",INDEX(Squads!A$3:B$1048576,MATCH(F483, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9001,7 +9025,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E484" s="16" t="str">
         <f>IF(ISBLANK(F484), "",INDEX(Squads!A$3:B$1048576,MATCH(F484, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9011,7 +9035,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E485" s="16" t="str">
         <f>IF(ISBLANK(F485), "",INDEX(Squads!A$3:B$1048576,MATCH(F485, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9021,7 +9045,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="486" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E486" s="16" t="str">
         <f>IF(ISBLANK(F486), "",INDEX(Squads!A$3:B$1048576,MATCH(F486, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9031,7 +9055,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E487" s="16" t="str">
         <f>IF(ISBLANK(F487), "",INDEX(Squads!A$3:B$1048576,MATCH(F487, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9041,7 +9065,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E488" s="16" t="str">
         <f>IF(ISBLANK(F488), "",INDEX(Squads!A$3:B$1048576,MATCH(F488, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9051,7 +9075,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E489" s="16" t="str">
         <f>IF(ISBLANK(F489), "",INDEX(Squads!A$3:B$1048576,MATCH(F489, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9061,7 +9085,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E490" s="16" t="str">
         <f>IF(ISBLANK(F490), "",INDEX(Squads!A$3:B$1048576,MATCH(F490, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9071,7 +9095,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="491" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E491" s="16" t="str">
         <f>IF(ISBLANK(F491), "",INDEX(Squads!A$3:B$1048576,MATCH(F491, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9081,7 +9105,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="492" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E492" s="16" t="str">
         <f>IF(ISBLANK(F492), "",INDEX(Squads!A$3:B$1048576,MATCH(F492, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9091,7 +9115,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="493" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E493" s="16" t="str">
         <f>IF(ISBLANK(F493), "",INDEX(Squads!A$3:B$1048576,MATCH(F493, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9101,7 +9125,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E494" s="16" t="str">
         <f>IF(ISBLANK(F494), "",INDEX(Squads!A$3:B$1048576,MATCH(F494, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9111,7 +9135,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E495" s="16" t="str">
         <f>IF(ISBLANK(F495), "",INDEX(Squads!A$3:B$1048576,MATCH(F495, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9121,7 +9145,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E496" s="16" t="str">
         <f>IF(ISBLANK(F496), "",INDEX(Squads!A$3:B$1048576,MATCH(F496, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9131,7 +9155,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E497" s="16" t="str">
         <f>IF(ISBLANK(F497), "",INDEX(Squads!A$3:B$1048576,MATCH(F497, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9141,7 +9165,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E498" s="16" t="str">
         <f>IF(ISBLANK(F498), "",INDEX(Squads!A$3:B$1048576,MATCH(F498, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9151,7 +9175,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E499" s="16" t="str">
         <f>IF(ISBLANK(F499), "",INDEX(Squads!A$3:B$1048576,MATCH(F499, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9161,7 +9185,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E500" s="16" t="str">
         <f>IF(ISBLANK(F500), "",INDEX(Squads!A$3:B$1048576,MATCH(F500, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9171,7 +9195,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E501" s="16" t="str">
         <f>IF(ISBLANK(F501), "",INDEX(Squads!A$3:B$1048576,MATCH(F501, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9181,7 +9205,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E502" s="16" t="str">
         <f>IF(ISBLANK(F502), "",INDEX(Squads!A$3:B$1048576,MATCH(F502, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9191,7 +9215,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E503" s="16" t="str">
         <f>IF(ISBLANK(F503), "",INDEX(Squads!A$3:B$1048576,MATCH(F503, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9201,7 +9225,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E504" s="16" t="str">
         <f>IF(ISBLANK(F504), "",INDEX(Squads!A$3:B$1048576,MATCH(F504, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9211,7 +9235,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E505" s="16" t="str">
         <f>IF(ISBLANK(F505), "",INDEX(Squads!A$3:B$1048576,MATCH(F505, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9221,7 +9245,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E506" s="16" t="str">
         <f>IF(ISBLANK(F506), "",INDEX(Squads!A$3:B$1048576,MATCH(F506, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9231,7 +9255,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E507" s="16" t="str">
         <f>IF(ISBLANK(F507), "",INDEX(Squads!A$3:B$1048576,MATCH(F507, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9241,7 +9265,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E508" s="16" t="str">
         <f>IF(ISBLANK(F508), "",INDEX(Squads!A$3:B$1048576,MATCH(F508, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9251,7 +9275,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E509" s="16" t="str">
         <f>IF(ISBLANK(F509), "",INDEX(Squads!A$3:B$1048576,MATCH(F509, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9261,7 +9285,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E510" s="16" t="str">
         <f>IF(ISBLANK(F510), "",INDEX(Squads!A$3:B$1048576,MATCH(F510, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9271,7 +9295,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E511" s="16" t="str">
         <f>IF(ISBLANK(F511), "",INDEX(Squads!A$3:B$1048576,MATCH(F511, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9281,7 +9305,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E512" s="16" t="str">
         <f>IF(ISBLANK(F512), "",INDEX(Squads!A$3:B$1048576,MATCH(F512, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9291,7 +9315,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E513" s="16" t="str">
         <f>IF(ISBLANK(F513), "",INDEX(Squads!A$3:B$1048576,MATCH(F513, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9301,7 +9325,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E514" s="16" t="str">
         <f>IF(ISBLANK(F514), "",INDEX(Squads!A$3:B$1048576,MATCH(F514, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9311,7 +9335,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E515" s="16" t="str">
         <f>IF(ISBLANK(F515), "",INDEX(Squads!A$3:B$1048576,MATCH(F515, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9321,7 +9345,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E516" s="16" t="str">
         <f>IF(ISBLANK(F516), "",INDEX(Squads!A$3:B$1048576,MATCH(F516, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9331,7 +9355,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E517" s="16" t="str">
         <f>IF(ISBLANK(F517), "",INDEX(Squads!A$3:B$1048576,MATCH(F517, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9341,7 +9365,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E518" s="16" t="str">
         <f>IF(ISBLANK(F518), "",INDEX(Squads!A$3:B$1048576,MATCH(F518, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9351,7 +9375,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E519" s="16" t="str">
         <f>IF(ISBLANK(F519), "",INDEX(Squads!A$3:B$1048576,MATCH(F519, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9361,7 +9385,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="520" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E520" s="16" t="str">
         <f>IF(ISBLANK(F520), "",INDEX(Squads!A$3:B$1048576,MATCH(F520, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9371,7 +9395,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="521" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E521" s="16" t="str">
         <f>IF(ISBLANK(F521), "",INDEX(Squads!A$3:B$1048576,MATCH(F521, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9381,7 +9405,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="522" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E522" s="16" t="str">
         <f>IF(ISBLANK(F522), "",INDEX(Squads!A$3:B$1048576,MATCH(F522, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9391,7 +9415,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E523" s="16" t="str">
         <f>IF(ISBLANK(F523), "",INDEX(Squads!A$3:B$1048576,MATCH(F523, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9401,7 +9425,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E524" s="16" t="str">
         <f>IF(ISBLANK(F524), "",INDEX(Squads!A$3:B$1048576,MATCH(F524, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9411,7 +9435,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E525" s="16" t="str">
         <f>IF(ISBLANK(F525), "",INDEX(Squads!A$3:B$1048576,MATCH(F525, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9421,7 +9445,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E526" s="16" t="str">
         <f>IF(ISBLANK(F526), "",INDEX(Squads!A$3:B$1048576,MATCH(F526, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9431,7 +9455,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="527" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E527" s="16" t="str">
         <f>IF(ISBLANK(F527), "",INDEX(Squads!A$3:B$1048576,MATCH(F527, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9441,7 +9465,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E528" s="16" t="str">
         <f>IF(ISBLANK(F528), "",INDEX(Squads!A$3:B$1048576,MATCH(F528, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9451,7 +9475,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E529" s="16" t="str">
         <f>IF(ISBLANK(F529), "",INDEX(Squads!A$3:B$1048576,MATCH(F529, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9461,7 +9485,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E530" s="16" t="str">
         <f>IF(ISBLANK(F530), "",INDEX(Squads!A$3:B$1048576,MATCH(F530, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9471,7 +9495,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E531" s="16" t="str">
         <f>IF(ISBLANK(F531), "",INDEX(Squads!A$3:B$1048576,MATCH(F531, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9481,7 +9505,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E532" s="16" t="str">
         <f>IF(ISBLANK(F532), "",INDEX(Squads!A$3:B$1048576,MATCH(F532, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9491,7 +9515,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E533" s="16" t="str">
         <f>IF(ISBLANK(F533), "",INDEX(Squads!A$3:B$1048576,MATCH(F533, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9501,7 +9525,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E534" s="16" t="str">
         <f>IF(ISBLANK(F534), "",INDEX(Squads!A$3:B$1048576,MATCH(F534, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9511,7 +9535,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E535" s="16" t="str">
         <f>IF(ISBLANK(F535), "",INDEX(Squads!A$3:B$1048576,MATCH(F535, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9521,7 +9545,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E536" s="16" t="str">
         <f>IF(ISBLANK(F536), "",INDEX(Squads!A$3:B$1048576,MATCH(F536, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9531,7 +9555,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E537" s="16" t="str">
         <f>IF(ISBLANK(F537), "",INDEX(Squads!A$3:B$1048576,MATCH(F537, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9541,7 +9565,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E538" s="16" t="str">
         <f>IF(ISBLANK(F538), "",INDEX(Squads!A$3:B$1048576,MATCH(F538, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9551,7 +9575,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E539" s="16" t="str">
         <f>IF(ISBLANK(F539), "",INDEX(Squads!A$3:B$1048576,MATCH(F539, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9561,7 +9585,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E540" s="16" t="str">
         <f>IF(ISBLANK(F540), "",INDEX(Squads!A$3:B$1048576,MATCH(F540, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9571,7 +9595,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E541" s="16" t="str">
         <f>IF(ISBLANK(F541), "",INDEX(Squads!A$3:B$1048576,MATCH(F541, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9581,7 +9605,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E542" s="16" t="str">
         <f>IF(ISBLANK(F542), "",INDEX(Squads!A$3:B$1048576,MATCH(F542, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9591,7 +9615,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E543" s="16" t="str">
         <f>IF(ISBLANK(F543), "",INDEX(Squads!A$3:B$1048576,MATCH(F543, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9601,7 +9625,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="544" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E544" s="16" t="str">
         <f>IF(ISBLANK(F544), "",INDEX(Squads!A$3:B$1048576,MATCH(F544, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9611,7 +9635,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="545" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E545" s="16" t="str">
         <f>IF(ISBLANK(F545), "",INDEX(Squads!A$3:B$1048576,MATCH(F545, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9621,7 +9645,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E546" s="16" t="str">
         <f>IF(ISBLANK(F546), "",INDEX(Squads!A$3:B$1048576,MATCH(F546, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9631,7 +9655,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="547" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E547" s="16" t="str">
         <f>IF(ISBLANK(F547), "",INDEX(Squads!A$3:B$1048576,MATCH(F547, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9641,7 +9665,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E548" s="16" t="str">
         <f>IF(ISBLANK(F548), "",INDEX(Squads!A$3:B$1048576,MATCH(F548, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9651,7 +9675,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E549" s="16" t="str">
         <f>IF(ISBLANK(F549), "",INDEX(Squads!A$3:B$1048576,MATCH(F549, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9661,7 +9685,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E550" s="16" t="str">
         <f>IF(ISBLANK(F550), "",INDEX(Squads!A$3:B$1048576,MATCH(F550, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9671,7 +9695,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E551" s="16" t="str">
         <f>IF(ISBLANK(F551), "",INDEX(Squads!A$3:B$1048576,MATCH(F551, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9681,7 +9705,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="552" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E552" s="16" t="str">
         <f>IF(ISBLANK(F552), "",INDEX(Squads!A$3:B$1048576,MATCH(F552, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9691,7 +9715,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E553" s="16" t="str">
         <f>IF(ISBLANK(F553), "",INDEX(Squads!A$3:B$1048576,MATCH(F553, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9701,7 +9725,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E554" s="16" t="str">
         <f>IF(ISBLANK(F554), "",INDEX(Squads!A$3:B$1048576,MATCH(F554, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9711,7 +9735,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="555" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E555" s="16" t="str">
         <f>IF(ISBLANK(F555), "",INDEX(Squads!A$3:B$1048576,MATCH(F555, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9721,7 +9745,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="556" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E556" s="16" t="str">
         <f>IF(ISBLANK(F556), "",INDEX(Squads!A$3:B$1048576,MATCH(F556, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9731,7 +9755,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="557" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E557" s="16" t="str">
         <f>IF(ISBLANK(F557), "",INDEX(Squads!A$3:B$1048576,MATCH(F557, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9741,7 +9765,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="558" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E558" s="16" t="str">
         <f>IF(ISBLANK(F558), "",INDEX(Squads!A$3:B$1048576,MATCH(F558, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9751,7 +9775,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="559" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E559" s="16" t="str">
         <f>IF(ISBLANK(F559), "",INDEX(Squads!A$3:B$1048576,MATCH(F559, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9761,7 +9785,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="560" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E560" s="16" t="str">
         <f>IF(ISBLANK(F560), "",INDEX(Squads!A$3:B$1048576,MATCH(F560, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9771,7 +9795,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="561" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E561" s="16" t="str">
         <f>IF(ISBLANK(F561), "",INDEX(Squads!A$3:B$1048576,MATCH(F561, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9781,7 +9805,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="562" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E562" s="16" t="str">
         <f>IF(ISBLANK(F562), "",INDEX(Squads!A$3:B$1048576,MATCH(F562, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9791,7 +9815,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="563" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E563" s="16" t="str">
         <f>IF(ISBLANK(F563), "",INDEX(Squads!A$3:B$1048576,MATCH(F563, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9801,7 +9825,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="564" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E564" s="16" t="str">
         <f>IF(ISBLANK(F564), "",INDEX(Squads!A$3:B$1048576,MATCH(F564, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9811,7 +9835,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="565" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E565" s="16" t="str">
         <f>IF(ISBLANK(F565), "",INDEX(Squads!A$3:B$1048576,MATCH(F565, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9821,7 +9845,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="566" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E566" s="16" t="str">
         <f>IF(ISBLANK(F566), "",INDEX(Squads!A$3:B$1048576,MATCH(F566, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9831,7 +9855,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="567" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E567" s="16" t="str">
         <f>IF(ISBLANK(F567), "",INDEX(Squads!A$3:B$1048576,MATCH(F567, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9841,7 +9865,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="568" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E568" s="16" t="str">
         <f>IF(ISBLANK(F568), "",INDEX(Squads!A$3:B$1048576,MATCH(F568, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9851,7 +9875,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="569" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E569" s="16" t="str">
         <f>IF(ISBLANK(F569), "",INDEX(Squads!A$3:B$1048576,MATCH(F569, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9861,7 +9885,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="570" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E570" s="16" t="str">
         <f>IF(ISBLANK(F570), "",INDEX(Squads!A$3:B$1048576,MATCH(F570, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9871,7 +9895,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="571" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E571" s="16" t="str">
         <f>IF(ISBLANK(F571), "",INDEX(Squads!A$3:B$1048576,MATCH(F571, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9881,7 +9905,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="572" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E572" s="16" t="str">
         <f>IF(ISBLANK(F572), "",INDEX(Squads!A$3:B$1048576,MATCH(F572, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9891,7 +9915,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="573" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E573" s="16" t="str">
         <f>IF(ISBLANK(F573), "",INDEX(Squads!A$3:B$1048576,MATCH(F573, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9901,7 +9925,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="574" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E574" s="16" t="str">
         <f>IF(ISBLANK(F574), "",INDEX(Squads!A$3:B$1048576,MATCH(F574, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9911,7 +9935,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="575" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E575" s="16" t="str">
         <f>IF(ISBLANK(F575), "",INDEX(Squads!A$3:B$1048576,MATCH(F575, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9921,7 +9945,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="576" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E576" s="16" t="str">
         <f>IF(ISBLANK(F576), "",INDEX(Squads!A$3:B$1048576,MATCH(F576, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9931,7 +9955,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="577" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E577" s="16" t="str">
         <f>IF(ISBLANK(F577), "",INDEX(Squads!A$3:B$1048576,MATCH(F577, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9941,37 +9965,37 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="578" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E578" s="16" t="str">
         <f>IF(ISBLANK(F578), "",INDEX(Squads!A$3:B$1048576,MATCH(F578, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="579" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="579" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E579" s="16" t="str">
         <f>IF(ISBLANK(F579), "",INDEX(Squads!A$3:B$1048576,MATCH(F579, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="580" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="580" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E580" s="16" t="str">
         <f>IF(ISBLANK(F580), "",INDEX(Squads!A$3:B$1048576,MATCH(F580, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="581" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="581" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E581" s="16" t="str">
         <f>IF(ISBLANK(F581), "",INDEX(Squads!A$3:B$1048576,MATCH(F581, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="582" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="582" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E582" s="16" t="str">
         <f>IF(ISBLANK(F582), "",INDEX(Squads!A$3:B$1048576,MATCH(F582, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="583" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="583" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E583" s="16" t="str">
         <f>IF(ISBLANK(F583), "",INDEX(Squads!A$3:B$1048576,MATCH(F583, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -10025,19 +10049,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="22"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10045,7 +10069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10053,7 +10077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -10077,18 +10101,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -10113,16 +10137,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>42</v>
       </c>
@@ -10135,7 +10159,7 @@
       </c>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10156,7 +10180,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10178,7 +10202,7 @@
         <v>Олексюк Полина</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -10200,7 +10224,7 @@
         <v>Мурзин Илья</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -10222,7 +10246,7 @@
         <v>Боговая Лиза</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -10273,19 +10297,19 @@
   <dimension ref="A1:E540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="18.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
@@ -10295,7 +10319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10309,7 +10333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10324,7 +10348,7 @@
         <v>Гущина Маша</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f>IF(ISBLANK(B5), "", A3 + 1)</f>
         <v>2</v>
@@ -10340,7 +10364,7 @@
         <v>Давыдова Влада</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f>IF(ISBLANK(B7), "", A4 + 1)</f>
         <v>3</v>
@@ -10356,23 +10380,20 @@
         <v>Северьянова Юля</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f>IF(ISBLANK(B10), "", A5 + 1)</f>
+        <f>IF(ISBLANK(B8), "", A5 + 1)</f>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
       <c r="E6" s="1" t="str">
         <f>IF(ISBLANK(C6), "",INDEX(People!$A$3:$K$1048576,MATCH(C6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Романенко Гриша</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f>IF(ISBLANK(B3), "", A6 + 1)</f>
         <v>5</v>
@@ -10388,323 +10409,262 @@
         <v>Михайлов Кирилл</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>IF(ISBLANK(B8), "", A7 + 1)</f>
+        <f>IF(ISBLANK(B12), "", A7 + 1)</f>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="3">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>IF(ISBLANK(C8), "",INDEX(People!$A$3:$K$1048576,MATCH(C8, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Ульянова Саша</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Гурьев Гоша</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>IF(ISBLANK(B12), "", A8 + 1)</f>
+        <f>IF(ISBLANK(B11), "", A8 + 1)</f>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C9" s="3">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>IF(ISBLANK(C9), "",INDEX(People!$A$3:$K$1048576,MATCH(C9, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Хоменко Лера</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Савинкина Лиза</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>IF(ISBLANK(B11), "", A9 + 1)</f>
+        <f>IF(ISBLANK(B10), "", A9 + 1)</f>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C10" s="3">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>IF(ISBLANK(C10), "",INDEX(People!$A$3:$K$1048576,MATCH(C10, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Гурьев Гоша</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Варзина Настя</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f>IF(ISBLANK(B6), "", A10 + 1)</f>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="3">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>IF(ISBLANK(C11), "",INDEX(People!$A$3:$K$1048576,MATCH(C11, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Варзина Настя</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Образцова Арина</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f>IF(ISBLANK(B9), "", A11 + 1)</f>
+        <f>IF(ISBLANK(B20), "", A11 + 1)</f>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="3">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>IF(ISBLANK(C12), "",INDEX(People!$A$3:$K$1048576,MATCH(C12, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Образцова Арина</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="str">
-        <f t="shared" ref="A5:A68" si="0">IF(ISBLANK(B13), "", A12 + 1)</f>
-        <v/>
+        <v>Ульянова Саша</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <f>IF(ISBLANK(B19), "", A12 + 1)</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>IF(ISBLANK(C13), "",INDEX(People!$A$3:$K$1048576,MATCH(C13, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>Гущина Маша</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <f>IF(ISBLANK(B9), "", A13 + 1)</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="3">
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>IF(ISBLANK(C14), "",INDEX(People!$A$3:$K$1048576,MATCH(C14, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>Олехова Настя</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <f>IF(ISBLANK(B18), "", A14 + 1)</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="3">
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>IF(ISBLANK(C15), "",INDEX(People!$A$3:$K$1048576,MATCH(C15, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="str">
+        <v>Евтушенко Юля</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <f>IF(ISBLANK(B16), "", A15 + 1)</f>
-        <v/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="3">
+        <v>85</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>IF(ISBLANK(C16), "",INDEX(People!$A$3:$K$1048576,MATCH(C16, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>Юрьев Кирилл</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <f>IF(ISBLANK(B14), "", A16 + 1)</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="3">
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>IF(ISBLANK(C17), "",INDEX(People!$A$3:$K$1048576,MATCH(C17, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Архипова Лера</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <f>IF(ISBLANK(B13), "", A17 + 1)</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="3">
+        <v>92</v>
+      </c>
       <c r="E18" s="1" t="str">
         <f>IF(ISBLANK(C18), "",INDEX(People!$A$3:$K$1048576,MATCH(C18, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Коротова Ангелина</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <f>IF(ISBLANK(B15), "", A18 + 1)</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="3">
+        <v>63</v>
+      </c>
       <c r="E19" s="1" t="str">
         <f>IF(ISBLANK(C19), "",INDEX(People!$A$3:$K$1048576,MATCH(C19, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>Кескюль Лина</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <f>IF(ISBLANK(B17), "", A19 + 1)</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E20" s="1" t="str">
         <f>IF(ISBLANK(C20), "",INDEX(People!$A$3:$K$1048576,MATCH(C20, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E21" s="1" t="str">
-        <f>IF(ISBLANK(C21), "",INDEX(People!$A$3:$K$1048576,MATCH(C21, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E22" s="1" t="str">
-        <f>IF(ISBLANK(C22), "",INDEX(People!$A$3:$K$1048576,MATCH(C22, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E23" s="1" t="str">
-        <f>IF(ISBLANK(C23), "",INDEX(People!$A$3:$K$1048576,MATCH(C23, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E24" s="1" t="str">
-        <f>IF(ISBLANK(C24), "",INDEX(People!$A$3:$K$1048576,MATCH(C24, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E25" s="1" t="str">
-        <f>IF(ISBLANK(C25), "",INDEX(People!$A$3:$K$1048576,MATCH(C25, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E26" s="1" t="str">
-        <f>IF(ISBLANK(C26), "",INDEX(People!$A$3:$K$1048576,MATCH(C26, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E27" s="1" t="str">
-        <f>IF(ISBLANK(C27), "",INDEX(People!$A$3:$K$1048576,MATCH(C27, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E28" s="1" t="str">
-        <f>IF(ISBLANK(C28), "",INDEX(People!$A$3:$K$1048576,MATCH(C28, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E29" s="1" t="str">
-        <f>IF(ISBLANK(C29), "",INDEX(People!$A$3:$K$1048576,MATCH(C29, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E30" s="1" t="str">
-        <f>IF(ISBLANK(C30), "",INDEX(People!$A$3:$K$1048576,MATCH(C30, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E31" s="1" t="str">
-        <f>IF(ISBLANK(C31), "",INDEX(People!$A$3:$K$1048576,MATCH(C31, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f>IF(ISBLANK(C32), "",INDEX(People!$A$3:$K$1048576,MATCH(C32, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f>IF(ISBLANK(C33), "",INDEX(People!$A$3:$K$1048576,MATCH(C33, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="str">
         <f>IF(ISBLANK(C34), "",INDEX(People!$A$3:$K$1048576,MATCH(C34, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="str">
         <f>IF(ISBLANK(C35), "",INDEX(People!$A$3:$K$1048576,MATCH(C35, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E36" s="1" t="str">
         <f>IF(ISBLANK(C36), "",INDEX(People!$A$3:$K$1048576,MATCH(C36, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="str">
         <f>IF(ISBLANK(C37), "",INDEX(People!$A$3:$K$1048576,MATCH(C37, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="str">
         <f>IF(ISBLANK(C38), "",INDEX(People!$A$3:$K$1048576,MATCH(C38, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="str">
         <f>IF(ISBLANK(C39), "",INDEX(People!$A$3:$K$1048576,MATCH(C39, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="str">
         <f>IF(ISBLANK(C40), "",INDEX(People!$A$3:$K$1048576,MATCH(C40, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="str">
         <f>IF(ISBLANK(C41), "",INDEX(People!$A$3:$K$1048576,MATCH(C41, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A42:A68" si="0">IF(ISBLANK(B42), "", A41 + 1)</f>
         <v/>
       </c>
       <c r="E42" s="1" t="str">
@@ -10712,7 +10672,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10722,7 +10682,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10732,2977 +10692,2985 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E45" s="1" t="str">
+        <f>IF(ISBLANK(C45), "",INDEX(People!$A$3:$K$1048576,MATCH(C45, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E46" s="1" t="str">
+        <f>IF(ISBLANK(C46), "",INDEX(People!$A$3:$K$1048576,MATCH(C46, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" ref="A69:A132" si="1">IF(ISBLANK(B69), "", A68 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
         <f t="shared" ref="A133:A196" si="2">IF(ISBLANK(B133), "", A132 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="str">
         <f t="shared" ref="A197:A260" si="3">IF(ISBLANK(B197), "", A196 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="str">
         <f t="shared" ref="A261:A324" si="4">IF(ISBLANK(B261), "", A260 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="str">
         <f t="shared" ref="A325:A388" si="5">IF(ISBLANK(B325), "", A324 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="str">
         <f t="shared" ref="A389:A452" si="6">IF(ISBLANK(B389), "", A388 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="str">
         <f t="shared" ref="A453:A516" si="7">IF(ISBLANK(B453), "", A452 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="str">
         <f t="shared" ref="A517:A540" si="8">IF(ISBLANK(B517), "", A516 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -13715,71 +13683,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0358C182-E343-4BA4-B2A8-22F36E226049}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4861366-AC0C-554A-9199-BC77943640A7}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B11</xm:f>
+          </x14:formula2>
+          <xm:sqref>C20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7250D198-5EB1-B241-9D81-830376940EC6}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B12</xm:f>
+          </x14:formula2>
+          <xm:sqref>C19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F7B6E2D-7D2D-C445-A138-423612FB4107}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B14</xm:f>
+          </x14:formula2>
+          <xm:sqref>C18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6322BBB1-4E9B-D24A-862C-7B3F2E5E78BB}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B9</xm:f>
+          </x14:formula2>
+          <xm:sqref>C16 C10 C40:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7557A63B-B1C5-FF4F-8084-9B0CA0728770}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B7</xm:f>
+          </x14:formula2>
+          <xm:sqref>C12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A989E026-D157-D045-B077-67B1B540E148}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B16</xm:f>
+          </x14:formula2>
+          <xm:sqref>C14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B6BDD47-B777-BC49-AE53-3AB61012CB4D}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B4</xm:f>
+          </x14:formula2>
+          <xm:sqref>C11 C7:C8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E618C9E-494D-9744-A0BB-B3366B0598AB}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Info!B10</xm:f>
+          </x14:formula2>
+          <xm:sqref>C9 C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B9A6399-347D-B24A-830A-C853743B80D5}">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>Info!B2</xm:f>
           </x14:formula2>
-          <xm:sqref>C11 C4:C5</xm:sqref>
+          <xm:sqref>C4:C5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBE6206E-8173-4DB9-A28A-4D679E4BB0B0}">
-          <x14:formula1>
-            <xm:f>1</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>Info!B8</xm:f>
-          </x14:formula2>
-          <xm:sqref>C12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FF03B55-EAF8-4A3B-92C8-8241786C22BE}">
-          <x14:formula1>
-            <xm:f>1</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>Info!B5</xm:f>
-          </x14:formula2>
-          <xm:sqref>C10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7734BEAA-98DA-4F17-B175-34A77132C2B8}">
-          <x14:formula1>
-            <xm:f>1</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>Info!B11</xm:f>
-          </x14:formula2>
-          <xm:sqref>C9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8D72E6F-724A-4A89-9B03-83472FA9E97D}">
-          <x14:formula1>
-            <xm:f>1</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>Info!B4</xm:f>
-          </x14:formula2>
-          <xm:sqref>C7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD8398F2-8906-4824-BE92-F6056B9C8F43}">
-          <x14:formula1>
-            <xm:f>1</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>Info!B7</xm:f>
-          </x14:formula2>
-          <xm:sqref>C8 C32:C1048576 C13:C17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26EFB6ED-480F-4EEE-89BA-D1B0EE215B15}">
-          <x14:formula1>
-            <xm:f>1</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>Info!B10</xm:f>
-          </x14:formula2>
-          <xm:sqref>C6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03307CB1-D0F6-4040-B744-FF0CBD21D651}">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA575CFC-1A1A-B04F-A451-C28511579253}">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -13802,18 +13788,18 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>42</v>
       </c>
@@ -13827,7 +13813,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -13849,7 +13835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f>IF(ISBLANK(C3), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C3, People!$A$3:$D$6, 0), 2), "'"))</f>
         <v>ДКС</v>
@@ -13870,7 +13856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f>IF(ISBLANK(C4), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C4, Squads!$A$3:$A$6, 0), 2), "'"))</f>
         <v>ДКО 'Антоновский'</v>
@@ -13894,7 +13880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>IF(ISBLANK(C5), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C5, Squads!$A$3:$A$6, 0), 2), "'"))</f>
         <v>ДКО 'Гришинский'</v>
@@ -13918,7 +13904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f>IF(ISBLANK(C6), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C6, Squads!$A$3:$A$6, 0), 2), "'"))</f>
         <v>ДКО 'Киринский'</v>
@@ -13942,7 +13928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f>IF(ISBLANK(C7), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C7, Squads!$A$3:$A$6, 0), 2), "'"))</f>
         <v>ДКО 'Аневский'</v>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egorvkimow/Documents/Personal/sbor-bot/resource/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CB5A67-5F21-0340-8823-A155294F30D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F9BCD-B384-F44F-9706-98C0B9D18979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
     <sheet name="Roles" sheetId="2" r:id="rId2"/>
     <sheet name="Info" sheetId="3" r:id="rId3"/>
-    <sheet name="Special" sheetId="7" r:id="rId4"/>
+    <sheet name="Supervisors" sheetId="7" r:id="rId4"/>
     <sheet name="Squads" sheetId="4" r:id="rId5"/>
     <sheet name="Services" sheetId="5" r:id="rId6"/>
     <sheet name="Duty" sheetId="6" r:id="rId7"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="209">
   <si>
     <t>Информация для бота</t>
   </si>
@@ -634,6 +634,36 @@
   </si>
   <si>
     <t>Елена</t>
+  </si>
+  <si>
+    <t>Служба</t>
+  </si>
+  <si>
+    <t>Номер сбора</t>
+  </si>
+  <si>
+    <t>Местоположение сбора</t>
+  </si>
+  <si>
+    <t>Группа ВК</t>
+  </si>
+  <si>
+    <t>https://vk.com/sbor_63</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Адрес сбора</t>
+  </si>
+  <si>
+    <t>https://yandex.ru/maps/-/CCUNEFbP3C</t>
+  </si>
+  <si>
+    <t>Архангельская область, деревня Копачево</t>
+  </si>
+  <si>
+    <t>Номер ДКС</t>
   </si>
 </sst>
 </file>
@@ -678,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -701,10 +731,15 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,20 +749,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1013,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
@@ -1037,21 +1067,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -9842,10 +9872,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -10104,22 +10134,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" style="7" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -10129,6 +10160,49 @@
         <f>COUNT(People!A3:A1048576)</f>
         <v>102</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4">
+        <v>9111368924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10140,107 +10214,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE18F2CC-E6EF-FD4A-8250-6DB6A15E10F3}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="14"/>
+    <col min="1" max="1" width="17.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>101</v>
       </c>
-      <c r="F3" s="13" t="str">
+      <c r="F3" s="12" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Дурнев Владимир Николаевич</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>91</v>
       </c>
-      <c r="F4" s="13" t="str">
+      <c r="F4" s="12" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Евтюхова Саша</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
-      <c r="F5" s="13" t="str">
+      <c r="B5" s="14"/>
+      <c r="F5" s="12" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="F6" s="13" t="str">
+      <c r="B6" s="14"/>
+      <c r="F6" s="12" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="F7" s="13" t="str">
+      <c r="B7" s="14"/>
+      <c r="F7" s="12" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="13" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10251,7 +10330,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10264,36 +10343,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="15" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10495,3488 +10574,378 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E540"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="6">
+      <c r="B3" s="6">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="str">
-        <f>IF(ISBLANK(C3), "",INDEX(People!$A$3:$K$1048576,MATCH(C3, People!$A$3:$A$1048576, 0), 8))</f>
+      <c r="D3" s="7" t="str">
+        <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Гущина Маша</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <f>IF(ISBLANK(B4), "", A3 + 1)</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="6">
+      <c r="B4" s="6">
         <v>85</v>
       </c>
-      <c r="E4" s="11" t="str">
-        <f>IF(ISBLANK(C4), "",INDEX(People!$A$3:$K$1048576,MATCH(C4, People!$A$3:$A$1048576, 0), 8))</f>
+      <c r="D4" s="11" t="str">
+        <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Юрьев Кирилл</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <f t="shared" ref="A5:A31" si="0">IF(ISBLANK(B5), "", A4 + 1)</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="6">
+      <c r="B5" s="6">
         <v>33</v>
       </c>
-      <c r="E5" s="11" t="str">
-        <f>IF(ISBLANK(C5), "",INDEX(People!$A$3:$K$1048576,MATCH(C5, People!$A$3:$A$1048576, 0), 8))</f>
+      <c r="D5" s="11" t="str">
+        <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Давыдова Влада</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="6">
+      <c r="B6" s="6">
         <v>60</v>
       </c>
-      <c r="E6" s="11" t="str">
-        <f>IF(ISBLANK(C6), "",INDEX(People!$A$3:$K$1048576,MATCH(C6, People!$A$3:$A$1048576, 0), 8))</f>
+      <c r="D6" s="11" t="str">
+        <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Северьянова Юля</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="11" t="str">
-        <f>IF(ISBLANK(C7), "",INDEX(People!$A$3:$K$1048576,MATCH(C7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D7" s="11" t="str">
+        <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="6">
+      <c r="B8" s="6">
         <v>84</v>
       </c>
-      <c r="E8" s="11" t="str">
-        <f>IF(ISBLANK(C8), "",INDEX(People!$A$3:$K$1048576,MATCH(C8, People!$A$3:$A$1048576, 0), 8))</f>
+      <c r="D8" s="11" t="str">
+        <f>IF(ISBLANK(B8), "",INDEX(People!$A$3:$K$1048576,MATCH(B8, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Михайлов Кирилл</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="6">
+      <c r="B9" s="6">
         <v>16</v>
       </c>
-      <c r="E9" s="11" t="str">
-        <f>IF(ISBLANK(C9), "",INDEX(People!$A$3:$K$1048576,MATCH(C9, People!$A$3:$A$1048576, 0), 8))</f>
+      <c r="D9" s="11" t="str">
+        <f>IF(ISBLANK(B9), "",INDEX(People!$A$3:$K$1048576,MATCH(B9, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Гурьев Гоша</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="6">
+      <c r="B10" s="6">
         <v>81</v>
       </c>
-      <c r="E10" s="11" t="str">
-        <f>IF(ISBLANK(C10), "",INDEX(People!$A$3:$K$1048576,MATCH(C10, People!$A$3:$A$1048576, 0), 8))</f>
+      <c r="D10" s="11" t="str">
+        <f>IF(ISBLANK(B10), "",INDEX(People!$A$3:$K$1048576,MATCH(B10, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Савинкина Лиза</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="6">
+        <v>83</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>IF(ISBLANK(B11), "",INDEX(People!$A$3:$K$1048576,MATCH(B11, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Варзина Настя</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="6">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>IF(ISBLANK(B12), "",INDEX(People!$A$3:$K$1048576,MATCH(B12, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Образцова Арина</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="6">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f>IF(ISBLANK(B13), "",INDEX(People!$A$3:$K$1048576,MATCH(B13, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Ульянова Саша</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="6">
-        <v>83</v>
-      </c>
-      <c r="E11" s="11" t="str">
-        <f>IF(ISBLANK(C11), "",INDEX(People!$A$3:$K$1048576,MATCH(C11, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Варзина Настя</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="6">
-        <v>24</v>
-      </c>
-      <c r="E12" s="11" t="str">
-        <f>IF(ISBLANK(C12), "",INDEX(People!$A$3:$K$1048576,MATCH(C12, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Образцова Арина</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="6">
-        <v>50</v>
-      </c>
-      <c r="E13" s="11" t="str">
-        <f>IF(ISBLANK(C13), "",INDEX(People!$A$3:$K$1048576,MATCH(C13, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Ульянова Саша</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <f t="shared" si="0"/>
+      <c r="D14" s="11" t="str">
+        <f>IF(ISBLANK(B14), "",INDEX(People!$A$3:$K$1048576,MATCH(B14, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Гущина Маша</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="6">
+        <v>75</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f>IF(ISBLANK(B15), "",INDEX(People!$A$3:$K$1048576,MATCH(B15, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Олехова Настя</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="6">
+        <v>47</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f>IF(ISBLANK(B16), "",INDEX(People!$A$3:$K$1048576,MATCH(B16, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Евтушенко Юля</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="6">
+        <v>34</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>IF(ISBLANK(B17), "",INDEX(People!$A$3:$K$1048576,MATCH(B17, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Архипова Лера</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="6">
+        <v>92</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f>IF(ISBLANK(B18), "",INDEX(People!$A$3:$K$1048576,MATCH(B18, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Коротова Ангелина</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="6">
+        <v>63</v>
+      </c>
+      <c r="D19" s="11" t="str">
+        <f>IF(ISBLANK(B19), "",INDEX(People!$A$3:$K$1048576,MATCH(B19, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Кескюль Лина</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11" t="str">
-        <f>IF(ISBLANK(C14), "",INDEX(People!$A$3:$K$1048576,MATCH(C14, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Гущина Маша</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="6">
-        <v>75</v>
-      </c>
-      <c r="E15" s="11" t="str">
-        <f>IF(ISBLANK(C15), "",INDEX(People!$A$3:$K$1048576,MATCH(C15, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Олехова Настя</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="6">
-        <v>47</v>
-      </c>
-      <c r="E16" s="11" t="str">
-        <f>IF(ISBLANK(C16), "",INDEX(People!$A$3:$K$1048576,MATCH(C16, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Евтушенко Юля</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="6">
-        <v>34</v>
-      </c>
-      <c r="E17" s="11" t="str">
-        <f>IF(ISBLANK(C17), "",INDEX(People!$A$3:$K$1048576,MATCH(C17, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Архипова Лера</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="6">
-        <v>92</v>
-      </c>
-      <c r="E18" s="11" t="str">
-        <f>IF(ISBLANK(C18), "",INDEX(People!$A$3:$K$1048576,MATCH(C18, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Коротова Ангелина</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="6">
-        <v>63</v>
-      </c>
-      <c r="E19" s="11" t="str">
-        <f>IF(ISBLANK(C19), "",INDEX(People!$A$3:$K$1048576,MATCH(C19, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Кескюль Лина</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="6">
-        <v>12</v>
-      </c>
-      <c r="E20" s="11" t="str">
-        <f>IF(ISBLANK(C20), "",INDEX(People!$A$3:$K$1048576,MATCH(C20, People!$A$3:$A$1048576, 0), 8))</f>
+      <c r="D20" s="11" t="str">
+        <f>IF(ISBLANK(B20), "",INDEX(People!$A$3:$K$1048576,MATCH(B20, People!$A$3:$A$1048576, 0), 8))</f>
         <v>Акимов Егор</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="11" t="str">
-        <f>IF(ISBLANK(C21), "",INDEX(People!$A$3:$K$1048576,MATCH(C21, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" s="11" t="str">
-        <f>IF(ISBLANK(C22), "",INDEX(People!$A$3:$K$1048576,MATCH(C22, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" s="11" t="str">
-        <f>IF(ISBLANK(C23), "",INDEX(People!$A$3:$K$1048576,MATCH(C23, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="11" t="str">
-        <f>IF(ISBLANK(C24), "",INDEX(People!$A$3:$K$1048576,MATCH(C24, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="11" t="str">
-        <f>IF(ISBLANK(C25), "",INDEX(People!$A$3:$K$1048576,MATCH(C25, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="11" t="str">
-        <f>IF(ISBLANK(C26), "",INDEX(People!$A$3:$K$1048576,MATCH(C26, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E27" s="11" t="str">
-        <f>IF(ISBLANK(C27), "",INDEX(People!$A$3:$K$1048576,MATCH(C27, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="7" t="str">
-        <f>IF(ISBLANK(C34), "",INDEX(People!$A$3:$K$1048576,MATCH(C34, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="7" t="str">
-        <f>IF(ISBLANK(C35), "",INDEX(People!$A$3:$K$1048576,MATCH(C35, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="7" t="str">
-        <f>IF(ISBLANK(C36), "",INDEX(People!$A$3:$K$1048576,MATCH(C36, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="7" t="str">
-        <f>IF(ISBLANK(C37), "",INDEX(People!$A$3:$K$1048576,MATCH(C37, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="7" t="str">
-        <f>IF(ISBLANK(C38), "",INDEX(People!$A$3:$K$1048576,MATCH(C38, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="7" t="str">
-        <f>IF(ISBLANK(C39), "",INDEX(People!$A$3:$K$1048576,MATCH(C39, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="7" t="str">
-        <f>IF(ISBLANK(C40), "",INDEX(People!$A$3:$K$1048576,MATCH(C40, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="7" t="str">
-        <f>IF(ISBLANK(C41), "",INDEX(People!$A$3:$K$1048576,MATCH(C41, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="str">
-        <f t="shared" ref="A42:A105" si="1">IF(ISBLANK(B42), "", A41 + 1)</f>
-        <v/>
-      </c>
-      <c r="E42" s="7" t="str">
-        <f>IF(ISBLANK(C42), "",INDEX(People!$A$3:$K$1048576,MATCH(C42, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E43" s="7" t="str">
-        <f>IF(ISBLANK(C43), "",INDEX(People!$A$3:$K$1048576,MATCH(C43, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E44" s="7" t="str">
-        <f>IF(ISBLANK(C44), "",INDEX(People!$A$3:$K$1048576,MATCH(C44, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E45" s="7" t="str">
-        <f>IF(ISBLANK(C45), "",INDEX(People!$A$3:$K$1048576,MATCH(C45, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E46" s="7" t="str">
-        <f>IF(ISBLANK(C46), "",INDEX(People!$A$3:$K$1048576,MATCH(C46, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="str">
-        <f t="shared" ref="A106:A169" si="2">IF(ISBLANK(B106), "", A105 + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="6" t="str">
-        <f t="shared" ref="A170:A233" si="3">IF(ISBLANK(B170), "", A169 + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="6" t="str">
-        <f t="shared" ref="A234:A297" si="4">IF(ISBLANK(B234), "", A233 + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" s="6" t="str">
-        <f t="shared" ref="A298:A361" si="5">IF(ISBLANK(B298), "", A297 + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="6" t="str">
-        <f t="shared" ref="A362:A425" si="6">IF(ISBLANK(B362), "", A361 + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="6" t="str">
-        <f t="shared" ref="A426:A489" si="7">IF(ISBLANK(B426), "", A425 + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="6" t="str">
-        <f t="shared" ref="A490:A540" si="8">IF(ISBLANK(B490), "", A489 + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A524" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A525" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A526" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A527" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A529" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A530" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A531" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A532" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A533" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A534" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A535" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A536" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A537" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A538" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A539" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A540" s="6" t="str">
-        <f t="shared" si="8"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="11" t="str">
+        <f>IF(ISBLANK(B21), "",INDEX(People!$A$3:$K$1048576,MATCH(B21, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="11" t="str">
+        <f>IF(ISBLANK(B22), "",INDEX(People!$A$3:$K$1048576,MATCH(B22, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="11" t="str">
+        <f>IF(ISBLANK(B23), "",INDEX(People!$A$3:$K$1048576,MATCH(B23, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="11" t="str">
+        <f>IF(ISBLANK(B24), "",INDEX(People!$A$3:$K$1048576,MATCH(B24, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="11" t="str">
+        <f>IF(ISBLANK(B25), "",INDEX(People!$A$3:$K$1048576,MATCH(B25, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="11" t="str">
+        <f>IF(ISBLANK(B26), "",INDEX(People!$A$3:$K$1048576,MATCH(B26, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="11" t="str">
+        <f>IF(ISBLANK(B27), "",INDEX(People!$A$3:$K$1048576,MATCH(B27, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="7" t="str">
+        <f>IF(ISBLANK(B34), "",INDEX(People!$A$3:$K$1048576,MATCH(B34, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="7" t="str">
+        <f>IF(ISBLANK(B35), "",INDEX(People!$A$3:$K$1048576,MATCH(B35, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="7" t="str">
+        <f>IF(ISBLANK(B36), "",INDEX(People!$A$3:$K$1048576,MATCH(B36, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="7" t="str">
+        <f>IF(ISBLANK(B37), "",INDEX(People!$A$3:$K$1048576,MATCH(B37, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="7" t="str">
+        <f>IF(ISBLANK(B38), "",INDEX(People!$A$3:$K$1048576,MATCH(B38, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="7" t="str">
+        <f>IF(ISBLANK(B39), "",INDEX(People!$A$3:$K$1048576,MATCH(B39, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="7" t="str">
+        <f>IF(ISBLANK(B40), "",INDEX(People!$A$3:$K$1048576,MATCH(B40, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="7" t="str">
+        <f>IF(ISBLANK(B41), "",INDEX(People!$A$3:$K$1048576,MATCH(B41, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="7" t="str">
+        <f>IF(ISBLANK(B42), "",INDEX(People!$A$3:$K$1048576,MATCH(B42, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="7" t="str">
+        <f>IF(ISBLANK(B43), "",INDEX(People!$A$3:$K$1048576,MATCH(B43, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="7" t="str">
+        <f>IF(ISBLANK(B44), "",INDEX(People!$A$3:$K$1048576,MATCH(B44, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="7" t="str">
+        <f>IF(ISBLANK(B45), "",INDEX(People!$A$3:$K$1048576,MATCH(B45, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="7" t="str">
+        <f>IF(ISBLANK(B46), "",INDEX(People!$A$3:$K$1048576,MATCH(B46, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14002,18 +10971,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -14160,7 +11129,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egorvkimow/Documents/Personal/sbor-bot/resource/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F9BCD-B384-F44F-9706-98C0B9D18979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06251334-E397-43BC-9EE3-0CEC73C87D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -633,9 +633,6 @@
     <t>Воронина</t>
   </si>
   <si>
-    <t>Елена</t>
-  </si>
-  <si>
     <t>Служба</t>
   </si>
   <si>
@@ -664,6 +661,9 @@
   </si>
   <si>
     <t>Номер ДКС</t>
+  </si>
+  <si>
+    <t>Лариса Васильевна</t>
   </si>
 </sst>
 </file>
@@ -740,6 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,7 +753,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,47 +1043,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M583"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="7" customWidth="1"/>
     <col min="10" max="10" width="12" style="7" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="18.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>9021935635</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(ISBLANK(B4), "", A3 + 1)</f>
         <v>2</v>
@@ -1189,7 +1189,7 @@
         <v>9021979976</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A68" si="2">IF(ISBLANK(B5), "", A4 + 1)</f>
         <v>3</v>
@@ -1226,7 +1226,7 @@
         <v>9532643448</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1263,7 +1263,7 @@
         <v>9532633851</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1300,7 +1300,7 @@
         <v>9115603391</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1337,7 +1337,7 @@
         <v>9539321285</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1374,7 +1374,7 @@
         <v>9116841436</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1411,7 +1411,7 @@
         <v>9532659850</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1448,7 +1448,7 @@
         <v>9115898960</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1485,7 +1485,7 @@
         <v>9115574147</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1522,7 +1522,7 @@
         <v>9539378410</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1559,7 +1559,7 @@
         <v>9111368924</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1596,7 +1596,7 @@
         <v>9539306652</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1633,7 +1633,7 @@
         <v>9009117733</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1670,7 +1670,7 @@
         <v>9539305448</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1707,7 +1707,7 @@
         <v>9532663665</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1744,7 +1744,7 @@
         <v>9115670597</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1781,7 +1781,7 @@
         <v>9021950338</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1818,7 +1818,7 @@
         <v>9062855831</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1855,7 +1855,7 @@
         <v>9115922511</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1892,7 +1892,7 @@
         <v>9214735352</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1929,7 +1929,7 @@
         <v>9502540282</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1966,7 +1966,7 @@
         <v>9523079564</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -2003,7 +2003,7 @@
         <v>9214921578</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2040,7 +2040,7 @@
         <v>9657317424</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -2077,7 +2077,7 @@
         <v>9626609766</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2114,7 +2114,7 @@
         <v>9095564124</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2151,7 +2151,7 @@
         <v>9815549422</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2188,7 +2188,7 @@
         <v>9600041442</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2225,7 +2225,7 @@
         <v>9626620852</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2297,7 +2297,7 @@
         <v>9642934275</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2334,7 +2334,7 @@
         <v>9600077240</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2371,7 +2371,7 @@
         <v>9027080210</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2408,7 +2408,7 @@
         <v>9115708643</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2445,7 +2445,7 @@
         <v>9991460009</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -2482,7 +2482,7 @@
         <v>9052936055</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -2519,7 +2519,7 @@
         <v>9600079977</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -2556,7 +2556,7 @@
         <v>9027054886</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -2593,7 +2593,7 @@
         <v>9115950608</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -2630,7 +2630,7 @@
         <v>9314153251</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -2667,7 +2667,7 @@
         <v>9116573329</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -2704,7 +2704,7 @@
         <v>9116869084</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -2741,7 +2741,7 @@
         <v>9009136809</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -2778,7 +2778,7 @@
         <v>9657329507</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -2815,7 +2815,7 @@
         <v>9523040674</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -2852,7 +2852,7 @@
         <v>9522545149</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -2889,7 +2889,7 @@
         <v>9539315895</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -2926,7 +2926,7 @@
         <v>9314145713</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -2963,7 +2963,7 @@
         <v>9502506035</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -3000,7 +3000,7 @@
         <v>9210890586</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -3037,7 +3037,7 @@
         <v>9062844526</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -3074,7 +3074,7 @@
         <v>9009120532</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -3111,7 +3111,7 @@
         <v>9965038313</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -3148,7 +3148,7 @@
         <v>9212957552</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -3185,7 +3185,7 @@
         <v>9600198519</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -3222,7 +3222,7 @@
         <v>9502537642</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -3294,7 +3294,7 @@
         <v>9021982289</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -3331,7 +3331,7 @@
         <v>9210787810</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -3368,7 +3368,7 @@
         <v>9600036043</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -3405,7 +3405,7 @@
         <v>9025073259</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -3442,7 +3442,7 @@
         <v>9626624368</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -3479,7 +3479,7 @@
         <v>9532677435</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -3516,7 +3516,7 @@
         <v>9116851539</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -3553,7 +3553,7 @@
         <v>9600007061</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <f t="shared" ref="A69:A132" si="7">IF(ISBLANK(B69), "", A68 + 1)</f>
         <v>67</v>
@@ -3590,7 +3590,7 @@
         <v>9118785661</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <f t="shared" si="7"/>
         <v>68</v>
@@ -3627,7 +3627,7 @@
         <v>9642900185</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <f t="shared" si="7"/>
         <v>69</v>
@@ -3664,7 +3664,7 @@
         <v>9600090480</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <f t="shared" si="7"/>
         <v>70</v>
@@ -3701,7 +3701,7 @@
         <v>9210723677</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <f t="shared" si="7"/>
         <v>71</v>
@@ -3738,7 +3738,7 @@
         <v>9532632864</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <f t="shared" si="7"/>
         <v>72</v>
@@ -3775,7 +3775,7 @@
         <v>9600133311</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f t="shared" si="7"/>
         <v>73</v>
@@ -3812,7 +3812,7 @@
         <v>9115730722</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <f t="shared" si="7"/>
         <v>74</v>
@@ -3849,7 +3849,7 @@
         <v>9115667093</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -3886,7 +3886,7 @@
         <v>9991682955</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <f t="shared" si="7"/>
         <v>76</v>
@@ -3923,7 +3923,7 @@
         <v>9214888784</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <f t="shared" si="7"/>
         <v>77</v>
@@ -3960,7 +3960,7 @@
         <v>9539361130</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <f t="shared" si="7"/>
         <v>78</v>
@@ -3997,7 +3997,7 @@
         <v>9532649499</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <f t="shared" si="7"/>
         <v>79</v>
@@ -4034,7 +4034,7 @@
         <v>9539314404</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -4071,7 +4071,7 @@
         <v>9115803941</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <f t="shared" si="7"/>
         <v>81</v>
@@ -4108,7 +4108,7 @@
         <v>9210859610</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -4145,7 +4145,7 @@
         <v>9210815080</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -4182,7 +4182,7 @@
         <v>9969214573</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <f t="shared" si="7"/>
         <v>84</v>
@@ -4219,7 +4219,7 @@
         <v>9115800840</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -4256,7 +4256,7 @@
         <v>9969216837</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <f t="shared" si="7"/>
         <v>86</v>
@@ -4293,7 +4293,7 @@
         <v>9115724303</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <f t="shared" si="7"/>
         <v>87</v>
@@ -4330,7 +4330,7 @@
         <v>9626649990</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <f t="shared" si="7"/>
         <v>88</v>
@@ -4367,7 +4367,7 @@
         <v>9009203089</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -4404,7 +4404,7 @@
         <v>9022854509</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <f t="shared" si="7"/>
         <v>91</v>
@@ -4476,7 +4476,7 @@
         <v>9502559803</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <f t="shared" si="7"/>
         <v>92</v>
@@ -4513,7 +4513,7 @@
         <v>9110581233</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <f t="shared" si="7"/>
         <v>93</v>
@@ -4550,7 +4550,7 @@
         <v>9115812807</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <f t="shared" si="7"/>
         <v>94</v>
@@ -4587,7 +4587,7 @@
         <v>9522528224</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -4624,7 +4624,7 @@
         <v>9116721129</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -4661,7 +4661,7 @@
         <v>9643006592</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -4698,7 +4698,7 @@
         <v>9027000003</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -4735,7 +4735,7 @@
         <v>9642958484</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -4772,7 +4772,7 @@
         <v>9642936307</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -4809,7 +4809,7 @@
         <v>9115994619</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>101</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>9210861421</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -4851,7 +4851,7 @@
         <v>197</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E104" s="6" t="str">
         <f>IF(ISBLANK(F104), "",INDEX(Squads!A$3:B$1048576,MATCH(F104, Squads!B$3:B$1048576, 0), 1))</f>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="H104" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>Воронина Елена</v>
+        <v>Воронина Лариса Васильевна</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3" t="str">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5183,7 +5183,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5194,7 +5194,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5205,7 +5205,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="str">
         <f t="shared" ref="A133:A196" si="8">IF(ISBLANK(B133), "", A132 + 1)</f>
         <v/>
@@ -5216,7 +5216,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5227,7 +5227,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5238,7 +5238,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5249,7 +5249,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5260,7 +5260,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5271,7 +5271,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5282,7 +5282,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5293,7 +5293,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5304,7 +5304,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5315,7 +5315,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5326,7 +5326,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5337,7 +5337,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5348,7 +5348,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5359,7 +5359,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5370,7 +5370,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5381,7 +5381,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5392,7 +5392,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5403,7 +5403,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5414,7 +5414,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5425,7 +5425,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5436,7 +5436,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5447,7 +5447,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5458,7 +5458,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5469,7 +5469,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5480,7 +5480,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5491,7 +5491,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5502,7 +5502,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5513,7 +5513,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5524,7 +5524,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5535,7 +5535,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5546,7 +5546,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5557,7 +5557,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5568,7 +5568,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5579,7 +5579,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5590,7 +5590,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5601,7 +5601,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5612,7 +5612,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5623,7 +5623,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5634,7 +5634,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5645,7 +5645,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5656,7 +5656,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5667,7 +5667,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5678,7 +5678,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5689,7 +5689,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5700,7 +5700,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5711,7 +5711,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5722,7 +5722,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5733,7 +5733,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5744,7 +5744,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5755,7 +5755,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5766,7 +5766,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5777,7 +5777,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5788,7 +5788,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5799,7 +5799,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5810,7 +5810,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5821,7 +5821,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5832,7 +5832,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5843,7 +5843,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5854,7 +5854,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5865,7 +5865,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5876,7 +5876,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5887,7 +5887,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5898,7 +5898,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5909,7 +5909,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="str">
         <f t="shared" ref="A197:A260" si="9">IF(ISBLANK(B197), "", A196 + 1)</f>
         <v/>
@@ -5920,7 +5920,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5935,7 +5935,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="I199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="I201" s="3"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I202" s="3"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="I203" s="3"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="I205" s="3"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="I207" s="3"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="I208" s="3"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="I209" s="3"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="I210" s="3"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="I211" s="3"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="I212" s="3"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="I213" s="3"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="I214" s="3"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="I215" s="3"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="I217" s="3"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="I218" s="3"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="I219" s="3"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="I220" s="3"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="I221" s="3"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="I222" s="3"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="I223" s="3"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="I224" s="3"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="I225" s="3"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="I226" s="3"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="I227" s="3"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I228" s="3"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="I229" s="3"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="I230" s="3"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="I231" s="3"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I232" s="3"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="I233" s="3"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="I234" s="3"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="I235" s="3"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="I236" s="3"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="I237" s="3"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="I238" s="3"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="I239" s="3"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I240" s="3"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="I241" s="3"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="I242" s="3"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="I243" s="3"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="I244" s="3"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="I245" s="3"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="I246" s="3"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="I247" s="3"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I248" s="3"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="I249" s="3"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="I250" s="3"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="I251" s="3"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="I252" s="3"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="I253" s="3"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="I254" s="3"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="I255" s="3"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="I256" s="3"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="I257" s="3"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="I258" s="3"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="I259" s="3"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="I260" s="3"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="str">
         <f t="shared" ref="A261:A301" si="10">IF(ISBLANK(B261), "", A260 + 1)</f>
         <v/>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="I261" s="3"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="I262" s="3"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="I263" s="3"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="I264" s="3"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="I265" s="3"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="I266" s="3"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="I267" s="3"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="I268" s="3"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="I269" s="3"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="I270" s="3"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="I271" s="3"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="I272" s="3"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="I273" s="3"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="I274" s="3"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="I275" s="3"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I276" s="3"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="I277" s="3"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="I278" s="3"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="I279" s="3"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I280" s="3"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="I281" s="3"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="I282" s="3"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I283" s="3"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I284" s="3"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="I285" s="3"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="I286" s="3"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="I287" s="3"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="I288" s="3"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="I289" s="3"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="I290" s="3"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="I291" s="3"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="I292" s="3"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="I293" s="3"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="I294" s="3"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="I295" s="3"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="I296" s="3"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="I297" s="3"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7035,7 +7035,7 @@
       </c>
       <c r="I298" s="3"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7045,7 +7045,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7055,7 +7055,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7065,37 +7065,37 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E302" s="6" t="str">
         <f>IF(ISBLANK(F302), "",INDEX(Squads!A$3:B$1048576,MATCH(F302, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E303" s="6" t="str">
         <f>IF(ISBLANK(F303), "",INDEX(Squads!A$3:B$1048576,MATCH(F303, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E304" s="6" t="str">
         <f>IF(ISBLANK(F304), "",INDEX(Squads!A$3:B$1048576,MATCH(F304, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E305" s="6" t="str">
         <f>IF(ISBLANK(F305), "",INDEX(Squads!A$3:B$1048576,MATCH(F305, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E306" s="6" t="str">
         <f>IF(ISBLANK(F306), "",INDEX(Squads!A$3:B$1048576,MATCH(F306, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E307" s="6" t="str">
         <f>IF(ISBLANK(F307), "",INDEX(Squads!A$3:B$1048576,MATCH(F307, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7105,7 +7105,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E308" s="6" t="str">
         <f>IF(ISBLANK(F308), "",INDEX(Squads!A$3:B$1048576,MATCH(F308, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7115,7 +7115,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E309" s="6" t="str">
         <f>IF(ISBLANK(F309), "",INDEX(Squads!A$3:B$1048576,MATCH(F309, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7125,7 +7125,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E310" s="6" t="str">
         <f>IF(ISBLANK(F310), "",INDEX(Squads!A$3:B$1048576,MATCH(F310, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7135,7 +7135,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E311" s="6" t="str">
         <f>IF(ISBLANK(F311), "",INDEX(Squads!A$3:B$1048576,MATCH(F311, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7145,7 +7145,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E312" s="6" t="str">
         <f>IF(ISBLANK(F312), "",INDEX(Squads!A$3:B$1048576,MATCH(F312, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7155,7 +7155,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E313" s="6" t="str">
         <f>IF(ISBLANK(F313), "",INDEX(Squads!A$3:B$1048576,MATCH(F313, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7165,7 +7165,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E314" s="6" t="str">
         <f>IF(ISBLANK(F314), "",INDEX(Squads!A$3:B$1048576,MATCH(F314, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7175,7 +7175,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E315" s="6" t="str">
         <f>IF(ISBLANK(F315), "",INDEX(Squads!A$3:B$1048576,MATCH(F315, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7185,7 +7185,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E316" s="6" t="str">
         <f>IF(ISBLANK(F316), "",INDEX(Squads!A$3:B$1048576,MATCH(F316, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7195,7 +7195,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E317" s="6" t="str">
         <f>IF(ISBLANK(F317), "",INDEX(Squads!A$3:B$1048576,MATCH(F317, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7205,7 +7205,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E318" s="6" t="str">
         <f>IF(ISBLANK(F318), "",INDEX(Squads!A$3:B$1048576,MATCH(F318, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7215,7 +7215,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E319" s="6" t="str">
         <f>IF(ISBLANK(F319), "",INDEX(Squads!A$3:B$1048576,MATCH(F319, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7225,7 +7225,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E320" s="6" t="str">
         <f>IF(ISBLANK(F320), "",INDEX(Squads!A$3:B$1048576,MATCH(F320, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7235,7 +7235,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E321" s="6" t="str">
         <f>IF(ISBLANK(F321), "",INDEX(Squads!A$3:B$1048576,MATCH(F321, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7245,7 +7245,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E322" s="6" t="str">
         <f>IF(ISBLANK(F322), "",INDEX(Squads!A$3:B$1048576,MATCH(F322, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7255,7 +7255,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E323" s="6" t="str">
         <f>IF(ISBLANK(F323), "",INDEX(Squads!A$3:B$1048576,MATCH(F323, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7265,7 +7265,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E324" s="6" t="str">
         <f>IF(ISBLANK(F324), "",INDEX(Squads!A$3:B$1048576,MATCH(F324, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7275,7 +7275,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E325" s="6" t="str">
         <f>IF(ISBLANK(F325), "",INDEX(Squads!A$3:B$1048576,MATCH(F325, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7285,7 +7285,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E326" s="6" t="str">
         <f>IF(ISBLANK(F326), "",INDEX(Squads!A$3:B$1048576,MATCH(F326, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7295,7 +7295,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E327" s="6" t="str">
         <f>IF(ISBLANK(F327), "",INDEX(Squads!A$3:B$1048576,MATCH(F327, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7305,7 +7305,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E328" s="6" t="str">
         <f>IF(ISBLANK(F328), "",INDEX(Squads!A$3:B$1048576,MATCH(F328, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7315,7 +7315,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E329" s="6" t="str">
         <f>IF(ISBLANK(F329), "",INDEX(Squads!A$3:B$1048576,MATCH(F329, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7325,7 +7325,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E330" s="6" t="str">
         <f>IF(ISBLANK(F330), "",INDEX(Squads!A$3:B$1048576,MATCH(F330, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7335,7 +7335,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E331" s="6" t="str">
         <f>IF(ISBLANK(F331), "",INDEX(Squads!A$3:B$1048576,MATCH(F331, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7345,7 +7345,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E332" s="6" t="str">
         <f>IF(ISBLANK(F332), "",INDEX(Squads!A$3:B$1048576,MATCH(F332, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7355,7 +7355,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E333" s="6" t="str">
         <f>IF(ISBLANK(F333), "",INDEX(Squads!A$3:B$1048576,MATCH(F333, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7365,7 +7365,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E334" s="6" t="str">
         <f>IF(ISBLANK(F334), "",INDEX(Squads!A$3:B$1048576,MATCH(F334, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7375,7 +7375,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E335" s="6" t="str">
         <f>IF(ISBLANK(F335), "",INDEX(Squads!A$3:B$1048576,MATCH(F335, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7385,7 +7385,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E336" s="6" t="str">
         <f>IF(ISBLANK(F336), "",INDEX(Squads!A$3:B$1048576,MATCH(F336, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7395,7 +7395,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E337" s="6" t="str">
         <f>IF(ISBLANK(F337), "",INDEX(Squads!A$3:B$1048576,MATCH(F337, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7405,7 +7405,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E338" s="6" t="str">
         <f>IF(ISBLANK(F338), "",INDEX(Squads!A$3:B$1048576,MATCH(F338, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7415,7 +7415,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E339" s="6" t="str">
         <f>IF(ISBLANK(F339), "",INDEX(Squads!A$3:B$1048576,MATCH(F339, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7425,7 +7425,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E340" s="6" t="str">
         <f>IF(ISBLANK(F340), "",INDEX(Squads!A$3:B$1048576,MATCH(F340, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7435,7 +7435,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E341" s="6" t="str">
         <f>IF(ISBLANK(F341), "",INDEX(Squads!A$3:B$1048576,MATCH(F341, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7445,7 +7445,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E342" s="6" t="str">
         <f>IF(ISBLANK(F342), "",INDEX(Squads!A$3:B$1048576,MATCH(F342, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7455,7 +7455,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E343" s="6" t="str">
         <f>IF(ISBLANK(F343), "",INDEX(Squads!A$3:B$1048576,MATCH(F343, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7465,7 +7465,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E344" s="6" t="str">
         <f>IF(ISBLANK(F344), "",INDEX(Squads!A$3:B$1048576,MATCH(F344, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7475,7 +7475,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E345" s="6" t="str">
         <f>IF(ISBLANK(F345), "",INDEX(Squads!A$3:B$1048576,MATCH(F345, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7485,7 +7485,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E346" s="6" t="str">
         <f>IF(ISBLANK(F346), "",INDEX(Squads!A$3:B$1048576,MATCH(F346, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7495,7 +7495,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E347" s="6" t="str">
         <f>IF(ISBLANK(F347), "",INDEX(Squads!A$3:B$1048576,MATCH(F347, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7505,7 +7505,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E348" s="6" t="str">
         <f>IF(ISBLANK(F348), "",INDEX(Squads!A$3:B$1048576,MATCH(F348, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7515,7 +7515,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E349" s="6" t="str">
         <f>IF(ISBLANK(F349), "",INDEX(Squads!A$3:B$1048576,MATCH(F349, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7525,7 +7525,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E350" s="6" t="str">
         <f>IF(ISBLANK(F350), "",INDEX(Squads!A$3:B$1048576,MATCH(F350, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7535,7 +7535,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E351" s="6" t="str">
         <f>IF(ISBLANK(F351), "",INDEX(Squads!A$3:B$1048576,MATCH(F351, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7545,7 +7545,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E352" s="6" t="str">
         <f>IF(ISBLANK(F352), "",INDEX(Squads!A$3:B$1048576,MATCH(F352, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7555,7 +7555,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E353" s="6" t="str">
         <f>IF(ISBLANK(F353), "",INDEX(Squads!A$3:B$1048576,MATCH(F353, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7565,7 +7565,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E354" s="6" t="str">
         <f>IF(ISBLANK(F354), "",INDEX(Squads!A$3:B$1048576,MATCH(F354, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7575,7 +7575,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E355" s="6" t="str">
         <f>IF(ISBLANK(F355), "",INDEX(Squads!A$3:B$1048576,MATCH(F355, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7585,7 +7585,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E356" s="6" t="str">
         <f>IF(ISBLANK(F356), "",INDEX(Squads!A$3:B$1048576,MATCH(F356, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7595,7 +7595,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E357" s="6" t="str">
         <f>IF(ISBLANK(F357), "",INDEX(Squads!A$3:B$1048576,MATCH(F357, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7605,7 +7605,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E358" s="6" t="str">
         <f>IF(ISBLANK(F358), "",INDEX(Squads!A$3:B$1048576,MATCH(F358, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7615,7 +7615,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E359" s="6" t="str">
         <f>IF(ISBLANK(F359), "",INDEX(Squads!A$3:B$1048576,MATCH(F359, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7625,7 +7625,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E360" s="6" t="str">
         <f>IF(ISBLANK(F360), "",INDEX(Squads!A$3:B$1048576,MATCH(F360, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7635,7 +7635,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E361" s="6" t="str">
         <f>IF(ISBLANK(F361), "",INDEX(Squads!A$3:B$1048576,MATCH(F361, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7645,7 +7645,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E362" s="6" t="str">
         <f>IF(ISBLANK(F362), "",INDEX(Squads!A$3:B$1048576,MATCH(F362, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7655,7 +7655,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E363" s="6" t="str">
         <f>IF(ISBLANK(F363), "",INDEX(Squads!A$3:B$1048576,MATCH(F363, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7665,7 +7665,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E364" s="6" t="str">
         <f>IF(ISBLANK(F364), "",INDEX(Squads!A$3:B$1048576,MATCH(F364, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7675,7 +7675,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E365" s="6" t="str">
         <f>IF(ISBLANK(F365), "",INDEX(Squads!A$3:B$1048576,MATCH(F365, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7685,7 +7685,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E366" s="6" t="str">
         <f>IF(ISBLANK(F366), "",INDEX(Squads!A$3:B$1048576,MATCH(F366, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7695,7 +7695,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E367" s="6" t="str">
         <f>IF(ISBLANK(F367), "",INDEX(Squads!A$3:B$1048576,MATCH(F367, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7705,7 +7705,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E368" s="6" t="str">
         <f>IF(ISBLANK(F368), "",INDEX(Squads!A$3:B$1048576,MATCH(F368, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7715,7 +7715,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E369" s="6" t="str">
         <f>IF(ISBLANK(F369), "",INDEX(Squads!A$3:B$1048576,MATCH(F369, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7725,7 +7725,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E370" s="6" t="str">
         <f>IF(ISBLANK(F370), "",INDEX(Squads!A$3:B$1048576,MATCH(F370, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7735,7 +7735,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E371" s="6" t="str">
         <f>IF(ISBLANK(F371), "",INDEX(Squads!A$3:B$1048576,MATCH(F371, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7745,7 +7745,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E372" s="6" t="str">
         <f>IF(ISBLANK(F372), "",INDEX(Squads!A$3:B$1048576,MATCH(F372, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7755,7 +7755,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E373" s="6" t="str">
         <f>IF(ISBLANK(F373), "",INDEX(Squads!A$3:B$1048576,MATCH(F373, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7765,7 +7765,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E374" s="6" t="str">
         <f>IF(ISBLANK(F374), "",INDEX(Squads!A$3:B$1048576,MATCH(F374, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7775,7 +7775,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E375" s="6" t="str">
         <f>IF(ISBLANK(F375), "",INDEX(Squads!A$3:B$1048576,MATCH(F375, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7785,7 +7785,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E376" s="6" t="str">
         <f>IF(ISBLANK(F376), "",INDEX(Squads!A$3:B$1048576,MATCH(F376, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7795,7 +7795,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E377" s="6" t="str">
         <f>IF(ISBLANK(F377), "",INDEX(Squads!A$3:B$1048576,MATCH(F377, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7805,7 +7805,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E378" s="6" t="str">
         <f>IF(ISBLANK(F378), "",INDEX(Squads!A$3:B$1048576,MATCH(F378, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7815,7 +7815,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E379" s="6" t="str">
         <f>IF(ISBLANK(F379), "",INDEX(Squads!A$3:B$1048576,MATCH(F379, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7825,7 +7825,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E380" s="6" t="str">
         <f>IF(ISBLANK(F380), "",INDEX(Squads!A$3:B$1048576,MATCH(F380, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7835,7 +7835,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E381" s="6" t="str">
         <f>IF(ISBLANK(F381), "",INDEX(Squads!A$3:B$1048576,MATCH(F381, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7845,7 +7845,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E382" s="6" t="str">
         <f>IF(ISBLANK(F382), "",INDEX(Squads!A$3:B$1048576,MATCH(F382, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7855,7 +7855,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E383" s="6" t="str">
         <f>IF(ISBLANK(F383), "",INDEX(Squads!A$3:B$1048576,MATCH(F383, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7865,7 +7865,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E384" s="6" t="str">
         <f>IF(ISBLANK(F384), "",INDEX(Squads!A$3:B$1048576,MATCH(F384, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7875,7 +7875,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E385" s="6" t="str">
         <f>IF(ISBLANK(F385), "",INDEX(Squads!A$3:B$1048576,MATCH(F385, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7885,7 +7885,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E386" s="6" t="str">
         <f>IF(ISBLANK(F386), "",INDEX(Squads!A$3:B$1048576,MATCH(F386, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7895,7 +7895,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E387" s="6" t="str">
         <f>IF(ISBLANK(F387), "",INDEX(Squads!A$3:B$1048576,MATCH(F387, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7905,7 +7905,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E388" s="6" t="str">
         <f>IF(ISBLANK(F388), "",INDEX(Squads!A$3:B$1048576,MATCH(F388, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7915,7 +7915,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E389" s="6" t="str">
         <f>IF(ISBLANK(F389), "",INDEX(Squads!A$3:B$1048576,MATCH(F389, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7925,7 +7925,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E390" s="6" t="str">
         <f>IF(ISBLANK(F390), "",INDEX(Squads!A$3:B$1048576,MATCH(F390, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7935,7 +7935,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E391" s="6" t="str">
         <f>IF(ISBLANK(F391), "",INDEX(Squads!A$3:B$1048576,MATCH(F391, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7945,7 +7945,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E392" s="6" t="str">
         <f>IF(ISBLANK(F392), "",INDEX(Squads!A$3:B$1048576,MATCH(F392, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7955,7 +7955,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E393" s="6" t="str">
         <f>IF(ISBLANK(F393), "",INDEX(Squads!A$3:B$1048576,MATCH(F393, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7965,7 +7965,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E394" s="6" t="str">
         <f>IF(ISBLANK(F394), "",INDEX(Squads!A$3:B$1048576,MATCH(F394, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7975,7 +7975,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E395" s="6" t="str">
         <f>IF(ISBLANK(F395), "",INDEX(Squads!A$3:B$1048576,MATCH(F395, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7985,7 +7985,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E396" s="6" t="str">
         <f>IF(ISBLANK(F396), "",INDEX(Squads!A$3:B$1048576,MATCH(F396, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -7995,7 +7995,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E397" s="6" t="str">
         <f>IF(ISBLANK(F397), "",INDEX(Squads!A$3:B$1048576,MATCH(F397, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8005,7 +8005,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E398" s="6" t="str">
         <f>IF(ISBLANK(F398), "",INDEX(Squads!A$3:B$1048576,MATCH(F398, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8015,7 +8015,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E399" s="6" t="str">
         <f>IF(ISBLANK(F399), "",INDEX(Squads!A$3:B$1048576,MATCH(F399, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8025,7 +8025,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E400" s="6" t="str">
         <f>IF(ISBLANK(F400), "",INDEX(Squads!A$3:B$1048576,MATCH(F400, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8035,7 +8035,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E401" s="6" t="str">
         <f>IF(ISBLANK(F401), "",INDEX(Squads!A$3:B$1048576,MATCH(F401, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8045,7 +8045,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E402" s="6" t="str">
         <f>IF(ISBLANK(F402), "",INDEX(Squads!A$3:B$1048576,MATCH(F402, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8055,7 +8055,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E403" s="6" t="str">
         <f>IF(ISBLANK(F403), "",INDEX(Squads!A$3:B$1048576,MATCH(F403, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8065,7 +8065,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E404" s="6" t="str">
         <f>IF(ISBLANK(F404), "",INDEX(Squads!A$3:B$1048576,MATCH(F404, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8075,7 +8075,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E405" s="6" t="str">
         <f>IF(ISBLANK(F405), "",INDEX(Squads!A$3:B$1048576,MATCH(F405, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8085,7 +8085,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E406" s="6" t="str">
         <f>IF(ISBLANK(F406), "",INDEX(Squads!A$3:B$1048576,MATCH(F406, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8095,7 +8095,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E407" s="6" t="str">
         <f>IF(ISBLANK(F407), "",INDEX(Squads!A$3:B$1048576,MATCH(F407, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8105,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E408" s="6" t="str">
         <f>IF(ISBLANK(F408), "",INDEX(Squads!A$3:B$1048576,MATCH(F408, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8115,7 +8115,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E409" s="6" t="str">
         <f>IF(ISBLANK(F409), "",INDEX(Squads!A$3:B$1048576,MATCH(F409, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8125,7 +8125,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E410" s="6" t="str">
         <f>IF(ISBLANK(F410), "",INDEX(Squads!A$3:B$1048576,MATCH(F410, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8135,7 +8135,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E411" s="6" t="str">
         <f>IF(ISBLANK(F411), "",INDEX(Squads!A$3:B$1048576,MATCH(F411, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8145,7 +8145,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E412" s="6" t="str">
         <f>IF(ISBLANK(F412), "",INDEX(Squads!A$3:B$1048576,MATCH(F412, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8155,7 +8155,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E413" s="6" t="str">
         <f>IF(ISBLANK(F413), "",INDEX(Squads!A$3:B$1048576,MATCH(F413, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8165,7 +8165,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E414" s="6" t="str">
         <f>IF(ISBLANK(F414), "",INDEX(Squads!A$3:B$1048576,MATCH(F414, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8175,7 +8175,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E415" s="6" t="str">
         <f>IF(ISBLANK(F415), "",INDEX(Squads!A$3:B$1048576,MATCH(F415, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8185,7 +8185,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E416" s="6" t="str">
         <f>IF(ISBLANK(F416), "",INDEX(Squads!A$3:B$1048576,MATCH(F416, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8195,7 +8195,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E417" s="6" t="str">
         <f>IF(ISBLANK(F417), "",INDEX(Squads!A$3:B$1048576,MATCH(F417, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8205,7 +8205,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E418" s="6" t="str">
         <f>IF(ISBLANK(F418), "",INDEX(Squads!A$3:B$1048576,MATCH(F418, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8215,7 +8215,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E419" s="6" t="str">
         <f>IF(ISBLANK(F419), "",INDEX(Squads!A$3:B$1048576,MATCH(F419, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8225,7 +8225,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E420" s="6" t="str">
         <f>IF(ISBLANK(F420), "",INDEX(Squads!A$3:B$1048576,MATCH(F420, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8235,7 +8235,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E421" s="6" t="str">
         <f>IF(ISBLANK(F421), "",INDEX(Squads!A$3:B$1048576,MATCH(F421, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8245,7 +8245,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E422" s="6" t="str">
         <f>IF(ISBLANK(F422), "",INDEX(Squads!A$3:B$1048576,MATCH(F422, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8255,7 +8255,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E423" s="6" t="str">
         <f>IF(ISBLANK(F423), "",INDEX(Squads!A$3:B$1048576,MATCH(F423, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8265,7 +8265,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E424" s="6" t="str">
         <f>IF(ISBLANK(F424), "",INDEX(Squads!A$3:B$1048576,MATCH(F424, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8275,7 +8275,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E425" s="6" t="str">
         <f>IF(ISBLANK(F425), "",INDEX(Squads!A$3:B$1048576,MATCH(F425, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8285,7 +8285,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E426" s="6" t="str">
         <f>IF(ISBLANK(F426), "",INDEX(Squads!A$3:B$1048576,MATCH(F426, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8295,7 +8295,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E427" s="6" t="str">
         <f>IF(ISBLANK(F427), "",INDEX(Squads!A$3:B$1048576,MATCH(F427, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8305,7 +8305,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E428" s="6" t="str">
         <f>IF(ISBLANK(F428), "",INDEX(Squads!A$3:B$1048576,MATCH(F428, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8315,7 +8315,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E429" s="6" t="str">
         <f>IF(ISBLANK(F429), "",INDEX(Squads!A$3:B$1048576,MATCH(F429, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8325,7 +8325,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E430" s="6" t="str">
         <f>IF(ISBLANK(F430), "",INDEX(Squads!A$3:B$1048576,MATCH(F430, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8335,7 +8335,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E431" s="6" t="str">
         <f>IF(ISBLANK(F431), "",INDEX(Squads!A$3:B$1048576,MATCH(F431, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8345,7 +8345,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E432" s="6" t="str">
         <f>IF(ISBLANK(F432), "",INDEX(Squads!A$3:B$1048576,MATCH(F432, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8355,7 +8355,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E433" s="6" t="str">
         <f>IF(ISBLANK(F433), "",INDEX(Squads!A$3:B$1048576,MATCH(F433, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8365,7 +8365,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E434" s="6" t="str">
         <f>IF(ISBLANK(F434), "",INDEX(Squads!A$3:B$1048576,MATCH(F434, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8375,7 +8375,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E435" s="6" t="str">
         <f>IF(ISBLANK(F435), "",INDEX(Squads!A$3:B$1048576,MATCH(F435, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8385,7 +8385,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E436" s="6" t="str">
         <f>IF(ISBLANK(F436), "",INDEX(Squads!A$3:B$1048576,MATCH(F436, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8395,7 +8395,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E437" s="6" t="str">
         <f>IF(ISBLANK(F437), "",INDEX(Squads!A$3:B$1048576,MATCH(F437, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8405,7 +8405,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E438" s="6" t="str">
         <f>IF(ISBLANK(F438), "",INDEX(Squads!A$3:B$1048576,MATCH(F438, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8415,7 +8415,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E439" s="6" t="str">
         <f>IF(ISBLANK(F439), "",INDEX(Squads!A$3:B$1048576,MATCH(F439, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8425,7 +8425,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E440" s="6" t="str">
         <f>IF(ISBLANK(F440), "",INDEX(Squads!A$3:B$1048576,MATCH(F440, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8435,7 +8435,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E441" s="6" t="str">
         <f>IF(ISBLANK(F441), "",INDEX(Squads!A$3:B$1048576,MATCH(F441, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8445,7 +8445,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E442" s="6" t="str">
         <f>IF(ISBLANK(F442), "",INDEX(Squads!A$3:B$1048576,MATCH(F442, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8455,7 +8455,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E443" s="6" t="str">
         <f>IF(ISBLANK(F443), "",INDEX(Squads!A$3:B$1048576,MATCH(F443, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8465,7 +8465,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E444" s="6" t="str">
         <f>IF(ISBLANK(F444), "",INDEX(Squads!A$3:B$1048576,MATCH(F444, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8475,7 +8475,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E445" s="6" t="str">
         <f>IF(ISBLANK(F445), "",INDEX(Squads!A$3:B$1048576,MATCH(F445, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8485,7 +8485,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E446" s="6" t="str">
         <f>IF(ISBLANK(F446), "",INDEX(Squads!A$3:B$1048576,MATCH(F446, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8495,7 +8495,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E447" s="6" t="str">
         <f>IF(ISBLANK(F447), "",INDEX(Squads!A$3:B$1048576,MATCH(F447, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8505,7 +8505,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E448" s="6" t="str">
         <f>IF(ISBLANK(F448), "",INDEX(Squads!A$3:B$1048576,MATCH(F448, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8515,7 +8515,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E449" s="6" t="str">
         <f>IF(ISBLANK(F449), "",INDEX(Squads!A$3:B$1048576,MATCH(F449, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8525,7 +8525,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E450" s="6" t="str">
         <f>IF(ISBLANK(F450), "",INDEX(Squads!A$3:B$1048576,MATCH(F450, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8535,7 +8535,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E451" s="6" t="str">
         <f>IF(ISBLANK(F451), "",INDEX(Squads!A$3:B$1048576,MATCH(F451, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8545,7 +8545,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E452" s="6" t="str">
         <f>IF(ISBLANK(F452), "",INDEX(Squads!A$3:B$1048576,MATCH(F452, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8555,7 +8555,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E453" s="6" t="str">
         <f>IF(ISBLANK(F453), "",INDEX(Squads!A$3:B$1048576,MATCH(F453, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E454" s="6" t="str">
         <f>IF(ISBLANK(F454), "",INDEX(Squads!A$3:B$1048576,MATCH(F454, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8575,7 +8575,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E455" s="6" t="str">
         <f>IF(ISBLANK(F455), "",INDEX(Squads!A$3:B$1048576,MATCH(F455, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8585,7 +8585,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E456" s="6" t="str">
         <f>IF(ISBLANK(F456), "",INDEX(Squads!A$3:B$1048576,MATCH(F456, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8595,7 +8595,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E457" s="6" t="str">
         <f>IF(ISBLANK(F457), "",INDEX(Squads!A$3:B$1048576,MATCH(F457, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8605,7 +8605,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E458" s="6" t="str">
         <f>IF(ISBLANK(F458), "",INDEX(Squads!A$3:B$1048576,MATCH(F458, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8615,7 +8615,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E459" s="6" t="str">
         <f>IF(ISBLANK(F459), "",INDEX(Squads!A$3:B$1048576,MATCH(F459, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8625,7 +8625,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E460" s="6" t="str">
         <f>IF(ISBLANK(F460), "",INDEX(Squads!A$3:B$1048576,MATCH(F460, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8635,7 +8635,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E461" s="6" t="str">
         <f>IF(ISBLANK(F461), "",INDEX(Squads!A$3:B$1048576,MATCH(F461, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8645,7 +8645,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E462" s="6" t="str">
         <f>IF(ISBLANK(F462), "",INDEX(Squads!A$3:B$1048576,MATCH(F462, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8655,7 +8655,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E463" s="6" t="str">
         <f>IF(ISBLANK(F463), "",INDEX(Squads!A$3:B$1048576,MATCH(F463, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8665,7 +8665,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E464" s="6" t="str">
         <f>IF(ISBLANK(F464), "",INDEX(Squads!A$3:B$1048576,MATCH(F464, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8675,7 +8675,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E465" s="6" t="str">
         <f>IF(ISBLANK(F465), "",INDEX(Squads!A$3:B$1048576,MATCH(F465, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E466" s="6" t="str">
         <f>IF(ISBLANK(F466), "",INDEX(Squads!A$3:B$1048576,MATCH(F466, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8695,7 +8695,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E467" s="6" t="str">
         <f>IF(ISBLANK(F467), "",INDEX(Squads!A$3:B$1048576,MATCH(F467, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8705,7 +8705,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E468" s="6" t="str">
         <f>IF(ISBLANK(F468), "",INDEX(Squads!A$3:B$1048576,MATCH(F468, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8715,7 +8715,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E469" s="6" t="str">
         <f>IF(ISBLANK(F469), "",INDEX(Squads!A$3:B$1048576,MATCH(F469, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8725,7 +8725,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E470" s="6" t="str">
         <f>IF(ISBLANK(F470), "",INDEX(Squads!A$3:B$1048576,MATCH(F470, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8735,7 +8735,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E471" s="6" t="str">
         <f>IF(ISBLANK(F471), "",INDEX(Squads!A$3:B$1048576,MATCH(F471, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8745,7 +8745,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E472" s="6" t="str">
         <f>IF(ISBLANK(F472), "",INDEX(Squads!A$3:B$1048576,MATCH(F472, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8755,7 +8755,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E473" s="6" t="str">
         <f>IF(ISBLANK(F473), "",INDEX(Squads!A$3:B$1048576,MATCH(F473, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8765,7 +8765,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E474" s="6" t="str">
         <f>IF(ISBLANK(F474), "",INDEX(Squads!A$3:B$1048576,MATCH(F474, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8775,7 +8775,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E475" s="6" t="str">
         <f>IF(ISBLANK(F475), "",INDEX(Squads!A$3:B$1048576,MATCH(F475, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8785,7 +8785,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E476" s="6" t="str">
         <f>IF(ISBLANK(F476), "",INDEX(Squads!A$3:B$1048576,MATCH(F476, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8795,7 +8795,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E477" s="6" t="str">
         <f>IF(ISBLANK(F477), "",INDEX(Squads!A$3:B$1048576,MATCH(F477, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8805,7 +8805,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E478" s="6" t="str">
         <f>IF(ISBLANK(F478), "",INDEX(Squads!A$3:B$1048576,MATCH(F478, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8815,7 +8815,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E479" s="6" t="str">
         <f>IF(ISBLANK(F479), "",INDEX(Squads!A$3:B$1048576,MATCH(F479, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8825,7 +8825,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E480" s="6" t="str">
         <f>IF(ISBLANK(F480), "",INDEX(Squads!A$3:B$1048576,MATCH(F480, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8835,7 +8835,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E481" s="6" t="str">
         <f>IF(ISBLANK(F481), "",INDEX(Squads!A$3:B$1048576,MATCH(F481, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8845,7 +8845,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E482" s="6" t="str">
         <f>IF(ISBLANK(F482), "",INDEX(Squads!A$3:B$1048576,MATCH(F482, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8855,7 +8855,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E483" s="6" t="str">
         <f>IF(ISBLANK(F483), "",INDEX(Squads!A$3:B$1048576,MATCH(F483, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8865,7 +8865,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E484" s="6" t="str">
         <f>IF(ISBLANK(F484), "",INDEX(Squads!A$3:B$1048576,MATCH(F484, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8875,7 +8875,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E485" s="6" t="str">
         <f>IF(ISBLANK(F485), "",INDEX(Squads!A$3:B$1048576,MATCH(F485, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8885,7 +8885,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E486" s="6" t="str">
         <f>IF(ISBLANK(F486), "",INDEX(Squads!A$3:B$1048576,MATCH(F486, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8895,7 +8895,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E487" s="6" t="str">
         <f>IF(ISBLANK(F487), "",INDEX(Squads!A$3:B$1048576,MATCH(F487, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8905,7 +8905,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E488" s="6" t="str">
         <f>IF(ISBLANK(F488), "",INDEX(Squads!A$3:B$1048576,MATCH(F488, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8915,7 +8915,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E489" s="6" t="str">
         <f>IF(ISBLANK(F489), "",INDEX(Squads!A$3:B$1048576,MATCH(F489, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8925,7 +8925,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E490" s="6" t="str">
         <f>IF(ISBLANK(F490), "",INDEX(Squads!A$3:B$1048576,MATCH(F490, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8935,7 +8935,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E491" s="6" t="str">
         <f>IF(ISBLANK(F491), "",INDEX(Squads!A$3:B$1048576,MATCH(F491, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8945,7 +8945,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E492" s="6" t="str">
         <f>IF(ISBLANK(F492), "",INDEX(Squads!A$3:B$1048576,MATCH(F492, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8955,7 +8955,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E493" s="6" t="str">
         <f>IF(ISBLANK(F493), "",INDEX(Squads!A$3:B$1048576,MATCH(F493, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8965,7 +8965,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E494" s="6" t="str">
         <f>IF(ISBLANK(F494), "",INDEX(Squads!A$3:B$1048576,MATCH(F494, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8975,7 +8975,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E495" s="6" t="str">
         <f>IF(ISBLANK(F495), "",INDEX(Squads!A$3:B$1048576,MATCH(F495, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8985,7 +8985,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E496" s="6" t="str">
         <f>IF(ISBLANK(F496), "",INDEX(Squads!A$3:B$1048576,MATCH(F496, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -8995,7 +8995,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E497" s="6" t="str">
         <f>IF(ISBLANK(F497), "",INDEX(Squads!A$3:B$1048576,MATCH(F497, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9005,7 +9005,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E498" s="6" t="str">
         <f>IF(ISBLANK(F498), "",INDEX(Squads!A$3:B$1048576,MATCH(F498, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9015,7 +9015,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E499" s="6" t="str">
         <f>IF(ISBLANK(F499), "",INDEX(Squads!A$3:B$1048576,MATCH(F499, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9025,7 +9025,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E500" s="6" t="str">
         <f>IF(ISBLANK(F500), "",INDEX(Squads!A$3:B$1048576,MATCH(F500, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9035,7 +9035,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E501" s="6" t="str">
         <f>IF(ISBLANK(F501), "",INDEX(Squads!A$3:B$1048576,MATCH(F501, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9045,7 +9045,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E502" s="6" t="str">
         <f>IF(ISBLANK(F502), "",INDEX(Squads!A$3:B$1048576,MATCH(F502, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9055,7 +9055,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E503" s="6" t="str">
         <f>IF(ISBLANK(F503), "",INDEX(Squads!A$3:B$1048576,MATCH(F503, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9065,7 +9065,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E504" s="6" t="str">
         <f>IF(ISBLANK(F504), "",INDEX(Squads!A$3:B$1048576,MATCH(F504, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9075,7 +9075,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E505" s="6" t="str">
         <f>IF(ISBLANK(F505), "",INDEX(Squads!A$3:B$1048576,MATCH(F505, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9085,7 +9085,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E506" s="6" t="str">
         <f>IF(ISBLANK(F506), "",INDEX(Squads!A$3:B$1048576,MATCH(F506, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9095,7 +9095,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E507" s="6" t="str">
         <f>IF(ISBLANK(F507), "",INDEX(Squads!A$3:B$1048576,MATCH(F507, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9105,7 +9105,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E508" s="6" t="str">
         <f>IF(ISBLANK(F508), "",INDEX(Squads!A$3:B$1048576,MATCH(F508, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9115,7 +9115,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E509" s="6" t="str">
         <f>IF(ISBLANK(F509), "",INDEX(Squads!A$3:B$1048576,MATCH(F509, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9125,7 +9125,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E510" s="6" t="str">
         <f>IF(ISBLANK(F510), "",INDEX(Squads!A$3:B$1048576,MATCH(F510, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9135,7 +9135,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E511" s="6" t="str">
         <f>IF(ISBLANK(F511), "",INDEX(Squads!A$3:B$1048576,MATCH(F511, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9145,7 +9145,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E512" s="6" t="str">
         <f>IF(ISBLANK(F512), "",INDEX(Squads!A$3:B$1048576,MATCH(F512, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9155,7 +9155,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E513" s="6" t="str">
         <f>IF(ISBLANK(F513), "",INDEX(Squads!A$3:B$1048576,MATCH(F513, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9165,7 +9165,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E514" s="6" t="str">
         <f>IF(ISBLANK(F514), "",INDEX(Squads!A$3:B$1048576,MATCH(F514, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9175,7 +9175,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E515" s="6" t="str">
         <f>IF(ISBLANK(F515), "",INDEX(Squads!A$3:B$1048576,MATCH(F515, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9185,7 +9185,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E516" s="6" t="str">
         <f>IF(ISBLANK(F516), "",INDEX(Squads!A$3:B$1048576,MATCH(F516, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9195,7 +9195,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E517" s="6" t="str">
         <f>IF(ISBLANK(F517), "",INDEX(Squads!A$3:B$1048576,MATCH(F517, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9205,7 +9205,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E518" s="6" t="str">
         <f>IF(ISBLANK(F518), "",INDEX(Squads!A$3:B$1048576,MATCH(F518, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9215,7 +9215,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E519" s="6" t="str">
         <f>IF(ISBLANK(F519), "",INDEX(Squads!A$3:B$1048576,MATCH(F519, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9225,7 +9225,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E520" s="6" t="str">
         <f>IF(ISBLANK(F520), "",INDEX(Squads!A$3:B$1048576,MATCH(F520, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9235,7 +9235,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E521" s="6" t="str">
         <f>IF(ISBLANK(F521), "",INDEX(Squads!A$3:B$1048576,MATCH(F521, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9245,7 +9245,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E522" s="6" t="str">
         <f>IF(ISBLANK(F522), "",INDEX(Squads!A$3:B$1048576,MATCH(F522, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9255,7 +9255,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E523" s="6" t="str">
         <f>IF(ISBLANK(F523), "",INDEX(Squads!A$3:B$1048576,MATCH(F523, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9265,7 +9265,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E524" s="6" t="str">
         <f>IF(ISBLANK(F524), "",INDEX(Squads!A$3:B$1048576,MATCH(F524, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9275,7 +9275,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E525" s="6" t="str">
         <f>IF(ISBLANK(F525), "",INDEX(Squads!A$3:B$1048576,MATCH(F525, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9285,7 +9285,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E526" s="6" t="str">
         <f>IF(ISBLANK(F526), "",INDEX(Squads!A$3:B$1048576,MATCH(F526, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9295,7 +9295,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E527" s="6" t="str">
         <f>IF(ISBLANK(F527), "",INDEX(Squads!A$3:B$1048576,MATCH(F527, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9305,7 +9305,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E528" s="6" t="str">
         <f>IF(ISBLANK(F528), "",INDEX(Squads!A$3:B$1048576,MATCH(F528, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9315,7 +9315,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E529" s="6" t="str">
         <f>IF(ISBLANK(F529), "",INDEX(Squads!A$3:B$1048576,MATCH(F529, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9325,7 +9325,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E530" s="6" t="str">
         <f>IF(ISBLANK(F530), "",INDEX(Squads!A$3:B$1048576,MATCH(F530, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9335,7 +9335,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E531" s="6" t="str">
         <f>IF(ISBLANK(F531), "",INDEX(Squads!A$3:B$1048576,MATCH(F531, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9345,7 +9345,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E532" s="6" t="str">
         <f>IF(ISBLANK(F532), "",INDEX(Squads!A$3:B$1048576,MATCH(F532, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9355,7 +9355,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E533" s="6" t="str">
         <f>IF(ISBLANK(F533), "",INDEX(Squads!A$3:B$1048576,MATCH(F533, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9365,7 +9365,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E534" s="6" t="str">
         <f>IF(ISBLANK(F534), "",INDEX(Squads!A$3:B$1048576,MATCH(F534, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9375,7 +9375,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E535" s="6" t="str">
         <f>IF(ISBLANK(F535), "",INDEX(Squads!A$3:B$1048576,MATCH(F535, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9385,7 +9385,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E536" s="6" t="str">
         <f>IF(ISBLANK(F536), "",INDEX(Squads!A$3:B$1048576,MATCH(F536, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9395,7 +9395,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E537" s="6" t="str">
         <f>IF(ISBLANK(F537), "",INDEX(Squads!A$3:B$1048576,MATCH(F537, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9405,7 +9405,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E538" s="6" t="str">
         <f>IF(ISBLANK(F538), "",INDEX(Squads!A$3:B$1048576,MATCH(F538, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9415,7 +9415,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E539" s="6" t="str">
         <f>IF(ISBLANK(F539), "",INDEX(Squads!A$3:B$1048576,MATCH(F539, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9425,7 +9425,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E540" s="6" t="str">
         <f>IF(ISBLANK(F540), "",INDEX(Squads!A$3:B$1048576,MATCH(F540, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9435,7 +9435,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E541" s="6" t="str">
         <f>IF(ISBLANK(F541), "",INDEX(Squads!A$3:B$1048576,MATCH(F541, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9445,7 +9445,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E542" s="6" t="str">
         <f>IF(ISBLANK(F542), "",INDEX(Squads!A$3:B$1048576,MATCH(F542, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9455,7 +9455,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E543" s="6" t="str">
         <f>IF(ISBLANK(F543), "",INDEX(Squads!A$3:B$1048576,MATCH(F543, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9465,7 +9465,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E544" s="6" t="str">
         <f>IF(ISBLANK(F544), "",INDEX(Squads!A$3:B$1048576,MATCH(F544, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9475,7 +9475,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E545" s="6" t="str">
         <f>IF(ISBLANK(F545), "",INDEX(Squads!A$3:B$1048576,MATCH(F545, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9485,7 +9485,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E546" s="6" t="str">
         <f>IF(ISBLANK(F546), "",INDEX(Squads!A$3:B$1048576,MATCH(F546, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9495,7 +9495,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E547" s="6" t="str">
         <f>IF(ISBLANK(F547), "",INDEX(Squads!A$3:B$1048576,MATCH(F547, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9505,7 +9505,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E548" s="6" t="str">
         <f>IF(ISBLANK(F548), "",INDEX(Squads!A$3:B$1048576,MATCH(F548, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9515,7 +9515,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E549" s="6" t="str">
         <f>IF(ISBLANK(F549), "",INDEX(Squads!A$3:B$1048576,MATCH(F549, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9525,7 +9525,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E550" s="6" t="str">
         <f>IF(ISBLANK(F550), "",INDEX(Squads!A$3:B$1048576,MATCH(F550, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9535,7 +9535,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E551" s="6" t="str">
         <f>IF(ISBLANK(F551), "",INDEX(Squads!A$3:B$1048576,MATCH(F551, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9545,7 +9545,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E552" s="6" t="str">
         <f>IF(ISBLANK(F552), "",INDEX(Squads!A$3:B$1048576,MATCH(F552, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9555,7 +9555,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E553" s="6" t="str">
         <f>IF(ISBLANK(F553), "",INDEX(Squads!A$3:B$1048576,MATCH(F553, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9565,7 +9565,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E554" s="6" t="str">
         <f>IF(ISBLANK(F554), "",INDEX(Squads!A$3:B$1048576,MATCH(F554, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9575,7 +9575,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E555" s="6" t="str">
         <f>IF(ISBLANK(F555), "",INDEX(Squads!A$3:B$1048576,MATCH(F555, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9585,7 +9585,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E556" s="6" t="str">
         <f>IF(ISBLANK(F556), "",INDEX(Squads!A$3:B$1048576,MATCH(F556, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9595,7 +9595,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E557" s="6" t="str">
         <f>IF(ISBLANK(F557), "",INDEX(Squads!A$3:B$1048576,MATCH(F557, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E558" s="6" t="str">
         <f>IF(ISBLANK(F558), "",INDEX(Squads!A$3:B$1048576,MATCH(F558, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9615,7 +9615,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E559" s="6" t="str">
         <f>IF(ISBLANK(F559), "",INDEX(Squads!A$3:B$1048576,MATCH(F559, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9625,7 +9625,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E560" s="6" t="str">
         <f>IF(ISBLANK(F560), "",INDEX(Squads!A$3:B$1048576,MATCH(F560, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9635,7 +9635,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E561" s="6" t="str">
         <f>IF(ISBLANK(F561), "",INDEX(Squads!A$3:B$1048576,MATCH(F561, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9645,7 +9645,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E562" s="6" t="str">
         <f>IF(ISBLANK(F562), "",INDEX(Squads!A$3:B$1048576,MATCH(F562, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9655,7 +9655,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E563" s="6" t="str">
         <f>IF(ISBLANK(F563), "",INDEX(Squads!A$3:B$1048576,MATCH(F563, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9665,7 +9665,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E564" s="6" t="str">
         <f>IF(ISBLANK(F564), "",INDEX(Squads!A$3:B$1048576,MATCH(F564, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9675,7 +9675,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E565" s="6" t="str">
         <f>IF(ISBLANK(F565), "",INDEX(Squads!A$3:B$1048576,MATCH(F565, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9685,7 +9685,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E566" s="6" t="str">
         <f>IF(ISBLANK(F566), "",INDEX(Squads!A$3:B$1048576,MATCH(F566, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9695,7 +9695,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E567" s="6" t="str">
         <f>IF(ISBLANK(F567), "",INDEX(Squads!A$3:B$1048576,MATCH(F567, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9705,7 +9705,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E568" s="6" t="str">
         <f>IF(ISBLANK(F568), "",INDEX(Squads!A$3:B$1048576,MATCH(F568, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9715,7 +9715,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E569" s="6" t="str">
         <f>IF(ISBLANK(F569), "",INDEX(Squads!A$3:B$1048576,MATCH(F569, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E570" s="6" t="str">
         <f>IF(ISBLANK(F570), "",INDEX(Squads!A$3:B$1048576,MATCH(F570, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9735,7 +9735,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E571" s="6" t="str">
         <f>IF(ISBLANK(F571), "",INDEX(Squads!A$3:B$1048576,MATCH(F571, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9745,7 +9745,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E572" s="6" t="str">
         <f>IF(ISBLANK(F572), "",INDEX(Squads!A$3:B$1048576,MATCH(F572, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9755,7 +9755,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E573" s="6" t="str">
         <f>IF(ISBLANK(F573), "",INDEX(Squads!A$3:B$1048576,MATCH(F573, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9765,7 +9765,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E574" s="6" t="str">
         <f>IF(ISBLANK(F574), "",INDEX(Squads!A$3:B$1048576,MATCH(F574, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9775,7 +9775,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E575" s="6" t="str">
         <f>IF(ISBLANK(F575), "",INDEX(Squads!A$3:B$1048576,MATCH(F575, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9785,7 +9785,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E576" s="6" t="str">
         <f>IF(ISBLANK(F576), "",INDEX(Squads!A$3:B$1048576,MATCH(F576, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9795,7 +9795,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E577" s="6" t="str">
         <f>IF(ISBLANK(F577), "",INDEX(Squads!A$3:B$1048576,MATCH(F577, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9805,37 +9805,37 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E578" s="6" t="str">
         <f>IF(ISBLANK(F578), "",INDEX(Squads!A$3:B$1048576,MATCH(F578, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="579" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E579" s="6" t="str">
         <f>IF(ISBLANK(F579), "",INDEX(Squads!A$3:B$1048576,MATCH(F579, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="580" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E580" s="6" t="str">
         <f>IF(ISBLANK(F580), "",INDEX(Squads!A$3:B$1048576,MATCH(F580, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="581" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E581" s="6" t="str">
         <f>IF(ISBLANK(F581), "",INDEX(Squads!A$3:B$1048576,MATCH(F581, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="582" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E582" s="6" t="str">
         <f>IF(ISBLANK(F582), "",INDEX(Squads!A$3:B$1048576,MATCH(F582, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="583" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E583" s="6" t="str">
         <f>IF(ISBLANK(F583), "",INDEX(Squads!A$3:B$1048576,MATCH(F583, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
@@ -9865,19 +9865,19 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(ISBLANK(B4), "", A3 + 1)</f>
         <v>2</v>
@@ -9902,223 +9902,223 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f t="shared" ref="A5:A41" si="0">IF(ISBLANK(B5), "", A4 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10136,23 +10136,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="7" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
@@ -10161,47 +10161,47 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4">
         <v>9111368924</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
   </sheetData>
@@ -10217,27 +10217,27 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15" t="s">
@@ -10246,7 +10246,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>196</v>
       </c>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>193</v>
       </c>
@@ -10275,7 +10275,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>194</v>
       </c>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="F5" s="12" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="F6" s="12" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="F7" s="12" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
@@ -10312,9 +10312,9 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -10333,29 +10333,29 @@
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.83203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>Олексюк Полина</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(ISBLANK(B4), "", A3 + 1)</f>
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>Мурзин Илья</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A22" si="0">IF(ISBLANK(B5), "", A4 + 1)</f>
         <v>3</v>
@@ -10444,7 +10444,7 @@
         <v>Боговая Лиза</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10467,97 +10467,97 @@
         <v>Унгарова Любава</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10577,30 +10577,30 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>195</v>
@@ -10610,7 +10610,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>169</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>Гущина Маша</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>182</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>Юрьев Кирилл</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>170</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>Давыдова Влада</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>171</v>
       </c>
@@ -10658,16 +10658,19 @@
         <v>Северьянова Юля</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>172</v>
       </c>
+      <c r="B7" s="6">
+        <v>102</v>
+      </c>
       <c r="D7" s="11" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>Воронина Лариса Васильевна</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>173</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>Михайлов Кирилл</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>174</v>
       </c>
@@ -10691,7 +10694,7 @@
         <v>Гурьев Гоша</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>175</v>
       </c>
@@ -10703,7 +10706,7 @@
         <v>Савинкина Лиза</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>176</v>
       </c>
@@ -10715,7 +10718,7 @@
         <v>Варзина Настя</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>177</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v>Образцова Арина</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>178</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>Ульянова Саша</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>179</v>
       </c>
@@ -10751,7 +10754,7 @@
         <v>Гущина Маша</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>180</v>
       </c>
@@ -10763,7 +10766,7 @@
         <v>Олехова Настя</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>181</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>Евтушенко Юля</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>183</v>
       </c>
@@ -10787,7 +10790,7 @@
         <v>Архипова Лера</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>184</v>
       </c>
@@ -10799,7 +10802,7 @@
         <v>Коротова Ангелина</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>185</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v>Кескюль Лина</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>186</v>
       </c>
@@ -10823,121 +10826,121 @@
         <v>Акимов Егор</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" s="11" t="str">
         <f>IF(ISBLANK(B21), "",INDEX(People!$A$3:$K$1048576,MATCH(B21, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" s="11" t="str">
         <f>IF(ISBLANK(B22), "",INDEX(People!$A$3:$K$1048576,MATCH(B22, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="11" t="str">
         <f>IF(ISBLANK(B23), "",INDEX(People!$A$3:$K$1048576,MATCH(B23, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="str">
         <f>IF(ISBLANK(B24), "",INDEX(People!$A$3:$K$1048576,MATCH(B24, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="str">
         <f>IF(ISBLANK(B25), "",INDEX(People!$A$3:$K$1048576,MATCH(B25, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="str">
         <f>IF(ISBLANK(B26), "",INDEX(People!$A$3:$K$1048576,MATCH(B26, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="11" t="str">
         <f>IF(ISBLANK(B27), "",INDEX(People!$A$3:$K$1048576,MATCH(B27, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="str">
         <f>IF(ISBLANK(B34), "",INDEX(People!$A$3:$K$1048576,MATCH(B34, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="7" t="str">
         <f>IF(ISBLANK(B35), "",INDEX(People!$A$3:$K$1048576,MATCH(B35, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="7" t="str">
         <f>IF(ISBLANK(B36), "",INDEX(People!$A$3:$K$1048576,MATCH(B36, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="7" t="str">
         <f>IF(ISBLANK(B37), "",INDEX(People!$A$3:$K$1048576,MATCH(B37, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="7" t="str">
         <f>IF(ISBLANK(B38), "",INDEX(People!$A$3:$K$1048576,MATCH(B38, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="7" t="str">
         <f>IF(ISBLANK(B39), "",INDEX(People!$A$3:$K$1048576,MATCH(B39, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="7" t="str">
         <f>IF(ISBLANK(B40), "",INDEX(People!$A$3:$K$1048576,MATCH(B40, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="7" t="str">
         <f>IF(ISBLANK(B41), "",INDEX(People!$A$3:$K$1048576,MATCH(B41, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="str">
         <f>IF(ISBLANK(B42), "",INDEX(People!$A$3:$K$1048576,MATCH(B42, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="7" t="str">
         <f>IF(ISBLANK(B43), "",INDEX(People!$A$3:$K$1048576,MATCH(B43, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="7" t="str">
         <f>IF(ISBLANK(B44), "",INDEX(People!$A$3:$K$1048576,MATCH(B44, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="7" t="str">
         <f>IF(ISBLANK(B45), "",INDEX(People!$A$3:$K$1048576,MATCH(B45, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="7" t="str">
         <f>IF(ISBLANK(B46), "",INDEX(People!$A$3:$K$1048576,MATCH(B46, People!$A$3:$A$1048576, 0), 8))</f>
         <v/>
@@ -10956,35 +10959,35 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>196</v>
       </c>
@@ -11006,28 +11009,28 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>IF(ISBLANK(C3), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C3, People!$A$3:$D$6, 0), 2), "'"))</f>
         <v>ДКС</v>
       </c>
       <c r="B3" s="6">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Гущина Маша</v>
+        <v>Евтюхова Саша</v>
       </c>
       <c r="G3" t="str">
         <f t="array" ref="G3">IF(ISBLANK(B3), "",INDEX(Squads!$A$3:$D$6, H3, 2))</f>
-        <v>Антоновский</v>
+        <v>Аневский</v>
       </c>
       <c r="H3" s="6">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f>IF(ISBLANK(C4), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C4, Squads!$A$3:$A$6, 0), 2), "'"))</f>
         <v>ДКО 'Антоновский'</v>
@@ -11051,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>IF(ISBLANK(C5), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C5, Squads!$A$3:$A$6, 0), 2), "'"))</f>
         <v>ДКО 'Гришинский'</v>
@@ -11075,7 +11078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>IF(ISBLANK(C6), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C6, Squads!$A$3:$A$6, 0), 2), "'"))</f>
         <v>ДКО 'Киринский'</v>
@@ -11099,7 +11102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(ISBLANK(C7), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C7, Squads!$A$3:$A$6, 0), 2), "'"))</f>
         <v>ДКО 'Аневский'</v>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06251334-E397-43BC-9EE3-0CEC73C87D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C177AF-23FC-4282-BDBF-19E6D5ECD363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="207">
   <si>
     <t>Информация для бота</t>
   </si>
@@ -612,9 +612,6 @@
     <t>Отряд ID дежурного</t>
   </si>
   <si>
-    <t>Дурнев</t>
-  </si>
-  <si>
     <t>Владимир Николаевич</t>
   </si>
   <si>
@@ -628,9 +625,6 @@
   </si>
   <si>
     <t>Ответственность</t>
-  </si>
-  <si>
-    <t>Воронина</t>
   </si>
   <si>
     <t>Служба</t>
@@ -708,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -741,6 +735,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,21 +1063,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1135,8 +1131,8 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="str">
-        <f t="shared" ref="H3:H34" si="0">IF(ISBLANK(B3), "",_xlfn.CONCAT($B3," ",$C3))</f>
+      <c r="H3" s="20" t="str">
+        <f t="shared" ref="H3:H66" si="0">IF(AND(ISBLANK(B3),ISBLANK(C3)), "",TRIM(_xlfn.CONCAT($B3," ",$C3)))</f>
         <v>Булыгин Антон</v>
       </c>
       <c r="I3" s="3" t="str">
@@ -1148,13 +1144,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K34" si="1">D3</f>
+        <f>D3</f>
         <v>9021935635</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f>IF(ISBLANK(B4), "", A3 + 1)</f>
+        <f>IF(AND(ISBLANK(B4),ISBLANK(C4)), "", A3 + 1)</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1172,7 +1168,7 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Романенко Гриша</v>
       </c>
@@ -1185,13 +1181,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="1"/>
+        <f>D4</f>
         <v>9021979976</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <f t="shared" ref="A5:A68" si="2">IF(ISBLANK(B5), "", A4 + 1)</f>
+      <c r="A5" s="21">
+        <f>IF(AND(ISBLANK(B5),ISBLANK(C5)), "", A4 + 1)</f>
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1209,7 +1205,7 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="str">
+      <c r="H5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Семьина Кира</v>
       </c>
@@ -1222,13 +1218,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="1"/>
+        <f>D5</f>
         <v>9532643448</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <f t="shared" si="2"/>
+      <c r="A6" s="21">
+        <f>IF(AND(ISBLANK(B6),ISBLANK(C6)), "", A5 + 1)</f>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1246,7 +1242,7 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
+      <c r="H6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Ивашова Аня</v>
       </c>
@@ -1259,13 +1255,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="1"/>
+        <f>D6</f>
         <v>9532633851</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <f t="shared" si="2"/>
+      <c r="A7" s="21">
+        <f>IF(AND(ISBLANK(B7),ISBLANK(C7)), "", A6 + 1)</f>
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1283,7 +1279,7 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="H7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Олексюк Полина</v>
       </c>
@@ -1296,13 +1292,13 @@
         <v>Участник</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="1"/>
+        <f>D7</f>
         <v>9115603391</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <f t="shared" si="2"/>
+      <c r="A8" s="21">
+        <f>IF(AND(ISBLANK(B8),ISBLANK(C8)), "", A7 + 1)</f>
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1320,7 +1316,7 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Мурзин Илья</v>
       </c>
@@ -1333,13 +1329,13 @@
         <v>Участник</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="1"/>
+        <f>D8</f>
         <v>9539321285</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <f t="shared" si="2"/>
+      <c r="A9" s="21">
+        <f>IF(AND(ISBLANK(B9),ISBLANK(C9)), "", A8 + 1)</f>
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1357,7 +1353,7 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="H9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Боговая Лиза</v>
       </c>
@@ -1370,13 +1366,13 @@
         <v>Участник</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="1"/>
+        <f>D9</f>
         <v>9116841436</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f t="shared" si="2"/>
+      <c r="A10" s="21">
+        <f>IF(AND(ISBLANK(B10),ISBLANK(C10)), "", A9 + 1)</f>
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1394,7 +1390,7 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="H10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Унгарова Любава</v>
       </c>
@@ -1407,13 +1403,13 @@
         <v>Участник</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="1"/>
+        <f>D10</f>
         <v>9532659850</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="2"/>
+      <c r="A11" s="21">
+        <f>IF(AND(ISBLANK(B11),ISBLANK(C11)), "", A10 + 1)</f>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1431,7 +1427,7 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="H11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Гущина Маша</v>
       </c>
@@ -1444,13 +1440,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="1"/>
+        <f>D11</f>
         <v>9115898960</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="2"/>
+      <c r="A12" s="21">
+        <f>IF(AND(ISBLANK(B12),ISBLANK(C12)), "", A11 + 1)</f>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1468,7 +1464,7 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Хоменко Лера</v>
       </c>
@@ -1481,13 +1477,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="1"/>
+        <f>D12</f>
         <v>9115574147</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f t="shared" si="2"/>
+      <c r="A13" s="21">
+        <f>IF(AND(ISBLANK(B13),ISBLANK(C13)), "", A12 + 1)</f>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1505,7 +1501,7 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="H13" s="7" t="str">
+      <c r="H13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Черемная Алина</v>
       </c>
@@ -1518,13 +1514,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="1"/>
+        <f>D13</f>
         <v>9539378410</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f t="shared" si="2"/>
+      <c r="A14" s="21">
+        <f>IF(AND(ISBLANK(B14),ISBLANK(C14)), "", A13 + 1)</f>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1542,7 +1538,7 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="H14" s="7" t="str">
+      <c r="H14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Акимов Егор</v>
       </c>
@@ -1555,13 +1551,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="1"/>
+        <f>D14</f>
         <v>9111368924</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <f t="shared" si="2"/>
+      <c r="A15" s="21">
+        <f>IF(AND(ISBLANK(B15),ISBLANK(C15)), "", A14 + 1)</f>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1579,7 +1575,7 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="H15" s="7" t="str">
+      <c r="H15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Мурзин Лёша</v>
       </c>
@@ -1592,13 +1588,13 @@
         <v>Участник</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="1"/>
+        <f>D15</f>
         <v>9539306652</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <f t="shared" si="2"/>
+      <c r="A16" s="21">
+        <f>IF(AND(ISBLANK(B16),ISBLANK(C16)), "", A15 + 1)</f>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1616,7 +1612,7 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="H16" s="7" t="str">
+      <c r="H16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Шедько Артём</v>
       </c>
@@ -1629,13 +1625,13 @@
         <v>Участник</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="1"/>
+        <f>D16</f>
         <v>9009117733</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <f t="shared" si="2"/>
+      <c r="A17" s="21">
+        <f>IF(AND(ISBLANK(B17),ISBLANK(C17)), "", A16 + 1)</f>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1653,7 +1649,7 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="H17" s="7" t="str">
+      <c r="H17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Сафин Артём</v>
       </c>
@@ -1666,13 +1662,13 @@
         <v>Участник</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="1"/>
+        <f>D17</f>
         <v>9539305448</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <f t="shared" si="2"/>
+      <c r="A18" s="21">
+        <f>IF(AND(ISBLANK(B18),ISBLANK(C18)), "", A17 + 1)</f>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1690,7 +1686,7 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="H18" s="7" t="str">
+      <c r="H18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Гурьев Гоша</v>
       </c>
@@ -1703,13 +1699,13 @@
         <v>Участник</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="1"/>
+        <f>D18</f>
         <v>9532663665</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <f t="shared" si="2"/>
+      <c r="A19" s="21">
+        <f>IF(AND(ISBLANK(B19),ISBLANK(C19)), "", A18 + 1)</f>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1727,7 +1723,7 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="H19" s="7" t="str">
+      <c r="H19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Воробьев Глеб</v>
       </c>
@@ -1740,13 +1736,13 @@
         <v>Участник</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="1"/>
+        <f>D19</f>
         <v>9115670597</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <f t="shared" si="2"/>
+      <c r="A20" s="21">
+        <f>IF(AND(ISBLANK(B20),ISBLANK(C20)), "", A19 + 1)</f>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1764,7 +1760,7 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="H20" s="7" t="str">
+      <c r="H20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Осотов Матвей</v>
       </c>
@@ -1777,13 +1773,13 @@
         <v>Участник</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="1"/>
+        <f>D20</f>
         <v>9021950338</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <f t="shared" si="2"/>
+      <c r="A21" s="21">
+        <f>IF(AND(ISBLANK(B21),ISBLANK(C21)), "", A20 + 1)</f>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1801,7 +1797,7 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="H21" s="7" t="str">
+      <c r="H21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Совершаев Роман</v>
       </c>
@@ -1814,13 +1810,13 @@
         <v>Участник</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="1"/>
+        <f>D21</f>
         <v>9062855831</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <f t="shared" si="2"/>
+      <c r="A22" s="21">
+        <f>IF(AND(ISBLANK(B22),ISBLANK(C22)), "", A21 + 1)</f>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1838,7 +1834,7 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="H22" s="7" t="str">
+      <c r="H22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Захаров Вова</v>
       </c>
@@ -1851,13 +1847,13 @@
         <v>Участник</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="1"/>
+        <f>D22</f>
         <v>9115922511</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <f t="shared" si="2"/>
+      <c r="A23" s="21">
+        <f>IF(AND(ISBLANK(B23),ISBLANK(C23)), "", A22 + 1)</f>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1875,7 +1871,7 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="H23" s="7" t="str">
+      <c r="H23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Саблин Лёша</v>
       </c>
@@ -1888,13 +1884,13 @@
         <v>Участник</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="1"/>
+        <f>D23</f>
         <v>9214735352</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <f t="shared" si="2"/>
+      <c r="A24" s="21">
+        <f>IF(AND(ISBLANK(B24),ISBLANK(C24)), "", A23 + 1)</f>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1912,7 +1908,7 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="H24" s="7" t="str">
+      <c r="H24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Лашова Яна</v>
       </c>
@@ -1925,13 +1921,13 @@
         <v>Участник</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="1"/>
+        <f>D24</f>
         <v>9502540282</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <f t="shared" si="2"/>
+      <c r="A25" s="21">
+        <f>IF(AND(ISBLANK(B25),ISBLANK(C25)), "", A24 + 1)</f>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1949,7 +1945,7 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="H25" s="7" t="str">
+      <c r="H25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Мухтарова Лиза</v>
       </c>
@@ -1962,13 +1958,13 @@
         <v>Участник</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="1"/>
+        <f>D25</f>
         <v>9523079564</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <f t="shared" si="2"/>
+      <c r="A26" s="21">
+        <f>IF(AND(ISBLANK(B26),ISBLANK(C26)), "", A25 + 1)</f>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1986,7 +1982,7 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="H26" s="7" t="str">
+      <c r="H26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Образцова Арина</v>
       </c>
@@ -1999,13 +1995,13 @@
         <v>Участник</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="1"/>
+        <f>D26</f>
         <v>9214921578</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <f t="shared" si="2"/>
+      <c r="A27" s="21">
+        <f>IF(AND(ISBLANK(B27),ISBLANK(C27)), "", A26 + 1)</f>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2023,7 +2019,7 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="H27" s="7" t="str">
+      <c r="H27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Окунева Лиза</v>
       </c>
@@ -2036,13 +2032,13 @@
         <v>Участник</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="1"/>
+        <f>D27</f>
         <v>9657317424</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <f t="shared" si="2"/>
+      <c r="A28" s="21">
+        <f>IF(AND(ISBLANK(B28),ISBLANK(C28)), "", A27 + 1)</f>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2060,7 +2056,7 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="H28" s="7" t="str">
+      <c r="H28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Козлова Настя</v>
       </c>
@@ -2073,13 +2069,13 @@
         <v>Участник</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="1"/>
+        <f>D28</f>
         <v>9626609766</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <f t="shared" si="2"/>
+      <c r="A29" s="21">
+        <f>IF(AND(ISBLANK(B29),ISBLANK(C29)), "", A28 + 1)</f>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2097,7 +2093,7 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="H29" s="7" t="str">
+      <c r="H29" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Данилова Маша</v>
       </c>
@@ -2110,13 +2106,13 @@
         <v>Участник</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="1"/>
+        <f>D29</f>
         <v>9095564124</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <f t="shared" si="2"/>
+      <c r="A30" s="21">
+        <f>IF(AND(ISBLANK(B30),ISBLANK(C30)), "", A29 + 1)</f>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2134,7 +2130,7 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="H30" s="7" t="str">
+      <c r="H30" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Мигунова Настя</v>
       </c>
@@ -2147,13 +2143,13 @@
         <v>Участник</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="1"/>
+        <f>D30</f>
         <v>9815549422</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <f t="shared" si="2"/>
+      <c r="A31" s="21">
+        <f>IF(AND(ISBLANK(B31),ISBLANK(C31)), "", A30 + 1)</f>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2171,7 +2167,7 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="H31" s="7" t="str">
+      <c r="H31" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Никонова Лера</v>
       </c>
@@ -2184,13 +2180,13 @@
         <v>Участник</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="1"/>
+        <f>D31</f>
         <v>9600041442</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <f t="shared" si="2"/>
+      <c r="A32" s="21">
+        <f>IF(AND(ISBLANK(B32),ISBLANK(C32)), "", A31 + 1)</f>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2208,7 +2204,7 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="H32" s="7" t="str">
+      <c r="H32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Шитикова Аня</v>
       </c>
@@ -2221,13 +2217,13 @@
         <v>Участник</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="1"/>
+        <f>D32</f>
         <v>9626620852</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <f t="shared" si="2"/>
+      <c r="A33" s="21">
+        <f>IF(AND(ISBLANK(B33),ISBLANK(C33)), "", A32 + 1)</f>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2243,7 +2239,7 @@
       <c r="F33">
         <v>2</v>
       </c>
-      <c r="H33" s="7" t="str">
+      <c r="H33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Вологдина Катя</v>
       </c>
@@ -2256,13 +2252,13 @@
         <v>Участник</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="1"/>
+        <f>D33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <f t="shared" si="2"/>
+      <c r="A34" s="21">
+        <f>IF(AND(ISBLANK(B34),ISBLANK(C34)), "", A33 + 1)</f>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2280,7 +2276,7 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="H34" s="7" t="str">
+      <c r="H34" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Звездин Саша</v>
       </c>
@@ -2293,13 +2289,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="1"/>
+        <f>D34</f>
         <v>9642934275</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <f t="shared" si="2"/>
+      <c r="A35" s="21">
+        <f>IF(AND(ISBLANK(B35),ISBLANK(C35)), "", A34 + 1)</f>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2317,8 +2313,8 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="H35" s="7" t="str">
-        <f t="shared" ref="H35:H66" si="3">IF(ISBLANK(B35), "",_xlfn.CONCAT($B35," ",$C35))</f>
+      <c r="H35" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Давыдова Влада</v>
       </c>
       <c r="I35" s="3" t="str">
@@ -2330,13 +2326,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" ref="K35:K66" si="4">D35</f>
+        <f>D35</f>
         <v>9600077240</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <f t="shared" si="2"/>
+      <c r="A36" s="21">
+        <f>IF(AND(ISBLANK(B36),ISBLANK(C36)), "", A35 + 1)</f>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2354,8 +2350,8 @@
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="H36" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H36" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Архипова Лера</v>
       </c>
       <c r="I36" s="3" t="str">
@@ -2367,13 +2363,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="4"/>
+        <f>D36</f>
         <v>9027080210</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <f t="shared" si="2"/>
+      <c r="A37" s="21">
+        <f>IF(AND(ISBLANK(B37),ISBLANK(C37)), "", A36 + 1)</f>
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2391,8 +2387,8 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="H37" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H37" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Ефимова Наташа</v>
       </c>
       <c r="I37" s="3" t="str">
@@ -2404,13 +2400,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="4"/>
+        <f>D37</f>
         <v>9115708643</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <f t="shared" si="2"/>
+      <c r="A38" s="21">
+        <f>IF(AND(ISBLANK(B38),ISBLANK(C38)), "", A37 + 1)</f>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -2428,8 +2424,8 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="H38" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H38" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Пономарев Илья</v>
       </c>
       <c r="I38" s="3" t="str">
@@ -2441,13 +2437,13 @@
         <v>Участник</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="4"/>
+        <f>D38</f>
         <v>9991460009</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <f t="shared" si="2"/>
+      <c r="A39" s="21">
+        <f>IF(AND(ISBLANK(B39),ISBLANK(C39)), "", A38 + 1)</f>
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2465,8 +2461,8 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="H39" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H39" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Доценко Егор</v>
       </c>
       <c r="I39" s="3" t="str">
@@ -2478,13 +2474,13 @@
         <v>Участник</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="4"/>
+        <f>D39</f>
         <v>9052936055</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <f t="shared" si="2"/>
+      <c r="A40" s="21">
+        <f>IF(AND(ISBLANK(B40),ISBLANK(C40)), "", A39 + 1)</f>
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2502,8 +2498,8 @@
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="H40" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H40" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Куку Олег</v>
       </c>
       <c r="I40" s="3" t="str">
@@ -2515,13 +2511,13 @@
         <v>Участник</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="4"/>
+        <f>D40</f>
         <v>9600079977</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <f t="shared" si="2"/>
+      <c r="A41" s="21">
+        <f>IF(AND(ISBLANK(B41),ISBLANK(C41)), "", A40 + 1)</f>
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2539,8 +2535,8 @@
       <c r="F41">
         <v>2</v>
       </c>
-      <c r="H41" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H41" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Лукин Даня</v>
       </c>
       <c r="I41" s="3" t="str">
@@ -2552,13 +2548,13 @@
         <v>Участник</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="4"/>
+        <f>D41</f>
         <v>9027054886</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <f t="shared" si="2"/>
+      <c r="A42" s="21">
+        <f>IF(AND(ISBLANK(B42),ISBLANK(C42)), "", A41 + 1)</f>
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2576,8 +2572,8 @@
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="H42" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H42" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Курашев Илья</v>
       </c>
       <c r="I42" s="3" t="str">
@@ -2589,13 +2585,13 @@
         <v>Участник</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="4"/>
+        <f>D42</f>
         <v>9115950608</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <f t="shared" si="2"/>
+      <c r="A43" s="21">
+        <f>IF(AND(ISBLANK(B43),ISBLANK(C43)), "", A42 + 1)</f>
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -2613,8 +2609,8 @@
       <c r="F43">
         <v>2</v>
       </c>
-      <c r="H43" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H43" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Непеин Лёша</v>
       </c>
       <c r="I43" s="3" t="str">
@@ -2626,13 +2622,13 @@
         <v>Участник</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="4"/>
+        <f>D43</f>
         <v>9314153251</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <f t="shared" si="2"/>
+      <c r="A44" s="21">
+        <f>IF(AND(ISBLANK(B44),ISBLANK(C44)), "", A43 + 1)</f>
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -2650,8 +2646,8 @@
       <c r="F44">
         <v>2</v>
       </c>
-      <c r="H44" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H44" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Вторушин Ярослав</v>
       </c>
       <c r="I44" s="3" t="str">
@@ -2663,13 +2659,13 @@
         <v>Участник</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="4"/>
+        <f>D44</f>
         <v>9116573329</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <f t="shared" si="2"/>
+      <c r="A45" s="21">
+        <f>IF(AND(ISBLANK(B45),ISBLANK(C45)), "", A44 + 1)</f>
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -2687,8 +2683,8 @@
       <c r="F45">
         <v>2</v>
       </c>
-      <c r="H45" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H45" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Семушин Лев</v>
       </c>
       <c r="I45" s="3" t="str">
@@ -2700,13 +2696,13 @@
         <v>Участник</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="4"/>
+        <f>D45</f>
         <v>9116869084</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <f t="shared" si="2"/>
+      <c r="A46" s="21">
+        <f>IF(AND(ISBLANK(B46),ISBLANK(C46)), "", A45 + 1)</f>
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -2724,8 +2720,8 @@
       <c r="F46">
         <v>2</v>
       </c>
-      <c r="H46" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H46" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Полозов Егор</v>
       </c>
       <c r="I46" s="3" t="str">
@@ -2737,13 +2733,13 @@
         <v>Участник</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="4"/>
+        <f>D46</f>
         <v>9009136809</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <f t="shared" si="2"/>
+      <c r="A47" s="21">
+        <f>IF(AND(ISBLANK(B47),ISBLANK(C47)), "", A46 + 1)</f>
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2761,8 +2757,8 @@
       <c r="F47">
         <v>2</v>
       </c>
-      <c r="H47" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H47" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Дроздов Даня</v>
       </c>
       <c r="I47" s="3" t="str">
@@ -2774,13 +2770,13 @@
         <v>Участник</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="4"/>
+        <f>D47</f>
         <v>9657329507</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <f t="shared" si="2"/>
+      <c r="A48" s="21">
+        <f>IF(AND(ISBLANK(B48),ISBLANK(C48)), "", A47 + 1)</f>
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -2798,8 +2794,8 @@
       <c r="F48">
         <v>2</v>
       </c>
-      <c r="H48" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H48" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Чистякова Вера</v>
       </c>
       <c r="I48" s="3" t="str">
@@ -2811,13 +2807,13 @@
         <v>Участник</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="4"/>
+        <f>D48</f>
         <v>9523040674</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <f t="shared" si="2"/>
+      <c r="A49" s="21">
+        <f>IF(AND(ISBLANK(B49),ISBLANK(C49)), "", A48 + 1)</f>
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -2835,8 +2831,8 @@
       <c r="F49">
         <v>2</v>
       </c>
-      <c r="H49" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H49" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Евтушенко Юля</v>
       </c>
       <c r="I49" s="3" t="str">
@@ -2848,13 +2844,13 @@
         <v>Участник</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="4"/>
+        <f>D49</f>
         <v>9522545149</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <f t="shared" si="2"/>
+      <c r="A50" s="21">
+        <f>IF(AND(ISBLANK(B50),ISBLANK(C50)), "", A49 + 1)</f>
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -2872,8 +2868,8 @@
       <c r="F50">
         <v>2</v>
       </c>
-      <c r="H50" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H50" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Хинатба Алина</v>
       </c>
       <c r="I50" s="3" t="str">
@@ -2885,13 +2881,13 @@
         <v>Участник</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="4"/>
+        <f>D50</f>
         <v>9539315895</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <f t="shared" si="2"/>
+      <c r="A51" s="21">
+        <f>IF(AND(ISBLANK(B51),ISBLANK(C51)), "", A50 + 1)</f>
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2909,8 +2905,8 @@
       <c r="F51">
         <v>2</v>
       </c>
-      <c r="H51" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H51" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Орлова Алёна</v>
       </c>
       <c r="I51" s="3" t="str">
@@ -2922,13 +2918,13 @@
         <v>Участник</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="4"/>
+        <f>D51</f>
         <v>9314145713</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <f t="shared" si="2"/>
+      <c r="A52" s="21">
+        <f>IF(AND(ISBLANK(B52),ISBLANK(C52)), "", A51 + 1)</f>
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2946,8 +2942,8 @@
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="H52" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H52" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Ульянова Саша</v>
       </c>
       <c r="I52" s="3" t="str">
@@ -2959,13 +2955,13 @@
         <v>Участник</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="4"/>
+        <f>D52</f>
         <v>9502506035</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <f t="shared" si="2"/>
+      <c r="A53" s="21">
+        <f>IF(AND(ISBLANK(B53),ISBLANK(C53)), "", A52 + 1)</f>
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2983,8 +2979,8 @@
       <c r="F53">
         <v>2</v>
       </c>
-      <c r="H53" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H53" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Голдина Саша</v>
       </c>
       <c r="I53" s="3" t="str">
@@ -2996,13 +2992,13 @@
         <v>Участник</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="4"/>
+        <f>D53</f>
         <v>9210890586</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <f t="shared" si="2"/>
+      <c r="A54" s="21">
+        <f>IF(AND(ISBLANK(B54),ISBLANK(C54)), "", A53 + 1)</f>
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3020,8 +3016,8 @@
       <c r="F54">
         <v>2</v>
       </c>
-      <c r="H54" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H54" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Фролова Мия</v>
       </c>
       <c r="I54" s="3" t="str">
@@ -3033,13 +3029,13 @@
         <v>Участник</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="4"/>
+        <f>D54</f>
         <v>9062844526</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <f t="shared" si="2"/>
+      <c r="A55" s="21">
+        <f>IF(AND(ISBLANK(B55),ISBLANK(C55)), "", A54 + 1)</f>
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3057,8 +3053,8 @@
       <c r="F55">
         <v>2</v>
       </c>
-      <c r="H55" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H55" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Куприяник Аня</v>
       </c>
       <c r="I55" s="3" t="str">
@@ -3070,13 +3066,13 @@
         <v>Участник</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="4"/>
+        <f>D55</f>
         <v>9009120532</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <f t="shared" si="2"/>
+      <c r="A56" s="21">
+        <f>IF(AND(ISBLANK(B56),ISBLANK(C56)), "", A55 + 1)</f>
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3094,8 +3090,8 @@
       <c r="F56">
         <v>2</v>
       </c>
-      <c r="H56" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H56" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Мурзина Настя</v>
       </c>
       <c r="I56" s="3" t="str">
@@ -3107,13 +3103,13 @@
         <v>Участник</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="4"/>
+        <f>D56</f>
         <v>9965038313</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <f t="shared" si="2"/>
+      <c r="A57" s="21">
+        <f>IF(AND(ISBLANK(B57),ISBLANK(C57)), "", A56 + 1)</f>
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3131,8 +3127,8 @@
       <c r="F57">
         <v>2</v>
       </c>
-      <c r="H57" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H57" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Москвина Лера</v>
       </c>
       <c r="I57" s="3" t="str">
@@ -3144,13 +3140,13 @@
         <v>Участник</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="4"/>
+        <f>D57</f>
         <v>9212957552</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <f t="shared" si="2"/>
+      <c r="A58" s="21">
+        <f>IF(AND(ISBLANK(B58),ISBLANK(C58)), "", A57 + 1)</f>
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3168,8 +3164,8 @@
       <c r="F58">
         <v>2</v>
       </c>
-      <c r="H58" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H58" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Нурматова Сима</v>
       </c>
       <c r="I58" s="3" t="str">
@@ -3181,13 +3177,13 @@
         <v>Участник</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="4"/>
+        <f>D58</f>
         <v>9600198519</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <f t="shared" si="2"/>
+      <c r="A59" s="21">
+        <f>IF(AND(ISBLANK(B59),ISBLANK(C59)), "", A58 + 1)</f>
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3205,8 +3201,8 @@
       <c r="F59">
         <v>2</v>
       </c>
-      <c r="H59" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H59" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Кунец Алина</v>
       </c>
       <c r="I59" s="3" t="str">
@@ -3218,13 +3214,13 @@
         <v>Участник</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="4"/>
+        <f>D59</f>
         <v>9502537642</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <f t="shared" si="2"/>
+      <c r="A60" s="21">
+        <f>IF(AND(ISBLANK(B60),ISBLANK(C60)), "", A59 + 1)</f>
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3240,8 +3236,8 @@
       <c r="F60">
         <v>2</v>
       </c>
-      <c r="H60" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H60" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Семенцева Даша</v>
       </c>
       <c r="I60" s="3" t="str">
@@ -3253,13 +3249,13 @@
         <v>Участник</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="4"/>
+        <f>D60</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <f t="shared" si="2"/>
+      <c r="A61" s="21">
+        <f>IF(AND(ISBLANK(B61),ISBLANK(C61)), "", A60 + 1)</f>
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3277,8 +3273,8 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="H61" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H61" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Семьин Миша</v>
       </c>
       <c r="I61" s="3" t="str">
@@ -3290,13 +3286,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="4"/>
+        <f>D61</f>
         <v>9021982289</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <f t="shared" si="2"/>
+      <c r="A62" s="21">
+        <f>IF(AND(ISBLANK(B62),ISBLANK(C62)), "", A61 + 1)</f>
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3314,8 +3310,8 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="H62" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H62" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Северьянова Юля</v>
       </c>
       <c r="I62" s="3" t="str">
@@ -3327,13 +3323,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="4"/>
+        <f>D62</f>
         <v>9210787810</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <f t="shared" si="2"/>
+      <c r="A63" s="21">
+        <f>IF(AND(ISBLANK(B63),ISBLANK(C63)), "", A62 + 1)</f>
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3351,8 +3347,8 @@
       <c r="F63">
         <v>1</v>
       </c>
-      <c r="H63" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H63" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Чаусова Катя</v>
       </c>
       <c r="I63" s="3" t="str">
@@ -3364,13 +3360,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="4"/>
+        <f>D63</f>
         <v>9600036043</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <f t="shared" si="2"/>
+      <c r="A64" s="21">
+        <f>IF(AND(ISBLANK(B64),ISBLANK(C64)), "", A63 + 1)</f>
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3388,8 +3384,8 @@
       <c r="F64">
         <v>1</v>
       </c>
-      <c r="H64" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H64" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Карамышева Ира</v>
       </c>
       <c r="I64" s="3" t="str">
@@ -3401,13 +3397,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="4"/>
+        <f>D64</f>
         <v>9025073259</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <f t="shared" si="2"/>
+      <c r="A65" s="21">
+        <f>IF(AND(ISBLANK(B65),ISBLANK(C65)), "", A64 + 1)</f>
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3425,8 +3421,8 @@
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="H65" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H65" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Кескюль Лина</v>
       </c>
       <c r="I65" s="3" t="str">
@@ -3438,13 +3434,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="4"/>
+        <f>D65</f>
         <v>9626624368</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <f t="shared" si="2"/>
+      <c r="A66" s="21">
+        <f>IF(AND(ISBLANK(B66),ISBLANK(C66)), "", A65 + 1)</f>
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -3462,8 +3458,8 @@
       <c r="F66">
         <v>2</v>
       </c>
-      <c r="H66" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H66" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Азановский Илья</v>
       </c>
       <c r="I66" s="3" t="str">
@@ -3475,13 +3471,13 @@
         <v>Участник</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="4"/>
+        <f>D66</f>
         <v>9532677435</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <f t="shared" si="2"/>
+      <c r="A67" s="21">
+        <f>IF(AND(ISBLANK(B67),ISBLANK(C67)), "", A66 + 1)</f>
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -3499,8 +3495,8 @@
       <c r="F67">
         <v>2</v>
       </c>
-      <c r="H67" s="7" t="str">
-        <f t="shared" ref="H67:H104" si="5">IF(ISBLANK(B67), "",_xlfn.CONCAT($B67," ",$C67))</f>
+      <c r="H67" s="20" t="str">
+        <f t="shared" ref="H67:H102" si="1">IF(AND(ISBLANK(B67),ISBLANK(C67)), "",TRIM(_xlfn.CONCAT($B67," ",$C67)))</f>
         <v>Десятков Илья</v>
       </c>
       <c r="I67" s="3" t="str">
@@ -3512,13 +3508,13 @@
         <v>Участник</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" ref="K67:K101" si="6">D67</f>
+        <f>D67</f>
         <v>9116851539</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <f t="shared" si="2"/>
+      <c r="A68" s="21">
+        <f>IF(AND(ISBLANK(B68),ISBLANK(C68)), "", A67 + 1)</f>
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3536,8 +3532,8 @@
       <c r="F68">
         <v>2</v>
       </c>
-      <c r="H68" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H68" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Нуромский Саша</v>
       </c>
       <c r="I68" s="3" t="str">
@@ -3549,13 +3545,13 @@
         <v>Участник</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="6"/>
+        <f>D68</f>
         <v>9600007061</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <f t="shared" ref="A69:A132" si="7">IF(ISBLANK(B69), "", A68 + 1)</f>
+      <c r="A69" s="21">
+        <f>IF(AND(ISBLANK(B69),ISBLANK(C69)), "", A68 + 1)</f>
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3573,8 +3569,8 @@
       <c r="F69">
         <v>2</v>
       </c>
-      <c r="H69" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H69" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Лобанов Антон</v>
       </c>
       <c r="I69" s="3" t="str">
@@ -3586,13 +3582,13 @@
         <v>Участник</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="6"/>
+        <f>D69</f>
         <v>9118785661</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <f t="shared" si="7"/>
+      <c r="A70" s="21">
+        <f>IF(AND(ISBLANK(B70),ISBLANK(C70)), "", A69 + 1)</f>
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3610,8 +3606,8 @@
       <c r="F70">
         <v>2</v>
       </c>
-      <c r="H70" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H70" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Солопов Артём</v>
       </c>
       <c r="I70" s="3" t="str">
@@ -3623,13 +3619,13 @@
         <v>Участник</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="6"/>
+        <f>D70</f>
         <v>9642900185</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <f t="shared" si="7"/>
+      <c r="A71" s="21">
+        <f>IF(AND(ISBLANK(B71),ISBLANK(C71)), "", A70 + 1)</f>
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -3647,8 +3643,8 @@
       <c r="F71">
         <v>2</v>
       </c>
-      <c r="H71" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H71" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Тюпышев Матвей</v>
       </c>
       <c r="I71" s="3" t="str">
@@ -3660,13 +3656,13 @@
         <v>Участник</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="6"/>
+        <f>D71</f>
         <v>9600090480</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <f t="shared" si="7"/>
+      <c r="A72" s="21">
+        <f>IF(AND(ISBLANK(B72),ISBLANK(C72)), "", A71 + 1)</f>
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3684,8 +3680,8 @@
       <c r="F72">
         <v>2</v>
       </c>
-      <c r="H72" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H72" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Бабуль Кирилл</v>
       </c>
       <c r="I72" s="3" t="str">
@@ -3697,13 +3693,13 @@
         <v>Участник</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="6"/>
+        <f>D72</f>
         <v>9210723677</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <f t="shared" si="7"/>
+      <c r="A73" s="21">
+        <f>IF(AND(ISBLANK(B73),ISBLANK(C73)), "", A72 + 1)</f>
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3721,8 +3717,8 @@
       <c r="F73">
         <v>2</v>
       </c>
-      <c r="H73" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H73" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Чаусов Данил</v>
       </c>
       <c r="I73" s="3" t="str">
@@ -3734,13 +3730,13 @@
         <v>Участник</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="6"/>
+        <f>D73</f>
         <v>9532632864</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <f t="shared" si="7"/>
+      <c r="A74" s="21">
+        <f>IF(AND(ISBLANK(B74),ISBLANK(C74)), "", A73 + 1)</f>
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3758,8 +3754,8 @@
       <c r="F74">
         <v>2</v>
       </c>
-      <c r="H74" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H74" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Федоренко Даша</v>
       </c>
       <c r="I74" s="3" t="str">
@@ -3771,13 +3767,13 @@
         <v>Участник</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="6"/>
+        <f>D74</f>
         <v>9600133311</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <f t="shared" si="7"/>
+      <c r="A75" s="21">
+        <f>IF(AND(ISBLANK(B75),ISBLANK(C75)), "", A74 + 1)</f>
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3795,8 +3791,8 @@
       <c r="F75">
         <v>2</v>
       </c>
-      <c r="H75" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H75" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Тюпышева Ксюша</v>
       </c>
       <c r="I75" s="3" t="str">
@@ -3808,13 +3804,13 @@
         <v>Участник</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="6"/>
+        <f>D75</f>
         <v>9115730722</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <f t="shared" si="7"/>
+      <c r="A76" s="21">
+        <f>IF(AND(ISBLANK(B76),ISBLANK(C76)), "", A75 + 1)</f>
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3832,8 +3828,8 @@
       <c r="F76">
         <v>2</v>
       </c>
-      <c r="H76" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H76" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Прокопьева Маша</v>
       </c>
       <c r="I76" s="3" t="str">
@@ -3845,13 +3841,13 @@
         <v>Участник</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="6"/>
+        <f>D76</f>
         <v>9115667093</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <f t="shared" si="7"/>
+      <c r="A77" s="21">
+        <f>IF(AND(ISBLANK(B77),ISBLANK(C77)), "", A76 + 1)</f>
         <v>75</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3869,8 +3865,8 @@
       <c r="F77">
         <v>2</v>
       </c>
-      <c r="H77" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H77" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Олехова Настя</v>
       </c>
       <c r="I77" s="3" t="str">
@@ -3882,13 +3878,13 @@
         <v>Участник</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="6"/>
+        <f>D77</f>
         <v>9991682955</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <f t="shared" si="7"/>
+      <c r="A78" s="21">
+        <f>IF(AND(ISBLANK(B78),ISBLANK(C78)), "", A77 + 1)</f>
         <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3906,8 +3902,8 @@
       <c r="F78">
         <v>2</v>
       </c>
-      <c r="H78" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H78" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Крутикова Полина</v>
       </c>
       <c r="I78" s="3" t="str">
@@ -3919,13 +3915,13 @@
         <v>Участник</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="6"/>
+        <f>D78</f>
         <v>9214888784</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <f t="shared" si="7"/>
+      <c r="A79" s="21">
+        <f>IF(AND(ISBLANK(B79),ISBLANK(C79)), "", A78 + 1)</f>
         <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3943,8 +3939,8 @@
       <c r="F79">
         <v>2</v>
       </c>
-      <c r="H79" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H79" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Понасенкова Вероника</v>
       </c>
       <c r="I79" s="3" t="str">
@@ -3956,13 +3952,13 @@
         <v>Участник</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="6"/>
+        <f>D79</f>
         <v>9539361130</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <f t="shared" si="7"/>
+      <c r="A80" s="21">
+        <f>IF(AND(ISBLANK(B80),ISBLANK(C80)), "", A79 + 1)</f>
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3980,8 +3976,8 @@
       <c r="F80">
         <v>2</v>
       </c>
-      <c r="H80" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H80" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Натахина Алёна</v>
       </c>
       <c r="I80" s="3" t="str">
@@ -3993,13 +3989,13 @@
         <v>Участник</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="6"/>
+        <f>D80</f>
         <v>9532649499</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <f t="shared" si="7"/>
+      <c r="A81" s="21">
+        <f>IF(AND(ISBLANK(B81),ISBLANK(C81)), "", A80 + 1)</f>
         <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -4017,8 +4013,8 @@
       <c r="F81">
         <v>2</v>
       </c>
-      <c r="H81" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H81" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Дьячкова Арина</v>
       </c>
       <c r="I81" s="3" t="str">
@@ -4030,13 +4026,13 @@
         <v>Участник</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="6"/>
+        <f>D81</f>
         <v>9539314404</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <f t="shared" si="7"/>
+      <c r="A82" s="21">
+        <f>IF(AND(ISBLANK(B82),ISBLANK(C82)), "", A81 + 1)</f>
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -4054,8 +4050,8 @@
       <c r="F82">
         <v>2</v>
       </c>
-      <c r="H82" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H82" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Проценко Дарья</v>
       </c>
       <c r="I82" s="3" t="str">
@@ -4067,13 +4063,13 @@
         <v>Участник</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="6"/>
+        <f>D82</f>
         <v>9115803941</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <f t="shared" si="7"/>
+      <c r="A83" s="21">
+        <f>IF(AND(ISBLANK(B83),ISBLANK(C83)), "", A82 + 1)</f>
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -4091,8 +4087,8 @@
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="H83" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H83" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Савинкина Лиза</v>
       </c>
       <c r="I83" s="3" t="str">
@@ -4104,13 +4100,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="6"/>
+        <f>D83</f>
         <v>9210859610</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <f t="shared" si="7"/>
+      <c r="A84" s="21">
+        <f>IF(AND(ISBLANK(B84),ISBLANK(C84)), "", A83 + 1)</f>
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -4128,8 +4124,8 @@
       <c r="F84">
         <v>1</v>
       </c>
-      <c r="H84" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H84" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Коробова Ксюша</v>
       </c>
       <c r="I84" s="3" t="str">
@@ -4141,13 +4137,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="6"/>
+        <f>D84</f>
         <v>9210815080</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <f t="shared" si="7"/>
+      <c r="A85" s="21">
+        <f>IF(AND(ISBLANK(B85),ISBLANK(C85)), "", A84 + 1)</f>
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -4165,8 +4161,8 @@
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="H85" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H85" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Варзина Настя</v>
       </c>
       <c r="I85" s="3" t="str">
@@ -4178,13 +4174,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="6"/>
+        <f>D85</f>
         <v>9969214573</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <f t="shared" si="7"/>
+      <c r="A86" s="21">
+        <f>IF(AND(ISBLANK(B86),ISBLANK(C86)), "", A85 + 1)</f>
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -4202,8 +4198,8 @@
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="H86" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H86" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Михайлов Кирилл</v>
       </c>
       <c r="I86" s="3" t="str">
@@ -4215,13 +4211,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="6"/>
+        <f>D86</f>
         <v>9115800840</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <f t="shared" si="7"/>
+      <c r="A87" s="21">
+        <f>IF(AND(ISBLANK(B87),ISBLANK(C87)), "", A86 + 1)</f>
         <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -4239,8 +4235,8 @@
       <c r="F87">
         <v>2</v>
       </c>
-      <c r="H87" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H87" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Юрьев Кирилл</v>
       </c>
       <c r="I87" s="3" t="str">
@@ -4252,13 +4248,13 @@
         <v>Участник</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="6"/>
+        <f>D87</f>
         <v>9969216837</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <f t="shared" si="7"/>
+      <c r="A88" s="21">
+        <f>IF(AND(ISBLANK(B88),ISBLANK(C88)), "", A87 + 1)</f>
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -4276,8 +4272,8 @@
       <c r="F88">
         <v>2</v>
       </c>
-      <c r="H88" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H88" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Забыйворота Вова</v>
       </c>
       <c r="I88" s="3" t="str">
@@ -4289,13 +4285,13 @@
         <v>Участник</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="6"/>
+        <f>D88</f>
         <v>9115724303</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <f t="shared" si="7"/>
+      <c r="A89" s="21">
+        <f>IF(AND(ISBLANK(B89),ISBLANK(C89)), "", A88 + 1)</f>
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -4313,8 +4309,8 @@
       <c r="F89">
         <v>2</v>
       </c>
-      <c r="H89" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H89" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Сынчиков Никита</v>
       </c>
       <c r="I89" s="3" t="str">
@@ -4326,13 +4322,13 @@
         <v>Участник</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="6"/>
+        <f>D89</f>
         <v>9626649990</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
-        <f t="shared" si="7"/>
+      <c r="A90" s="21">
+        <f>IF(AND(ISBLANK(B90),ISBLANK(C90)), "", A89 + 1)</f>
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -4350,8 +4346,8 @@
       <c r="F90">
         <v>2</v>
       </c>
-      <c r="H90" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H90" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Веселков Матвей</v>
       </c>
       <c r="I90" s="3" t="str">
@@ -4363,13 +4359,13 @@
         <v>Участник</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="6"/>
+        <f>D90</f>
         <v>9009203089</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
-        <f t="shared" si="7"/>
+      <c r="A91" s="21">
+        <f>IF(AND(ISBLANK(B91),ISBLANK(C91)), "", A90 + 1)</f>
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -4387,8 +4383,8 @@
       <c r="F91">
         <v>2</v>
       </c>
-      <c r="H91" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H91" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Сумароков Саша</v>
       </c>
       <c r="I91" s="3" t="str">
@@ -4400,13 +4396,13 @@
         <v>Участник</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="6"/>
+        <f>D91</f>
         <v>9022854509</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
-        <f t="shared" si="7"/>
+      <c r="A92" s="21">
+        <f>IF(AND(ISBLANK(B92),ISBLANK(C92)), "", A91 + 1)</f>
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -4422,8 +4418,8 @@
       <c r="F92">
         <v>2</v>
       </c>
-      <c r="H92" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H92" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Юшманов Кирилл</v>
       </c>
       <c r="I92" s="3" t="str">
@@ -4435,13 +4431,13 @@
         <v>Участник</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="6"/>
+        <f>D92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
-        <f t="shared" si="7"/>
+      <c r="A93" s="21">
+        <f>IF(AND(ISBLANK(B93),ISBLANK(C93)), "", A92 + 1)</f>
         <v>91</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -4459,8 +4455,8 @@
       <c r="F93">
         <v>2</v>
       </c>
-      <c r="H93" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H93" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Евтюхова Саша</v>
       </c>
       <c r="I93" s="3" t="str">
@@ -4472,13 +4468,13 @@
         <v>Участник</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="6"/>
+        <f>D93</f>
         <v>9502559803</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
-        <f t="shared" si="7"/>
+      <c r="A94" s="21">
+        <f>IF(AND(ISBLANK(B94),ISBLANK(C94)), "", A93 + 1)</f>
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -4496,8 +4492,8 @@
       <c r="F94">
         <v>2</v>
       </c>
-      <c r="H94" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H94" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Коротова Ангелина</v>
       </c>
       <c r="I94" s="3" t="str">
@@ -4509,13 +4505,13 @@
         <v>Участник</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="6"/>
+        <f>D94</f>
         <v>9110581233</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <f t="shared" si="7"/>
+      <c r="A95" s="21">
+        <f>IF(AND(ISBLANK(B95),ISBLANK(C95)), "", A94 + 1)</f>
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -4533,8 +4529,8 @@
       <c r="F95">
         <v>2</v>
       </c>
-      <c r="H95" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H95" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Отяковская Альбина</v>
       </c>
       <c r="I95" s="3" t="str">
@@ -4546,13 +4542,13 @@
         <v>Участник</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="6"/>
+        <f>D95</f>
         <v>9115812807</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
-        <f t="shared" si="7"/>
+      <c r="A96" s="21">
+        <f>IF(AND(ISBLANK(B96),ISBLANK(C96)), "", A95 + 1)</f>
         <v>94</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -4570,8 +4566,8 @@
       <c r="F96">
         <v>2</v>
       </c>
-      <c r="H96" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H96" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Кажарская Лиза</v>
       </c>
       <c r="I96" s="3" t="str">
@@ -4583,13 +4579,13 @@
         <v>Участник</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="6"/>
+        <f>D96</f>
         <v>9522528224</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
-        <f t="shared" si="7"/>
+      <c r="A97" s="21">
+        <f>IF(AND(ISBLANK(B97),ISBLANK(C97)), "", A96 + 1)</f>
         <v>95</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -4607,8 +4603,8 @@
       <c r="F97">
         <v>2</v>
       </c>
-      <c r="H97" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H97" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Браницка Женя</v>
       </c>
       <c r="I97" s="3" t="str">
@@ -4620,13 +4616,13 @@
         <v>Участник</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="6"/>
+        <f>D97</f>
         <v>9116721129</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
-        <f t="shared" si="7"/>
+      <c r="A98" s="21">
+        <f>IF(AND(ISBLANK(B98),ISBLANK(C98)), "", A97 + 1)</f>
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -4644,8 +4640,8 @@
       <c r="F98">
         <v>2</v>
       </c>
-      <c r="H98" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H98" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Тур Лера</v>
       </c>
       <c r="I98" s="3" t="str">
@@ -4657,13 +4653,13 @@
         <v>Участник</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="6"/>
+        <f>D98</f>
         <v>9643006592</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
-        <f t="shared" si="7"/>
+      <c r="A99" s="21">
+        <f>IF(AND(ISBLANK(B99),ISBLANK(C99)), "", A98 + 1)</f>
         <v>97</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -4681,8 +4677,8 @@
       <c r="F99">
         <v>2</v>
       </c>
-      <c r="H99" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H99" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Фролова Вероника</v>
       </c>
       <c r="I99" s="3" t="str">
@@ -4694,13 +4690,13 @@
         <v>Участник</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="6"/>
+        <f>D99</f>
         <v>9027000003</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
-        <f t="shared" si="7"/>
+      <c r="A100" s="21">
+        <f>IF(AND(ISBLANK(B100),ISBLANK(C100)), "", A99 + 1)</f>
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -4718,8 +4714,8 @@
       <c r="F100">
         <v>2</v>
       </c>
-      <c r="H100" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H100" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Угромова Аня</v>
       </c>
       <c r="I100" s="3" t="str">
@@ -4731,13 +4727,13 @@
         <v>Участник</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="6"/>
+        <f>D100</f>
         <v>9642958484</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
-        <f t="shared" si="7"/>
+      <c r="A101" s="21">
+        <f>IF(AND(ISBLANK(B101),ISBLANK(C101)), "", A100 + 1)</f>
         <v>99</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -4755,8 +4751,8 @@
       <c r="F101">
         <v>2</v>
       </c>
-      <c r="H101" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H101" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Хабарова Лиза</v>
       </c>
       <c r="I101" s="3" t="str">
@@ -4768,13 +4764,13 @@
         <v>Участник</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="6"/>
+        <f>D101</f>
         <v>9642936307</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
-        <f t="shared" si="7"/>
+      <c r="A102" s="21">
+        <f>IF(AND(ISBLANK(B102),ISBLANK(C102)), "", A101 + 1)</f>
         <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -4792,8 +4788,8 @@
       <c r="F102">
         <v>2</v>
       </c>
-      <c r="H102" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="H102" s="20" t="str">
+        <f t="shared" si="1"/>
         <v>Садков Кирилл</v>
       </c>
       <c r="I102" s="3" t="str">
@@ -4810,14 +4806,12 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
+      <c r="A103" s="21">
+        <f>IF(AND(ISBLANK(B103),ISBLANK(C103)), "", A102 + 1)</f>
         <v>101</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D103" s="6">
         <v>9210861421</v>
@@ -4826,8 +4820,8 @@
         <v>1</v>
       </c>
       <c r="H103" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Дурнев Владимир Николаевич</v>
+        <f>IF(AND(ISBLANK(B103),ISBLANK(C103)), "",TRIM(_xlfn.CONCAT($B103," ",$C103)))</f>
+        <v>Владимир Николаевич</v>
       </c>
       <c r="I103" s="3" t="str">
         <f>IF(ISBLANK(E103), "",INDEX(Squads!A$3:B$1048576,MATCH(E103, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4843,23 +4837,20 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
-        <f t="shared" si="7"/>
+      <c r="A104" s="21">
+        <f>IF(AND(ISBLANK(B104),ISBLANK(C104)), "", A103 + 1)</f>
         <v>102</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="C104" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E104" s="6" t="str">
         <f>IF(ISBLANK(F104), "",INDEX(Squads!A$3:B$1048576,MATCH(F104, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
-      <c r="H104" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Воронина Лариса Васильевна</v>
+      <c r="H104" s="20" t="str">
+        <f>IF(AND(ISBLANK(B104),ISBLANK(C104)), "",TRIM(_xlfn.CONCAT($B104," ",$C104)))</f>
+        <v>Лариса Васильевна</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3" t="str">
@@ -4869,8 +4860,8 @@
       <c r="K104" s="3"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A105" s="21" t="str">
+        <f>IF(AND(ISBLANK(B105),ISBLANK(C105)), "", A104 + 1)</f>
         <v/>
       </c>
       <c r="E105" s="6" t="str">
@@ -4885,8 +4876,8 @@
       <c r="K105" s="3"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A106" s="21" t="str">
+        <f>IF(AND(ISBLANK(B106),ISBLANK(C106)), "", A105 + 1)</f>
         <v/>
       </c>
       <c r="I106" s="3"/>
@@ -4897,8 +4888,8 @@
       <c r="K106" s="3"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A107" s="21" t="str">
+        <f>IF(AND(ISBLANK(B107),ISBLANK(C107)), "", A106 + 1)</f>
         <v/>
       </c>
       <c r="I107" s="3"/>
@@ -4909,8 +4900,8 @@
       <c r="K107" s="3"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A108" s="21" t="str">
+        <f>IF(AND(ISBLANK(B108),ISBLANK(C108)), "", A107 + 1)</f>
         <v/>
       </c>
       <c r="I108" s="3"/>
@@ -4921,8 +4912,8 @@
       <c r="K108" s="3"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A109" s="21" t="str">
+        <f>IF(AND(ISBLANK(B109),ISBLANK(C109)), "", A108 + 1)</f>
         <v/>
       </c>
       <c r="I109" s="3"/>
@@ -4933,8 +4924,8 @@
       <c r="K109" s="3"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A110" s="21" t="str">
+        <f>IF(AND(ISBLANK(B110),ISBLANK(C110)), "", A109 + 1)</f>
         <v/>
       </c>
       <c r="I110" s="3"/>
@@ -4945,8 +4936,8 @@
       <c r="K110" s="3"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A111" s="21" t="str">
+        <f>IF(AND(ISBLANK(B111),ISBLANK(C111)), "", A110 + 1)</f>
         <v/>
       </c>
       <c r="I111" s="3"/>
@@ -4957,8 +4948,8 @@
       <c r="K111" s="3"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A112" s="21" t="str">
+        <f>IF(AND(ISBLANK(B112),ISBLANK(C112)), "", A111 + 1)</f>
         <v/>
       </c>
       <c r="I112" s="3"/>
@@ -4969,8 +4960,8 @@
       <c r="K112" s="3"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A113" s="21" t="str">
+        <f>IF(AND(ISBLANK(B113),ISBLANK(C113)), "", A112 + 1)</f>
         <v/>
       </c>
       <c r="I113" s="3"/>
@@ -4981,8 +4972,8 @@
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A114" s="21" t="str">
+        <f>IF(AND(ISBLANK(B114),ISBLANK(C114)), "", A113 + 1)</f>
         <v/>
       </c>
       <c r="I114" s="3"/>
@@ -4993,8 +4984,8 @@
       <c r="K114" s="3"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A115" s="21" t="str">
+        <f>IF(AND(ISBLANK(B115),ISBLANK(C115)), "", A114 + 1)</f>
         <v/>
       </c>
       <c r="I115" s="3"/>
@@ -5005,8 +4996,8 @@
       <c r="K115" s="3"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A116" s="21" t="str">
+        <f>IF(AND(ISBLANK(B116),ISBLANK(C116)), "", A115 + 1)</f>
         <v/>
       </c>
       <c r="I116" s="3"/>
@@ -5017,8 +5008,8 @@
       <c r="K116" s="3"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A117" s="21" t="str">
+        <f>IF(AND(ISBLANK(B117),ISBLANK(C117)), "", A116 + 1)</f>
         <v/>
       </c>
       <c r="I117" s="3"/>
@@ -5029,8 +5020,8 @@
       <c r="K117" s="3"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A118" s="21" t="str">
+        <f>IF(AND(ISBLANK(B118),ISBLANK(C118)), "", A117 + 1)</f>
         <v/>
       </c>
       <c r="I118" s="3"/>
@@ -5041,8 +5032,8 @@
       <c r="K118" s="3"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A119" s="21" t="str">
+        <f>IF(AND(ISBLANK(B119),ISBLANK(C119)), "", A118 + 1)</f>
         <v/>
       </c>
       <c r="I119" s="3"/>
@@ -5053,8 +5044,8 @@
       <c r="K119" s="3"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A120" s="21" t="str">
+        <f>IF(AND(ISBLANK(B120),ISBLANK(C120)), "", A119 + 1)</f>
         <v/>
       </c>
       <c r="I120" s="3"/>
@@ -5065,8 +5056,8 @@
       <c r="K120" s="3"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A121" s="21" t="str">
+        <f>IF(AND(ISBLANK(B121),ISBLANK(C121)), "", A120 + 1)</f>
         <v/>
       </c>
       <c r="I121" s="3"/>
@@ -5077,8 +5068,8 @@
       <c r="K121" s="3"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A122" s="21" t="str">
+        <f>IF(AND(ISBLANK(B122),ISBLANK(C122)), "", A121 + 1)</f>
         <v/>
       </c>
       <c r="I122" s="3"/>
@@ -5089,8 +5080,8 @@
       <c r="K122" s="3"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A123" s="21" t="str">
+        <f>IF(AND(ISBLANK(B123),ISBLANK(C123)), "", A122 + 1)</f>
         <v/>
       </c>
       <c r="I123" s="3"/>
@@ -5101,8 +5092,8 @@
       <c r="K123" s="3"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A124" s="21" t="str">
+        <f>IF(AND(ISBLANK(B124),ISBLANK(C124)), "", A123 + 1)</f>
         <v/>
       </c>
       <c r="I124" s="3"/>
@@ -5113,8 +5104,8 @@
       <c r="K124" s="3"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A125" s="21" t="str">
+        <f>IF(AND(ISBLANK(B125),ISBLANK(C125)), "", A124 + 1)</f>
         <v/>
       </c>
       <c r="I125" s="3"/>
@@ -5125,8 +5116,8 @@
       <c r="K125" s="3"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A126" s="21" t="str">
+        <f>IF(AND(ISBLANK(B126),ISBLANK(C126)), "", A125 + 1)</f>
         <v/>
       </c>
       <c r="I126" s="3"/>
@@ -5137,8 +5128,8 @@
       <c r="K126" s="3"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A127" s="21" t="str">
+        <f>IF(AND(ISBLANK(B127),ISBLANK(C127)), "", A126 + 1)</f>
         <v/>
       </c>
       <c r="I127" s="3"/>
@@ -5149,8 +5140,8 @@
       <c r="K127" s="3"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A128" s="21" t="str">
+        <f>IF(AND(ISBLANK(B128),ISBLANK(C128)), "", A127 + 1)</f>
         <v/>
       </c>
       <c r="I128" s="3"/>
@@ -5161,8 +5152,8 @@
       <c r="K128" s="3"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A129" s="21" t="str">
+        <f>IF(AND(ISBLANK(B129),ISBLANK(C129)), "", A128 + 1)</f>
         <v/>
       </c>
       <c r="I129" s="3"/>
@@ -5173,8 +5164,8 @@
       <c r="K129" s="3"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A130" s="21" t="str">
+        <f>IF(AND(ISBLANK(B130),ISBLANK(C130)), "", A129 + 1)</f>
         <v/>
       </c>
       <c r="I130" s="3"/>
@@ -5184,8 +5175,8 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A131" s="21" t="str">
+        <f>IF(AND(ISBLANK(B131),ISBLANK(C131)), "", A130 + 1)</f>
         <v/>
       </c>
       <c r="I131" s="3"/>
@@ -5195,8 +5186,8 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="str">
-        <f t="shared" si="7"/>
+      <c r="A132" s="21" t="str">
+        <f>IF(AND(ISBLANK(B132),ISBLANK(C132)), "", A131 + 1)</f>
         <v/>
       </c>
       <c r="I132" s="3"/>
@@ -5206,8 +5197,8 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="str">
-        <f t="shared" ref="A133:A196" si="8">IF(ISBLANK(B133), "", A132 + 1)</f>
+      <c r="A133" s="21" t="str">
+        <f>IF(AND(ISBLANK(B133),ISBLANK(C133)), "", A132 + 1)</f>
         <v/>
       </c>
       <c r="I133" s="3"/>
@@ -5217,8 +5208,8 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A134" s="21" t="str">
+        <f>IF(AND(ISBLANK(B134),ISBLANK(C134)), "", A133 + 1)</f>
         <v/>
       </c>
       <c r="I134" s="3"/>
@@ -5228,8 +5219,8 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A135" s="21" t="str">
+        <f>IF(AND(ISBLANK(B135),ISBLANK(C135)), "", A134 + 1)</f>
         <v/>
       </c>
       <c r="I135" s="3"/>
@@ -5239,8 +5230,8 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A136" s="21" t="str">
+        <f>IF(AND(ISBLANK(B136),ISBLANK(C136)), "", A135 + 1)</f>
         <v/>
       </c>
       <c r="I136" s="3"/>
@@ -5250,8 +5241,8 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A137" s="21" t="str">
+        <f>IF(AND(ISBLANK(B137),ISBLANK(C137)), "", A136 + 1)</f>
         <v/>
       </c>
       <c r="I137" s="3"/>
@@ -5261,8 +5252,8 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A138" s="21" t="str">
+        <f>IF(AND(ISBLANK(B138),ISBLANK(C138)), "", A137 + 1)</f>
         <v/>
       </c>
       <c r="I138" s="3"/>
@@ -5272,8 +5263,8 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A139" s="21" t="str">
+        <f>IF(AND(ISBLANK(B139),ISBLANK(C139)), "", A138 + 1)</f>
         <v/>
       </c>
       <c r="I139" s="3"/>
@@ -5283,8 +5274,8 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A140" s="21" t="str">
+        <f>IF(AND(ISBLANK(B140),ISBLANK(C140)), "", A139 + 1)</f>
         <v/>
       </c>
       <c r="I140" s="3"/>
@@ -5294,8 +5285,8 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A141" s="21" t="str">
+        <f>IF(AND(ISBLANK(B141),ISBLANK(C141)), "", A140 + 1)</f>
         <v/>
       </c>
       <c r="I141" s="3"/>
@@ -5305,8 +5296,8 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A142" s="21" t="str">
+        <f>IF(AND(ISBLANK(B142),ISBLANK(C142)), "", A141 + 1)</f>
         <v/>
       </c>
       <c r="I142" s="3"/>
@@ -5316,8 +5307,8 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A143" s="21" t="str">
+        <f>IF(AND(ISBLANK(B143),ISBLANK(C143)), "", A142 + 1)</f>
         <v/>
       </c>
       <c r="I143" s="3"/>
@@ -5327,8 +5318,8 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A144" s="21" t="str">
+        <f>IF(AND(ISBLANK(B144),ISBLANK(C144)), "", A143 + 1)</f>
         <v/>
       </c>
       <c r="I144" s="3"/>
@@ -5338,8 +5329,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A145" s="21" t="str">
+        <f>IF(AND(ISBLANK(B145),ISBLANK(C145)), "", A144 + 1)</f>
         <v/>
       </c>
       <c r="I145" s="3"/>
@@ -5349,8 +5340,8 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A146" s="21" t="str">
+        <f>IF(AND(ISBLANK(B146),ISBLANK(C146)), "", A145 + 1)</f>
         <v/>
       </c>
       <c r="I146" s="3"/>
@@ -5360,8 +5351,8 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A147" s="21" t="str">
+        <f>IF(AND(ISBLANK(B147),ISBLANK(C147)), "", A146 + 1)</f>
         <v/>
       </c>
       <c r="I147" s="3"/>
@@ -5371,8 +5362,8 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A148" s="21" t="str">
+        <f>IF(AND(ISBLANK(B148),ISBLANK(C148)), "", A147 + 1)</f>
         <v/>
       </c>
       <c r="I148" s="3"/>
@@ -5382,8 +5373,8 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A149" s="21" t="str">
+        <f>IF(AND(ISBLANK(B149),ISBLANK(C149)), "", A148 + 1)</f>
         <v/>
       </c>
       <c r="I149" s="3"/>
@@ -5393,8 +5384,8 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A150" s="21" t="str">
+        <f>IF(AND(ISBLANK(B150),ISBLANK(C150)), "", A149 + 1)</f>
         <v/>
       </c>
       <c r="I150" s="3"/>
@@ -5404,8 +5395,8 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A151" s="21" t="str">
+        <f>IF(AND(ISBLANK(B151),ISBLANK(C151)), "", A150 + 1)</f>
         <v/>
       </c>
       <c r="I151" s="3"/>
@@ -5415,8 +5406,8 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A152" s="21" t="str">
+        <f>IF(AND(ISBLANK(B152),ISBLANK(C152)), "", A151 + 1)</f>
         <v/>
       </c>
       <c r="I152" s="3"/>
@@ -5426,8 +5417,8 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A153" s="21" t="str">
+        <f>IF(AND(ISBLANK(B153),ISBLANK(C153)), "", A152 + 1)</f>
         <v/>
       </c>
       <c r="I153" s="3"/>
@@ -5437,8 +5428,8 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A154" s="21" t="str">
+        <f>IF(AND(ISBLANK(B154),ISBLANK(C154)), "", A153 + 1)</f>
         <v/>
       </c>
       <c r="I154" s="3"/>
@@ -5448,8 +5439,8 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A155" s="21" t="str">
+        <f>IF(AND(ISBLANK(B155),ISBLANK(C155)), "", A154 + 1)</f>
         <v/>
       </c>
       <c r="I155" s="3"/>
@@ -5459,8 +5450,8 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A156" s="21" t="str">
+        <f>IF(AND(ISBLANK(B156),ISBLANK(C156)), "", A155 + 1)</f>
         <v/>
       </c>
       <c r="I156" s="3"/>
@@ -5470,8 +5461,8 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A157" s="21" t="str">
+        <f>IF(AND(ISBLANK(B157),ISBLANK(C157)), "", A156 + 1)</f>
         <v/>
       </c>
       <c r="I157" s="3"/>
@@ -5481,8 +5472,8 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A158" s="21" t="str">
+        <f>IF(AND(ISBLANK(B158),ISBLANK(C158)), "", A157 + 1)</f>
         <v/>
       </c>
       <c r="I158" s="3"/>
@@ -5492,8 +5483,8 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A159" s="21" t="str">
+        <f>IF(AND(ISBLANK(B159),ISBLANK(C159)), "", A158 + 1)</f>
         <v/>
       </c>
       <c r="I159" s="3"/>
@@ -5503,8 +5494,8 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A160" s="21" t="str">
+        <f>IF(AND(ISBLANK(B160),ISBLANK(C160)), "", A159 + 1)</f>
         <v/>
       </c>
       <c r="I160" s="3"/>
@@ -5514,8 +5505,8 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A161" s="21" t="str">
+        <f>IF(AND(ISBLANK(B161),ISBLANK(C161)), "", A160 + 1)</f>
         <v/>
       </c>
       <c r="I161" s="3"/>
@@ -5525,8 +5516,8 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A162" s="21" t="str">
+        <f>IF(AND(ISBLANK(B162),ISBLANK(C162)), "", A161 + 1)</f>
         <v/>
       </c>
       <c r="I162" s="3"/>
@@ -5536,8 +5527,8 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A163" s="21" t="str">
+        <f>IF(AND(ISBLANK(B163),ISBLANK(C163)), "", A162 + 1)</f>
         <v/>
       </c>
       <c r="I163" s="3"/>
@@ -5547,8 +5538,8 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A164" s="21" t="str">
+        <f>IF(AND(ISBLANK(B164),ISBLANK(C164)), "", A163 + 1)</f>
         <v/>
       </c>
       <c r="I164" s="3"/>
@@ -5558,8 +5549,8 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A165" s="21" t="str">
+        <f>IF(AND(ISBLANK(B165),ISBLANK(C165)), "", A164 + 1)</f>
         <v/>
       </c>
       <c r="I165" s="3"/>
@@ -5569,8 +5560,8 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A166" s="21" t="str">
+        <f>IF(AND(ISBLANK(B166),ISBLANK(C166)), "", A165 + 1)</f>
         <v/>
       </c>
       <c r="I166" s="3"/>
@@ -5580,8 +5571,8 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A167" s="21" t="str">
+        <f>IF(AND(ISBLANK(B167),ISBLANK(C167)), "", A166 + 1)</f>
         <v/>
       </c>
       <c r="I167" s="3"/>
@@ -5591,8 +5582,8 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A168" s="21" t="str">
+        <f>IF(AND(ISBLANK(B168),ISBLANK(C168)), "", A167 + 1)</f>
         <v/>
       </c>
       <c r="I168" s="3"/>
@@ -5602,8 +5593,8 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A169" s="21" t="str">
+        <f>IF(AND(ISBLANK(B169),ISBLANK(C169)), "", A168 + 1)</f>
         <v/>
       </c>
       <c r="I169" s="3"/>
@@ -5613,8 +5604,8 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A170" s="21" t="str">
+        <f>IF(AND(ISBLANK(B170),ISBLANK(C170)), "", A169 + 1)</f>
         <v/>
       </c>
       <c r="I170" s="3"/>
@@ -5624,8 +5615,8 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A171" s="21" t="str">
+        <f>IF(AND(ISBLANK(B171),ISBLANK(C171)), "", A170 + 1)</f>
         <v/>
       </c>
       <c r="I171" s="3"/>
@@ -5635,8 +5626,8 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A172" s="21" t="str">
+        <f>IF(AND(ISBLANK(B172),ISBLANK(C172)), "", A171 + 1)</f>
         <v/>
       </c>
       <c r="I172" s="3"/>
@@ -5646,8 +5637,8 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A173" s="21" t="str">
+        <f>IF(AND(ISBLANK(B173),ISBLANK(C173)), "", A172 + 1)</f>
         <v/>
       </c>
       <c r="I173" s="3"/>
@@ -5657,8 +5648,8 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A174" s="21" t="str">
+        <f>IF(AND(ISBLANK(B174),ISBLANK(C174)), "", A173 + 1)</f>
         <v/>
       </c>
       <c r="I174" s="3"/>
@@ -5668,8 +5659,8 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A175" s="21" t="str">
+        <f>IF(AND(ISBLANK(B175),ISBLANK(C175)), "", A174 + 1)</f>
         <v/>
       </c>
       <c r="I175" s="3"/>
@@ -5679,8 +5670,8 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A176" s="21" t="str">
+        <f>IF(AND(ISBLANK(B176),ISBLANK(C176)), "", A175 + 1)</f>
         <v/>
       </c>
       <c r="I176" s="3"/>
@@ -5690,8 +5681,8 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A177" s="21" t="str">
+        <f>IF(AND(ISBLANK(B177),ISBLANK(C177)), "", A176 + 1)</f>
         <v/>
       </c>
       <c r="I177" s="3"/>
@@ -5701,8 +5692,8 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A178" s="21" t="str">
+        <f>IF(AND(ISBLANK(B178),ISBLANK(C178)), "", A177 + 1)</f>
         <v/>
       </c>
       <c r="I178" s="3"/>
@@ -5712,8 +5703,8 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A179" s="21" t="str">
+        <f>IF(AND(ISBLANK(B179),ISBLANK(C179)), "", A178 + 1)</f>
         <v/>
       </c>
       <c r="I179" s="3"/>
@@ -5723,8 +5714,8 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A180" s="21" t="str">
+        <f>IF(AND(ISBLANK(B180),ISBLANK(C180)), "", A179 + 1)</f>
         <v/>
       </c>
       <c r="I180" s="3"/>
@@ -5734,8 +5725,8 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A181" s="21" t="str">
+        <f>IF(AND(ISBLANK(B181),ISBLANK(C181)), "", A180 + 1)</f>
         <v/>
       </c>
       <c r="I181" s="3"/>
@@ -5745,8 +5736,8 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A182" s="21" t="str">
+        <f>IF(AND(ISBLANK(B182),ISBLANK(C182)), "", A181 + 1)</f>
         <v/>
       </c>
       <c r="I182" s="3"/>
@@ -5756,8 +5747,8 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A183" s="21" t="str">
+        <f>IF(AND(ISBLANK(B183),ISBLANK(C183)), "", A182 + 1)</f>
         <v/>
       </c>
       <c r="I183" s="3"/>
@@ -5767,8 +5758,8 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A184" s="21" t="str">
+        <f>IF(AND(ISBLANK(B184),ISBLANK(C184)), "", A183 + 1)</f>
         <v/>
       </c>
       <c r="I184" s="3"/>
@@ -5778,8 +5769,8 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A185" s="21" t="str">
+        <f>IF(AND(ISBLANK(B185),ISBLANK(C185)), "", A184 + 1)</f>
         <v/>
       </c>
       <c r="I185" s="3"/>
@@ -5789,8 +5780,8 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A186" s="21" t="str">
+        <f>IF(AND(ISBLANK(B186),ISBLANK(C186)), "", A185 + 1)</f>
         <v/>
       </c>
       <c r="I186" s="3"/>
@@ -5800,8 +5791,8 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A187" s="21" t="str">
+        <f>IF(AND(ISBLANK(B187),ISBLANK(C187)), "", A186 + 1)</f>
         <v/>
       </c>
       <c r="I187" s="3"/>
@@ -5811,8 +5802,8 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A188" s="21" t="str">
+        <f>IF(AND(ISBLANK(B188),ISBLANK(C188)), "", A187 + 1)</f>
         <v/>
       </c>
       <c r="I188" s="3"/>
@@ -5822,8 +5813,8 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A189" s="21" t="str">
+        <f>IF(AND(ISBLANK(B189),ISBLANK(C189)), "", A188 + 1)</f>
         <v/>
       </c>
       <c r="I189" s="3"/>
@@ -5833,8 +5824,8 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A190" s="21" t="str">
+        <f>IF(AND(ISBLANK(B190),ISBLANK(C190)), "", A189 + 1)</f>
         <v/>
       </c>
       <c r="I190" s="3"/>
@@ -5844,8 +5835,8 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A191" s="21" t="str">
+        <f>IF(AND(ISBLANK(B191),ISBLANK(C191)), "", A190 + 1)</f>
         <v/>
       </c>
       <c r="I191" s="3"/>
@@ -5855,8 +5846,8 @@
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A192" s="21" t="str">
+        <f>IF(AND(ISBLANK(B192),ISBLANK(C192)), "", A191 + 1)</f>
         <v/>
       </c>
       <c r="I192" s="3"/>
@@ -5866,8 +5857,8 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A193" s="21" t="str">
+        <f>IF(AND(ISBLANK(B193),ISBLANK(C193)), "", A192 + 1)</f>
         <v/>
       </c>
       <c r="I193" s="3"/>
@@ -5877,8 +5868,8 @@
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A194" s="21" t="str">
+        <f>IF(AND(ISBLANK(B194),ISBLANK(C194)), "", A193 + 1)</f>
         <v/>
       </c>
       <c r="I194" s="3"/>
@@ -5888,8 +5879,8 @@
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A195" s="21" t="str">
+        <f>IF(AND(ISBLANK(B195),ISBLANK(C195)), "", A194 + 1)</f>
         <v/>
       </c>
       <c r="I195" s="3"/>
@@ -5899,8 +5890,8 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="str">
-        <f t="shared" si="8"/>
+      <c r="A196" s="21" t="str">
+        <f>IF(AND(ISBLANK(B196),ISBLANK(C196)), "", A195 + 1)</f>
         <v/>
       </c>
       <c r="I196" s="3"/>
@@ -5910,8 +5901,8 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="str">
-        <f t="shared" ref="A197:A260" si="9">IF(ISBLANK(B197), "", A196 + 1)</f>
+      <c r="A197" s="21" t="str">
+        <f>IF(AND(ISBLANK(B197),ISBLANK(C197)), "", A196 + 1)</f>
         <v/>
       </c>
       <c r="I197" s="3"/>
@@ -5921,8 +5912,8 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A198" s="21" t="str">
+        <f>IF(AND(ISBLANK(B198),ISBLANK(C198)), "", A197 + 1)</f>
         <v/>
       </c>
       <c r="E198" s="6" t="str">
@@ -5936,8 +5927,8 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A199" s="21" t="str">
+        <f>IF(AND(ISBLANK(B199),ISBLANK(C199)), "", A198 + 1)</f>
         <v/>
       </c>
       <c r="E199" s="6" t="str">
@@ -5947,8 +5938,8 @@
       <c r="I199" s="3"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A200" s="21" t="str">
+        <f>IF(AND(ISBLANK(B200),ISBLANK(C200)), "", A199 + 1)</f>
         <v/>
       </c>
       <c r="E200" s="6" t="str">
@@ -5958,8 +5949,8 @@
       <c r="I200" s="3"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A201" s="21" t="str">
+        <f>IF(AND(ISBLANK(B201),ISBLANK(C201)), "", A200 + 1)</f>
         <v/>
       </c>
       <c r="E201" s="6" t="str">
@@ -5969,8 +5960,8 @@
       <c r="I201" s="3"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A202" s="21" t="str">
+        <f>IF(AND(ISBLANK(B202),ISBLANK(C202)), "", A201 + 1)</f>
         <v/>
       </c>
       <c r="E202" s="6" t="str">
@@ -5980,8 +5971,8 @@
       <c r="I202" s="3"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A203" s="21" t="str">
+        <f>IF(AND(ISBLANK(B203),ISBLANK(C203)), "", A202 + 1)</f>
         <v/>
       </c>
       <c r="E203" s="6" t="str">
@@ -5991,8 +5982,8 @@
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A204" s="21" t="str">
+        <f>IF(AND(ISBLANK(B204),ISBLANK(C204)), "", A203 + 1)</f>
         <v/>
       </c>
       <c r="E204" s="6" t="str">
@@ -6002,8 +5993,8 @@
       <c r="I204" s="3"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A205" s="21" t="str">
+        <f>IF(AND(ISBLANK(B205),ISBLANK(C205)), "", A204 + 1)</f>
         <v/>
       </c>
       <c r="E205" s="6" t="str">
@@ -6013,8 +6004,8 @@
       <c r="I205" s="3"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A206" s="21" t="str">
+        <f>IF(AND(ISBLANK(B206),ISBLANK(C206)), "", A205 + 1)</f>
         <v/>
       </c>
       <c r="E206" s="6" t="str">
@@ -6024,8 +6015,8 @@
       <c r="I206" s="3"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A207" s="21" t="str">
+        <f>IF(AND(ISBLANK(B207),ISBLANK(C207)), "", A206 + 1)</f>
         <v/>
       </c>
       <c r="E207" s="6" t="str">
@@ -6035,8 +6026,8 @@
       <c r="I207" s="3"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A208" s="21" t="str">
+        <f>IF(AND(ISBLANK(B208),ISBLANK(C208)), "", A207 + 1)</f>
         <v/>
       </c>
       <c r="E208" s="6" t="str">
@@ -6046,8 +6037,8 @@
       <c r="I208" s="3"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A209" s="21" t="str">
+        <f>IF(AND(ISBLANK(B209),ISBLANK(C209)), "", A208 + 1)</f>
         <v/>
       </c>
       <c r="E209" s="6" t="str">
@@ -6057,8 +6048,8 @@
       <c r="I209" s="3"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A210" s="21" t="str">
+        <f>IF(AND(ISBLANK(B210),ISBLANK(C210)), "", A209 + 1)</f>
         <v/>
       </c>
       <c r="E210" s="6" t="str">
@@ -6068,8 +6059,8 @@
       <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A211" s="21" t="str">
+        <f>IF(AND(ISBLANK(B211),ISBLANK(C211)), "", A210 + 1)</f>
         <v/>
       </c>
       <c r="E211" s="6" t="str">
@@ -6079,8 +6070,8 @@
       <c r="I211" s="3"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A212" s="21" t="str">
+        <f>IF(AND(ISBLANK(B212),ISBLANK(C212)), "", A211 + 1)</f>
         <v/>
       </c>
       <c r="E212" s="6" t="str">
@@ -6090,8 +6081,8 @@
       <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A213" s="21" t="str">
+        <f>IF(AND(ISBLANK(B213),ISBLANK(C213)), "", A212 + 1)</f>
         <v/>
       </c>
       <c r="E213" s="6" t="str">
@@ -6101,8 +6092,8 @@
       <c r="I213" s="3"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A214" s="21" t="str">
+        <f>IF(AND(ISBLANK(B214),ISBLANK(C214)), "", A213 + 1)</f>
         <v/>
       </c>
       <c r="E214" s="6" t="str">
@@ -6112,8 +6103,8 @@
       <c r="I214" s="3"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A215" s="21" t="str">
+        <f>IF(AND(ISBLANK(B215),ISBLANK(C215)), "", A214 + 1)</f>
         <v/>
       </c>
       <c r="E215" s="6" t="str">
@@ -6123,8 +6114,8 @@
       <c r="I215" s="3"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A216" s="21" t="str">
+        <f>IF(AND(ISBLANK(B216),ISBLANK(C216)), "", A215 + 1)</f>
         <v/>
       </c>
       <c r="E216" s="6" t="str">
@@ -6134,8 +6125,8 @@
       <c r="I216" s="3"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A217" s="21" t="str">
+        <f>IF(AND(ISBLANK(B217),ISBLANK(C217)), "", A216 + 1)</f>
         <v/>
       </c>
       <c r="E217" s="6" t="str">
@@ -6145,8 +6136,8 @@
       <c r="I217" s="3"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A218" s="21" t="str">
+        <f>IF(AND(ISBLANK(B218),ISBLANK(C218)), "", A217 + 1)</f>
         <v/>
       </c>
       <c r="E218" s="6" t="str">
@@ -6156,8 +6147,8 @@
       <c r="I218" s="3"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A219" s="21" t="str">
+        <f>IF(AND(ISBLANK(B219),ISBLANK(C219)), "", A218 + 1)</f>
         <v/>
       </c>
       <c r="E219" s="6" t="str">
@@ -6167,8 +6158,8 @@
       <c r="I219" s="3"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A220" s="21" t="str">
+        <f>IF(AND(ISBLANK(B220),ISBLANK(C220)), "", A219 + 1)</f>
         <v/>
       </c>
       <c r="E220" s="6" t="str">
@@ -6178,8 +6169,8 @@
       <c r="I220" s="3"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A221" s="21" t="str">
+        <f>IF(AND(ISBLANK(B221),ISBLANK(C221)), "", A220 + 1)</f>
         <v/>
       </c>
       <c r="E221" s="6" t="str">
@@ -6189,8 +6180,8 @@
       <c r="I221" s="3"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A222" s="21" t="str">
+        <f>IF(AND(ISBLANK(B222),ISBLANK(C222)), "", A221 + 1)</f>
         <v/>
       </c>
       <c r="E222" s="6" t="str">
@@ -6200,8 +6191,8 @@
       <c r="I222" s="3"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A223" s="21" t="str">
+        <f>IF(AND(ISBLANK(B223),ISBLANK(C223)), "", A222 + 1)</f>
         <v/>
       </c>
       <c r="E223" s="6" t="str">
@@ -6211,8 +6202,8 @@
       <c r="I223" s="3"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A224" s="21" t="str">
+        <f>IF(AND(ISBLANK(B224),ISBLANK(C224)), "", A223 + 1)</f>
         <v/>
       </c>
       <c r="E224" s="6" t="str">
@@ -6222,8 +6213,8 @@
       <c r="I224" s="3"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A225" s="21" t="str">
+        <f>IF(AND(ISBLANK(B225),ISBLANK(C225)), "", A224 + 1)</f>
         <v/>
       </c>
       <c r="E225" s="6" t="str">
@@ -6233,8 +6224,8 @@
       <c r="I225" s="3"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A226" s="21" t="str">
+        <f>IF(AND(ISBLANK(B226),ISBLANK(C226)), "", A225 + 1)</f>
         <v/>
       </c>
       <c r="E226" s="6" t="str">
@@ -6244,8 +6235,8 @@
       <c r="I226" s="3"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A227" s="21" t="str">
+        <f>IF(AND(ISBLANK(B227),ISBLANK(C227)), "", A226 + 1)</f>
         <v/>
       </c>
       <c r="E227" s="6" t="str">
@@ -6255,8 +6246,8 @@
       <c r="I227" s="3"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A228" s="21" t="str">
+        <f>IF(AND(ISBLANK(B228),ISBLANK(C228)), "", A227 + 1)</f>
         <v/>
       </c>
       <c r="E228" s="6" t="str">
@@ -6266,8 +6257,8 @@
       <c r="I228" s="3"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A229" s="21" t="str">
+        <f>IF(AND(ISBLANK(B229),ISBLANK(C229)), "", A228 + 1)</f>
         <v/>
       </c>
       <c r="E229" s="6" t="str">
@@ -6277,8 +6268,8 @@
       <c r="I229" s="3"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A230" s="21" t="str">
+        <f>IF(AND(ISBLANK(B230),ISBLANK(C230)), "", A229 + 1)</f>
         <v/>
       </c>
       <c r="E230" s="6" t="str">
@@ -6288,8 +6279,8 @@
       <c r="I230" s="3"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A231" s="21" t="str">
+        <f>IF(AND(ISBLANK(B231),ISBLANK(C231)), "", A230 + 1)</f>
         <v/>
       </c>
       <c r="E231" s="6" t="str">
@@ -6299,8 +6290,8 @@
       <c r="I231" s="3"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A232" s="21" t="str">
+        <f>IF(AND(ISBLANK(B232),ISBLANK(C232)), "", A231 + 1)</f>
         <v/>
       </c>
       <c r="E232" s="6" t="str">
@@ -6310,8 +6301,8 @@
       <c r="I232" s="3"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A233" s="21" t="str">
+        <f>IF(AND(ISBLANK(B233),ISBLANK(C233)), "", A232 + 1)</f>
         <v/>
       </c>
       <c r="E233" s="6" t="str">
@@ -6321,8 +6312,8 @@
       <c r="I233" s="3"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A234" s="21" t="str">
+        <f>IF(AND(ISBLANK(B234),ISBLANK(C234)), "", A233 + 1)</f>
         <v/>
       </c>
       <c r="E234" s="6" t="str">
@@ -6332,8 +6323,8 @@
       <c r="I234" s="3"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A235" s="21" t="str">
+        <f>IF(AND(ISBLANK(B235),ISBLANK(C235)), "", A234 + 1)</f>
         <v/>
       </c>
       <c r="E235" s="6" t="str">
@@ -6343,8 +6334,8 @@
       <c r="I235" s="3"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A236" s="21" t="str">
+        <f>IF(AND(ISBLANK(B236),ISBLANK(C236)), "", A235 + 1)</f>
         <v/>
       </c>
       <c r="E236" s="6" t="str">
@@ -6354,8 +6345,8 @@
       <c r="I236" s="3"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A237" s="21" t="str">
+        <f>IF(AND(ISBLANK(B237),ISBLANK(C237)), "", A236 + 1)</f>
         <v/>
       </c>
       <c r="E237" s="6" t="str">
@@ -6365,8 +6356,8 @@
       <c r="I237" s="3"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A238" s="21" t="str">
+        <f>IF(AND(ISBLANK(B238),ISBLANK(C238)), "", A237 + 1)</f>
         <v/>
       </c>
       <c r="E238" s="6" t="str">
@@ -6376,8 +6367,8 @@
       <c r="I238" s="3"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A239" s="21" t="str">
+        <f>IF(AND(ISBLANK(B239),ISBLANK(C239)), "", A238 + 1)</f>
         <v/>
       </c>
       <c r="E239" s="6" t="str">
@@ -6387,8 +6378,8 @@
       <c r="I239" s="3"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A240" s="21" t="str">
+        <f>IF(AND(ISBLANK(B240),ISBLANK(C240)), "", A239 + 1)</f>
         <v/>
       </c>
       <c r="E240" s="6" t="str">
@@ -6398,8 +6389,8 @@
       <c r="I240" s="3"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A241" s="21" t="str">
+        <f>IF(AND(ISBLANK(B241),ISBLANK(C241)), "", A240 + 1)</f>
         <v/>
       </c>
       <c r="E241" s="6" t="str">
@@ -6409,8 +6400,8 @@
       <c r="I241" s="3"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A242" s="21" t="str">
+        <f>IF(AND(ISBLANK(B242),ISBLANK(C242)), "", A241 + 1)</f>
         <v/>
       </c>
       <c r="E242" s="6" t="str">
@@ -6420,8 +6411,8 @@
       <c r="I242" s="3"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A243" s="21" t="str">
+        <f>IF(AND(ISBLANK(B243),ISBLANK(C243)), "", A242 + 1)</f>
         <v/>
       </c>
       <c r="E243" s="6" t="str">
@@ -6431,8 +6422,8 @@
       <c r="I243" s="3"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A244" s="21" t="str">
+        <f>IF(AND(ISBLANK(B244),ISBLANK(C244)), "", A243 + 1)</f>
         <v/>
       </c>
       <c r="E244" s="6" t="str">
@@ -6442,8 +6433,8 @@
       <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A245" s="21" t="str">
+        <f>IF(AND(ISBLANK(B245),ISBLANK(C245)), "", A244 + 1)</f>
         <v/>
       </c>
       <c r="E245" s="6" t="str">
@@ -6453,8 +6444,8 @@
       <c r="I245" s="3"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A246" s="21" t="str">
+        <f>IF(AND(ISBLANK(B246),ISBLANK(C246)), "", A245 + 1)</f>
         <v/>
       </c>
       <c r="E246" s="6" t="str">
@@ -6464,8 +6455,8 @@
       <c r="I246" s="3"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A247" s="21" t="str">
+        <f>IF(AND(ISBLANK(B247),ISBLANK(C247)), "", A246 + 1)</f>
         <v/>
       </c>
       <c r="E247" s="6" t="str">
@@ -6475,8 +6466,8 @@
       <c r="I247" s="3"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A248" s="21" t="str">
+        <f>IF(AND(ISBLANK(B248),ISBLANK(C248)), "", A247 + 1)</f>
         <v/>
       </c>
       <c r="E248" s="6" t="str">
@@ -6486,8 +6477,8 @@
       <c r="I248" s="3"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A249" s="21" t="str">
+        <f>IF(AND(ISBLANK(B249),ISBLANK(C249)), "", A248 + 1)</f>
         <v/>
       </c>
       <c r="E249" s="6" t="str">
@@ -6497,8 +6488,8 @@
       <c r="I249" s="3"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A250" s="21" t="str">
+        <f>IF(AND(ISBLANK(B250),ISBLANK(C250)), "", A249 + 1)</f>
         <v/>
       </c>
       <c r="E250" s="6" t="str">
@@ -6508,8 +6499,8 @@
       <c r="I250" s="3"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A251" s="21" t="str">
+        <f>IF(AND(ISBLANK(B251),ISBLANK(C251)), "", A250 + 1)</f>
         <v/>
       </c>
       <c r="E251" s="6" t="str">
@@ -6519,8 +6510,8 @@
       <c r="I251" s="3"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A252" s="21" t="str">
+        <f>IF(AND(ISBLANK(B252),ISBLANK(C252)), "", A251 + 1)</f>
         <v/>
       </c>
       <c r="E252" s="6" t="str">
@@ -6530,8 +6521,8 @@
       <c r="I252" s="3"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A253" s="21" t="str">
+        <f>IF(AND(ISBLANK(B253),ISBLANK(C253)), "", A252 + 1)</f>
         <v/>
       </c>
       <c r="E253" s="6" t="str">
@@ -6541,8 +6532,8 @@
       <c r="I253" s="3"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A254" s="21" t="str">
+        <f>IF(AND(ISBLANK(B254),ISBLANK(C254)), "", A253 + 1)</f>
         <v/>
       </c>
       <c r="E254" s="6" t="str">
@@ -6552,8 +6543,8 @@
       <c r="I254" s="3"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A255" s="21" t="str">
+        <f>IF(AND(ISBLANK(B255),ISBLANK(C255)), "", A254 + 1)</f>
         <v/>
       </c>
       <c r="E255" s="6" t="str">
@@ -6563,8 +6554,8 @@
       <c r="I255" s="3"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A256" s="21" t="str">
+        <f>IF(AND(ISBLANK(B256),ISBLANK(C256)), "", A255 + 1)</f>
         <v/>
       </c>
       <c r="E256" s="6" t="str">
@@ -6574,8 +6565,8 @@
       <c r="I256" s="3"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A257" s="21" t="str">
+        <f>IF(AND(ISBLANK(B257),ISBLANK(C257)), "", A256 + 1)</f>
         <v/>
       </c>
       <c r="E257" s="6" t="str">
@@ -6585,8 +6576,8 @@
       <c r="I257" s="3"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A258" s="21" t="str">
+        <f>IF(AND(ISBLANK(B258),ISBLANK(C258)), "", A257 + 1)</f>
         <v/>
       </c>
       <c r="E258" s="6" t="str">
@@ -6596,8 +6587,8 @@
       <c r="I258" s="3"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A259" s="21" t="str">
+        <f>IF(AND(ISBLANK(B259),ISBLANK(C259)), "", A258 + 1)</f>
         <v/>
       </c>
       <c r="E259" s="6" t="str">
@@ -6607,8 +6598,8 @@
       <c r="I259" s="3"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="str">
-        <f t="shared" si="9"/>
+      <c r="A260" s="21" t="str">
+        <f>IF(AND(ISBLANK(B260),ISBLANK(C260)), "", A259 + 1)</f>
         <v/>
       </c>
       <c r="E260" s="6" t="str">
@@ -6618,8 +6609,8 @@
       <c r="I260" s="3"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="str">
-        <f t="shared" ref="A261:A301" si="10">IF(ISBLANK(B261), "", A260 + 1)</f>
+      <c r="A261" s="21" t="str">
+        <f>IF(AND(ISBLANK(B261),ISBLANK(C261)), "", A260 + 1)</f>
         <v/>
       </c>
       <c r="E261" s="6" t="str">
@@ -6629,8 +6620,8 @@
       <c r="I261" s="3"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A262" s="21" t="str">
+        <f>IF(AND(ISBLANK(B262),ISBLANK(C262)), "", A261 + 1)</f>
         <v/>
       </c>
       <c r="E262" s="6" t="str">
@@ -6640,8 +6631,8 @@
       <c r="I262" s="3"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A263" s="21" t="str">
+        <f>IF(AND(ISBLANK(B263),ISBLANK(C263)), "", A262 + 1)</f>
         <v/>
       </c>
       <c r="E263" s="6" t="str">
@@ -6651,8 +6642,8 @@
       <c r="I263" s="3"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A264" s="21" t="str">
+        <f>IF(AND(ISBLANK(B264),ISBLANK(C264)), "", A263 + 1)</f>
         <v/>
       </c>
       <c r="E264" s="6" t="str">
@@ -6662,8 +6653,8 @@
       <c r="I264" s="3"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A265" s="21" t="str">
+        <f>IF(AND(ISBLANK(B265),ISBLANK(C265)), "", A264 + 1)</f>
         <v/>
       </c>
       <c r="E265" s="6" t="str">
@@ -6673,8 +6664,8 @@
       <c r="I265" s="3"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A266" s="21" t="str">
+        <f>IF(AND(ISBLANK(B266),ISBLANK(C266)), "", A265 + 1)</f>
         <v/>
       </c>
       <c r="E266" s="6" t="str">
@@ -6684,8 +6675,8 @@
       <c r="I266" s="3"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A267" s="21" t="str">
+        <f>IF(AND(ISBLANK(B267),ISBLANK(C267)), "", A266 + 1)</f>
         <v/>
       </c>
       <c r="E267" s="6" t="str">
@@ -6695,8 +6686,8 @@
       <c r="I267" s="3"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A268" s="21" t="str">
+        <f>IF(AND(ISBLANK(B268),ISBLANK(C268)), "", A267 + 1)</f>
         <v/>
       </c>
       <c r="E268" s="6" t="str">
@@ -6706,8 +6697,8 @@
       <c r="I268" s="3"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A269" s="21" t="str">
+        <f>IF(AND(ISBLANK(B269),ISBLANK(C269)), "", A268 + 1)</f>
         <v/>
       </c>
       <c r="E269" s="6" t="str">
@@ -6717,8 +6708,8 @@
       <c r="I269" s="3"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A270" s="21" t="str">
+        <f>IF(AND(ISBLANK(B270),ISBLANK(C270)), "", A269 + 1)</f>
         <v/>
       </c>
       <c r="E270" s="6" t="str">
@@ -6728,8 +6719,8 @@
       <c r="I270" s="3"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A271" s="21" t="str">
+        <f>IF(AND(ISBLANK(B271),ISBLANK(C271)), "", A270 + 1)</f>
         <v/>
       </c>
       <c r="E271" s="6" t="str">
@@ -6739,8 +6730,8 @@
       <c r="I271" s="3"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A272" s="21" t="str">
+        <f>IF(AND(ISBLANK(B272),ISBLANK(C272)), "", A271 + 1)</f>
         <v/>
       </c>
       <c r="E272" s="6" t="str">
@@ -6750,8 +6741,8 @@
       <c r="I272" s="3"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A273" s="21" t="str">
+        <f>IF(AND(ISBLANK(B273),ISBLANK(C273)), "", A272 + 1)</f>
         <v/>
       </c>
       <c r="E273" s="6" t="str">
@@ -6761,8 +6752,8 @@
       <c r="I273" s="3"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A274" s="21" t="str">
+        <f>IF(AND(ISBLANK(B274),ISBLANK(C274)), "", A273 + 1)</f>
         <v/>
       </c>
       <c r="E274" s="6" t="str">
@@ -6772,8 +6763,8 @@
       <c r="I274" s="3"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A275" s="21" t="str">
+        <f>IF(AND(ISBLANK(B275),ISBLANK(C275)), "", A274 + 1)</f>
         <v/>
       </c>
       <c r="E275" s="6" t="str">
@@ -6783,8 +6774,8 @@
       <c r="I275" s="3"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A276" s="21" t="str">
+        <f>IF(AND(ISBLANK(B276),ISBLANK(C276)), "", A275 + 1)</f>
         <v/>
       </c>
       <c r="E276" s="6" t="str">
@@ -6794,8 +6785,8 @@
       <c r="I276" s="3"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A277" s="21" t="str">
+        <f>IF(AND(ISBLANK(B277),ISBLANK(C277)), "", A276 + 1)</f>
         <v/>
       </c>
       <c r="E277" s="6" t="str">
@@ -6805,8 +6796,8 @@
       <c r="I277" s="3"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A278" s="21" t="str">
+        <f>IF(AND(ISBLANK(B278),ISBLANK(C278)), "", A277 + 1)</f>
         <v/>
       </c>
       <c r="E278" s="6" t="str">
@@ -6816,8 +6807,8 @@
       <c r="I278" s="3"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A279" s="21" t="str">
+        <f>IF(AND(ISBLANK(B279),ISBLANK(C279)), "", A278 + 1)</f>
         <v/>
       </c>
       <c r="E279" s="6" t="str">
@@ -6827,8 +6818,8 @@
       <c r="I279" s="3"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A280" s="21" t="str">
+        <f>IF(AND(ISBLANK(B280),ISBLANK(C280)), "", A279 + 1)</f>
         <v/>
       </c>
       <c r="E280" s="6" t="str">
@@ -6838,8 +6829,8 @@
       <c r="I280" s="3"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A281" s="21" t="str">
+        <f>IF(AND(ISBLANK(B281),ISBLANK(C281)), "", A280 + 1)</f>
         <v/>
       </c>
       <c r="E281" s="6" t="str">
@@ -6849,8 +6840,8 @@
       <c r="I281" s="3"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A282" s="21" t="str">
+        <f>IF(AND(ISBLANK(B282),ISBLANK(C282)), "", A281 + 1)</f>
         <v/>
       </c>
       <c r="E282" s="6" t="str">
@@ -6860,8 +6851,8 @@
       <c r="I282" s="3"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A283" s="21" t="str">
+        <f>IF(AND(ISBLANK(B283),ISBLANK(C283)), "", A282 + 1)</f>
         <v/>
       </c>
       <c r="E283" s="6" t="str">
@@ -6871,8 +6862,8 @@
       <c r="I283" s="3"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A284" s="21" t="str">
+        <f>IF(AND(ISBLANK(B284),ISBLANK(C284)), "", A283 + 1)</f>
         <v/>
       </c>
       <c r="E284" s="6" t="str">
@@ -6882,8 +6873,8 @@
       <c r="I284" s="3"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A285" s="21" t="str">
+        <f>IF(AND(ISBLANK(B285),ISBLANK(C285)), "", A284 + 1)</f>
         <v/>
       </c>
       <c r="E285" s="6" t="str">
@@ -6893,8 +6884,8 @@
       <c r="I285" s="3"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A286" s="21" t="str">
+        <f>IF(AND(ISBLANK(B286),ISBLANK(C286)), "", A285 + 1)</f>
         <v/>
       </c>
       <c r="E286" s="6" t="str">
@@ -6904,8 +6895,8 @@
       <c r="I286" s="3"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A287" s="21" t="str">
+        <f>IF(AND(ISBLANK(B287),ISBLANK(C287)), "", A286 + 1)</f>
         <v/>
       </c>
       <c r="E287" s="6" t="str">
@@ -6915,8 +6906,8 @@
       <c r="I287" s="3"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A288" s="21" t="str">
+        <f>IF(AND(ISBLANK(B288),ISBLANK(C288)), "", A287 + 1)</f>
         <v/>
       </c>
       <c r="E288" s="6" t="str">
@@ -6926,8 +6917,8 @@
       <c r="I288" s="3"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A289" s="21" t="str">
+        <f>IF(AND(ISBLANK(B289),ISBLANK(C289)), "", A288 + 1)</f>
         <v/>
       </c>
       <c r="E289" s="6" t="str">
@@ -6937,8 +6928,8 @@
       <c r="I289" s="3"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A290" s="21" t="str">
+        <f>IF(AND(ISBLANK(B290),ISBLANK(C290)), "", A289 + 1)</f>
         <v/>
       </c>
       <c r="E290" s="6" t="str">
@@ -6948,8 +6939,8 @@
       <c r="I290" s="3"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A291" s="21" t="str">
+        <f>IF(AND(ISBLANK(B291),ISBLANK(C291)), "", A290 + 1)</f>
         <v/>
       </c>
       <c r="E291" s="6" t="str">
@@ -6959,8 +6950,8 @@
       <c r="I291" s="3"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A292" s="21" t="str">
+        <f>IF(AND(ISBLANK(B292),ISBLANK(C292)), "", A291 + 1)</f>
         <v/>
       </c>
       <c r="E292" s="6" t="str">
@@ -6970,8 +6961,8 @@
       <c r="I292" s="3"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A293" s="21" t="str">
+        <f>IF(AND(ISBLANK(B293),ISBLANK(C293)), "", A292 + 1)</f>
         <v/>
       </c>
       <c r="E293" s="6" t="str">
@@ -6981,8 +6972,8 @@
       <c r="I293" s="3"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A294" s="21" t="str">
+        <f>IF(AND(ISBLANK(B294),ISBLANK(C294)), "", A293 + 1)</f>
         <v/>
       </c>
       <c r="E294" s="6" t="str">
@@ -6992,8 +6983,8 @@
       <c r="I294" s="3"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A295" s="21" t="str">
+        <f>IF(AND(ISBLANK(B295),ISBLANK(C295)), "", A294 + 1)</f>
         <v/>
       </c>
       <c r="E295" s="6" t="str">
@@ -7003,8 +6994,8 @@
       <c r="I295" s="3"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A296" s="21" t="str">
+        <f>IF(AND(ISBLANK(B296),ISBLANK(C296)), "", A295 + 1)</f>
         <v/>
       </c>
       <c r="E296" s="6" t="str">
@@ -7014,8 +7005,8 @@
       <c r="I296" s="3"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A297" s="21" t="str">
+        <f>IF(AND(ISBLANK(B297),ISBLANK(C297)), "", A296 + 1)</f>
         <v/>
       </c>
       <c r="E297" s="6" t="str">
@@ -7025,8 +7016,8 @@
       <c r="I297" s="3"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A298" s="21" t="str">
+        <f>IF(AND(ISBLANK(B298),ISBLANK(C298)), "", A297 + 1)</f>
         <v/>
       </c>
       <c r="E298" s="6" t="str">
@@ -7036,8 +7027,8 @@
       <c r="I298" s="3"/>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A299" s="21" t="str">
+        <f>IF(AND(ISBLANK(B299),ISBLANK(C299)), "", A298 + 1)</f>
         <v/>
       </c>
       <c r="E299" s="6" t="str">
@@ -7046,8 +7037,8 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A300" s="21" t="str">
+        <f>IF(AND(ISBLANK(B300),ISBLANK(C300)), "", A299 + 1)</f>
         <v/>
       </c>
       <c r="E300" s="6" t="str">
@@ -7056,8 +7047,8 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="str">
-        <f t="shared" si="10"/>
+      <c r="A301" s="21" t="str">
+        <f>IF(AND(ISBLANK(B301),ISBLANK(C301)), "", A300 + 1)</f>
         <v/>
       </c>
       <c r="E301" s="6" t="str">
@@ -7066,1932 +7057,2676 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="21" t="str">
+        <f>IF(AND(ISBLANK(B302),ISBLANK(C302)), "", A301 + 1)</f>
+        <v/>
+      </c>
       <c r="E302" s="6" t="str">
         <f>IF(ISBLANK(F302), "",INDEX(Squads!A$3:B$1048576,MATCH(F302, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="21" t="str">
+        <f>IF(AND(ISBLANK(B303),ISBLANK(C303)), "", A302 + 1)</f>
+        <v/>
+      </c>
       <c r="E303" s="6" t="str">
         <f>IF(ISBLANK(F303), "",INDEX(Squads!A$3:B$1048576,MATCH(F303, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="21" t="str">
+        <f>IF(AND(ISBLANK(B304),ISBLANK(C304)), "", A303 + 1)</f>
+        <v/>
+      </c>
       <c r="E304" s="6" t="str">
         <f>IF(ISBLANK(F304), "",INDEX(Squads!A$3:B$1048576,MATCH(F304, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="21" t="str">
+        <f>IF(AND(ISBLANK(B305),ISBLANK(C305)), "", A304 + 1)</f>
+        <v/>
+      </c>
       <c r="E305" s="6" t="str">
         <f>IF(ISBLANK(F305), "",INDEX(Squads!A$3:B$1048576,MATCH(F305, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="21" t="str">
+        <f>IF(AND(ISBLANK(B306),ISBLANK(C306)), "", A305 + 1)</f>
+        <v/>
+      </c>
       <c r="E306" s="6" t="str">
         <f>IF(ISBLANK(F306), "",INDEX(Squads!A$3:B$1048576,MATCH(F306, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="21" t="str">
+        <f>IF(AND(ISBLANK(B307),ISBLANK(C307)), "", A306 + 1)</f>
+        <v/>
+      </c>
       <c r="E307" s="6" t="str">
         <f>IF(ISBLANK(F307), "",INDEX(Squads!A$3:B$1048576,MATCH(F307, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H307" s="7" t="str">
-        <f t="shared" ref="H307:H370" si="11">IF(ISBLANK(B307), "",_xlfn.CONCAT($B307," ",$C307))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B307), "",_xlfn.CONCAT($B307," ",$C307))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="21" t="str">
+        <f>IF(AND(ISBLANK(B308),ISBLANK(C308)), "", A307 + 1)</f>
+        <v/>
+      </c>
       <c r="E308" s="6" t="str">
         <f>IF(ISBLANK(F308), "",INDEX(Squads!A$3:B$1048576,MATCH(F308, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H308" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B308), "",_xlfn.CONCAT($B308," ",$C308))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="21" t="str">
+        <f>IF(AND(ISBLANK(B309),ISBLANK(C309)), "", A308 + 1)</f>
+        <v/>
+      </c>
       <c r="E309" s="6" t="str">
         <f>IF(ISBLANK(F309), "",INDEX(Squads!A$3:B$1048576,MATCH(F309, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H309" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B309), "",_xlfn.CONCAT($B309," ",$C309))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="21" t="str">
+        <f>IF(AND(ISBLANK(B310),ISBLANK(C310)), "", A309 + 1)</f>
+        <v/>
+      </c>
       <c r="E310" s="6" t="str">
         <f>IF(ISBLANK(F310), "",INDEX(Squads!A$3:B$1048576,MATCH(F310, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H310" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B310), "",_xlfn.CONCAT($B310," ",$C310))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="21" t="str">
+        <f>IF(AND(ISBLANK(B311),ISBLANK(C311)), "", A310 + 1)</f>
+        <v/>
+      </c>
       <c r="E311" s="6" t="str">
         <f>IF(ISBLANK(F311), "",INDEX(Squads!A$3:B$1048576,MATCH(F311, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H311" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B311), "",_xlfn.CONCAT($B311," ",$C311))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="21" t="str">
+        <f>IF(AND(ISBLANK(B312),ISBLANK(C312)), "", A311 + 1)</f>
+        <v/>
+      </c>
       <c r="E312" s="6" t="str">
         <f>IF(ISBLANK(F312), "",INDEX(Squads!A$3:B$1048576,MATCH(F312, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H312" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B312), "",_xlfn.CONCAT($B312," ",$C312))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="21" t="str">
+        <f>IF(AND(ISBLANK(B313),ISBLANK(C313)), "", A312 + 1)</f>
+        <v/>
+      </c>
       <c r="E313" s="6" t="str">
         <f>IF(ISBLANK(F313), "",INDEX(Squads!A$3:B$1048576,MATCH(F313, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H313" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B313), "",_xlfn.CONCAT($B313," ",$C313))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="21" t="str">
+        <f>IF(AND(ISBLANK(B314),ISBLANK(C314)), "", A313 + 1)</f>
+        <v/>
+      </c>
       <c r="E314" s="6" t="str">
         <f>IF(ISBLANK(F314), "",INDEX(Squads!A$3:B$1048576,MATCH(F314, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H314" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B314), "",_xlfn.CONCAT($B314," ",$C314))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" s="21" t="str">
+        <f>IF(AND(ISBLANK(B315),ISBLANK(C315)), "", A314 + 1)</f>
+        <v/>
+      </c>
       <c r="E315" s="6" t="str">
         <f>IF(ISBLANK(F315), "",INDEX(Squads!A$3:B$1048576,MATCH(F315, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H315" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B315), "",_xlfn.CONCAT($B315," ",$C315))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" s="21" t="str">
+        <f>IF(AND(ISBLANK(B316),ISBLANK(C316)), "", A315 + 1)</f>
+        <v/>
+      </c>
       <c r="E316" s="6" t="str">
         <f>IF(ISBLANK(F316), "",INDEX(Squads!A$3:B$1048576,MATCH(F316, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H316" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B316), "",_xlfn.CONCAT($B316," ",$C316))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="21" t="str">
+        <f>IF(AND(ISBLANK(B317),ISBLANK(C317)), "", A316 + 1)</f>
+        <v/>
+      </c>
       <c r="E317" s="6" t="str">
         <f>IF(ISBLANK(F317), "",INDEX(Squads!A$3:B$1048576,MATCH(F317, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H317" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B317), "",_xlfn.CONCAT($B317," ",$C317))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="21" t="str">
+        <f>IF(AND(ISBLANK(B318),ISBLANK(C318)), "", A317 + 1)</f>
+        <v/>
+      </c>
       <c r="E318" s="6" t="str">
         <f>IF(ISBLANK(F318), "",INDEX(Squads!A$3:B$1048576,MATCH(F318, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H318" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B318), "",_xlfn.CONCAT($B318," ",$C318))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="21" t="str">
+        <f>IF(AND(ISBLANK(B319),ISBLANK(C319)), "", A318 + 1)</f>
+        <v/>
+      </c>
       <c r="E319" s="6" t="str">
         <f>IF(ISBLANK(F319), "",INDEX(Squads!A$3:B$1048576,MATCH(F319, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H319" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B319), "",_xlfn.CONCAT($B319," ",$C319))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" s="21" t="str">
+        <f>IF(AND(ISBLANK(B320),ISBLANK(C320)), "", A319 + 1)</f>
+        <v/>
+      </c>
       <c r="E320" s="6" t="str">
         <f>IF(ISBLANK(F320), "",INDEX(Squads!A$3:B$1048576,MATCH(F320, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H320" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B320), "",_xlfn.CONCAT($B320," ",$C320))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="21" t="str">
+        <f>IF(AND(ISBLANK(B321),ISBLANK(C321)), "", A320 + 1)</f>
+        <v/>
+      </c>
       <c r="E321" s="6" t="str">
         <f>IF(ISBLANK(F321), "",INDEX(Squads!A$3:B$1048576,MATCH(F321, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H321" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B321), "",_xlfn.CONCAT($B321," ",$C321))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="21" t="str">
+        <f>IF(AND(ISBLANK(B322),ISBLANK(C322)), "", A321 + 1)</f>
+        <v/>
+      </c>
       <c r="E322" s="6" t="str">
         <f>IF(ISBLANK(F322), "",INDEX(Squads!A$3:B$1048576,MATCH(F322, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H322" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B322), "",_xlfn.CONCAT($B322," ",$C322))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="21" t="str">
+        <f>IF(AND(ISBLANK(B323),ISBLANK(C323)), "", A322 + 1)</f>
+        <v/>
+      </c>
       <c r="E323" s="6" t="str">
         <f>IF(ISBLANK(F323), "",INDEX(Squads!A$3:B$1048576,MATCH(F323, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H323" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B323), "",_xlfn.CONCAT($B323," ",$C323))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="21" t="str">
+        <f>IF(AND(ISBLANK(B324),ISBLANK(C324)), "", A323 + 1)</f>
+        <v/>
+      </c>
       <c r="E324" s="6" t="str">
         <f>IF(ISBLANK(F324), "",INDEX(Squads!A$3:B$1048576,MATCH(F324, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H324" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B324), "",_xlfn.CONCAT($B324," ",$C324))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="21" t="str">
+        <f>IF(AND(ISBLANK(B325),ISBLANK(C325)), "", A324 + 1)</f>
+        <v/>
+      </c>
       <c r="E325" s="6" t="str">
         <f>IF(ISBLANK(F325), "",INDEX(Squads!A$3:B$1048576,MATCH(F325, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H325" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B325), "",_xlfn.CONCAT($B325," ",$C325))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="21" t="str">
+        <f>IF(AND(ISBLANK(B326),ISBLANK(C326)), "", A325 + 1)</f>
+        <v/>
+      </c>
       <c r="E326" s="6" t="str">
         <f>IF(ISBLANK(F326), "",INDEX(Squads!A$3:B$1048576,MATCH(F326, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H326" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B326), "",_xlfn.CONCAT($B326," ",$C326))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="21" t="str">
+        <f>IF(AND(ISBLANK(B327),ISBLANK(C327)), "", A326 + 1)</f>
+        <v/>
+      </c>
       <c r="E327" s="6" t="str">
         <f>IF(ISBLANK(F327), "",INDEX(Squads!A$3:B$1048576,MATCH(F327, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H327" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B327), "",_xlfn.CONCAT($B327," ",$C327))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="21" t="str">
+        <f>IF(AND(ISBLANK(B328),ISBLANK(C328)), "", A327 + 1)</f>
+        <v/>
+      </c>
       <c r="E328" s="6" t="str">
         <f>IF(ISBLANK(F328), "",INDEX(Squads!A$3:B$1048576,MATCH(F328, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H328" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B328), "",_xlfn.CONCAT($B328," ",$C328))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="21" t="str">
+        <f>IF(AND(ISBLANK(B329),ISBLANK(C329)), "", A328 + 1)</f>
+        <v/>
+      </c>
       <c r="E329" s="6" t="str">
         <f>IF(ISBLANK(F329), "",INDEX(Squads!A$3:B$1048576,MATCH(F329, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H329" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B329), "",_xlfn.CONCAT($B329," ",$C329))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="21" t="str">
+        <f>IF(AND(ISBLANK(B330),ISBLANK(C330)), "", A329 + 1)</f>
+        <v/>
+      </c>
       <c r="E330" s="6" t="str">
         <f>IF(ISBLANK(F330), "",INDEX(Squads!A$3:B$1048576,MATCH(F330, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H330" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B330), "",_xlfn.CONCAT($B330," ",$C330))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="21" t="str">
+        <f>IF(AND(ISBLANK(B331),ISBLANK(C331)), "", A330 + 1)</f>
+        <v/>
+      </c>
       <c r="E331" s="6" t="str">
         <f>IF(ISBLANK(F331), "",INDEX(Squads!A$3:B$1048576,MATCH(F331, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H331" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B331), "",_xlfn.CONCAT($B331," ",$C331))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" s="21" t="str">
+        <f>IF(AND(ISBLANK(B332),ISBLANK(C332)), "", A331 + 1)</f>
+        <v/>
+      </c>
       <c r="E332" s="6" t="str">
         <f>IF(ISBLANK(F332), "",INDEX(Squads!A$3:B$1048576,MATCH(F332, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H332" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B332), "",_xlfn.CONCAT($B332," ",$C332))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" s="21" t="str">
+        <f>IF(AND(ISBLANK(B333),ISBLANK(C333)), "", A332 + 1)</f>
+        <v/>
+      </c>
       <c r="E333" s="6" t="str">
         <f>IF(ISBLANK(F333), "",INDEX(Squads!A$3:B$1048576,MATCH(F333, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H333" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B333), "",_xlfn.CONCAT($B333," ",$C333))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" s="21" t="str">
+        <f>IF(AND(ISBLANK(B334),ISBLANK(C334)), "", A333 + 1)</f>
+        <v/>
+      </c>
       <c r="E334" s="6" t="str">
         <f>IF(ISBLANK(F334), "",INDEX(Squads!A$3:B$1048576,MATCH(F334, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H334" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B334), "",_xlfn.CONCAT($B334," ",$C334))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="21" t="str">
+        <f>IF(AND(ISBLANK(B335),ISBLANK(C335)), "", A334 + 1)</f>
+        <v/>
+      </c>
       <c r="E335" s="6" t="str">
         <f>IF(ISBLANK(F335), "",INDEX(Squads!A$3:B$1048576,MATCH(F335, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H335" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B335), "",_xlfn.CONCAT($B335," ",$C335))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" s="21" t="str">
+        <f>IF(AND(ISBLANK(B336),ISBLANK(C336)), "", A335 + 1)</f>
+        <v/>
+      </c>
       <c r="E336" s="6" t="str">
         <f>IF(ISBLANK(F336), "",INDEX(Squads!A$3:B$1048576,MATCH(F336, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H336" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B336), "",_xlfn.CONCAT($B336," ",$C336))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="21" t="str">
+        <f>IF(AND(ISBLANK(B337),ISBLANK(C337)), "", A336 + 1)</f>
+        <v/>
+      </c>
       <c r="E337" s="6" t="str">
         <f>IF(ISBLANK(F337), "",INDEX(Squads!A$3:B$1048576,MATCH(F337, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H337" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B337), "",_xlfn.CONCAT($B337," ",$C337))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="21" t="str">
+        <f>IF(AND(ISBLANK(B338),ISBLANK(C338)), "", A337 + 1)</f>
+        <v/>
+      </c>
       <c r="E338" s="6" t="str">
         <f>IF(ISBLANK(F338), "",INDEX(Squads!A$3:B$1048576,MATCH(F338, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H338" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B338), "",_xlfn.CONCAT($B338," ",$C338))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" s="21" t="str">
+        <f>IF(AND(ISBLANK(B339),ISBLANK(C339)), "", A338 + 1)</f>
+        <v/>
+      </c>
       <c r="E339" s="6" t="str">
         <f>IF(ISBLANK(F339), "",INDEX(Squads!A$3:B$1048576,MATCH(F339, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H339" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B339), "",_xlfn.CONCAT($B339," ",$C339))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" s="21" t="str">
+        <f>IF(AND(ISBLANK(B340),ISBLANK(C340)), "", A339 + 1)</f>
+        <v/>
+      </c>
       <c r="E340" s="6" t="str">
         <f>IF(ISBLANK(F340), "",INDEX(Squads!A$3:B$1048576,MATCH(F340, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H340" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B340), "",_xlfn.CONCAT($B340," ",$C340))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" s="21" t="str">
+        <f>IF(AND(ISBLANK(B341),ISBLANK(C341)), "", A340 + 1)</f>
+        <v/>
+      </c>
       <c r="E341" s="6" t="str">
         <f>IF(ISBLANK(F341), "",INDEX(Squads!A$3:B$1048576,MATCH(F341, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H341" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B341), "",_xlfn.CONCAT($B341," ",$C341))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" s="21" t="str">
+        <f>IF(AND(ISBLANK(B342),ISBLANK(C342)), "", A341 + 1)</f>
+        <v/>
+      </c>
       <c r="E342" s="6" t="str">
         <f>IF(ISBLANK(F342), "",INDEX(Squads!A$3:B$1048576,MATCH(F342, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H342" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B342), "",_xlfn.CONCAT($B342," ",$C342))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" s="21" t="str">
+        <f>IF(AND(ISBLANK(B343),ISBLANK(C343)), "", A342 + 1)</f>
+        <v/>
+      </c>
       <c r="E343" s="6" t="str">
         <f>IF(ISBLANK(F343), "",INDEX(Squads!A$3:B$1048576,MATCH(F343, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H343" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B343), "",_xlfn.CONCAT($B343," ",$C343))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="21" t="str">
+        <f>IF(AND(ISBLANK(B344),ISBLANK(C344)), "", A343 + 1)</f>
+        <v/>
+      </c>
       <c r="E344" s="6" t="str">
         <f>IF(ISBLANK(F344), "",INDEX(Squads!A$3:B$1048576,MATCH(F344, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H344" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B344), "",_xlfn.CONCAT($B344," ",$C344))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" s="21" t="str">
+        <f>IF(AND(ISBLANK(B345),ISBLANK(C345)), "", A344 + 1)</f>
+        <v/>
+      </c>
       <c r="E345" s="6" t="str">
         <f>IF(ISBLANK(F345), "",INDEX(Squads!A$3:B$1048576,MATCH(F345, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H345" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B345), "",_xlfn.CONCAT($B345," ",$C345))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" s="21" t="str">
+        <f>IF(AND(ISBLANK(B346),ISBLANK(C346)), "", A345 + 1)</f>
+        <v/>
+      </c>
       <c r="E346" s="6" t="str">
         <f>IF(ISBLANK(F346), "",INDEX(Squads!A$3:B$1048576,MATCH(F346, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H346" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B346), "",_xlfn.CONCAT($B346," ",$C346))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" s="21" t="str">
+        <f>IF(AND(ISBLANK(B347),ISBLANK(C347)), "", A346 + 1)</f>
+        <v/>
+      </c>
       <c r="E347" s="6" t="str">
         <f>IF(ISBLANK(F347), "",INDEX(Squads!A$3:B$1048576,MATCH(F347, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H347" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B347), "",_xlfn.CONCAT($B347," ",$C347))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" s="21" t="str">
+        <f>IF(AND(ISBLANK(B348),ISBLANK(C348)), "", A347 + 1)</f>
+        <v/>
+      </c>
       <c r="E348" s="6" t="str">
         <f>IF(ISBLANK(F348), "",INDEX(Squads!A$3:B$1048576,MATCH(F348, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H348" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B348), "",_xlfn.CONCAT($B348," ",$C348))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349" s="21" t="str">
+        <f>IF(AND(ISBLANK(B349),ISBLANK(C349)), "", A348 + 1)</f>
+        <v/>
+      </c>
       <c r="E349" s="6" t="str">
         <f>IF(ISBLANK(F349), "",INDEX(Squads!A$3:B$1048576,MATCH(F349, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H349" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B349), "",_xlfn.CONCAT($B349," ",$C349))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350" s="21" t="str">
+        <f>IF(AND(ISBLANK(B350),ISBLANK(C350)), "", A349 + 1)</f>
+        <v/>
+      </c>
       <c r="E350" s="6" t="str">
         <f>IF(ISBLANK(F350), "",INDEX(Squads!A$3:B$1048576,MATCH(F350, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H350" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B350), "",_xlfn.CONCAT($B350," ",$C350))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351" s="21" t="str">
+        <f>IF(AND(ISBLANK(B351),ISBLANK(C351)), "", A350 + 1)</f>
+        <v/>
+      </c>
       <c r="E351" s="6" t="str">
         <f>IF(ISBLANK(F351), "",INDEX(Squads!A$3:B$1048576,MATCH(F351, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H351" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B351), "",_xlfn.CONCAT($B351," ",$C351))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352" s="21" t="str">
+        <f>IF(AND(ISBLANK(B352),ISBLANK(C352)), "", A351 + 1)</f>
+        <v/>
+      </c>
       <c r="E352" s="6" t="str">
         <f>IF(ISBLANK(F352), "",INDEX(Squads!A$3:B$1048576,MATCH(F352, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H352" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B352), "",_xlfn.CONCAT($B352," ",$C352))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353" s="21" t="str">
+        <f>IF(AND(ISBLANK(B353),ISBLANK(C353)), "", A352 + 1)</f>
+        <v/>
+      </c>
       <c r="E353" s="6" t="str">
         <f>IF(ISBLANK(F353), "",INDEX(Squads!A$3:B$1048576,MATCH(F353, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H353" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B353), "",_xlfn.CONCAT($B353," ",$C353))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" s="21" t="str">
+        <f>IF(AND(ISBLANK(B354),ISBLANK(C354)), "", A353 + 1)</f>
+        <v/>
+      </c>
       <c r="E354" s="6" t="str">
         <f>IF(ISBLANK(F354), "",INDEX(Squads!A$3:B$1048576,MATCH(F354, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H354" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B354), "",_xlfn.CONCAT($B354," ",$C354))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" s="21" t="str">
+        <f>IF(AND(ISBLANK(B355),ISBLANK(C355)), "", A354 + 1)</f>
+        <v/>
+      </c>
       <c r="E355" s="6" t="str">
         <f>IF(ISBLANK(F355), "",INDEX(Squads!A$3:B$1048576,MATCH(F355, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H355" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B355), "",_xlfn.CONCAT($B355," ",$C355))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" s="21" t="str">
+        <f>IF(AND(ISBLANK(B356),ISBLANK(C356)), "", A355 + 1)</f>
+        <v/>
+      </c>
       <c r="E356" s="6" t="str">
         <f>IF(ISBLANK(F356), "",INDEX(Squads!A$3:B$1048576,MATCH(F356, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H356" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B356), "",_xlfn.CONCAT($B356," ",$C356))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" s="21" t="str">
+        <f>IF(AND(ISBLANK(B357),ISBLANK(C357)), "", A356 + 1)</f>
+        <v/>
+      </c>
       <c r="E357" s="6" t="str">
         <f>IF(ISBLANK(F357), "",INDEX(Squads!A$3:B$1048576,MATCH(F357, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H357" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B357), "",_xlfn.CONCAT($B357," ",$C357))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" s="21" t="str">
+        <f>IF(AND(ISBLANK(B358),ISBLANK(C358)), "", A357 + 1)</f>
+        <v/>
+      </c>
       <c r="E358" s="6" t="str">
         <f>IF(ISBLANK(F358), "",INDEX(Squads!A$3:B$1048576,MATCH(F358, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H358" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B358), "",_xlfn.CONCAT($B358," ",$C358))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" s="21" t="str">
+        <f>IF(AND(ISBLANK(B359),ISBLANK(C359)), "", A358 + 1)</f>
+        <v/>
+      </c>
       <c r="E359" s="6" t="str">
         <f>IF(ISBLANK(F359), "",INDEX(Squads!A$3:B$1048576,MATCH(F359, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H359" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B359), "",_xlfn.CONCAT($B359," ",$C359))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" s="21" t="str">
+        <f>IF(AND(ISBLANK(B360),ISBLANK(C360)), "", A359 + 1)</f>
+        <v/>
+      </c>
       <c r="E360" s="6" t="str">
         <f>IF(ISBLANK(F360), "",INDEX(Squads!A$3:B$1048576,MATCH(F360, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H360" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B360), "",_xlfn.CONCAT($B360," ",$C360))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" s="21" t="str">
+        <f>IF(AND(ISBLANK(B361),ISBLANK(C361)), "", A360 + 1)</f>
+        <v/>
+      </c>
       <c r="E361" s="6" t="str">
         <f>IF(ISBLANK(F361), "",INDEX(Squads!A$3:B$1048576,MATCH(F361, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H361" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B361), "",_xlfn.CONCAT($B361," ",$C361))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" s="21" t="str">
+        <f>IF(AND(ISBLANK(B362),ISBLANK(C362)), "", A361 + 1)</f>
+        <v/>
+      </c>
       <c r="E362" s="6" t="str">
         <f>IF(ISBLANK(F362), "",INDEX(Squads!A$3:B$1048576,MATCH(F362, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H362" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B362), "",_xlfn.CONCAT($B362," ",$C362))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" s="21" t="str">
+        <f>IF(AND(ISBLANK(B363),ISBLANK(C363)), "", A362 + 1)</f>
+        <v/>
+      </c>
       <c r="E363" s="6" t="str">
         <f>IF(ISBLANK(F363), "",INDEX(Squads!A$3:B$1048576,MATCH(F363, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H363" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B363), "",_xlfn.CONCAT($B363," ",$C363))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" s="21" t="str">
+        <f>IF(AND(ISBLANK(B364),ISBLANK(C364)), "", A363 + 1)</f>
+        <v/>
+      </c>
       <c r="E364" s="6" t="str">
         <f>IF(ISBLANK(F364), "",INDEX(Squads!A$3:B$1048576,MATCH(F364, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H364" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B364), "",_xlfn.CONCAT($B364," ",$C364))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" s="21" t="str">
+        <f>IF(AND(ISBLANK(B365),ISBLANK(C365)), "", A364 + 1)</f>
+        <v/>
+      </c>
       <c r="E365" s="6" t="str">
         <f>IF(ISBLANK(F365), "",INDEX(Squads!A$3:B$1048576,MATCH(F365, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H365" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B365), "",_xlfn.CONCAT($B365," ",$C365))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" s="21" t="str">
+        <f>IF(AND(ISBLANK(B366),ISBLANK(C366)), "", A365 + 1)</f>
+        <v/>
+      </c>
       <c r="E366" s="6" t="str">
         <f>IF(ISBLANK(F366), "",INDEX(Squads!A$3:B$1048576,MATCH(F366, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H366" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B366), "",_xlfn.CONCAT($B366," ",$C366))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" s="21" t="str">
+        <f>IF(AND(ISBLANK(B367),ISBLANK(C367)), "", A366 + 1)</f>
+        <v/>
+      </c>
       <c r="E367" s="6" t="str">
         <f>IF(ISBLANK(F367), "",INDEX(Squads!A$3:B$1048576,MATCH(F367, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H367" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B367), "",_xlfn.CONCAT($B367," ",$C367))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368" s="21" t="str">
+        <f>IF(AND(ISBLANK(B368),ISBLANK(C368)), "", A367 + 1)</f>
+        <v/>
+      </c>
       <c r="E368" s="6" t="str">
         <f>IF(ISBLANK(F368), "",INDEX(Squads!A$3:B$1048576,MATCH(F368, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H368" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B368), "",_xlfn.CONCAT($B368," ",$C368))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" s="21" t="str">
+        <f>IF(AND(ISBLANK(B369),ISBLANK(C369)), "", A368 + 1)</f>
+        <v/>
+      </c>
       <c r="E369" s="6" t="str">
         <f>IF(ISBLANK(F369), "",INDEX(Squads!A$3:B$1048576,MATCH(F369, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H369" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B369), "",_xlfn.CONCAT($B369," ",$C369))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" s="21" t="str">
+        <f>IF(AND(ISBLANK(B370),ISBLANK(C370)), "", A369 + 1)</f>
+        <v/>
+      </c>
       <c r="E370" s="6" t="str">
         <f>IF(ISBLANK(F370), "",INDEX(Squads!A$3:B$1048576,MATCH(F370, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H370" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B370), "",_xlfn.CONCAT($B370," ",$C370))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371" s="21" t="str">
+        <f>IF(AND(ISBLANK(B371),ISBLANK(C371)), "", A370 + 1)</f>
+        <v/>
+      </c>
       <c r="E371" s="6" t="str">
         <f>IF(ISBLANK(F371), "",INDEX(Squads!A$3:B$1048576,MATCH(F371, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H371" s="7" t="str">
-        <f t="shared" ref="H371:H434" si="12">IF(ISBLANK(B371), "",_xlfn.CONCAT($B371," ",$C371))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B371), "",_xlfn.CONCAT($B371," ",$C371))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" s="21" t="str">
+        <f>IF(AND(ISBLANK(B372),ISBLANK(C372)), "", A371 + 1)</f>
+        <v/>
+      </c>
       <c r="E372" s="6" t="str">
         <f>IF(ISBLANK(F372), "",INDEX(Squads!A$3:B$1048576,MATCH(F372, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H372" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B372), "",_xlfn.CONCAT($B372," ",$C372))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" s="21" t="str">
+        <f>IF(AND(ISBLANK(B373),ISBLANK(C373)), "", A372 + 1)</f>
+        <v/>
+      </c>
       <c r="E373" s="6" t="str">
         <f>IF(ISBLANK(F373), "",INDEX(Squads!A$3:B$1048576,MATCH(F373, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H373" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B373), "",_xlfn.CONCAT($B373," ",$C373))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" s="21" t="str">
+        <f>IF(AND(ISBLANK(B374),ISBLANK(C374)), "", A373 + 1)</f>
+        <v/>
+      </c>
       <c r="E374" s="6" t="str">
         <f>IF(ISBLANK(F374), "",INDEX(Squads!A$3:B$1048576,MATCH(F374, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H374" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B374), "",_xlfn.CONCAT($B374," ",$C374))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" s="21" t="str">
+        <f>IF(AND(ISBLANK(B375),ISBLANK(C375)), "", A374 + 1)</f>
+        <v/>
+      </c>
       <c r="E375" s="6" t="str">
         <f>IF(ISBLANK(F375), "",INDEX(Squads!A$3:B$1048576,MATCH(F375, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H375" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B375), "",_xlfn.CONCAT($B375," ",$C375))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376" s="21" t="str">
+        <f>IF(AND(ISBLANK(B376),ISBLANK(C376)), "", A375 + 1)</f>
+        <v/>
+      </c>
       <c r="E376" s="6" t="str">
         <f>IF(ISBLANK(F376), "",INDEX(Squads!A$3:B$1048576,MATCH(F376, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H376" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B376), "",_xlfn.CONCAT($B376," ",$C376))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377" s="21" t="str">
+        <f>IF(AND(ISBLANK(B377),ISBLANK(C377)), "", A376 + 1)</f>
+        <v/>
+      </c>
       <c r="E377" s="6" t="str">
         <f>IF(ISBLANK(F377), "",INDEX(Squads!A$3:B$1048576,MATCH(F377, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H377" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B377), "",_xlfn.CONCAT($B377," ",$C377))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378" s="21" t="str">
+        <f>IF(AND(ISBLANK(B378),ISBLANK(C378)), "", A377 + 1)</f>
+        <v/>
+      </c>
       <c r="E378" s="6" t="str">
         <f>IF(ISBLANK(F378), "",INDEX(Squads!A$3:B$1048576,MATCH(F378, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H378" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B378), "",_xlfn.CONCAT($B378," ",$C378))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" s="21" t="str">
+        <f>IF(AND(ISBLANK(B379),ISBLANK(C379)), "", A378 + 1)</f>
+        <v/>
+      </c>
       <c r="E379" s="6" t="str">
         <f>IF(ISBLANK(F379), "",INDEX(Squads!A$3:B$1048576,MATCH(F379, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H379" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B379), "",_xlfn.CONCAT($B379," ",$C379))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" s="21" t="str">
+        <f>IF(AND(ISBLANK(B380),ISBLANK(C380)), "", A379 + 1)</f>
+        <v/>
+      </c>
       <c r="E380" s="6" t="str">
         <f>IF(ISBLANK(F380), "",INDEX(Squads!A$3:B$1048576,MATCH(F380, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H380" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B380), "",_xlfn.CONCAT($B380," ",$C380))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" s="21" t="str">
+        <f>IF(AND(ISBLANK(B381),ISBLANK(C381)), "", A380 + 1)</f>
+        <v/>
+      </c>
       <c r="E381" s="6" t="str">
         <f>IF(ISBLANK(F381), "",INDEX(Squads!A$3:B$1048576,MATCH(F381, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H381" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B381), "",_xlfn.CONCAT($B381," ",$C381))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" s="21" t="str">
+        <f>IF(AND(ISBLANK(B382),ISBLANK(C382)), "", A381 + 1)</f>
+        <v/>
+      </c>
       <c r="E382" s="6" t="str">
         <f>IF(ISBLANK(F382), "",INDEX(Squads!A$3:B$1048576,MATCH(F382, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H382" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B382), "",_xlfn.CONCAT($B382," ",$C382))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" s="21" t="str">
+        <f>IF(AND(ISBLANK(B383),ISBLANK(C383)), "", A382 + 1)</f>
+        <v/>
+      </c>
       <c r="E383" s="6" t="str">
         <f>IF(ISBLANK(F383), "",INDEX(Squads!A$3:B$1048576,MATCH(F383, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H383" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B383), "",_xlfn.CONCAT($B383," ",$C383))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" s="21" t="str">
+        <f>IF(AND(ISBLANK(B384),ISBLANK(C384)), "", A383 + 1)</f>
+        <v/>
+      </c>
       <c r="E384" s="6" t="str">
         <f>IF(ISBLANK(F384), "",INDEX(Squads!A$3:B$1048576,MATCH(F384, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H384" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B384), "",_xlfn.CONCAT($B384," ",$C384))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" s="21" t="str">
+        <f>IF(AND(ISBLANK(B385),ISBLANK(C385)), "", A384 + 1)</f>
+        <v/>
+      </c>
       <c r="E385" s="6" t="str">
         <f>IF(ISBLANK(F385), "",INDEX(Squads!A$3:B$1048576,MATCH(F385, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H385" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B385), "",_xlfn.CONCAT($B385," ",$C385))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" s="21" t="str">
+        <f>IF(AND(ISBLANK(B386),ISBLANK(C386)), "", A385 + 1)</f>
+        <v/>
+      </c>
       <c r="E386" s="6" t="str">
         <f>IF(ISBLANK(F386), "",INDEX(Squads!A$3:B$1048576,MATCH(F386, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H386" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B386), "",_xlfn.CONCAT($B386," ",$C386))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" s="21" t="str">
+        <f>IF(AND(ISBLANK(B387),ISBLANK(C387)), "", A386 + 1)</f>
+        <v/>
+      </c>
       <c r="E387" s="6" t="str">
         <f>IF(ISBLANK(F387), "",INDEX(Squads!A$3:B$1048576,MATCH(F387, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H387" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B387), "",_xlfn.CONCAT($B387," ",$C387))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" s="21" t="str">
+        <f>IF(AND(ISBLANK(B388),ISBLANK(C388)), "", A387 + 1)</f>
+        <v/>
+      </c>
       <c r="E388" s="6" t="str">
         <f>IF(ISBLANK(F388), "",INDEX(Squads!A$3:B$1048576,MATCH(F388, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H388" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B388), "",_xlfn.CONCAT($B388," ",$C388))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" s="21" t="str">
+        <f>IF(AND(ISBLANK(B389),ISBLANK(C389)), "", A388 + 1)</f>
+        <v/>
+      </c>
       <c r="E389" s="6" t="str">
         <f>IF(ISBLANK(F389), "",INDEX(Squads!A$3:B$1048576,MATCH(F389, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H389" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B389), "",_xlfn.CONCAT($B389," ",$C389))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" s="21" t="str">
+        <f>IF(AND(ISBLANK(B390),ISBLANK(C390)), "", A389 + 1)</f>
+        <v/>
+      </c>
       <c r="E390" s="6" t="str">
         <f>IF(ISBLANK(F390), "",INDEX(Squads!A$3:B$1048576,MATCH(F390, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H390" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B390), "",_xlfn.CONCAT($B390," ",$C390))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="21" t="str">
+        <f>IF(AND(ISBLANK(B391),ISBLANK(C391)), "", A390 + 1)</f>
+        <v/>
+      </c>
       <c r="E391" s="6" t="str">
         <f>IF(ISBLANK(F391), "",INDEX(Squads!A$3:B$1048576,MATCH(F391, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H391" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B391), "",_xlfn.CONCAT($B391," ",$C391))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" s="21" t="str">
+        <f>IF(AND(ISBLANK(B392),ISBLANK(C392)), "", A391 + 1)</f>
+        <v/>
+      </c>
       <c r="E392" s="6" t="str">
         <f>IF(ISBLANK(F392), "",INDEX(Squads!A$3:B$1048576,MATCH(F392, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H392" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B392), "",_xlfn.CONCAT($B392," ",$C392))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" s="21" t="str">
+        <f>IF(AND(ISBLANK(B393),ISBLANK(C393)), "", A392 + 1)</f>
+        <v/>
+      </c>
       <c r="E393" s="6" t="str">
         <f>IF(ISBLANK(F393), "",INDEX(Squads!A$3:B$1048576,MATCH(F393, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H393" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B393), "",_xlfn.CONCAT($B393," ",$C393))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" s="21" t="str">
+        <f>IF(AND(ISBLANK(B394),ISBLANK(C394)), "", A393 + 1)</f>
+        <v/>
+      </c>
       <c r="E394" s="6" t="str">
         <f>IF(ISBLANK(F394), "",INDEX(Squads!A$3:B$1048576,MATCH(F394, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H394" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B394), "",_xlfn.CONCAT($B394," ",$C394))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395" s="21" t="str">
+        <f>IF(AND(ISBLANK(B395),ISBLANK(C395)), "", A394 + 1)</f>
+        <v/>
+      </c>
       <c r="E395" s="6" t="str">
         <f>IF(ISBLANK(F395), "",INDEX(Squads!A$3:B$1048576,MATCH(F395, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H395" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B395), "",_xlfn.CONCAT($B395," ",$C395))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396" s="21" t="str">
+        <f>IF(AND(ISBLANK(B396),ISBLANK(C396)), "", A395 + 1)</f>
+        <v/>
+      </c>
       <c r="E396" s="6" t="str">
         <f>IF(ISBLANK(F396), "",INDEX(Squads!A$3:B$1048576,MATCH(F396, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H396" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B396), "",_xlfn.CONCAT($B396," ",$C396))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397" s="21" t="str">
+        <f>IF(AND(ISBLANK(B397),ISBLANK(C397)), "", A396 + 1)</f>
+        <v/>
+      </c>
       <c r="E397" s="6" t="str">
         <f>IF(ISBLANK(F397), "",INDEX(Squads!A$3:B$1048576,MATCH(F397, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H397" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B397), "",_xlfn.CONCAT($B397," ",$C397))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398" s="21" t="str">
+        <f>IF(AND(ISBLANK(B398),ISBLANK(C398)), "", A397 + 1)</f>
+        <v/>
+      </c>
       <c r="E398" s="6" t="str">
         <f>IF(ISBLANK(F398), "",INDEX(Squads!A$3:B$1048576,MATCH(F398, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H398" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B398), "",_xlfn.CONCAT($B398," ",$C398))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" s="21" t="str">
+        <f>IF(AND(ISBLANK(B399),ISBLANK(C399)), "", A398 + 1)</f>
+        <v/>
+      </c>
       <c r="E399" s="6" t="str">
         <f>IF(ISBLANK(F399), "",INDEX(Squads!A$3:B$1048576,MATCH(F399, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H399" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B399), "",_xlfn.CONCAT($B399," ",$C399))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" s="21" t="str">
+        <f>IF(AND(ISBLANK(B400),ISBLANK(C400)), "", A399 + 1)</f>
+        <v/>
+      </c>
       <c r="E400" s="6" t="str">
         <f>IF(ISBLANK(F400), "",INDEX(Squads!A$3:B$1048576,MATCH(F400, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H400" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B400), "",_xlfn.CONCAT($B400," ",$C400))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" s="21" t="str">
+        <f>IF(AND(ISBLANK(B401),ISBLANK(C401)), "", A400 + 1)</f>
+        <v/>
+      </c>
       <c r="E401" s="6" t="str">
         <f>IF(ISBLANK(F401), "",INDEX(Squads!A$3:B$1048576,MATCH(F401, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H401" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B401), "",_xlfn.CONCAT($B401," ",$C401))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402" s="21" t="str">
+        <f>IF(AND(ISBLANK(B402),ISBLANK(C402)), "", A401 + 1)</f>
+        <v/>
+      </c>
       <c r="E402" s="6" t="str">
         <f>IF(ISBLANK(F402), "",INDEX(Squads!A$3:B$1048576,MATCH(F402, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H402" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B402), "",_xlfn.CONCAT($B402," ",$C402))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" s="21" t="str">
+        <f>IF(AND(ISBLANK(B403),ISBLANK(C403)), "", A402 + 1)</f>
+        <v/>
+      </c>
       <c r="E403" s="6" t="str">
         <f>IF(ISBLANK(F403), "",INDEX(Squads!A$3:B$1048576,MATCH(F403, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H403" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B403), "",_xlfn.CONCAT($B403," ",$C403))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404" s="21" t="str">
+        <f>IF(AND(ISBLANK(B404),ISBLANK(C404)), "", A403 + 1)</f>
+        <v/>
+      </c>
       <c r="E404" s="6" t="str">
         <f>IF(ISBLANK(F404), "",INDEX(Squads!A$3:B$1048576,MATCH(F404, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H404" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="405" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B404), "",_xlfn.CONCAT($B404," ",$C404))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" s="21" t="str">
+        <f>IF(AND(ISBLANK(B405),ISBLANK(C405)), "", A404 + 1)</f>
+        <v/>
+      </c>
       <c r="E405" s="6" t="str">
         <f>IF(ISBLANK(F405), "",INDEX(Squads!A$3:B$1048576,MATCH(F405, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H405" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="406" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B405), "",_xlfn.CONCAT($B405," ",$C405))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" s="21" t="str">
+        <f>IF(AND(ISBLANK(B406),ISBLANK(C406)), "", A405 + 1)</f>
+        <v/>
+      </c>
       <c r="E406" s="6" t="str">
         <f>IF(ISBLANK(F406), "",INDEX(Squads!A$3:B$1048576,MATCH(F406, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H406" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="407" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B406), "",_xlfn.CONCAT($B406," ",$C406))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" s="21" t="str">
+        <f>IF(AND(ISBLANK(B407),ISBLANK(C407)), "", A406 + 1)</f>
+        <v/>
+      </c>
       <c r="E407" s="6" t="str">
         <f>IF(ISBLANK(F407), "",INDEX(Squads!A$3:B$1048576,MATCH(F407, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H407" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="408" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B407), "",_xlfn.CONCAT($B407," ",$C407))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" s="21" t="str">
+        <f>IF(AND(ISBLANK(B408),ISBLANK(C408)), "", A407 + 1)</f>
+        <v/>
+      </c>
       <c r="E408" s="6" t="str">
         <f>IF(ISBLANK(F408), "",INDEX(Squads!A$3:B$1048576,MATCH(F408, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H408" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="409" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B408), "",_xlfn.CONCAT($B408," ",$C408))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" s="21" t="str">
+        <f>IF(AND(ISBLANK(B409),ISBLANK(C409)), "", A408 + 1)</f>
+        <v/>
+      </c>
       <c r="E409" s="6" t="str">
         <f>IF(ISBLANK(F409), "",INDEX(Squads!A$3:B$1048576,MATCH(F409, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H409" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="410" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B409), "",_xlfn.CONCAT($B409," ",$C409))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410" s="21" t="str">
+        <f>IF(AND(ISBLANK(B410),ISBLANK(C410)), "", A409 + 1)</f>
+        <v/>
+      </c>
       <c r="E410" s="6" t="str">
         <f>IF(ISBLANK(F410), "",INDEX(Squads!A$3:B$1048576,MATCH(F410, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H410" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="411" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B410), "",_xlfn.CONCAT($B410," ",$C410))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411" s="21" t="str">
+        <f>IF(AND(ISBLANK(B411),ISBLANK(C411)), "", A410 + 1)</f>
+        <v/>
+      </c>
       <c r="E411" s="6" t="str">
         <f>IF(ISBLANK(F411), "",INDEX(Squads!A$3:B$1048576,MATCH(F411, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H411" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="412" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B411), "",_xlfn.CONCAT($B411," ",$C411))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" s="21" t="str">
+        <f>IF(AND(ISBLANK(B412),ISBLANK(C412)), "", A411 + 1)</f>
+        <v/>
+      </c>
       <c r="E412" s="6" t="str">
         <f>IF(ISBLANK(F412), "",INDEX(Squads!A$3:B$1048576,MATCH(F412, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H412" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="413" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B412), "",_xlfn.CONCAT($B412," ",$C412))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413" s="21" t="str">
+        <f>IF(AND(ISBLANK(B413),ISBLANK(C413)), "", A412 + 1)</f>
+        <v/>
+      </c>
       <c r="E413" s="6" t="str">
         <f>IF(ISBLANK(F413), "",INDEX(Squads!A$3:B$1048576,MATCH(F413, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H413" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="414" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B413), "",_xlfn.CONCAT($B413," ",$C413))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414" s="21" t="str">
+        <f>IF(AND(ISBLANK(B414),ISBLANK(C414)), "", A413 + 1)</f>
+        <v/>
+      </c>
       <c r="E414" s="6" t="str">
         <f>IF(ISBLANK(F414), "",INDEX(Squads!A$3:B$1048576,MATCH(F414, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H414" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="415" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B414), "",_xlfn.CONCAT($B414," ",$C414))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415" s="21" t="str">
+        <f>IF(AND(ISBLANK(B415),ISBLANK(C415)), "", A414 + 1)</f>
+        <v/>
+      </c>
       <c r="E415" s="6" t="str">
         <f>IF(ISBLANK(F415), "",INDEX(Squads!A$3:B$1048576,MATCH(F415, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H415" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="416" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B415), "",_xlfn.CONCAT($B415," ",$C415))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" s="21" t="str">
+        <f>IF(AND(ISBLANK(B416),ISBLANK(C416)), "", A415 + 1)</f>
+        <v/>
+      </c>
       <c r="E416" s="6" t="str">
         <f>IF(ISBLANK(F416), "",INDEX(Squads!A$3:B$1048576,MATCH(F416, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H416" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="417" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B416), "",_xlfn.CONCAT($B416," ",$C416))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417" s="21" t="str">
+        <f>IF(AND(ISBLANK(B417),ISBLANK(C417)), "", A416 + 1)</f>
+        <v/>
+      </c>
       <c r="E417" s="6" t="str">
         <f>IF(ISBLANK(F417), "",INDEX(Squads!A$3:B$1048576,MATCH(F417, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H417" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="418" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B417), "",_xlfn.CONCAT($B417," ",$C417))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418" s="21" t="str">
+        <f>IF(AND(ISBLANK(B418),ISBLANK(C418)), "", A417 + 1)</f>
+        <v/>
+      </c>
       <c r="E418" s="6" t="str">
         <f>IF(ISBLANK(F418), "",INDEX(Squads!A$3:B$1048576,MATCH(F418, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H418" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="419" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B418), "",_xlfn.CONCAT($B418," ",$C418))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419" s="21" t="str">
+        <f>IF(AND(ISBLANK(B419),ISBLANK(C419)), "", A418 + 1)</f>
+        <v/>
+      </c>
       <c r="E419" s="6" t="str">
         <f>IF(ISBLANK(F419), "",INDEX(Squads!A$3:B$1048576,MATCH(F419, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H419" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="420" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B419), "",_xlfn.CONCAT($B419," ",$C419))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420" s="21" t="str">
+        <f>IF(AND(ISBLANK(B420),ISBLANK(C420)), "", A419 + 1)</f>
+        <v/>
+      </c>
       <c r="E420" s="6" t="str">
         <f>IF(ISBLANK(F420), "",INDEX(Squads!A$3:B$1048576,MATCH(F420, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H420" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="421" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B420), "",_xlfn.CONCAT($B420," ",$C420))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421" s="21" t="str">
+        <f>IF(AND(ISBLANK(B421),ISBLANK(C421)), "", A420 + 1)</f>
+        <v/>
+      </c>
       <c r="E421" s="6" t="str">
         <f>IF(ISBLANK(F421), "",INDEX(Squads!A$3:B$1048576,MATCH(F421, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H421" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="422" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B421), "",_xlfn.CONCAT($B421," ",$C421))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422" s="21" t="str">
+        <f>IF(AND(ISBLANK(B422),ISBLANK(C422)), "", A421 + 1)</f>
+        <v/>
+      </c>
       <c r="E422" s="6" t="str">
         <f>IF(ISBLANK(F422), "",INDEX(Squads!A$3:B$1048576,MATCH(F422, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H422" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="423" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B422), "",_xlfn.CONCAT($B422," ",$C422))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423" s="21" t="str">
+        <f>IF(AND(ISBLANK(B423),ISBLANK(C423)), "", A422 + 1)</f>
+        <v/>
+      </c>
       <c r="E423" s="6" t="str">
         <f>IF(ISBLANK(F423), "",INDEX(Squads!A$3:B$1048576,MATCH(F423, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H423" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="424" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B423), "",_xlfn.CONCAT($B423," ",$C423))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" s="21" t="str">
+        <f>IF(AND(ISBLANK(B424),ISBLANK(C424)), "", A423 + 1)</f>
+        <v/>
+      </c>
       <c r="E424" s="6" t="str">
         <f>IF(ISBLANK(F424), "",INDEX(Squads!A$3:B$1048576,MATCH(F424, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H424" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B424), "",_xlfn.CONCAT($B424," ",$C424))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" s="21" t="str">
+        <f>IF(AND(ISBLANK(B425),ISBLANK(C425)), "", A424 + 1)</f>
+        <v/>
+      </c>
       <c r="E425" s="6" t="str">
         <f>IF(ISBLANK(F425), "",INDEX(Squads!A$3:B$1048576,MATCH(F425, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H425" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="426" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B425), "",_xlfn.CONCAT($B425," ",$C425))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426" s="21" t="str">
+        <f>IF(AND(ISBLANK(B426),ISBLANK(C426)), "", A425 + 1)</f>
+        <v/>
+      </c>
       <c r="E426" s="6" t="str">
         <f>IF(ISBLANK(F426), "",INDEX(Squads!A$3:B$1048576,MATCH(F426, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H426" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="427" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B426), "",_xlfn.CONCAT($B426," ",$C426))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A427" s="21" t="str">
+        <f>IF(AND(ISBLANK(B427),ISBLANK(C427)), "", A426 + 1)</f>
+        <v/>
+      </c>
       <c r="E427" s="6" t="str">
         <f>IF(ISBLANK(F427), "",INDEX(Squads!A$3:B$1048576,MATCH(F427, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H427" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="428" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B427), "",_xlfn.CONCAT($B427," ",$C427))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" s="21" t="str">
+        <f>IF(AND(ISBLANK(B428),ISBLANK(C428)), "", A427 + 1)</f>
+        <v/>
+      </c>
       <c r="E428" s="6" t="str">
         <f>IF(ISBLANK(F428), "",INDEX(Squads!A$3:B$1048576,MATCH(F428, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H428" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="429" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B428), "",_xlfn.CONCAT($B428," ",$C428))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" s="21" t="str">
+        <f>IF(AND(ISBLANK(B429),ISBLANK(C429)), "", A428 + 1)</f>
+        <v/>
+      </c>
       <c r="E429" s="6" t="str">
         <f>IF(ISBLANK(F429), "",INDEX(Squads!A$3:B$1048576,MATCH(F429, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H429" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="430" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B429), "",_xlfn.CONCAT($B429," ",$C429))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" s="21" t="str">
+        <f>IF(AND(ISBLANK(B430),ISBLANK(C430)), "", A429 + 1)</f>
+        <v/>
+      </c>
       <c r="E430" s="6" t="str">
         <f>IF(ISBLANK(F430), "",INDEX(Squads!A$3:B$1048576,MATCH(F430, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H430" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="431" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B430), "",_xlfn.CONCAT($B430," ",$C430))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" s="21" t="str">
+        <f>IF(AND(ISBLANK(B431),ISBLANK(C431)), "", A430 + 1)</f>
+        <v/>
+      </c>
       <c r="E431" s="6" t="str">
         <f>IF(ISBLANK(F431), "",INDEX(Squads!A$3:B$1048576,MATCH(F431, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H431" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="432" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B431), "",_xlfn.CONCAT($B431," ",$C431))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" s="21" t="str">
+        <f>IF(AND(ISBLANK(B432),ISBLANK(C432)), "", A431 + 1)</f>
+        <v/>
+      </c>
       <c r="E432" s="6" t="str">
         <f>IF(ISBLANK(F432), "",INDEX(Squads!A$3:B$1048576,MATCH(F432, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H432" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="433" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B432), "",_xlfn.CONCAT($B432," ",$C432))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433" s="21" t="str">
+        <f>IF(AND(ISBLANK(B433),ISBLANK(C433)), "", A432 + 1)</f>
+        <v/>
+      </c>
       <c r="E433" s="6" t="str">
         <f>IF(ISBLANK(F433), "",INDEX(Squads!A$3:B$1048576,MATCH(F433, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H433" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="434" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B433), "",_xlfn.CONCAT($B433," ",$C433))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434" s="21" t="str">
+        <f>IF(AND(ISBLANK(B434),ISBLANK(C434)), "", A433 + 1)</f>
+        <v/>
+      </c>
       <c r="E434" s="6" t="str">
         <f>IF(ISBLANK(F434), "",INDEX(Squads!A$3:B$1048576,MATCH(F434, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H434" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="435" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B434), "",_xlfn.CONCAT($B434," ",$C434))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435" s="21" t="str">
+        <f>IF(AND(ISBLANK(B435),ISBLANK(C435)), "", A434 + 1)</f>
+        <v/>
+      </c>
       <c r="E435" s="6" t="str">
         <f>IF(ISBLANK(F435), "",INDEX(Squads!A$3:B$1048576,MATCH(F435, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H435" s="7" t="str">
-        <f t="shared" ref="H435:H498" si="13">IF(ISBLANK(B435), "",_xlfn.CONCAT($B435," ",$C435))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="436" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B435), "",_xlfn.CONCAT($B435," ",$C435))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436" s="21" t="str">
+        <f>IF(AND(ISBLANK(B436),ISBLANK(C436)), "", A435 + 1)</f>
+        <v/>
+      </c>
       <c r="E436" s="6" t="str">
         <f>IF(ISBLANK(F436), "",INDEX(Squads!A$3:B$1048576,MATCH(F436, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H436" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="437" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B436), "",_xlfn.CONCAT($B436," ",$C436))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437" s="21" t="str">
+        <f>IF(AND(ISBLANK(B437),ISBLANK(C437)), "", A436 + 1)</f>
+        <v/>
+      </c>
       <c r="E437" s="6" t="str">
         <f>IF(ISBLANK(F437), "",INDEX(Squads!A$3:B$1048576,MATCH(F437, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H437" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="438" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B437), "",_xlfn.CONCAT($B437," ",$C437))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" s="21" t="str">
+        <f>IF(AND(ISBLANK(B438),ISBLANK(C438)), "", A437 + 1)</f>
+        <v/>
+      </c>
       <c r="E438" s="6" t="str">
         <f>IF(ISBLANK(F438), "",INDEX(Squads!A$3:B$1048576,MATCH(F438, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H438" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="439" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B438), "",_xlfn.CONCAT($B438," ",$C438))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" s="21" t="str">
+        <f>IF(AND(ISBLANK(B439),ISBLANK(C439)), "", A438 + 1)</f>
+        <v/>
+      </c>
       <c r="E439" s="6" t="str">
         <f>IF(ISBLANK(F439), "",INDEX(Squads!A$3:B$1048576,MATCH(F439, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H439" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="440" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B439), "",_xlfn.CONCAT($B439," ",$C439))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440" s="21" t="str">
+        <f>IF(AND(ISBLANK(B440),ISBLANK(C440)), "", A439 + 1)</f>
+        <v/>
+      </c>
       <c r="E440" s="6" t="str">
         <f>IF(ISBLANK(F440), "",INDEX(Squads!A$3:B$1048576,MATCH(F440, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H440" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="441" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B440), "",_xlfn.CONCAT($B440," ",$C440))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441" s="21" t="str">
+        <f>IF(AND(ISBLANK(B441),ISBLANK(C441)), "", A440 + 1)</f>
+        <v/>
+      </c>
       <c r="E441" s="6" t="str">
         <f>IF(ISBLANK(F441), "",INDEX(Squads!A$3:B$1048576,MATCH(F441, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H441" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="442" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B441), "",_xlfn.CONCAT($B441," ",$C441))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442" s="21" t="str">
+        <f>IF(AND(ISBLANK(B442),ISBLANK(C442)), "", A441 + 1)</f>
+        <v/>
+      </c>
       <c r="E442" s="6" t="str">
         <f>IF(ISBLANK(F442), "",INDEX(Squads!A$3:B$1048576,MATCH(F442, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H442" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="443" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B442), "",_xlfn.CONCAT($B442," ",$C442))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443" s="21" t="str">
+        <f>IF(AND(ISBLANK(B443),ISBLANK(C443)), "", A442 + 1)</f>
+        <v/>
+      </c>
       <c r="E443" s="6" t="str">
         <f>IF(ISBLANK(F443), "",INDEX(Squads!A$3:B$1048576,MATCH(F443, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H443" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="444" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B443), "",_xlfn.CONCAT($B443," ",$C443))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444" s="21" t="str">
+        <f>IF(AND(ISBLANK(B444),ISBLANK(C444)), "", A443 + 1)</f>
+        <v/>
+      </c>
       <c r="E444" s="6" t="str">
         <f>IF(ISBLANK(F444), "",INDEX(Squads!A$3:B$1048576,MATCH(F444, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H444" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="445" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B444), "",_xlfn.CONCAT($B444," ",$C444))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445" s="21" t="str">
+        <f>IF(AND(ISBLANK(B445),ISBLANK(C445)), "", A444 + 1)</f>
+        <v/>
+      </c>
       <c r="E445" s="6" t="str">
         <f>IF(ISBLANK(F445), "",INDEX(Squads!A$3:B$1048576,MATCH(F445, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H445" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="446" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B445), "",_xlfn.CONCAT($B445," ",$C445))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446" s="21" t="str">
+        <f>IF(AND(ISBLANK(B446),ISBLANK(C446)), "", A445 + 1)</f>
+        <v/>
+      </c>
       <c r="E446" s="6" t="str">
         <f>IF(ISBLANK(F446), "",INDEX(Squads!A$3:B$1048576,MATCH(F446, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H446" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="447" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B446), "",_xlfn.CONCAT($B446," ",$C446))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447" s="21" t="str">
+        <f>IF(AND(ISBLANK(B447),ISBLANK(C447)), "", A446 + 1)</f>
+        <v/>
+      </c>
       <c r="E447" s="6" t="str">
         <f>IF(ISBLANK(F447), "",INDEX(Squads!A$3:B$1048576,MATCH(F447, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H447" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="448" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B447), "",_xlfn.CONCAT($B447," ",$C447))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448" s="21" t="str">
+        <f>IF(AND(ISBLANK(B448),ISBLANK(C448)), "", A447 + 1)</f>
+        <v/>
+      </c>
       <c r="E448" s="6" t="str">
         <f>IF(ISBLANK(F448), "",INDEX(Squads!A$3:B$1048576,MATCH(F448, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H448" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="449" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B448), "",_xlfn.CONCAT($B448," ",$C448))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449" s="21" t="str">
+        <f>IF(AND(ISBLANK(B449),ISBLANK(C449)), "", A448 + 1)</f>
+        <v/>
+      </c>
       <c r="E449" s="6" t="str">
         <f>IF(ISBLANK(F449), "",INDEX(Squads!A$3:B$1048576,MATCH(F449, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H449" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="450" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B449), "",_xlfn.CONCAT($B449," ",$C449))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" s="21" t="str">
+        <f>IF(AND(ISBLANK(B450),ISBLANK(C450)), "", A449 + 1)</f>
+        <v/>
+      </c>
       <c r="E450" s="6" t="str">
         <f>IF(ISBLANK(F450), "",INDEX(Squads!A$3:B$1048576,MATCH(F450, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H450" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="451" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B450), "",_xlfn.CONCAT($B450," ",$C450))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" s="21" t="str">
+        <f>IF(AND(ISBLANK(B451),ISBLANK(C451)), "", A450 + 1)</f>
+        <v/>
+      </c>
       <c r="E451" s="6" t="str">
         <f>IF(ISBLANK(F451), "",INDEX(Squads!A$3:B$1048576,MATCH(F451, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H451" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="452" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B451), "",_xlfn.CONCAT($B451," ",$C451))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" s="21" t="str">
+        <f>IF(AND(ISBLANK(B452),ISBLANK(C452)), "", A451 + 1)</f>
+        <v/>
+      </c>
       <c r="E452" s="6" t="str">
         <f>IF(ISBLANK(F452), "",INDEX(Squads!A$3:B$1048576,MATCH(F452, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H452" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="453" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B452), "",_xlfn.CONCAT($B452," ",$C452))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453" s="21" t="str">
+        <f>IF(AND(ISBLANK(B453),ISBLANK(C453)), "", A452 + 1)</f>
+        <v/>
+      </c>
       <c r="E453" s="6" t="str">
         <f>IF(ISBLANK(F453), "",INDEX(Squads!A$3:B$1048576,MATCH(F453, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H453" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="454" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B453), "",_xlfn.CONCAT($B453," ",$C453))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A454" s="21" t="str">
+        <f>IF(AND(ISBLANK(B454),ISBLANK(C454)), "", A453 + 1)</f>
+        <v/>
+      </c>
       <c r="E454" s="6" t="str">
         <f>IF(ISBLANK(F454), "",INDEX(Squads!A$3:B$1048576,MATCH(F454, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H454" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="455" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B454), "",_xlfn.CONCAT($B454," ",$C454))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A455" s="21" t="str">
+        <f>IF(AND(ISBLANK(B455),ISBLANK(C455)), "", A454 + 1)</f>
+        <v/>
+      </c>
       <c r="E455" s="6" t="str">
         <f>IF(ISBLANK(F455), "",INDEX(Squads!A$3:B$1048576,MATCH(F455, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H455" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="456" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B455), "",_xlfn.CONCAT($B455," ",$C455))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A456" s="21" t="str">
+        <f>IF(AND(ISBLANK(B456),ISBLANK(C456)), "", A455 + 1)</f>
+        <v/>
+      </c>
       <c r="E456" s="6" t="str">
         <f>IF(ISBLANK(F456), "",INDEX(Squads!A$3:B$1048576,MATCH(F456, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H456" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="457" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B456), "",_xlfn.CONCAT($B456," ",$C456))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A457" s="21" t="str">
+        <f>IF(AND(ISBLANK(B457),ISBLANK(C457)), "", A456 + 1)</f>
+        <v/>
+      </c>
       <c r="E457" s="6" t="str">
         <f>IF(ISBLANK(F457), "",INDEX(Squads!A$3:B$1048576,MATCH(F457, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H457" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="458" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B457), "",_xlfn.CONCAT($B457," ",$C457))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A458" s="21" t="str">
+        <f>IF(AND(ISBLANK(B458),ISBLANK(C458)), "", A457 + 1)</f>
+        <v/>
+      </c>
       <c r="E458" s="6" t="str">
         <f>IF(ISBLANK(F458), "",INDEX(Squads!A$3:B$1048576,MATCH(F458, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H458" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="459" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B458), "",_xlfn.CONCAT($B458," ",$C458))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A459" s="21" t="str">
+        <f>IF(AND(ISBLANK(B459),ISBLANK(C459)), "", A458 + 1)</f>
+        <v/>
+      </c>
       <c r="E459" s="6" t="str">
         <f>IF(ISBLANK(F459), "",INDEX(Squads!A$3:B$1048576,MATCH(F459, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H459" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="460" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B459), "",_xlfn.CONCAT($B459," ",$C459))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A460" s="21" t="str">
+        <f>IF(AND(ISBLANK(B460),ISBLANK(C460)), "", A459 + 1)</f>
+        <v/>
+      </c>
       <c r="E460" s="6" t="str">
         <f>IF(ISBLANK(F460), "",INDEX(Squads!A$3:B$1048576,MATCH(F460, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H460" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="461" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B460), "",_xlfn.CONCAT($B460," ",$C460))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A461" s="21" t="str">
+        <f>IF(AND(ISBLANK(B461),ISBLANK(C461)), "", A460 + 1)</f>
+        <v/>
+      </c>
       <c r="E461" s="6" t="str">
         <f>IF(ISBLANK(F461), "",INDEX(Squads!A$3:B$1048576,MATCH(F461, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H461" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="462" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B461), "",_xlfn.CONCAT($B461," ",$C461))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A462" s="21" t="str">
+        <f>IF(AND(ISBLANK(B462),ISBLANK(C462)), "", A461 + 1)</f>
+        <v/>
+      </c>
       <c r="E462" s="6" t="str">
         <f>IF(ISBLANK(F462), "",INDEX(Squads!A$3:B$1048576,MATCH(F462, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H462" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="463" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B462), "",_xlfn.CONCAT($B462," ",$C462))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A463" s="21" t="str">
+        <f>IF(AND(ISBLANK(B463),ISBLANK(C463)), "", A462 + 1)</f>
+        <v/>
+      </c>
       <c r="E463" s="6" t="str">
         <f>IF(ISBLANK(F463), "",INDEX(Squads!A$3:B$1048576,MATCH(F463, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H463" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="464" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B463), "",_xlfn.CONCAT($B463," ",$C463))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A464" s="21" t="str">
+        <f>IF(AND(ISBLANK(B464),ISBLANK(C464)), "", A463 + 1)</f>
+        <v/>
+      </c>
       <c r="E464" s="6" t="str">
         <f>IF(ISBLANK(F464), "",INDEX(Squads!A$3:B$1048576,MATCH(F464, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H464" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="465" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B464), "",_xlfn.CONCAT($B464," ",$C464))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A465" s="21" t="str">
+        <f>IF(AND(ISBLANK(B465),ISBLANK(C465)), "", A464 + 1)</f>
+        <v/>
+      </c>
       <c r="E465" s="6" t="str">
         <f>IF(ISBLANK(F465), "",INDEX(Squads!A$3:B$1048576,MATCH(F465, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H465" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="466" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B465), "",_xlfn.CONCAT($B465," ",$C465))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A466" s="21" t="str">
+        <f>IF(AND(ISBLANK(B466),ISBLANK(C466)), "", A465 + 1)</f>
+        <v/>
+      </c>
       <c r="E466" s="6" t="str">
         <f>IF(ISBLANK(F466), "",INDEX(Squads!A$3:B$1048576,MATCH(F466, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H466" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="467" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B466), "",_xlfn.CONCAT($B466," ",$C466))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A467" s="21" t="str">
+        <f>IF(AND(ISBLANK(B467),ISBLANK(C467)), "", A466 + 1)</f>
+        <v/>
+      </c>
       <c r="E467" s="6" t="str">
         <f>IF(ISBLANK(F467), "",INDEX(Squads!A$3:B$1048576,MATCH(F467, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H467" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="468" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B467), "",_xlfn.CONCAT($B467," ",$C467))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A468" s="21" t="str">
+        <f>IF(AND(ISBLANK(B468),ISBLANK(C468)), "", A467 + 1)</f>
+        <v/>
+      </c>
       <c r="E468" s="6" t="str">
         <f>IF(ISBLANK(F468), "",INDEX(Squads!A$3:B$1048576,MATCH(F468, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H468" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="469" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B468), "",_xlfn.CONCAT($B468," ",$C468))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A469" s="21" t="str">
+        <f>IF(AND(ISBLANK(B469),ISBLANK(C469)), "", A468 + 1)</f>
+        <v/>
+      </c>
       <c r="E469" s="6" t="str">
         <f>IF(ISBLANK(F469), "",INDEX(Squads!A$3:B$1048576,MATCH(F469, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H469" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="470" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B469), "",_xlfn.CONCAT($B469," ",$C469))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A470" s="21" t="str">
+        <f>IF(AND(ISBLANK(B470),ISBLANK(C470)), "", A469 + 1)</f>
+        <v/>
+      </c>
       <c r="E470" s="6" t="str">
         <f>IF(ISBLANK(F470), "",INDEX(Squads!A$3:B$1048576,MATCH(F470, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H470" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="471" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B470), "",_xlfn.CONCAT($B470," ",$C470))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A471" s="21" t="str">
+        <f>IF(AND(ISBLANK(B471),ISBLANK(C471)), "", A470 + 1)</f>
+        <v/>
+      </c>
       <c r="E471" s="6" t="str">
         <f>IF(ISBLANK(F471), "",INDEX(Squads!A$3:B$1048576,MATCH(F471, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H471" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="472" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B471), "",_xlfn.CONCAT($B471," ",$C471))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A472" s="21" t="str">
+        <f>IF(AND(ISBLANK(B472),ISBLANK(C472)), "", A471 + 1)</f>
+        <v/>
+      </c>
       <c r="E472" s="6" t="str">
         <f>IF(ISBLANK(F472), "",INDEX(Squads!A$3:B$1048576,MATCH(F472, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H472" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="473" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B472), "",_xlfn.CONCAT($B472," ",$C472))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A473" s="21" t="str">
+        <f>IF(AND(ISBLANK(B473),ISBLANK(C473)), "", A472 + 1)</f>
+        <v/>
+      </c>
       <c r="E473" s="6" t="str">
         <f>IF(ISBLANK(F473), "",INDEX(Squads!A$3:B$1048576,MATCH(F473, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H473" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="474" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B473), "",_xlfn.CONCAT($B473," ",$C473))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A474" s="21" t="str">
+        <f>IF(AND(ISBLANK(B474),ISBLANK(C474)), "", A473 + 1)</f>
+        <v/>
+      </c>
       <c r="E474" s="6" t="str">
         <f>IF(ISBLANK(F474), "",INDEX(Squads!A$3:B$1048576,MATCH(F474, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H474" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="475" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B474), "",_xlfn.CONCAT($B474," ",$C474))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A475" s="21" t="str">
+        <f>IF(AND(ISBLANK(B475),ISBLANK(C475)), "", A474 + 1)</f>
+        <v/>
+      </c>
       <c r="E475" s="6" t="str">
         <f>IF(ISBLANK(F475), "",INDEX(Squads!A$3:B$1048576,MATCH(F475, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H475" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="476" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B475), "",_xlfn.CONCAT($B475," ",$C475))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A476" s="21" t="str">
+        <f>IF(AND(ISBLANK(B476),ISBLANK(C476)), "", A475 + 1)</f>
+        <v/>
+      </c>
       <c r="E476" s="6" t="str">
         <f>IF(ISBLANK(F476), "",INDEX(Squads!A$3:B$1048576,MATCH(F476, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H476" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="477" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B476), "",_xlfn.CONCAT($B476," ",$C476))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A477" s="21" t="str">
+        <f>IF(AND(ISBLANK(B477),ISBLANK(C477)), "", A476 + 1)</f>
+        <v/>
+      </c>
       <c r="E477" s="6" t="str">
         <f>IF(ISBLANK(F477), "",INDEX(Squads!A$3:B$1048576,MATCH(F477, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H477" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="478" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B477), "",_xlfn.CONCAT($B477," ",$C477))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A478" s="21" t="str">
+        <f>IF(AND(ISBLANK(B478),ISBLANK(C478)), "", A477 + 1)</f>
+        <v/>
+      </c>
       <c r="E478" s="6" t="str">
         <f>IF(ISBLANK(F478), "",INDEX(Squads!A$3:B$1048576,MATCH(F478, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H478" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="479" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B478), "",_xlfn.CONCAT($B478," ",$C478))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A479" s="21" t="str">
+        <f>IF(AND(ISBLANK(B479),ISBLANK(C479)), "", A478 + 1)</f>
+        <v/>
+      </c>
       <c r="E479" s="6" t="str">
         <f>IF(ISBLANK(F479), "",INDEX(Squads!A$3:B$1048576,MATCH(F479, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H479" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="480" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B479), "",_xlfn.CONCAT($B479," ",$C479))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A480" s="21" t="str">
+        <f>IF(AND(ISBLANK(B480),ISBLANK(C480)), "", A479 + 1)</f>
+        <v/>
+      </c>
       <c r="E480" s="6" t="str">
         <f>IF(ISBLANK(F480), "",INDEX(Squads!A$3:B$1048576,MATCH(F480, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H480" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="481" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B480), "",_xlfn.CONCAT($B480," ",$C480))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A481" s="21" t="str">
+        <f>IF(AND(ISBLANK(B481),ISBLANK(C481)), "", A480 + 1)</f>
+        <v/>
+      </c>
       <c r="E481" s="6" t="str">
         <f>IF(ISBLANK(F481), "",INDEX(Squads!A$3:B$1048576,MATCH(F481, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H481" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="482" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B481), "",_xlfn.CONCAT($B481," ",$C481))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A482" s="21" t="str">
+        <f>IF(AND(ISBLANK(B482),ISBLANK(C482)), "", A481 + 1)</f>
+        <v/>
+      </c>
       <c r="E482" s="6" t="str">
         <f>IF(ISBLANK(F482), "",INDEX(Squads!A$3:B$1048576,MATCH(F482, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H482" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="483" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B482), "",_xlfn.CONCAT($B482," ",$C482))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A483" s="21" t="str">
+        <f>IF(AND(ISBLANK(B483),ISBLANK(C483)), "", A482 + 1)</f>
+        <v/>
+      </c>
       <c r="E483" s="6" t="str">
         <f>IF(ISBLANK(F483), "",INDEX(Squads!A$3:B$1048576,MATCH(F483, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H483" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="484" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B483), "",_xlfn.CONCAT($B483," ",$C483))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A484" s="21" t="str">
+        <f>IF(AND(ISBLANK(B484),ISBLANK(C484)), "", A483 + 1)</f>
+        <v/>
+      </c>
       <c r="E484" s="6" t="str">
         <f>IF(ISBLANK(F484), "",INDEX(Squads!A$3:B$1048576,MATCH(F484, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H484" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="485" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B484), "",_xlfn.CONCAT($B484," ",$C484))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A485" s="21" t="str">
+        <f>IF(AND(ISBLANK(B485),ISBLANK(C485)), "", A484 + 1)</f>
+        <v/>
+      </c>
       <c r="E485" s="6" t="str">
         <f>IF(ISBLANK(F485), "",INDEX(Squads!A$3:B$1048576,MATCH(F485, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H485" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="486" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B485), "",_xlfn.CONCAT($B485," ",$C485))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A486" s="21" t="str">
+        <f>IF(AND(ISBLANK(B486),ISBLANK(C486)), "", A485 + 1)</f>
+        <v/>
+      </c>
       <c r="E486" s="6" t="str">
         <f>IF(ISBLANK(F486), "",INDEX(Squads!A$3:B$1048576,MATCH(F486, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H486" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="487" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B486), "",_xlfn.CONCAT($B486," ",$C486))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A487" s="21" t="str">
+        <f>IF(AND(ISBLANK(B487),ISBLANK(C487)), "", A486 + 1)</f>
+        <v/>
+      </c>
       <c r="E487" s="6" t="str">
         <f>IF(ISBLANK(F487), "",INDEX(Squads!A$3:B$1048576,MATCH(F487, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H487" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="488" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B487), "",_xlfn.CONCAT($B487," ",$C487))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E488" s="6" t="str">
         <f>IF(ISBLANK(F488), "",INDEX(Squads!A$3:B$1048576,MATCH(F488, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H488" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="489" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B488), "",_xlfn.CONCAT($B488," ",$C488))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E489" s="6" t="str">
         <f>IF(ISBLANK(F489), "",INDEX(Squads!A$3:B$1048576,MATCH(F489, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H489" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B489), "",_xlfn.CONCAT($B489," ",$C489))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E490" s="6" t="str">
         <f>IF(ISBLANK(F490), "",INDEX(Squads!A$3:B$1048576,MATCH(F490, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H490" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="491" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B490), "",_xlfn.CONCAT($B490," ",$C490))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E491" s="6" t="str">
         <f>IF(ISBLANK(F491), "",INDEX(Squads!A$3:B$1048576,MATCH(F491, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H491" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="492" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B491), "",_xlfn.CONCAT($B491," ",$C491))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E492" s="6" t="str">
         <f>IF(ISBLANK(F492), "",INDEX(Squads!A$3:B$1048576,MATCH(F492, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H492" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="493" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B492), "",_xlfn.CONCAT($B492," ",$C492))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E493" s="6" t="str">
         <f>IF(ISBLANK(F493), "",INDEX(Squads!A$3:B$1048576,MATCH(F493, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H493" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="494" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B493), "",_xlfn.CONCAT($B493," ",$C493))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E494" s="6" t="str">
         <f>IF(ISBLANK(F494), "",INDEX(Squads!A$3:B$1048576,MATCH(F494, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H494" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="495" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B494), "",_xlfn.CONCAT($B494," ",$C494))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E495" s="6" t="str">
         <f>IF(ISBLANK(F495), "",INDEX(Squads!A$3:B$1048576,MATCH(F495, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H495" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="5:8" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(B495), "",_xlfn.CONCAT($B495," ",$C495))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E496" s="6" t="str">
         <f>IF(ISBLANK(F496), "",INDEX(Squads!A$3:B$1048576,MATCH(F496, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H496" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISBLANK(B496), "",_xlfn.CONCAT($B496," ",$C496))</f>
         <v/>
       </c>
     </row>
@@ -9001,7 +9736,7 @@
         <v/>
       </c>
       <c r="H497" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISBLANK(B497), "",_xlfn.CONCAT($B497," ",$C497))</f>
         <v/>
       </c>
     </row>
@@ -9011,7 +9746,7 @@
         <v/>
       </c>
       <c r="H498" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISBLANK(B498), "",_xlfn.CONCAT($B498," ",$C498))</f>
         <v/>
       </c>
     </row>
@@ -9021,7 +9756,7 @@
         <v/>
       </c>
       <c r="H499" s="7" t="str">
-        <f t="shared" ref="H499:H562" si="14">IF(ISBLANK(B499), "",_xlfn.CONCAT($B499," ",$C499))</f>
+        <f>IF(ISBLANK(B499), "",_xlfn.CONCAT($B499," ",$C499))</f>
         <v/>
       </c>
     </row>
@@ -9031,7 +9766,7 @@
         <v/>
       </c>
       <c r="H500" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B500), "",_xlfn.CONCAT($B500," ",$C500))</f>
         <v/>
       </c>
     </row>
@@ -9041,7 +9776,7 @@
         <v/>
       </c>
       <c r="H501" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B501), "",_xlfn.CONCAT($B501," ",$C501))</f>
         <v/>
       </c>
     </row>
@@ -9051,7 +9786,7 @@
         <v/>
       </c>
       <c r="H502" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B502), "",_xlfn.CONCAT($B502," ",$C502))</f>
         <v/>
       </c>
     </row>
@@ -9061,7 +9796,7 @@
         <v/>
       </c>
       <c r="H503" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B503), "",_xlfn.CONCAT($B503," ",$C503))</f>
         <v/>
       </c>
     </row>
@@ -9071,7 +9806,7 @@
         <v/>
       </c>
       <c r="H504" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B504), "",_xlfn.CONCAT($B504," ",$C504))</f>
         <v/>
       </c>
     </row>
@@ -9081,7 +9816,7 @@
         <v/>
       </c>
       <c r="H505" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B505), "",_xlfn.CONCAT($B505," ",$C505))</f>
         <v/>
       </c>
     </row>
@@ -9091,7 +9826,7 @@
         <v/>
       </c>
       <c r="H506" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B506), "",_xlfn.CONCAT($B506," ",$C506))</f>
         <v/>
       </c>
     </row>
@@ -9101,7 +9836,7 @@
         <v/>
       </c>
       <c r="H507" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B507), "",_xlfn.CONCAT($B507," ",$C507))</f>
         <v/>
       </c>
     </row>
@@ -9111,7 +9846,7 @@
         <v/>
       </c>
       <c r="H508" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B508), "",_xlfn.CONCAT($B508," ",$C508))</f>
         <v/>
       </c>
     </row>
@@ -9121,7 +9856,7 @@
         <v/>
       </c>
       <c r="H509" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B509), "",_xlfn.CONCAT($B509," ",$C509))</f>
         <v/>
       </c>
     </row>
@@ -9131,7 +9866,7 @@
         <v/>
       </c>
       <c r="H510" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B510), "",_xlfn.CONCAT($B510," ",$C510))</f>
         <v/>
       </c>
     </row>
@@ -9141,7 +9876,7 @@
         <v/>
       </c>
       <c r="H511" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B511), "",_xlfn.CONCAT($B511," ",$C511))</f>
         <v/>
       </c>
     </row>
@@ -9151,7 +9886,7 @@
         <v/>
       </c>
       <c r="H512" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B512), "",_xlfn.CONCAT($B512," ",$C512))</f>
         <v/>
       </c>
     </row>
@@ -9161,7 +9896,7 @@
         <v/>
       </c>
       <c r="H513" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B513), "",_xlfn.CONCAT($B513," ",$C513))</f>
         <v/>
       </c>
     </row>
@@ -9171,7 +9906,7 @@
         <v/>
       </c>
       <c r="H514" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B514), "",_xlfn.CONCAT($B514," ",$C514))</f>
         <v/>
       </c>
     </row>
@@ -9181,7 +9916,7 @@
         <v/>
       </c>
       <c r="H515" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B515), "",_xlfn.CONCAT($B515," ",$C515))</f>
         <v/>
       </c>
     </row>
@@ -9191,7 +9926,7 @@
         <v/>
       </c>
       <c r="H516" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B516), "",_xlfn.CONCAT($B516," ",$C516))</f>
         <v/>
       </c>
     </row>
@@ -9201,7 +9936,7 @@
         <v/>
       </c>
       <c r="H517" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B517), "",_xlfn.CONCAT($B517," ",$C517))</f>
         <v/>
       </c>
     </row>
@@ -9211,7 +9946,7 @@
         <v/>
       </c>
       <c r="H518" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B518), "",_xlfn.CONCAT($B518," ",$C518))</f>
         <v/>
       </c>
     </row>
@@ -9221,7 +9956,7 @@
         <v/>
       </c>
       <c r="H519" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B519), "",_xlfn.CONCAT($B519," ",$C519))</f>
         <v/>
       </c>
     </row>
@@ -9231,7 +9966,7 @@
         <v/>
       </c>
       <c r="H520" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B520), "",_xlfn.CONCAT($B520," ",$C520))</f>
         <v/>
       </c>
     </row>
@@ -9241,7 +9976,7 @@
         <v/>
       </c>
       <c r="H521" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B521), "",_xlfn.CONCAT($B521," ",$C521))</f>
         <v/>
       </c>
     </row>
@@ -9251,7 +9986,7 @@
         <v/>
       </c>
       <c r="H522" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B522), "",_xlfn.CONCAT($B522," ",$C522))</f>
         <v/>
       </c>
     </row>
@@ -9261,7 +9996,7 @@
         <v/>
       </c>
       <c r="H523" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B523), "",_xlfn.CONCAT($B523," ",$C523))</f>
         <v/>
       </c>
     </row>
@@ -9271,7 +10006,7 @@
         <v/>
       </c>
       <c r="H524" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B524), "",_xlfn.CONCAT($B524," ",$C524))</f>
         <v/>
       </c>
     </row>
@@ -9281,7 +10016,7 @@
         <v/>
       </c>
       <c r="H525" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B525), "",_xlfn.CONCAT($B525," ",$C525))</f>
         <v/>
       </c>
     </row>
@@ -9291,7 +10026,7 @@
         <v/>
       </c>
       <c r="H526" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B526), "",_xlfn.CONCAT($B526," ",$C526))</f>
         <v/>
       </c>
     </row>
@@ -9301,7 +10036,7 @@
         <v/>
       </c>
       <c r="H527" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B527), "",_xlfn.CONCAT($B527," ",$C527))</f>
         <v/>
       </c>
     </row>
@@ -9311,7 +10046,7 @@
         <v/>
       </c>
       <c r="H528" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B528), "",_xlfn.CONCAT($B528," ",$C528))</f>
         <v/>
       </c>
     </row>
@@ -9321,7 +10056,7 @@
         <v/>
       </c>
       <c r="H529" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B529), "",_xlfn.CONCAT($B529," ",$C529))</f>
         <v/>
       </c>
     </row>
@@ -9331,7 +10066,7 @@
         <v/>
       </c>
       <c r="H530" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B530), "",_xlfn.CONCAT($B530," ",$C530))</f>
         <v/>
       </c>
     </row>
@@ -9341,7 +10076,7 @@
         <v/>
       </c>
       <c r="H531" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B531), "",_xlfn.CONCAT($B531," ",$C531))</f>
         <v/>
       </c>
     </row>
@@ -9351,7 +10086,7 @@
         <v/>
       </c>
       <c r="H532" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B532), "",_xlfn.CONCAT($B532," ",$C532))</f>
         <v/>
       </c>
     </row>
@@ -9361,7 +10096,7 @@
         <v/>
       </c>
       <c r="H533" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B533), "",_xlfn.CONCAT($B533," ",$C533))</f>
         <v/>
       </c>
     </row>
@@ -9371,7 +10106,7 @@
         <v/>
       </c>
       <c r="H534" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B534), "",_xlfn.CONCAT($B534," ",$C534))</f>
         <v/>
       </c>
     </row>
@@ -9381,7 +10116,7 @@
         <v/>
       </c>
       <c r="H535" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B535), "",_xlfn.CONCAT($B535," ",$C535))</f>
         <v/>
       </c>
     </row>
@@ -9391,7 +10126,7 @@
         <v/>
       </c>
       <c r="H536" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B536), "",_xlfn.CONCAT($B536," ",$C536))</f>
         <v/>
       </c>
     </row>
@@ -9401,7 +10136,7 @@
         <v/>
       </c>
       <c r="H537" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B537), "",_xlfn.CONCAT($B537," ",$C537))</f>
         <v/>
       </c>
     </row>
@@ -9411,7 +10146,7 @@
         <v/>
       </c>
       <c r="H538" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B538), "",_xlfn.CONCAT($B538," ",$C538))</f>
         <v/>
       </c>
     </row>
@@ -9421,7 +10156,7 @@
         <v/>
       </c>
       <c r="H539" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B539), "",_xlfn.CONCAT($B539," ",$C539))</f>
         <v/>
       </c>
     </row>
@@ -9431,7 +10166,7 @@
         <v/>
       </c>
       <c r="H540" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B540), "",_xlfn.CONCAT($B540," ",$C540))</f>
         <v/>
       </c>
     </row>
@@ -9441,7 +10176,7 @@
         <v/>
       </c>
       <c r="H541" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B541), "",_xlfn.CONCAT($B541," ",$C541))</f>
         <v/>
       </c>
     </row>
@@ -9451,7 +10186,7 @@
         <v/>
       </c>
       <c r="H542" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B542), "",_xlfn.CONCAT($B542," ",$C542))</f>
         <v/>
       </c>
     </row>
@@ -9461,7 +10196,7 @@
         <v/>
       </c>
       <c r="H543" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B543), "",_xlfn.CONCAT($B543," ",$C543))</f>
         <v/>
       </c>
     </row>
@@ -9471,7 +10206,7 @@
         <v/>
       </c>
       <c r="H544" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B544), "",_xlfn.CONCAT($B544," ",$C544))</f>
         <v/>
       </c>
     </row>
@@ -9481,7 +10216,7 @@
         <v/>
       </c>
       <c r="H545" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B545), "",_xlfn.CONCAT($B545," ",$C545))</f>
         <v/>
       </c>
     </row>
@@ -9491,7 +10226,7 @@
         <v/>
       </c>
       <c r="H546" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B546), "",_xlfn.CONCAT($B546," ",$C546))</f>
         <v/>
       </c>
     </row>
@@ -9501,7 +10236,7 @@
         <v/>
       </c>
       <c r="H547" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B547), "",_xlfn.CONCAT($B547," ",$C547))</f>
         <v/>
       </c>
     </row>
@@ -9511,7 +10246,7 @@
         <v/>
       </c>
       <c r="H548" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B548), "",_xlfn.CONCAT($B548," ",$C548))</f>
         <v/>
       </c>
     </row>
@@ -9521,7 +10256,7 @@
         <v/>
       </c>
       <c r="H549" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B549), "",_xlfn.CONCAT($B549," ",$C549))</f>
         <v/>
       </c>
     </row>
@@ -9531,7 +10266,7 @@
         <v/>
       </c>
       <c r="H550" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B550), "",_xlfn.CONCAT($B550," ",$C550))</f>
         <v/>
       </c>
     </row>
@@ -9541,7 +10276,7 @@
         <v/>
       </c>
       <c r="H551" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B551), "",_xlfn.CONCAT($B551," ",$C551))</f>
         <v/>
       </c>
     </row>
@@ -9551,7 +10286,7 @@
         <v/>
       </c>
       <c r="H552" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B552), "",_xlfn.CONCAT($B552," ",$C552))</f>
         <v/>
       </c>
     </row>
@@ -9561,7 +10296,7 @@
         <v/>
       </c>
       <c r="H553" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B553), "",_xlfn.CONCAT($B553," ",$C553))</f>
         <v/>
       </c>
     </row>
@@ -9571,7 +10306,7 @@
         <v/>
       </c>
       <c r="H554" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B554), "",_xlfn.CONCAT($B554," ",$C554))</f>
         <v/>
       </c>
     </row>
@@ -9581,7 +10316,7 @@
         <v/>
       </c>
       <c r="H555" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B555), "",_xlfn.CONCAT($B555," ",$C555))</f>
         <v/>
       </c>
     </row>
@@ -9591,7 +10326,7 @@
         <v/>
       </c>
       <c r="H556" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B556), "",_xlfn.CONCAT($B556," ",$C556))</f>
         <v/>
       </c>
     </row>
@@ -9601,7 +10336,7 @@
         <v/>
       </c>
       <c r="H557" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B557), "",_xlfn.CONCAT($B557," ",$C557))</f>
         <v/>
       </c>
     </row>
@@ -9611,7 +10346,7 @@
         <v/>
       </c>
       <c r="H558" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B558), "",_xlfn.CONCAT($B558," ",$C558))</f>
         <v/>
       </c>
     </row>
@@ -9621,7 +10356,7 @@
         <v/>
       </c>
       <c r="H559" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B559), "",_xlfn.CONCAT($B559," ",$C559))</f>
         <v/>
       </c>
     </row>
@@ -9631,7 +10366,7 @@
         <v/>
       </c>
       <c r="H560" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B560), "",_xlfn.CONCAT($B560," ",$C560))</f>
         <v/>
       </c>
     </row>
@@ -9641,7 +10376,7 @@
         <v/>
       </c>
       <c r="H561" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B561), "",_xlfn.CONCAT($B561," ",$C561))</f>
         <v/>
       </c>
     </row>
@@ -9651,7 +10386,7 @@
         <v/>
       </c>
       <c r="H562" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(B562), "",_xlfn.CONCAT($B562," ",$C562))</f>
         <v/>
       </c>
     </row>
@@ -9661,7 +10396,7 @@
         <v/>
       </c>
       <c r="H563" s="7" t="str">
-        <f t="shared" ref="H563:H571" si="15">IF(ISBLANK(B563), "",_xlfn.CONCAT($B563," ",$C563))</f>
+        <f>IF(ISBLANK(B563), "",_xlfn.CONCAT($B563," ",$C563))</f>
         <v/>
       </c>
     </row>
@@ -9671,7 +10406,7 @@
         <v/>
       </c>
       <c r="H564" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(ISBLANK(B564), "",_xlfn.CONCAT($B564," ",$C564))</f>
         <v/>
       </c>
     </row>
@@ -9681,7 +10416,7 @@
         <v/>
       </c>
       <c r="H565" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(ISBLANK(B565), "",_xlfn.CONCAT($B565," ",$C565))</f>
         <v/>
       </c>
     </row>
@@ -9691,7 +10426,7 @@
         <v/>
       </c>
       <c r="H566" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(ISBLANK(B566), "",_xlfn.CONCAT($B566," ",$C566))</f>
         <v/>
       </c>
     </row>
@@ -9701,7 +10436,7 @@
         <v/>
       </c>
       <c r="H567" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(ISBLANK(B567), "",_xlfn.CONCAT($B567," ",$C567))</f>
         <v/>
       </c>
     </row>
@@ -9711,7 +10446,7 @@
         <v/>
       </c>
       <c r="H568" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(ISBLANK(B568), "",_xlfn.CONCAT($B568," ",$C568))</f>
         <v/>
       </c>
     </row>
@@ -9721,7 +10456,7 @@
         <v/>
       </c>
       <c r="H569" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(ISBLANK(B569), "",_xlfn.CONCAT($B569," ",$C569))</f>
         <v/>
       </c>
     </row>
@@ -9731,7 +10466,7 @@
         <v/>
       </c>
       <c r="H570" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(ISBLANK(B570), "",_xlfn.CONCAT($B570," ",$C570))</f>
         <v/>
       </c>
     </row>
@@ -9741,7 +10476,7 @@
         <v/>
       </c>
       <c r="H571" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(ISBLANK(B571), "",_xlfn.CONCAT($B571," ",$C571))</f>
         <v/>
       </c>
     </row>
@@ -9751,7 +10486,7 @@
         <v/>
       </c>
       <c r="H572" s="7" t="str">
-        <f t="shared" ref="H572:H577" si="16">IF(ISBLANK(B570), "",_xlfn.CONCAT($B572," ",$C572))</f>
+        <f>IF(ISBLANK(B570), "",_xlfn.CONCAT($B572," ",$C572))</f>
         <v/>
       </c>
     </row>
@@ -9761,7 +10496,7 @@
         <v/>
       </c>
       <c r="H573" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(ISBLANK(B571), "",_xlfn.CONCAT($B573," ",$C573))</f>
         <v/>
       </c>
     </row>
@@ -9771,7 +10506,7 @@
         <v/>
       </c>
       <c r="H574" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(ISBLANK(B572), "",_xlfn.CONCAT($B574," ",$C574))</f>
         <v/>
       </c>
     </row>
@@ -9781,7 +10516,7 @@
         <v/>
       </c>
       <c r="H575" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(ISBLANK(B573), "",_xlfn.CONCAT($B575," ",$C575))</f>
         <v/>
       </c>
     </row>
@@ -9791,7 +10526,7 @@
         <v/>
       </c>
       <c r="H576" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(ISBLANK(B574), "",_xlfn.CONCAT($B576," ",$C576))</f>
         <v/>
       </c>
     </row>
@@ -9801,7 +10536,7 @@
         <v/>
       </c>
       <c r="H577" s="7" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(ISBLANK(B575), "",_xlfn.CONCAT($B577," ",$C577))</f>
         <v/>
       </c>
     </row>
@@ -9862,7 +10597,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9872,10 +10607,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -10147,10 +10882,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -10163,7 +10898,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -10171,7 +10906,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4">
         <v>9111368924</v>
@@ -10179,26 +10914,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
         <v>204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10216,8 +10951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE18F2CC-E6EF-FD4A-8250-6DB6A15E10F3}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10233,10 +10968,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="19"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -10248,10 +10983,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -10263,21 +10998,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="14">
         <v>101</v>
       </c>
       <c r="F3" s="12" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Дурнев Владимир Николаевич</v>
+        <v>Владимир Николаевич</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="14">
         <v>91</v>
@@ -10314,7 +11049,7 @@
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -10343,17 +11078,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -10589,10 +11324,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
         <v>1</v>
@@ -10600,10 +11335,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
@@ -10667,7 +11402,7 @@
       </c>
       <c r="D7" s="11" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Воронина Лариса Васильевна</v>
+        <v>Лариса Васильевна</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -10974,22 +11709,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>187</v>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egorvkimow/Documents/Personal/sbor-bot/resource/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22478DC8-0C96-4F46-9AB2-01C434BADB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA440E-4C0B-D945-813E-9780ACFFF359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Supervisors" sheetId="7" r:id="rId4"/>
     <sheet name="Squads" sheetId="4" r:id="rId5"/>
     <sheet name="Services" sheetId="5" r:id="rId6"/>
-    <sheet name="Duty" sheetId="6" r:id="rId7"/>
+    <sheet name="Commanders" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="212">
   <si>
     <t>Информация для бота</t>
   </si>
@@ -661,6 +661,18 @@
   </si>
   <si>
     <t>Строительная</t>
+  </si>
+  <si>
+    <t>Множественное число</t>
+  </si>
+  <si>
+    <t>Вожатые</t>
+  </si>
+  <si>
+    <t>Участники</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -705,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -741,6 +753,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1067,21 +1080,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1148,7 +1161,7 @@
         <v>Вожатый</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K34" si="1">D3</f>
+        <f t="shared" ref="K3:K66" si="1">D3</f>
         <v>9021935635</v>
       </c>
     </row>
@@ -2330,7 +2343,7 @@
         <v>Вожатый</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" ref="K35:K66" si="3">D35</f>
+        <f t="shared" si="1"/>
         <v>9600077240</v>
       </c>
     </row>
@@ -2367,7 +2380,7 @@
         <v>Вожатый</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9027080210</v>
       </c>
     </row>
@@ -2404,7 +2417,7 @@
         <v>Вожатый</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9115708643</v>
       </c>
     </row>
@@ -2441,7 +2454,7 @@
         <v>Участник</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9991460009</v>
       </c>
     </row>
@@ -2478,7 +2491,7 @@
         <v>Участник</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9052936055</v>
       </c>
     </row>
@@ -2515,7 +2528,7 @@
         <v>Участник</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9600079977</v>
       </c>
     </row>
@@ -2552,7 +2565,7 @@
         <v>Участник</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9027054886</v>
       </c>
     </row>
@@ -2589,7 +2602,7 @@
         <v>Участник</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9115950608</v>
       </c>
     </row>
@@ -2626,7 +2639,7 @@
         <v>Участник</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9314153251</v>
       </c>
     </row>
@@ -2663,7 +2676,7 @@
         <v>Участник</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9116573329</v>
       </c>
     </row>
@@ -2700,7 +2713,7 @@
         <v>Участник</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9116869084</v>
       </c>
     </row>
@@ -2737,7 +2750,7 @@
         <v>Участник</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9009136809</v>
       </c>
     </row>
@@ -2774,7 +2787,7 @@
         <v>Участник</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9657329507</v>
       </c>
     </row>
@@ -2811,7 +2824,7 @@
         <v>Участник</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9523040674</v>
       </c>
     </row>
@@ -2848,7 +2861,7 @@
         <v>Участник</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9522545149</v>
       </c>
     </row>
@@ -2885,7 +2898,7 @@
         <v>Участник</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9539315895</v>
       </c>
     </row>
@@ -2922,7 +2935,7 @@
         <v>Участник</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9314145713</v>
       </c>
     </row>
@@ -2959,7 +2972,7 @@
         <v>Участник</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9502506035</v>
       </c>
     </row>
@@ -2996,7 +3009,7 @@
         <v>Участник</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9210890586</v>
       </c>
     </row>
@@ -3033,7 +3046,7 @@
         <v>Участник</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9062844526</v>
       </c>
     </row>
@@ -3070,7 +3083,7 @@
         <v>Участник</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9009120532</v>
       </c>
     </row>
@@ -3107,7 +3120,7 @@
         <v>Участник</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9965038313</v>
       </c>
     </row>
@@ -3144,7 +3157,7 @@
         <v>Участник</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9212957552</v>
       </c>
     </row>
@@ -3181,7 +3194,7 @@
         <v>Участник</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9600198519</v>
       </c>
     </row>
@@ -3218,7 +3231,7 @@
         <v>Участник</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9502537642</v>
       </c>
     </row>
@@ -3253,7 +3266,7 @@
         <v>Участник</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3290,7 +3303,7 @@
         <v>Вожатый</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9021982289</v>
       </c>
     </row>
@@ -3327,7 +3340,7 @@
         <v>Вожатый</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9210787810</v>
       </c>
     </row>
@@ -3364,7 +3377,7 @@
         <v>Вожатый</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9600036043</v>
       </c>
     </row>
@@ -3401,7 +3414,7 @@
         <v>Вожатый</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9025073259</v>
       </c>
     </row>
@@ -3438,7 +3451,7 @@
         <v>Вожатый</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9626624368</v>
       </c>
     </row>
@@ -3475,7 +3488,7 @@
         <v>Участник</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9532677435</v>
       </c>
     </row>
@@ -3500,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="H67" s="20" t="str">
-        <f t="shared" ref="H67:H102" si="4">IF(AND(ISBLANK(B67),ISBLANK(C67)), "",TRIM(_xlfn.CONCAT($B67," ",$C67)))</f>
+        <f t="shared" ref="H67:H102" si="3">IF(AND(ISBLANK(B67),ISBLANK(C67)), "",TRIM(_xlfn.CONCAT($B67," ",$C67)))</f>
         <v>Десятков Илья</v>
       </c>
       <c r="I67" s="3" t="str">
@@ -3512,13 +3525,13 @@
         <v>Участник</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" ref="K67:K103" si="5">D67</f>
+        <f t="shared" ref="K67:K130" si="4">D67</f>
         <v>9116851539</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
-        <f t="shared" ref="A68:A131" si="6">IF(AND(ISBLANK(B68),ISBLANK(C68)), "", A67 + 1)</f>
+        <f t="shared" ref="A68:A131" si="5">IF(AND(ISBLANK(B68),ISBLANK(C68)), "", A67 + 1)</f>
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3537,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Нуромский Саша</v>
       </c>
       <c r="I68" s="3" t="str">
@@ -3549,13 +3562,13 @@
         <v>Участник</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9600007061</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3574,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="H69" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Лобанов Антон</v>
       </c>
       <c r="I69" s="3" t="str">
@@ -3586,13 +3599,13 @@
         <v>Участник</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9118785661</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3611,7 +3624,7 @@
         <v>2</v>
       </c>
       <c r="H70" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Солопов Артём</v>
       </c>
       <c r="I70" s="3" t="str">
@@ -3623,13 +3636,13 @@
         <v>Участник</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9642900185</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -3648,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="H71" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Тюпышев Матвей</v>
       </c>
       <c r="I71" s="3" t="str">
@@ -3660,13 +3673,13 @@
         <v>Участник</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9600090480</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3685,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="H72" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Бабуль Кирилл</v>
       </c>
       <c r="I72" s="3" t="str">
@@ -3697,13 +3710,13 @@
         <v>Участник</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9210723677</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3722,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="H73" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Чаусов Данил</v>
       </c>
       <c r="I73" s="3" t="str">
@@ -3734,13 +3747,13 @@
         <v>Участник</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9532632864</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3759,7 +3772,7 @@
         <v>2</v>
       </c>
       <c r="H74" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Федоренко Даша</v>
       </c>
       <c r="I74" s="3" t="str">
@@ -3771,13 +3784,13 @@
         <v>Участник</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9600133311</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3796,7 +3809,7 @@
         <v>2</v>
       </c>
       <c r="H75" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Тюпышева Ксюша</v>
       </c>
       <c r="I75" s="3" t="str">
@@ -3808,13 +3821,13 @@
         <v>Участник</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9115730722</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3833,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Прокопьева Маша</v>
       </c>
       <c r="I76" s="3" t="str">
@@ -3845,13 +3858,13 @@
         <v>Участник</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9115667093</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3870,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="H77" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Олехова Настя</v>
       </c>
       <c r="I77" s="3" t="str">
@@ -3882,13 +3895,13 @@
         <v>Участник</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9991682955</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3907,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="H78" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Крутикова Полина</v>
       </c>
       <c r="I78" s="3" t="str">
@@ -3919,13 +3932,13 @@
         <v>Участник</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9214888784</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3944,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="H79" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Понасенкова Вероника</v>
       </c>
       <c r="I79" s="3" t="str">
@@ -3956,13 +3969,13 @@
         <v>Участник</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9539361130</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3981,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="H80" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Натахина Алёна</v>
       </c>
       <c r="I80" s="3" t="str">
@@ -3993,13 +4006,13 @@
         <v>Участник</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9532649499</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -4018,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="H81" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Дьячкова Арина</v>
       </c>
       <c r="I81" s="3" t="str">
@@ -4030,13 +4043,13 @@
         <v>Участник</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9539314404</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -4055,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="H82" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Проценко Дарья</v>
       </c>
       <c r="I82" s="3" t="str">
@@ -4067,13 +4080,13 @@
         <v>Участник</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9115803941</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -4092,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Савинкина Лиза</v>
       </c>
       <c r="I83" s="3" t="str">
@@ -4104,13 +4117,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9210859610</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -4129,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Коробова Ксюша</v>
       </c>
       <c r="I84" s="3" t="str">
@@ -4141,13 +4154,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9210815080</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -4166,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Варзина Настя</v>
       </c>
       <c r="I85" s="3" t="str">
@@ -4178,13 +4191,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9969214573</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -4203,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Михайлов Кирилл</v>
       </c>
       <c r="I86" s="3" t="str">
@@ -4215,13 +4228,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9115800840</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -4240,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="H87" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Юрьев Кирилл</v>
       </c>
       <c r="I87" s="3" t="str">
@@ -4252,13 +4265,13 @@
         <v>Участник</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9969216837</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -4277,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="H88" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Забыйворота Вова</v>
       </c>
       <c r="I88" s="3" t="str">
@@ -4289,13 +4302,13 @@
         <v>Участник</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9115724303</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -4314,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="H89" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Сынчиков Никита</v>
       </c>
       <c r="I89" s="3" t="str">
@@ -4326,13 +4339,13 @@
         <v>Участник</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9626649990</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -4351,7 +4364,7 @@
         <v>2</v>
       </c>
       <c r="H90" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Веселков Матвей</v>
       </c>
       <c r="I90" s="3" t="str">
@@ -4363,13 +4376,13 @@
         <v>Участник</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9009203089</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -4388,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="H91" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Сумароков Саша</v>
       </c>
       <c r="I91" s="3" t="str">
@@ -4400,13 +4413,13 @@
         <v>Участник</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9022854509</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -4423,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="H92" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Юшманов Кирилл</v>
       </c>
       <c r="I92" s="3" t="str">
@@ -4435,13 +4448,13 @@
         <v>Участник</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -4460,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="H93" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Евтюхова Саша</v>
       </c>
       <c r="I93" s="3" t="str">
@@ -4472,13 +4485,13 @@
         <v>Участник</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9502559803</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -4497,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="H94" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Коротова Ангелина</v>
       </c>
       <c r="I94" s="3" t="str">
@@ -4509,13 +4522,13 @@
         <v>Участник</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9110581233</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -4534,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="H95" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Отяковская Альбина</v>
       </c>
       <c r="I95" s="3" t="str">
@@ -4546,13 +4559,13 @@
         <v>Участник</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9115812807</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -4571,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="H96" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Кажарская Лиза</v>
       </c>
       <c r="I96" s="3" t="str">
@@ -4583,13 +4596,13 @@
         <v>Участник</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9522528224</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -4608,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="H97" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Браницка Женя</v>
       </c>
       <c r="I97" s="3" t="str">
@@ -4620,13 +4633,13 @@
         <v>Участник</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9116721129</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -4645,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="H98" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Тур Лера</v>
       </c>
       <c r="I98" s="3" t="str">
@@ -4657,13 +4670,13 @@
         <v>Участник</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9643006592</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -4682,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="H99" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Фролова Вероника</v>
       </c>
       <c r="I99" s="3" t="str">
@@ -4694,13 +4707,13 @@
         <v>Участник</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9027000003</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -4719,7 +4732,7 @@
         <v>2</v>
       </c>
       <c r="H100" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Угромова Аня</v>
       </c>
       <c r="I100" s="3" t="str">
@@ -4731,13 +4744,13 @@
         <v>Участник</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9642958484</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -4756,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="H101" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Хабарова Лиза</v>
       </c>
       <c r="I101" s="3" t="str">
@@ -4768,13 +4781,13 @@
         <v>Участник</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9642936307</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -4793,7 +4806,7 @@
         <v>2</v>
       </c>
       <c r="H102" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Садков Кирилл</v>
       </c>
       <c r="I102" s="3" t="str">
@@ -4805,13 +4818,13 @@
         <v>Участник</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9115994619</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -4836,17 +4849,20 @@
         <v>Вожатый</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9210861421</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>206</v>
+      </c>
+      <c r="D104" s="8">
+        <v>9532602200</v>
       </c>
       <c r="E104" s="6" t="str">
         <f>IF(ISBLANK(F104), "",INDEX(Squads!A$3:B$1048576,MATCH(F104, Squads!B$3:B$1048576, 0), 1))</f>
@@ -4861,11 +4877,14 @@
         <f>IF(ISBLANK(F104), "",INDEX(Roles!A$3:B$1048576,MATCH(F104, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K104" s="3"/>
+      <c r="K104" s="3">
+        <f t="shared" si="4"/>
+        <v>9532602200</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E105" s="6" t="str">
@@ -4877,23 +4896,30 @@
         <f>IF(ISBLANK(F105), "",INDEX(Roles!A$3:B$1048576,MATCH(F105, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K105" s="3"/>
+      <c r="K105" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="D106" s="23"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3" t="str">
         <f>IF(ISBLANK(F106), "",INDEX(Roles!A$3:B$1048576,MATCH(F106, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K106" s="3"/>
+      <c r="K106" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I107" s="3"/>
@@ -4901,11 +4927,14 @@
         <f>IF(ISBLANK(F107), "",INDEX(Roles!A$3:B$1048576,MATCH(F107, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K107" s="3"/>
+      <c r="K107" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I108" s="3"/>
@@ -4913,11 +4942,14 @@
         <f>IF(ISBLANK(F108), "",INDEX(Roles!A$3:B$1048576,MATCH(F108, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K108" s="3"/>
+      <c r="K108" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I109" s="3"/>
@@ -4925,11 +4957,14 @@
         <f>IF(ISBLANK(F109), "",INDEX(Roles!A$3:B$1048576,MATCH(F109, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K109" s="3"/>
+      <c r="K109" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I110" s="3"/>
@@ -4937,11 +4972,14 @@
         <f>IF(ISBLANK(F110), "",INDEX(Roles!A$3:B$1048576,MATCH(F110, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K110" s="3"/>
+      <c r="K110" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I111" s="3"/>
@@ -4949,11 +4987,14 @@
         <f>IF(ISBLANK(F111), "",INDEX(Roles!A$3:B$1048576,MATCH(F111, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K111" s="3"/>
+      <c r="K111" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I112" s="3"/>
@@ -4961,11 +5002,14 @@
         <f>IF(ISBLANK(F112), "",INDEX(Roles!A$3:B$1048576,MATCH(F112, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K112" s="3"/>
+      <c r="K112" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I113" s="3"/>
@@ -4973,11 +5017,14 @@
         <f>IF(ISBLANK(F113), "",INDEX(Roles!A$3:B$1048576,MATCH(F113, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K113" s="3"/>
+      <c r="K113" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I114" s="3"/>
@@ -4985,11 +5032,14 @@
         <f>IF(ISBLANK(F114), "",INDEX(Roles!A$3:B$1048576,MATCH(F114, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K114" s="3"/>
+      <c r="K114" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I115" s="3"/>
@@ -4997,11 +5047,14 @@
         <f>IF(ISBLANK(F115), "",INDEX(Roles!A$3:B$1048576,MATCH(F115, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K115" s="3"/>
+      <c r="K115" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I116" s="3"/>
@@ -5009,11 +5062,14 @@
         <f>IF(ISBLANK(F116), "",INDEX(Roles!A$3:B$1048576,MATCH(F116, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K116" s="3"/>
+      <c r="K116" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I117" s="3"/>
@@ -5021,11 +5077,14 @@
         <f>IF(ISBLANK(F117), "",INDEX(Roles!A$3:B$1048576,MATCH(F117, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K117" s="3"/>
+      <c r="K117" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I118" s="3"/>
@@ -5033,11 +5092,14 @@
         <f>IF(ISBLANK(F118), "",INDEX(Roles!A$3:B$1048576,MATCH(F118, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K118" s="3"/>
+      <c r="K118" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I119" s="3"/>
@@ -5045,11 +5107,14 @@
         <f>IF(ISBLANK(F119), "",INDEX(Roles!A$3:B$1048576,MATCH(F119, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K119" s="3"/>
+      <c r="K119" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I120" s="3"/>
@@ -5057,11 +5122,14 @@
         <f>IF(ISBLANK(F120), "",INDEX(Roles!A$3:B$1048576,MATCH(F120, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K120" s="3"/>
+      <c r="K120" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I121" s="3"/>
@@ -5069,11 +5137,14 @@
         <f>IF(ISBLANK(F121), "",INDEX(Roles!A$3:B$1048576,MATCH(F121, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K121" s="3"/>
+      <c r="K121" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I122" s="3"/>
@@ -5081,11 +5152,14 @@
         <f>IF(ISBLANK(F122), "",INDEX(Roles!A$3:B$1048576,MATCH(F122, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K122" s="3"/>
+      <c r="K122" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I123" s="3"/>
@@ -5093,11 +5167,14 @@
         <f>IF(ISBLANK(F123), "",INDEX(Roles!A$3:B$1048576,MATCH(F123, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K123" s="3"/>
+      <c r="K123" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I124" s="3"/>
@@ -5105,11 +5182,14 @@
         <f>IF(ISBLANK(F124), "",INDEX(Roles!A$3:B$1048576,MATCH(F124, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K124" s="3"/>
+      <c r="K124" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I125" s="3"/>
@@ -5117,11 +5197,14 @@
         <f>IF(ISBLANK(F125), "",INDEX(Roles!A$3:B$1048576,MATCH(F125, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K125" s="3"/>
+      <c r="K125" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I126" s="3"/>
@@ -5129,11 +5212,14 @@
         <f>IF(ISBLANK(F126), "",INDEX(Roles!A$3:B$1048576,MATCH(F126, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K126" s="3"/>
+      <c r="K126" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I127" s="3"/>
@@ -5141,11 +5227,14 @@
         <f>IF(ISBLANK(F127), "",INDEX(Roles!A$3:B$1048576,MATCH(F127, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K127" s="3"/>
+      <c r="K127" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I128" s="3"/>
@@ -5153,11 +5242,14 @@
         <f>IF(ISBLANK(F128), "",INDEX(Roles!A$3:B$1048576,MATCH(F128, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K128" s="3"/>
+      <c r="K128" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I129" s="3"/>
@@ -5165,11 +5257,14 @@
         <f>IF(ISBLANK(F129), "",INDEX(Roles!A$3:B$1048576,MATCH(F129, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K129" s="3"/>
+      <c r="K129" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I130" s="3"/>
@@ -5177,10 +5272,14 @@
         <f>IF(ISBLANK(F130), "",INDEX(Roles!A$3:B$1048576,MATCH(F130, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K130" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I131" s="3"/>
@@ -5188,6 +5287,10 @@
         <f>IF(ISBLANK(F131), "",INDEX(Roles!A$3:B$1048576,MATCH(F131, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K131" s="3">
+        <f t="shared" ref="K131:K178" si="6">D131</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="str">
@@ -5199,6 +5302,10 @@
         <f>IF(ISBLANK(F132), "",INDEX(Roles!A$3:B$1048576,MATCH(F132, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K132" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="21" t="str">
@@ -5210,6 +5317,10 @@
         <f>IF(ISBLANK(F133), "",INDEX(Roles!A$3:B$1048576,MATCH(F133, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K133" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="21" t="str">
@@ -5221,6 +5332,10 @@
         <f>IF(ISBLANK(F134), "",INDEX(Roles!A$3:B$1048576,MATCH(F134, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K134" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="str">
@@ -5232,6 +5347,10 @@
         <f>IF(ISBLANK(F135), "",INDEX(Roles!A$3:B$1048576,MATCH(F135, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K135" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="21" t="str">
@@ -5243,6 +5362,10 @@
         <f>IF(ISBLANK(F136), "",INDEX(Roles!A$3:B$1048576,MATCH(F136, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K136" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="21" t="str">
@@ -5254,6 +5377,10 @@
         <f>IF(ISBLANK(F137), "",INDEX(Roles!A$3:B$1048576,MATCH(F137, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K137" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="str">
@@ -5265,6 +5392,10 @@
         <f>IF(ISBLANK(F138), "",INDEX(Roles!A$3:B$1048576,MATCH(F138, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K138" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="21" t="str">
@@ -5276,6 +5407,10 @@
         <f>IF(ISBLANK(F139), "",INDEX(Roles!A$3:B$1048576,MATCH(F139, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K139" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="21" t="str">
@@ -5287,6 +5422,10 @@
         <f>IF(ISBLANK(F140), "",INDEX(Roles!A$3:B$1048576,MATCH(F140, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K140" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="21" t="str">
@@ -5298,6 +5437,10 @@
         <f>IF(ISBLANK(F141), "",INDEX(Roles!A$3:B$1048576,MATCH(F141, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K141" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="21" t="str">
@@ -5309,6 +5452,10 @@
         <f>IF(ISBLANK(F142), "",INDEX(Roles!A$3:B$1048576,MATCH(F142, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K142" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="21" t="str">
@@ -5320,6 +5467,10 @@
         <f>IF(ISBLANK(F143), "",INDEX(Roles!A$3:B$1048576,MATCH(F143, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K143" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="21" t="str">
@@ -5331,8 +5482,12 @@
         <f>IF(ISBLANK(F144), "",INDEX(Roles!A$3:B$1048576,MATCH(F144, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K144" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5342,8 +5497,12 @@
         <f>IF(ISBLANK(F145), "",INDEX(Roles!A$3:B$1048576,MATCH(F145, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K145" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5353,8 +5512,12 @@
         <f>IF(ISBLANK(F146), "",INDEX(Roles!A$3:B$1048576,MATCH(F146, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K146" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5364,8 +5527,12 @@
         <f>IF(ISBLANK(F147), "",INDEX(Roles!A$3:B$1048576,MATCH(F147, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K147" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5375,8 +5542,12 @@
         <f>IF(ISBLANK(F148), "",INDEX(Roles!A$3:B$1048576,MATCH(F148, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K148" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5386,8 +5557,12 @@
         <f>IF(ISBLANK(F149), "",INDEX(Roles!A$3:B$1048576,MATCH(F149, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K149" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5397,8 +5572,12 @@
         <f>IF(ISBLANK(F150), "",INDEX(Roles!A$3:B$1048576,MATCH(F150, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K150" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5408,8 +5587,12 @@
         <f>IF(ISBLANK(F151), "",INDEX(Roles!A$3:B$1048576,MATCH(F151, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K151" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5419,8 +5602,12 @@
         <f>IF(ISBLANK(F152), "",INDEX(Roles!A$3:B$1048576,MATCH(F152, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K152" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5430,8 +5617,12 @@
         <f>IF(ISBLANK(F153), "",INDEX(Roles!A$3:B$1048576,MATCH(F153, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K153" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5441,8 +5632,12 @@
         <f>IF(ISBLANK(F154), "",INDEX(Roles!A$3:B$1048576,MATCH(F154, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K154" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5452,8 +5647,12 @@
         <f>IF(ISBLANK(F155), "",INDEX(Roles!A$3:B$1048576,MATCH(F155, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K155" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5463,8 +5662,12 @@
         <f>IF(ISBLANK(F156), "",INDEX(Roles!A$3:B$1048576,MATCH(F156, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K156" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5474,8 +5677,12 @@
         <f>IF(ISBLANK(F157), "",INDEX(Roles!A$3:B$1048576,MATCH(F157, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K157" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5485,8 +5692,12 @@
         <f>IF(ISBLANK(F158), "",INDEX(Roles!A$3:B$1048576,MATCH(F158, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K158" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5496,8 +5707,12 @@
         <f>IF(ISBLANK(F159), "",INDEX(Roles!A$3:B$1048576,MATCH(F159, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K159" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5507,8 +5722,12 @@
         <f>IF(ISBLANK(F160), "",INDEX(Roles!A$3:B$1048576,MATCH(F160, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K160" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5518,8 +5737,12 @@
         <f>IF(ISBLANK(F161), "",INDEX(Roles!A$3:B$1048576,MATCH(F161, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K161" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5529,8 +5752,12 @@
         <f>IF(ISBLANK(F162), "",INDEX(Roles!A$3:B$1048576,MATCH(F162, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K162" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5540,8 +5767,12 @@
         <f>IF(ISBLANK(F163), "",INDEX(Roles!A$3:B$1048576,MATCH(F163, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K163" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5551,8 +5782,12 @@
         <f>IF(ISBLANK(F164), "",INDEX(Roles!A$3:B$1048576,MATCH(F164, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K164" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5562,8 +5797,12 @@
         <f>IF(ISBLANK(F165), "",INDEX(Roles!A$3:B$1048576,MATCH(F165, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K165" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5573,8 +5812,12 @@
         <f>IF(ISBLANK(F166), "",INDEX(Roles!A$3:B$1048576,MATCH(F166, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K166" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5584,8 +5827,12 @@
         <f>IF(ISBLANK(F167), "",INDEX(Roles!A$3:B$1048576,MATCH(F167, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K167" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5595,8 +5842,12 @@
         <f>IF(ISBLANK(F168), "",INDEX(Roles!A$3:B$1048576,MATCH(F168, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K168" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5606,8 +5857,12 @@
         <f>IF(ISBLANK(F169), "",INDEX(Roles!A$3:B$1048576,MATCH(F169, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K169" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5617,8 +5872,12 @@
         <f>IF(ISBLANK(F170), "",INDEX(Roles!A$3:B$1048576,MATCH(F170, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K170" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5628,8 +5887,12 @@
         <f>IF(ISBLANK(F171), "",INDEX(Roles!A$3:B$1048576,MATCH(F171, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K171" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5639,8 +5902,12 @@
         <f>IF(ISBLANK(F172), "",INDEX(Roles!A$3:B$1048576,MATCH(F172, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K172" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5650,8 +5917,12 @@
         <f>IF(ISBLANK(F173), "",INDEX(Roles!A$3:B$1048576,MATCH(F173, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K173" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5661,8 +5932,12 @@
         <f>IF(ISBLANK(F174), "",INDEX(Roles!A$3:B$1048576,MATCH(F174, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K174" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5672,8 +5947,12 @@
         <f>IF(ISBLANK(F175), "",INDEX(Roles!A$3:B$1048576,MATCH(F175, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K175" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5683,8 +5962,12 @@
         <f>IF(ISBLANK(F176), "",INDEX(Roles!A$3:B$1048576,MATCH(F176, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K176" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5694,8 +5977,12 @@
         <f>IF(ISBLANK(F177), "",INDEX(Roles!A$3:B$1048576,MATCH(F177, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K177" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5705,8 +5992,12 @@
         <f>IF(ISBLANK(F178), "",INDEX(Roles!A$3:B$1048576,MATCH(F178, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K178" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5717,7 +6008,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5728,7 +6019,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5739,7 +6030,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5750,7 +6041,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5761,7 +6052,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5772,7 +6063,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5783,7 +6074,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5794,7 +6085,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5805,7 +6096,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5816,7 +6107,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5827,7 +6118,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5838,7 +6129,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5849,7 +6140,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9142,7 +9433,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="21" t="str">
-        <f t="shared" ref="A452:A515" si="15">IF(AND(ISBLANK(B452),ISBLANK(C452)), "", A451 + 1)</f>
+        <f t="shared" ref="A452:A487" si="15">IF(AND(ISBLANK(B452),ISBLANK(C452)), "", A451 + 1)</f>
         <v/>
       </c>
       <c r="E452" s="6" t="str">
@@ -10598,41 +10889,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <f>IF(ISBLANK(B4), "", A3 + 1)</f>
         <v>2</v>
@@ -10640,74 +10938,77 @@
       <c r="B4" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="str">
         <f t="shared" ref="A5:A41" si="0">IF(ISBLANK(B5), "", A4 + 1)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10886,10 +11187,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -10972,10 +11273,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="19"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -11082,17 +11383,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -11328,10 +11629,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
         <v>1</v>
@@ -11701,10 +12002,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11719,18 +12020,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -11869,6 +12170,11 @@
       <c r="H7" s="1">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 5))</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egorvkimow/Documents/Personal/sbor-bot/resource/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF32498-0648-8648-920D-E88AB812865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C4E25-DE02-2B44-8449-72714712BBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -1069,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M573"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -10820,7 +10820,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10949,11 +10949,11 @@
         <v>168</v>
       </c>
       <c r="B3" s="14">
-        <v>101</v>
-      </c>
-      <c r="F3" s="12" t="e">
+        <v>91</v>
+      </c>
+      <c r="F3" s="12" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>#N/A</v>
+        <v>Владимир Николаевич</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
@@ -10963,11 +10963,11 @@
         <v>169</v>
       </c>
       <c r="B4" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="12" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Пономарев Илья</v>
+        <v>Архипова Лера</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -11259,7 +11259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -11647,7 +11647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egorvkimow/Documents/Personal/sbor-bot/resource/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C4E25-DE02-2B44-8449-72714712BBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51977006-7EA5-6A46-989D-9629F5B51EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -11648,7 +11648,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11717,14 +11717,14 @@
         <v>ДКС</v>
       </c>
       <c r="B4" s="26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Пономарев Илья</v>
+        <v>Архипова Лера</v>
       </c>
       <c r="G4" s="25" t="str">
         <f t="array" ref="G4">IF(ISBLANK(B4), "",INDEX(Squads!$A$3:$D$6, H4, 2))</f>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76592C57-C04D-4605-9C08-C818E873D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A437205-E582-4EDD-AB7B-D316F48F3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -11054,8 +11054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11213,11 +11213,11 @@
         <v>149</v>
       </c>
       <c r="B13" s="6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11" t="str">
         <f>IF(ISBLANK(B13), "",INDEX(People!$A$3:$K$1048576,MATCH(B13, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Данилова Маша</v>
+        <v>Образцова Арина</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11273,11 +11273,11 @@
         <v>155</v>
       </c>
       <c r="B18" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="11" t="str">
         <f>IF(ISBLANK(B18), "",INDEX(People!$A$3:$K$1048576,MATCH(B18, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Таран Максим</v>
+        <v>Архипова Лера</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11442,7 +11442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A437205-E582-4EDD-AB7B-D316F48F3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB9688-666E-4E26-A368-1537AC8131FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -591,9 +591,6 @@
     <t>168 Часов</t>
   </si>
   <si>
-    <t>12-09</t>
-  </si>
-  <si>
     <t>Керосин</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Оля</t>
+  </si>
+  <si>
+    <t>12/09</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="I4" s="3" t="str">
         <f>IF(ISBLANK(E4), "",INDEX(Squads!A$3:B$1048576,MATCH(E4, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>IF(ISBLANK(F4), "",INDEX(Roles!A$3:B$1048576,MATCH(F4, Roles!A$3:A$1048576, 0), 2))</f>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="I8" s="3" t="str">
         <f>IF(ISBLANK(E8), "",INDEX(Squads!A$3:B$1048576,MATCH(E8, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J8" s="3" t="str">
         <f>IF(ISBLANK(F8), "",INDEX(Roles!A$3:B$1048576,MATCH(F8, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="I31" s="3" t="str">
         <f>IF(ISBLANK(E31), "",INDEX(Squads!A$3:B$1048576,MATCH(E31, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J31" s="3" t="str">
         <f>IF(ISBLANK(F31), "",INDEX(Roles!A$3:B$1048576,MATCH(F31, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="I32" s="3" t="str">
         <f>IF(ISBLANK(E32), "",INDEX(Squads!A$3:B$1048576,MATCH(E32, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J32" s="3" t="str">
         <f>IF(ISBLANK(F32), "",INDEX(Roles!A$3:B$1048576,MATCH(F32, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="I33" s="3" t="str">
         <f>IF(ISBLANK(E33), "",INDEX(Squads!A$3:B$1048576,MATCH(E33, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J33" s="3" t="str">
         <f>IF(ISBLANK(F33), "",INDEX(Roles!A$3:B$1048576,MATCH(F33, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="I34" s="3" t="str">
         <f>IF(ISBLANK(E34), "",INDEX(Squads!A$3:B$1048576,MATCH(E34, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J34" s="3" t="str">
         <f>IF(ISBLANK(F34), "",INDEX(Roles!A$3:B$1048576,MATCH(F34, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2272,10 +2272,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="25">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="I35" s="3" t="str">
         <f>IF(ISBLANK(E35), "",INDEX(Squads!A$3:B$1048576,MATCH(E35, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J35" s="3" t="str">
         <f>IF(ISBLANK(F35), "",INDEX(Roles!A$3:B$1048576,MATCH(F35, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2308,10 +2308,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="D36" s="8">
         <v>9314153251</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="I36" s="3" t="str">
         <f>IF(ISBLANK(E36), "",INDEX(Squads!A$3:B$1048576,MATCH(E36, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J36" s="3" t="str">
         <f>IF(ISBLANK(F36), "",INDEX(Roles!A$3:B$1048576,MATCH(F36, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2346,10 +2346,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="25">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="I37" s="3" t="str">
         <f>IF(ISBLANK(E37), "",INDEX(Squads!A$3:B$1048576,MATCH(E37, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J37" s="3" t="str">
         <f>IF(ISBLANK(F37), "",INDEX(Roles!A$3:B$1048576,MATCH(F37, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="I38" s="3" t="str">
         <f>IF(ISBLANK(E38), "",INDEX(Squads!A$3:B$1048576,MATCH(E38, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J38" s="3" t="str">
         <f>IF(ISBLANK(F38), "",INDEX(Roles!A$3:B$1048576,MATCH(F38, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="I39" s="3" t="str">
         <f>IF(ISBLANK(E39), "",INDEX(Squads!A$3:B$1048576,MATCH(E39, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J39" s="3" t="str">
         <f>IF(ISBLANK(F39), "",INDEX(Roles!A$3:B$1048576,MATCH(F39, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="I40" s="3" t="str">
         <f>IF(ISBLANK(E40), "",INDEX(Squads!A$3:B$1048576,MATCH(E40, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J40" s="3" t="str">
         <f>IF(ISBLANK(F40), "",INDEX(Roles!A$3:B$1048576,MATCH(F40, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="I41" s="3" t="str">
         <f>IF(ISBLANK(E41), "",INDEX(Squads!A$3:B$1048576,MATCH(E41, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J41" s="3" t="str">
         <f>IF(ISBLANK(F41), "",INDEX(Roles!A$3:B$1048576,MATCH(F41, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="I42" s="3" t="str">
         <f>IF(ISBLANK(E42), "",INDEX(Squads!A$3:B$1048576,MATCH(E42, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J42" s="3" t="str">
         <f>IF(ISBLANK(F42), "",INDEX(Roles!A$3:B$1048576,MATCH(F42, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="I43" s="3" t="str">
         <f>IF(ISBLANK(E43), "",INDEX(Squads!A$3:B$1048576,MATCH(E43, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J43" s="3" t="str">
         <f>IF(ISBLANK(F43), "",INDEX(Roles!A$3:B$1048576,MATCH(F43, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="I44" s="3" t="str">
         <f>IF(ISBLANK(E44), "",INDEX(Squads!A$3:B$1048576,MATCH(E44, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J44" s="3" t="str">
         <f>IF(ISBLANK(F44), "",INDEX(Roles!A$3:B$1048576,MATCH(F44, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2641,7 +2641,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>89</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="I45" s="3" t="str">
         <f>IF(ISBLANK(E45), "",INDEX(Squads!A$3:B$1048576,MATCH(E45, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J45" s="3" t="str">
         <f>IF(ISBLANK(F45), "",INDEX(Roles!A$3:B$1048576,MATCH(F45, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="I46" s="3" t="str">
         <f>IF(ISBLANK(E46), "",INDEX(Squads!A$3:B$1048576,MATCH(E46, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J46" s="3" t="str">
         <f>IF(ISBLANK(F46), "",INDEX(Roles!A$3:B$1048576,MATCH(F46, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="I47" s="3" t="str">
         <f>IF(ISBLANK(E47), "",INDEX(Squads!A$3:B$1048576,MATCH(E47, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J47" s="3" t="str">
         <f>IF(ISBLANK(F47), "",INDEX(Roles!A$3:B$1048576,MATCH(F47, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="I48" s="3" t="str">
         <f>IF(ISBLANK(E48), "",INDEX(Squads!A$3:B$1048576,MATCH(E48, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J48" s="3" t="str">
         <f>IF(ISBLANK(F48), "",INDEX(Roles!A$3:B$1048576,MATCH(F48, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="I49" s="3" t="str">
         <f>IF(ISBLANK(E49), "",INDEX(Squads!A$3:B$1048576,MATCH(E49, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J49" s="3" t="str">
         <f>IF(ISBLANK(F49), "",INDEX(Roles!A$3:B$1048576,MATCH(F49, Roles!A$3:A$1048576, 0), 2))</f>
@@ -2825,10 +2825,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="I50" s="3" t="str">
         <f>IF(ISBLANK(E50), "",INDEX(Squads!A$3:B$1048576,MATCH(E50, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="J50" s="3" t="str">
         <f>IF(ISBLANK(F50), "",INDEX(Roles!A$3:B$1048576,MATCH(F50, Roles!A$3:A$1048576, 0), 2))</f>
@@ -10808,7 +10808,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10859,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -10882,7 +10882,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -10905,7 +10905,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -11054,8 +11054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11442,8 +11442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11499,14 +11499,14 @@
         <v>ДКС</v>
       </c>
       <c r="B3" s="26">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="25"/>
       <c r="F3" s="24" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Архипова Лера</v>
+        <v>Гурьев Гоша</v>
       </c>
       <c r="G3" s="25" t="str">
         <f t="array" ref="G3">IF(ISBLANK(B3), "",INDEX(Squads!$A$3:$D$6, H3, 2))</f>
@@ -11520,7 +11520,7 @@
         <v>ДКО 'Керосин'</v>
       </c>
       <c r="B4" s="26">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
@@ -11529,7 +11529,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Олексюк Полина</v>
+        <v>Лашова Яна</v>
       </c>
       <c r="G4" s="25" t="str">
         <f t="array" ref="G4">IF(ISBLANK(B4), "",INDEX(Squads!$A$3:$D$6, H4, 2))</f>
@@ -11543,10 +11543,10 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="str">
         <f>IF(ISBLANK(C5), "ДКС", _xlfn.CONCAT("ДКО '", INDEX(Squads!$A$3:$D$6,MATCH(C5, Squads!$A$3:$A$6, 0), 2), "'"))</f>
-        <v>ДКО '12-09'</v>
+        <v>ДКО '12/09'</v>
       </c>
       <c r="B5" s="26">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C5" s="26">
         <v>2</v>
@@ -11555,11 +11555,11 @@
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Мурзин Илья</v>
+        <v>Пономарев Илья</v>
       </c>
       <c r="G5" s="25" t="str">
         <f t="array" ref="G5">IF(ISBLANK(B5), "",INDEX(Squads!$A$3:$D$6, H5, 2))</f>
-        <v>12-09</v>
+        <v>12/09</v>
       </c>
       <c r="H5" s="1">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 5))</f>
@@ -11572,7 +11572,7 @@
         <v>ДКО 'Путеводный'</v>
       </c>
       <c r="B6" s="26">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C6" s="26">
         <v>3</v>
@@ -11581,7 +11581,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="24" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Боговая Лиза</v>
+        <v>Тюпышева Ксюша</v>
       </c>
       <c r="G6" s="25" t="str">
         <f t="array" ref="G6">IF(ISBLANK(B6), "",INDEX(Squads!$A$3:$D$6, H6, 2))</f>
@@ -11598,7 +11598,7 @@
         <v>ДКО '168 Часов'</v>
       </c>
       <c r="B7" s="26">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C7" s="26">
         <v>4</v>
@@ -11607,7 +11607,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="24" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Унгарова Любава</v>
+        <v>Кажарская Лиза</v>
       </c>
       <c r="G7" s="25" t="str">
         <f t="array" ref="G7">IF(ISBLANK(B7), "",INDEX(Squads!$A$3:$D$6, H7, 2))</f>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB9688-666E-4E26-A368-1537AC8131FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA092BA-257D-4C2F-B0E0-712A1B6A6582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="198">
   <si>
     <t>Информация для бота</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Юля</t>
   </si>
   <si>
-    <t>Хинатба</t>
-  </si>
-  <si>
     <t>Орлова</t>
   </si>
   <si>
@@ -625,6 +622,15 @@
   </si>
   <si>
     <t>12/09</t>
+  </si>
+  <si>
+    <t>Неумоина</t>
+  </si>
+  <si>
+    <t>Соня</t>
+  </si>
+  <si>
+    <t>Хинтба</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -709,6 +715,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M569"/>
+  <dimension ref="A1:M570"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,21 +1045,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1105,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="20" t="str">
-        <f t="shared" ref="H3:H56" si="0">IF(AND(ISBLANK(B3),ISBLANK(C3)), "",TRIM(_xlfn.CONCAT($B3," ",$C3)))</f>
+        <f t="shared" ref="H3:H57" si="0">IF(AND(ISBLANK(B3),ISBLANK(C3)), "",TRIM(_xlfn.CONCAT($B3," ",$C3)))</f>
         <v>Булыгин Антон</v>
       </c>
       <c r="I3" s="3" t="str">
@@ -1117,13 +1126,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K56" si="1">D3</f>
+        <f t="shared" ref="K3:K57" si="1">D3</f>
         <v>9021935635</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A64" si="2">IF(AND(ISBLANK(B4),ISBLANK(C4)), "", A3 + 1)</f>
+        <f t="shared" ref="A4:A67" si="2">IF(AND(ISBLANK(B4),ISBLANK(C4)), "", A3 + 1)</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1602,7 +1611,7 @@
         <v>9115670597</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1639,7 +1648,7 @@
         <v>9021950338</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1676,7 +1685,7 @@
         <v>9062855831</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1713,7 +1722,7 @@
         <v>9115922511</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1750,7 +1759,7 @@
         <v>9214735352</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1787,7 +1796,7 @@
         <v>9502540282</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1824,7 +1833,7 @@
         <v>9523079564</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1861,7 +1870,7 @@
         <v>9214921578</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1898,7 +1907,7 @@
         <v>9657317424</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1935,7 +1944,7 @@
         <v>9626609766</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1972,7 +1981,7 @@
         <v>9095564124</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2009,7 +2018,7 @@
         <v>9815549422</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -2046,29 +2055,27 @@
         <v>9600041442</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+    <row r="29" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="8">
-        <v>9626620852</v>
-      </c>
-      <c r="E29">
+        <v>195</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="29">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="29">
         <v>2</v>
       </c>
-      <c r="H29" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Шитикова Аня</v>
+      <c r="H29" s="28" t="str">
+        <f t="shared" ref="H29" si="3">IF(AND(ISBLANK(B29),ISBLANK(C29)), "",TRIM(_xlfn.CONCAT($B29," ",$C29)))</f>
+        <v>Неумоина Соня</v>
       </c>
       <c r="I29" s="3" t="str">
         <f>IF(ISBLANK(E29), "",INDEX(Squads!A$3:B$1048576,MATCH(E29, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2079,22 +2086,25 @@
         <v>Участник</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="1"/>
-        <v>9626620852</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+        <f t="shared" ref="K29" si="4">D29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D30" s="8">
+        <v>9626620852</v>
+      </c>
       <c r="E30">
         <v>1</v>
       </c>
@@ -2103,7 +2113,7 @@
       </c>
       <c r="H30" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Вологдина Катя</v>
+        <v>Шитикова Аня</v>
       </c>
       <c r="I30" s="3" t="str">
         <f>IF(ISBLANK(E30), "",INDEX(Squads!A$3:B$1048576,MATCH(E30, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2115,59 +2125,57 @@
       </c>
       <c r="K30" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+        <v>9626620852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="8">
-        <v>9600077240</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>2</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
       </c>
       <c r="H31" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Романенко Влада</v>
+        <v>Вологдина Катя</v>
       </c>
       <c r="I31" s="3" t="str">
         <f>IF(ISBLANK(E31), "",INDEX(Squads!A$3:B$1048576,MATCH(E31, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12/09</v>
+        <v>Керосин</v>
       </c>
       <c r="J31" s="3" t="str">
         <f>IF(ISBLANK(F31), "",INDEX(Roles!A$3:B$1048576,MATCH(F31, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Вожатый</v>
+        <v>Участник</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="1"/>
-        <v>9600077240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D32" s="8">
-        <v>9027080210</v>
+        <v>9600077240</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2177,7 +2185,7 @@
       </c>
       <c r="H32" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Архипова Лера</v>
+        <v>Романенко Влада</v>
       </c>
       <c r="I32" s="3" t="str">
         <f>IF(ISBLANK(E32), "",INDEX(Squads!A$3:B$1048576,MATCH(E32, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2189,7 +2197,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="1"/>
-        <v>9027080210</v>
+        <v>9600077240</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,23 +2206,23 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D33" s="8">
-        <v>9991460009</v>
+        <v>9027080210</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Пономарев Илья</v>
+        <v>Архипова Лера</v>
       </c>
       <c r="I33" s="3" t="str">
         <f>IF(ISBLANK(E33), "",INDEX(Squads!A$3:B$1048576,MATCH(E33, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2222,11 +2230,11 @@
       </c>
       <c r="J33" s="3" t="str">
         <f>IF(ISBLANK(F33), "",INDEX(Roles!A$3:B$1048576,MATCH(F33, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Участник</v>
+        <v>Вожатый</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>9991460009</v>
+        <v>9027080210</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2235,13 +2243,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D34" s="8">
-        <v>9052936055</v>
+        <v>9991460009</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2251,7 +2259,7 @@
       </c>
       <c r="H34" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Доценко Егор</v>
+        <v>Пономарев Илья</v>
       </c>
       <c r="I34" s="3" t="str">
         <f>IF(ISBLANK(E34), "",INDEX(Squads!A$3:B$1048576,MATCH(E34, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2263,30 +2271,32 @@
       </c>
       <c r="K34" s="3">
         <f t="shared" si="1"/>
-        <v>9052936055</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9991460009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="25">
+        <v>65</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="8">
+        <v>9052936055</v>
+      </c>
+      <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="H35" s="24" t="str">
+      <c r="H35" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Таран Максим</v>
+        <v>Доценко Егор</v>
       </c>
       <c r="I35" s="3" t="str">
         <f>IF(ISBLANK(E35), "",INDEX(Squads!A$3:B$1048576,MATCH(E35, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2298,9 +2308,8 @@
       </c>
       <c r="K35" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="3"/>
+        <v>9052936055</v>
+      </c>
     </row>
     <row r="36" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
@@ -2308,14 +2317,12 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="8">
-        <v>9314153251</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="25">
         <v>2</v>
       </c>
@@ -2323,8 +2330,8 @@
         <v>2</v>
       </c>
       <c r="H36" s="24" t="str">
-        <f t="shared" ref="H36" si="3">IF(AND(ISBLANK(B36),ISBLANK(C36)), "",TRIM(_xlfn.CONCAT($B36," ",$C36)))</f>
-        <v>Первышин Андрей</v>
+        <f t="shared" si="0"/>
+        <v>Таран Максим</v>
       </c>
       <c r="I36" s="3" t="str">
         <f>IF(ISBLANK(E36), "",INDEX(Squads!A$3:B$1048576,MATCH(E36, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2335,8 +2342,8 @@
         <v>Участник</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" ref="K36" si="4">D36</f>
-        <v>9314153251</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M36" s="3"/>
     </row>
@@ -2346,12 +2353,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>190</v>
+      </c>
+      <c r="D37" s="8">
+        <v>9314153251</v>
+      </c>
       <c r="E37" s="25">
         <v>2</v>
       </c>
@@ -2360,7 +2369,7 @@
       </c>
       <c r="H37" s="24" t="str">
         <f t="shared" ref="H37" si="5">IF(AND(ISBLANK(B37),ISBLANK(C37)), "",TRIM(_xlfn.CONCAT($B37," ",$C37)))</f>
-        <v>Соколов Иван</v>
+        <v>Первышин Андрей</v>
       </c>
       <c r="I37" s="3" t="str">
         <f>IF(ISBLANK(E37), "",INDEX(Squads!A$3:B$1048576,MATCH(E37, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2372,33 +2381,31 @@
       </c>
       <c r="K37" s="3">
         <f t="shared" ref="K37" si="6">D37</f>
-        <v>0</v>
+        <v>9314153251</v>
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="8">
-        <v>9116573329</v>
-      </c>
-      <c r="E38">
+        <v>185</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="25">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="25">
         <v>2</v>
       </c>
-      <c r="H38" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Вторушин Ярослав</v>
+      <c r="H38" s="24" t="str">
+        <f t="shared" ref="H38" si="7">IF(AND(ISBLANK(B38),ISBLANK(C38)), "",TRIM(_xlfn.CONCAT($B38," ",$C38)))</f>
+        <v>Соколов Иван</v>
       </c>
       <c r="I38" s="3" t="str">
         <f>IF(ISBLANK(E38), "",INDEX(Squads!A$3:B$1048576,MATCH(E38, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2409,9 +2416,10 @@
         <v>Участник</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="1"/>
-        <v>9116573329</v>
-      </c>
+        <f t="shared" ref="K38" si="8">D38</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
@@ -2419,13 +2427,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="8">
-        <v>9116869084</v>
+        <v>9116573329</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2435,7 +2443,7 @@
       </c>
       <c r="H39" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Семушин Лев</v>
+        <v>Вторушин Ярослав</v>
       </c>
       <c r="I39" s="3" t="str">
         <f>IF(ISBLANK(E39), "",INDEX(Squads!A$3:B$1048576,MATCH(E39, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2447,7 +2455,7 @@
       </c>
       <c r="K39" s="3">
         <f t="shared" si="1"/>
-        <v>9116869084</v>
+        <v>9116573329</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2456,13 +2464,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D40" s="8">
-        <v>9009136809</v>
+        <v>9116869084</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2472,7 +2480,7 @@
       </c>
       <c r="H40" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Полозов Егор</v>
+        <v>Семушин Лев</v>
       </c>
       <c r="I40" s="3" t="str">
         <f>IF(ISBLANK(E40), "",INDEX(Squads!A$3:B$1048576,MATCH(E40, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2484,7 +2492,7 @@
       </c>
       <c r="K40" s="3">
         <f t="shared" si="1"/>
-        <v>9009136809</v>
+        <v>9116869084</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,13 +2501,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D41" s="8">
-        <v>9657329507</v>
+        <v>9009136809</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2509,7 +2517,7 @@
       </c>
       <c r="H41" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Дроздов Даня</v>
+        <v>Полозов Егор</v>
       </c>
       <c r="I41" s="3" t="str">
         <f>IF(ISBLANK(E41), "",INDEX(Squads!A$3:B$1048576,MATCH(E41, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2521,7 +2529,7 @@
       </c>
       <c r="K41" s="3">
         <f t="shared" si="1"/>
-        <v>9657329507</v>
+        <v>9009136809</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,13 +2538,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D42" s="8">
-        <v>9522545149</v>
+        <v>9657329507</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2546,7 +2554,7 @@
       </c>
       <c r="H42" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Евтушенко Юля</v>
+        <v>Дроздов Даня</v>
       </c>
       <c r="I42" s="3" t="str">
         <f>IF(ISBLANK(E42), "",INDEX(Squads!A$3:B$1048576,MATCH(E42, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2558,7 +2566,7 @@
       </c>
       <c r="K42" s="3">
         <f t="shared" si="1"/>
-        <v>9522545149</v>
+        <v>9657329507</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,13 +2575,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D43" s="8">
-        <v>9539315895</v>
+        <v>9522545149</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2583,7 +2591,7 @@
       </c>
       <c r="H43" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Хинатба Алина</v>
+        <v>Евтушенко Юля</v>
       </c>
       <c r="I43" s="3" t="str">
         <f>IF(ISBLANK(E43), "",INDEX(Squads!A$3:B$1048576,MATCH(E43, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2595,7 +2603,7 @@
       </c>
       <c r="K43" s="3">
         <f t="shared" si="1"/>
-        <v>9539315895</v>
+        <v>9522545149</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,13 +2612,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D44" s="8">
-        <v>9314145713</v>
+        <v>9539315895</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -2620,7 +2628,7 @@
       </c>
       <c r="H44" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Орлова Алёна</v>
+        <v>Хинтба Алина</v>
       </c>
       <c r="I44" s="3" t="str">
         <f>IF(ISBLANK(E44), "",INDEX(Squads!A$3:B$1048576,MATCH(E44, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2632,30 +2640,32 @@
       </c>
       <c r="K44" s="3">
         <f t="shared" si="1"/>
-        <v>9314145713</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9539315895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="25">
+        <v>75</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="8">
+        <v>9314145713</v>
+      </c>
+      <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45">
         <v>2</v>
       </c>
-      <c r="H45" s="24" t="str">
-        <f t="shared" ref="H45" si="7">IF(AND(ISBLANK(B45),ISBLANK(C45)), "",TRIM(_xlfn.CONCAT($B45," ",$C45)))</f>
-        <v>Жуматий Ира</v>
+      <c r="H45" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Орлова Алёна</v>
       </c>
       <c r="I45" s="3" t="str">
         <f>IF(ISBLANK(E45), "",INDEX(Squads!A$3:B$1048576,MATCH(E45, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2666,34 +2676,31 @@
         <v>Участник</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" ref="K45" si="8">D45</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9314145713</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="8">
-        <v>9502506035</v>
-      </c>
-      <c r="E46">
+        <v>191</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="25">
         <v>2</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="25">
         <v>2</v>
       </c>
-      <c r="H46" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Ульянова Саша</v>
+      <c r="H46" s="24" t="str">
+        <f t="shared" ref="H46" si="9">IF(AND(ISBLANK(B46),ISBLANK(C46)), "",TRIM(_xlfn.CONCAT($B46," ",$C46)))</f>
+        <v>Жуматий Ира</v>
       </c>
       <c r="I46" s="3" t="str">
         <f>IF(ISBLANK(E46), "",INDEX(Squads!A$3:B$1048576,MATCH(E46, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2704,9 +2711,10 @@
         <v>Участник</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="1"/>
-        <v>9502506035</v>
-      </c>
+        <f t="shared" ref="K46" si="10">D46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
@@ -2714,13 +2722,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="8">
-        <v>9210890586</v>
+        <v>9502506035</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2730,7 +2738,7 @@
       </c>
       <c r="H47" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Голдина Саша</v>
+        <v>Ульянова Саша</v>
       </c>
       <c r="I47" s="3" t="str">
         <f>IF(ISBLANK(E47), "",INDEX(Squads!A$3:B$1048576,MATCH(E47, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2742,7 +2750,7 @@
       </c>
       <c r="K47" s="3">
         <f t="shared" si="1"/>
-        <v>9210890586</v>
+        <v>9502506035</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2751,13 +2759,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D48" s="8">
-        <v>9009120532</v>
+        <v>9210890586</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2767,7 +2775,7 @@
       </c>
       <c r="H48" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Куприяник Аня</v>
+        <v>Голдина Саша</v>
       </c>
       <c r="I48" s="3" t="str">
         <f>IF(ISBLANK(E48), "",INDEX(Squads!A$3:B$1048576,MATCH(E48, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2779,7 +2787,7 @@
       </c>
       <c r="K48" s="3">
         <f t="shared" si="1"/>
-        <v>9009120532</v>
+        <v>9210890586</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2788,13 +2796,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D49" s="8">
-        <v>9502537642</v>
+        <v>9009120532</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -2804,7 +2812,7 @@
       </c>
       <c r="H49" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Кунец Алина</v>
+        <v>Куприяник Аня</v>
       </c>
       <c r="I49" s="3" t="str">
         <f>IF(ISBLANK(E49), "",INDEX(Squads!A$3:B$1048576,MATCH(E49, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2816,7 +2824,7 @@
       </c>
       <c r="K49" s="3">
         <f t="shared" si="1"/>
-        <v>9502537642</v>
+        <v>9009120532</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2825,12 +2833,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D50" s="8">
+        <v>9502537642</v>
+      </c>
       <c r="E50">
         <v>2</v>
       </c>
@@ -2839,7 +2849,7 @@
       </c>
       <c r="H50" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Кучеренкова Оля</v>
+        <v>Кунец Алина</v>
       </c>
       <c r="I50" s="3" t="str">
         <f>IF(ISBLANK(E50), "",INDEX(Squads!A$3:B$1048576,MATCH(E50, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2851,7 +2861,7 @@
       </c>
       <c r="K50" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9502537642</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2860,35 +2870,33 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="8">
-        <v>9021982289</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D51" s="8"/>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Семьин Миша</v>
+        <v>Кучеренкова Оля</v>
       </c>
       <c r="I51" s="3" t="str">
         <f>IF(ISBLANK(E51), "",INDEX(Squads!A$3:B$1048576,MATCH(E51, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>Путеводный</v>
+        <v>12/09</v>
       </c>
       <c r="J51" s="3" t="str">
         <f>IF(ISBLANK(F51), "",INDEX(Roles!A$3:B$1048576,MATCH(F51, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Вожатый</v>
+        <v>Участник</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" si="1"/>
-        <v>9021982289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2897,13 +2905,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D52" s="8">
-        <v>9210787810</v>
+        <v>9021982289</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -2913,7 +2921,7 @@
       </c>
       <c r="H52" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Северьянова Юля</v>
+        <v>Семьин Миша</v>
       </c>
       <c r="I52" s="3" t="str">
         <f>IF(ISBLANK(E52), "",INDEX(Squads!A$3:B$1048576,MATCH(E52, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2925,7 +2933,7 @@
       </c>
       <c r="K52" s="3">
         <f t="shared" si="1"/>
-        <v>9210787810</v>
+        <v>9021982289</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2934,13 +2942,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D53" s="8">
-        <v>9600036043</v>
+        <v>9210787810</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -2950,7 +2958,7 @@
       </c>
       <c r="H53" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Чаусова Катя</v>
+        <v>Северьянова Юля</v>
       </c>
       <c r="I53" s="3" t="str">
         <f>IF(ISBLANK(E53), "",INDEX(Squads!A$3:B$1048576,MATCH(E53, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2962,7 +2970,7 @@
       </c>
       <c r="K53" s="3">
         <f t="shared" si="1"/>
-        <v>9600036043</v>
+        <v>9210787810</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2971,13 +2979,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D54" s="8">
-        <v>9025073259</v>
+        <v>9600036043</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -2987,7 +2995,7 @@
       </c>
       <c r="H54" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Карамышева Ира</v>
+        <v>Чаусова Катя</v>
       </c>
       <c r="I54" s="3" t="str">
         <f>IF(ISBLANK(E54), "",INDEX(Squads!A$3:B$1048576,MATCH(E54, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2999,7 +3007,7 @@
       </c>
       <c r="K54" s="3">
         <f t="shared" si="1"/>
-        <v>9025073259</v>
+        <v>9600036043</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3008,13 +3016,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D55" s="8">
-        <v>9626624368</v>
+        <v>9025073259</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -3024,7 +3032,7 @@
       </c>
       <c r="H55" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Кескюль Лина</v>
+        <v>Карамышева Ира</v>
       </c>
       <c r="I55" s="3" t="str">
         <f>IF(ISBLANK(E55), "",INDEX(Squads!A$3:B$1048576,MATCH(E55, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3036,7 +3044,7 @@
       </c>
       <c r="K55" s="3">
         <f t="shared" si="1"/>
-        <v>9626624368</v>
+        <v>9025073259</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3045,23 +3053,23 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="10">
-        <v>9532677435</v>
+        <v>90</v>
+      </c>
+      <c r="D56" s="8">
+        <v>9626624368</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Азановский Илья</v>
+        <v>Кескюль Лина</v>
       </c>
       <c r="I56" s="3" t="str">
         <f>IF(ISBLANK(E56), "",INDEX(Squads!A$3:B$1048576,MATCH(E56, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3069,11 +3077,11 @@
       </c>
       <c r="J56" s="3" t="str">
         <f>IF(ISBLANK(F56), "",INDEX(Roles!A$3:B$1048576,MATCH(F56, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Участник</v>
+        <v>Вожатый</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" si="1"/>
-        <v>9532677435</v>
+        <v>9626624368</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3082,13 +3090,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="10">
-        <v>9116851539</v>
+        <v>9532677435</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -3097,8 +3105,8 @@
         <v>2</v>
       </c>
       <c r="H57" s="20" t="str">
-        <f t="shared" ref="H57:H88" si="9">IF(AND(ISBLANK(B57),ISBLANK(C57)), "",TRIM(_xlfn.CONCAT($B57," ",$C57)))</f>
-        <v>Десятков Илья</v>
+        <f t="shared" si="0"/>
+        <v>Азановский Илья</v>
       </c>
       <c r="I57" s="3" t="str">
         <f>IF(ISBLANK(E57), "",INDEX(Squads!A$3:B$1048576,MATCH(E57, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3109,8 +3117,8 @@
         <v>Участник</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" ref="K57:K116" si="10">D57</f>
-        <v>9116851539</v>
+        <f t="shared" si="1"/>
+        <v>9532677435</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,13 +3127,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D58" s="10">
-        <v>9600007061</v>
+        <v>9116851539</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -3134,8 +3142,8 @@
         <v>2</v>
       </c>
       <c r="H58" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Нуромский Саша</v>
+        <f t="shared" ref="H58:H89" si="11">IF(AND(ISBLANK(B58),ISBLANK(C58)), "",TRIM(_xlfn.CONCAT($B58," ",$C58)))</f>
+        <v>Десятков Илья</v>
       </c>
       <c r="I58" s="3" t="str">
         <f>IF(ISBLANK(E58), "",INDEX(Squads!A$3:B$1048576,MATCH(E58, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3146,8 +3154,8 @@
         <v>Участник</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="10"/>
-        <v>9600007061</v>
+        <f t="shared" ref="K58:K117" si="12">D58</f>
+        <v>9116851539</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3156,13 +3164,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D59" s="10">
-        <v>9118785661</v>
+        <v>9600007061</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -3171,8 +3179,8 @@
         <v>2</v>
       </c>
       <c r="H59" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Лобанов Антон</v>
+        <f t="shared" si="11"/>
+        <v>Нуромский Саша</v>
       </c>
       <c r="I59" s="3" t="str">
         <f>IF(ISBLANK(E59), "",INDEX(Squads!A$3:B$1048576,MATCH(E59, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3183,8 +3191,8 @@
         <v>Участник</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="10"/>
-        <v>9118785661</v>
+        <f t="shared" si="12"/>
+        <v>9600007061</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3193,13 +3201,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D60" s="10">
-        <v>9642900185</v>
+        <v>9118785661</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -3208,8 +3216,8 @@
         <v>2</v>
       </c>
       <c r="H60" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Солопов Артём</v>
+        <f t="shared" si="11"/>
+        <v>Лобанов Антон</v>
       </c>
       <c r="I60" s="3" t="str">
         <f>IF(ISBLANK(E60), "",INDEX(Squads!A$3:B$1048576,MATCH(E60, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3220,8 +3228,8 @@
         <v>Участник</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="10"/>
-        <v>9642900185</v>
+        <f t="shared" si="12"/>
+        <v>9118785661</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3230,13 +3238,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D61" s="10">
-        <v>9600090480</v>
+        <v>9642900185</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -3245,8 +3253,8 @@
         <v>2</v>
       </c>
       <c r="H61" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Тюпышев Матвей</v>
+        <f t="shared" si="11"/>
+        <v>Солопов Артём</v>
       </c>
       <c r="I61" s="3" t="str">
         <f>IF(ISBLANK(E61), "",INDEX(Squads!A$3:B$1048576,MATCH(E61, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3257,8 +3265,8 @@
         <v>Участник</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="10"/>
-        <v>9600090480</v>
+        <f t="shared" si="12"/>
+        <v>9642900185</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3267,13 +3275,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D62" s="10">
-        <v>9210723677</v>
+        <v>9600090480</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -3282,8 +3290,8 @@
         <v>2</v>
       </c>
       <c r="H62" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Бабуль Кирилл</v>
+        <f t="shared" si="11"/>
+        <v>Тюпышев Матвей</v>
       </c>
       <c r="I62" s="3" t="str">
         <f>IF(ISBLANK(E62), "",INDEX(Squads!A$3:B$1048576,MATCH(E62, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3294,8 +3302,8 @@
         <v>Участник</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="10"/>
-        <v>9210723677</v>
+        <f t="shared" si="12"/>
+        <v>9600090480</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3304,13 +3312,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D63" s="10">
-        <v>9532632864</v>
+        <v>9210723677</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -3319,8 +3327,8 @@
         <v>2</v>
       </c>
       <c r="H63" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Чаусов Данил</v>
+        <f t="shared" si="11"/>
+        <v>Бабуль Кирилл</v>
       </c>
       <c r="I63" s="3" t="str">
         <f>IF(ISBLANK(E63), "",INDEX(Squads!A$3:B$1048576,MATCH(E63, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3331,8 +3339,8 @@
         <v>Участник</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="10"/>
-        <v>9532632864</v>
+        <f t="shared" si="12"/>
+        <v>9210723677</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3341,13 +3349,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D64" s="10">
-        <v>9600133311</v>
+        <v>9532632864</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -3356,8 +3364,8 @@
         <v>2</v>
       </c>
       <c r="H64" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Федоренко Даша</v>
+        <f t="shared" si="11"/>
+        <v>Чаусов Данил</v>
       </c>
       <c r="I64" s="3" t="str">
         <f>IF(ISBLANK(E64), "",INDEX(Squads!A$3:B$1048576,MATCH(E64, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3368,23 +3376,23 @@
         <v>Участник</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="10"/>
-        <v>9600133311</v>
+        <f t="shared" si="12"/>
+        <v>9532632864</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
-        <f t="shared" ref="A65:A90" si="11">IF(AND(ISBLANK(B65),ISBLANK(C65)), "", A64 + 1)</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D65" s="10">
-        <v>9115730722</v>
+        <v>9600133311</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -3393,8 +3401,8 @@
         <v>2</v>
       </c>
       <c r="H65" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Тюпышева Ксюша</v>
+        <f t="shared" si="11"/>
+        <v>Федоренко Даша</v>
       </c>
       <c r="I65" s="3" t="str">
         <f>IF(ISBLANK(E65), "",INDEX(Squads!A$3:B$1048576,MATCH(E65, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3405,23 +3413,23 @@
         <v>Участник</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="10"/>
-        <v>9115730722</v>
+        <f t="shared" si="12"/>
+        <v>9600133311</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A66:A91" si="13">IF(AND(ISBLANK(B66),ISBLANK(C66)), "", A65 + 1)</f>
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D66" s="10">
-        <v>9115667093</v>
+        <v>9115730722</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -3430,8 +3438,8 @@
         <v>2</v>
       </c>
       <c r="H66" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Прокопьева Маша</v>
+        <f t="shared" si="11"/>
+        <v>Тюпышева Ксюша</v>
       </c>
       <c r="I66" s="3" t="str">
         <f>IF(ISBLANK(E66), "",INDEX(Squads!A$3:B$1048576,MATCH(E66, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3442,23 +3450,23 @@
         <v>Участник</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v>9115730722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26">
+        <f t="shared" si="13"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="10">
         <v>9115667093</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27">
-        <f t="shared" si="11"/>
-        <v>65</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="10">
-        <v>9214888784</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -3467,8 +3475,8 @@
         <v>2</v>
       </c>
       <c r="H67" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Крутикова Полина</v>
+        <f t="shared" si="11"/>
+        <v>Прокопьева Маша</v>
       </c>
       <c r="I67" s="3" t="str">
         <f>IF(ISBLANK(E67), "",INDEX(Squads!A$3:B$1048576,MATCH(E67, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3479,23 +3487,23 @@
         <v>Участник</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="10"/>
-        <v>9214888784</v>
+        <f t="shared" si="12"/>
+        <v>9115667093</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D68" s="10">
-        <v>9539361130</v>
+        <v>9214888784</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -3504,8 +3512,8 @@
         <v>2</v>
       </c>
       <c r="H68" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Понасенкова Вероника</v>
+        <f t="shared" si="11"/>
+        <v>Крутикова Полина</v>
       </c>
       <c r="I68" s="3" t="str">
         <f>IF(ISBLANK(E68), "",INDEX(Squads!A$3:B$1048576,MATCH(E68, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3516,23 +3524,23 @@
         <v>Участник</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="10"/>
-        <v>9539361130</v>
+        <f t="shared" si="12"/>
+        <v>9214888784</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D69" s="10">
-        <v>9532649499</v>
+        <v>9539361130</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3541,8 +3549,8 @@
         <v>2</v>
       </c>
       <c r="H69" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Натахина Алёна</v>
+        <f t="shared" si="11"/>
+        <v>Понасенкова Вероника</v>
       </c>
       <c r="I69" s="3" t="str">
         <f>IF(ISBLANK(E69), "",INDEX(Squads!A$3:B$1048576,MATCH(E69, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3553,23 +3561,23 @@
         <v>Участник</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="10"/>
-        <v>9532649499</v>
+        <f t="shared" si="12"/>
+        <v>9539361130</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D70" s="10">
-        <v>9539314404</v>
+        <v>9532649499</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -3578,8 +3586,8 @@
         <v>2</v>
       </c>
       <c r="H70" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Дьячкова Арина</v>
+        <f t="shared" si="11"/>
+        <v>Натахина Алёна</v>
       </c>
       <c r="I70" s="3" t="str">
         <f>IF(ISBLANK(E70), "",INDEX(Squads!A$3:B$1048576,MATCH(E70, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3590,23 +3598,23 @@
         <v>Участник</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="10"/>
-        <v>9539314404</v>
+        <f t="shared" si="12"/>
+        <v>9532649499</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D71" s="10">
-        <v>9115803941</v>
+        <v>9539314404</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -3615,8 +3623,8 @@
         <v>2</v>
       </c>
       <c r="H71" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Проценко Дарья</v>
+        <f t="shared" si="11"/>
+        <v>Дьячкова Арина</v>
       </c>
       <c r="I71" s="3" t="str">
         <f>IF(ISBLANK(E71), "",INDEX(Squads!A$3:B$1048576,MATCH(E71, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3627,60 +3635,60 @@
         <v>Участник</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v>9539314404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="27">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="10">
         <v>9115803941</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="H72" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="8">
-        <v>9210859610</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="H72" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Савинкина Лиза</v>
+        <v>Проценко Дарья</v>
       </c>
       <c r="I72" s="3" t="str">
         <f>IF(ISBLANK(E72), "",INDEX(Squads!A$3:B$1048576,MATCH(E72, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>168 Часов</v>
+        <v>Путеводный</v>
       </c>
       <c r="J72" s="3" t="str">
         <f>IF(ISBLANK(F72), "",INDEX(Roles!A$3:B$1048576,MATCH(F72, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Вожатый</v>
+        <v>Участник</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v>9115803941</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="27">
+        <f t="shared" si="13"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="8">
         <v>9210859610</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="26">
-        <f t="shared" si="11"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="8">
-        <v>9210815080</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -3689,8 +3697,8 @@
         <v>1</v>
       </c>
       <c r="H73" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Коробова Ксюша</v>
+        <f t="shared" si="11"/>
+        <v>Савинкина Лиза</v>
       </c>
       <c r="I73" s="3" t="str">
         <f>IF(ISBLANK(E73), "",INDEX(Squads!A$3:B$1048576,MATCH(E73, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3701,23 +3709,23 @@
         <v>Вожатый</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="10"/>
-        <v>9210815080</v>
+        <f t="shared" si="12"/>
+        <v>9210859610</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D74" s="8">
-        <v>9969214573</v>
+        <v>9210815080</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -3726,8 +3734,8 @@
         <v>1</v>
       </c>
       <c r="H74" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Варзина Настя</v>
+        <f t="shared" si="11"/>
+        <v>Коробова Ксюша</v>
       </c>
       <c r="I74" s="3" t="str">
         <f>IF(ISBLANK(E74), "",INDEX(Squads!A$3:B$1048576,MATCH(E74, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3738,23 +3746,23 @@
         <v>Вожатый</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="10"/>
-        <v>9969214573</v>
+        <f t="shared" si="12"/>
+        <v>9210815080</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D75" s="8">
-        <v>9115800840</v>
+        <v>9969214573</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -3763,8 +3771,8 @@
         <v>1</v>
       </c>
       <c r="H75" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Михайлов Кирилл</v>
+        <f t="shared" si="11"/>
+        <v>Варзина Настя</v>
       </c>
       <c r="I75" s="3" t="str">
         <f>IF(ISBLANK(E75), "",INDEX(Squads!A$3:B$1048576,MATCH(E75, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3775,33 +3783,33 @@
         <v>Вожатый</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="10"/>
-        <v>9115800840</v>
+        <f t="shared" si="12"/>
+        <v>9969214573</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D76" s="8">
-        <v>9969216837</v>
+        <v>9115800840</v>
       </c>
       <c r="E76">
         <v>4</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Юрьев Кирилл</v>
+        <f t="shared" si="11"/>
+        <v>Михайлов Кирилл</v>
       </c>
       <c r="I76" s="3" t="str">
         <f>IF(ISBLANK(E76), "",INDEX(Squads!A$3:B$1048576,MATCH(E76, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3809,26 +3817,26 @@
       </c>
       <c r="J76" s="3" t="str">
         <f>IF(ISBLANK(F76), "",INDEX(Roles!A$3:B$1048576,MATCH(F76, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Участник</v>
+        <v>Вожатый</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="10"/>
-        <v>9969216837</v>
+        <f t="shared" si="12"/>
+        <v>9115800840</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D77" s="8">
-        <v>9626649990</v>
+        <v>9969216837</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -3837,8 +3845,8 @@
         <v>2</v>
       </c>
       <c r="H77" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Сынчиков Никита</v>
+        <f t="shared" si="11"/>
+        <v>Юрьев Кирилл</v>
       </c>
       <c r="I77" s="3" t="str">
         <f>IF(ISBLANK(E77), "",INDEX(Squads!A$3:B$1048576,MATCH(E77, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3849,23 +3857,23 @@
         <v>Участник</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="10"/>
-        <v>9626649990</v>
+        <f t="shared" si="12"/>
+        <v>9969216837</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D78" s="8">
-        <v>9009203089</v>
+        <v>9626649990</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -3874,8 +3882,8 @@
         <v>2</v>
       </c>
       <c r="H78" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Веселков Матвей</v>
+        <f t="shared" si="11"/>
+        <v>Сынчиков Никита</v>
       </c>
       <c r="I78" s="3" t="str">
         <f>IF(ISBLANK(E78), "",INDEX(Squads!A$3:B$1048576,MATCH(E78, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3886,23 +3894,23 @@
         <v>Участник</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="10"/>
-        <v>9009203089</v>
+        <f t="shared" si="12"/>
+        <v>9626649990</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D79" s="8">
-        <v>9022854509</v>
+        <v>9009203089</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3911,8 +3919,8 @@
         <v>2</v>
       </c>
       <c r="H79" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Сумароков Саша</v>
+        <f t="shared" si="11"/>
+        <v>Веселков Матвей</v>
       </c>
       <c r="I79" s="3" t="str">
         <f>IF(ISBLANK(E79), "",INDEX(Squads!A$3:B$1048576,MATCH(E79, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3923,23 +3931,23 @@
         <v>Участник</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="10"/>
-        <v>9022854509</v>
+        <f t="shared" si="12"/>
+        <v>9009203089</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="D80" s="8">
-        <v>9110581233</v>
+        <v>9022854509</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3948,8 +3956,8 @@
         <v>2</v>
       </c>
       <c r="H80" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Коротова Ангелина</v>
+        <f t="shared" si="11"/>
+        <v>Сумароков Саша</v>
       </c>
       <c r="I80" s="3" t="str">
         <f>IF(ISBLANK(E80), "",INDEX(Squads!A$3:B$1048576,MATCH(E80, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3960,23 +3968,23 @@
         <v>Участник</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="10"/>
-        <v>9110581233</v>
+        <f t="shared" si="12"/>
+        <v>9022854509</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D81" s="8">
-        <v>9115812807</v>
+        <v>9110581233</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3985,8 +3993,8 @@
         <v>2</v>
       </c>
       <c r="H81" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Отяковская Альбина</v>
+        <f t="shared" si="11"/>
+        <v>Коротова Ангелина</v>
       </c>
       <c r="I81" s="3" t="str">
         <f>IF(ISBLANK(E81), "",INDEX(Squads!A$3:B$1048576,MATCH(E81, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3997,23 +4005,23 @@
         <v>Участник</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="10"/>
-        <v>9115812807</v>
+        <f t="shared" si="12"/>
+        <v>9110581233</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="D82" s="8">
-        <v>9522528224</v>
+        <v>9115812807</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -4022,8 +4030,8 @@
         <v>2</v>
       </c>
       <c r="H82" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Кажарская Лиза</v>
+        <f t="shared" si="11"/>
+        <v>Отяковская Альбина</v>
       </c>
       <c r="I82" s="3" t="str">
         <f>IF(ISBLANK(E82), "",INDEX(Squads!A$3:B$1048576,MATCH(E82, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4034,23 +4042,23 @@
         <v>Участник</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="10"/>
-        <v>9522528224</v>
+        <f t="shared" si="12"/>
+        <v>9115812807</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="D83" s="8">
-        <v>9116721129</v>
+        <v>9522528224</v>
       </c>
       <c r="E83">
         <v>4</v>
@@ -4059,8 +4067,8 @@
         <v>2</v>
       </c>
       <c r="H83" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Браницка Женя</v>
+        <f t="shared" si="11"/>
+        <v>Кажарская Лиза</v>
       </c>
       <c r="I83" s="3" t="str">
         <f>IF(ISBLANK(E83), "",INDEX(Squads!A$3:B$1048576,MATCH(E83, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4071,23 +4079,23 @@
         <v>Участник</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="10"/>
-        <v>9116721129</v>
+        <f t="shared" si="12"/>
+        <v>9522528224</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D84" s="8">
-        <v>9643006592</v>
+        <v>9116721129</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -4096,8 +4104,8 @@
         <v>2</v>
       </c>
       <c r="H84" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Тур Лера</v>
+        <f t="shared" si="11"/>
+        <v>Браницка Женя</v>
       </c>
       <c r="I84" s="3" t="str">
         <f>IF(ISBLANK(E84), "",INDEX(Squads!A$3:B$1048576,MATCH(E84, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4108,23 +4116,23 @@
         <v>Участник</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="10"/>
-        <v>9643006592</v>
+        <f t="shared" si="12"/>
+        <v>9116721129</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D85" s="8">
-        <v>9027000003</v>
+        <v>9643006592</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -4133,8 +4141,8 @@
         <v>2</v>
       </c>
       <c r="H85" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Фролова Вероника</v>
+        <f t="shared" si="11"/>
+        <v>Тур Лера</v>
       </c>
       <c r="I85" s="3" t="str">
         <f>IF(ISBLANK(E85), "",INDEX(Squads!A$3:B$1048576,MATCH(E85, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4145,23 +4153,23 @@
         <v>Участник</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="10"/>
-        <v>9027000003</v>
+        <f t="shared" si="12"/>
+        <v>9643006592</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="D86" s="8">
-        <v>9642958484</v>
+        <v>9027000003</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -4170,8 +4178,8 @@
         <v>2</v>
       </c>
       <c r="H86" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Угромова Аня</v>
+        <f t="shared" si="11"/>
+        <v>Фролова Вероника</v>
       </c>
       <c r="I86" s="3" t="str">
         <f>IF(ISBLANK(E86), "",INDEX(Squads!A$3:B$1048576,MATCH(E86, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4182,23 +4190,23 @@
         <v>Участник</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="10"/>
-        <v>9642958484</v>
+        <f t="shared" si="12"/>
+        <v>9027000003</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D87" s="8">
-        <v>9642936307</v>
+        <v>9642958484</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -4207,8 +4215,8 @@
         <v>2</v>
       </c>
       <c r="H87" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Хабарова Лиза</v>
+        <f t="shared" si="11"/>
+        <v>Угромова Аня</v>
       </c>
       <c r="I87" s="3" t="str">
         <f>IF(ISBLANK(E87), "",INDEX(Squads!A$3:B$1048576,MATCH(E87, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4219,23 +4227,23 @@
         <v>Участник</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="10"/>
-        <v>9642936307</v>
+        <f t="shared" si="12"/>
+        <v>9642958484</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D88" s="8">
-        <v>9115994619</v>
+        <v>9642936307</v>
       </c>
       <c r="E88">
         <v>4</v>
@@ -4244,8 +4252,8 @@
         <v>2</v>
       </c>
       <c r="H88" s="20" t="str">
-        <f t="shared" si="9"/>
-        <v>Садков Кирилл</v>
+        <f t="shared" si="11"/>
+        <v>Хабарова Лиза</v>
       </c>
       <c r="I88" s="3" t="str">
         <f>IF(ISBLANK(E88), "",INDEX(Squads!A$3:B$1048576,MATCH(E88, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4256,78 +4264,96 @@
         <v>Участник</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="10"/>
-        <v>9115994619</v>
+        <f t="shared" si="12"/>
+        <v>9642936307</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="26">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="8">
+        <v>9115994619</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="H89" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>87</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D89" s="6">
-        <v>9210861421</v>
-      </c>
-      <c r="F89" s="6">
-        <v>1</v>
-      </c>
-      <c r="H89" s="7" t="str">
-        <f>IF(AND(ISBLANK(B89),ISBLANK(C89)), "",TRIM(_xlfn.CONCAT($B89," ",$C89)))</f>
-        <v>Владимир Николаевич</v>
+        <v>Садков Кирилл</v>
       </c>
       <c r="I89" s="3" t="str">
         <f>IF(ISBLANK(E89), "",INDEX(Squads!A$3:B$1048576,MATCH(E89, Squads!A$3:A$1048576, 0), 2))</f>
-        <v/>
+        <v>168 Часов</v>
       </c>
       <c r="J89" s="3" t="str">
-        <f>IF(ISBLANK(F89), "",INDEX(Roles!A$3:B$1048576,MATCH(F89, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>Вожатый</v>
+        <f>IF(ISBLANK(F89), "",INDEX(Roles!A$3:B$1048576,MATCH(F89, Roles!A$3:A$1048576, 0), 2))</f>
+        <v>Участник</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="10"/>
-        <v>9210861421</v>
+        <f t="shared" si="12"/>
+        <v>9115994619</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D90" s="8">
-        <v>9532602200</v>
-      </c>
-      <c r="E90" s="6" t="str">
-        <f>IF(ISBLANK(F90), "",INDEX(Squads!A$3:B$1048576,MATCH(F90, Squads!B$3:B$1048576, 0), 1))</f>
-        <v/>
-      </c>
-      <c r="H90" s="20" t="str">
+        <v>162</v>
+      </c>
+      <c r="D90" s="6">
+        <v>9210861421</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7" t="str">
         <f>IF(AND(ISBLANK(B90),ISBLANK(C90)), "",TRIM(_xlfn.CONCAT($B90," ",$C90)))</f>
-        <v>Лариса Васильевна</v>
-      </c>
-      <c r="I90" s="3"/>
+        <v>Владимир Николаевич</v>
+      </c>
+      <c r="I90" s="3" t="str">
+        <f>IF(ISBLANK(E90), "",INDEX(Squads!A$3:B$1048576,MATCH(E90, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J90" s="3" t="str">
         <f>IF(ISBLANK(F90), "",INDEX(Roles!A$3:B$1048576,MATCH(F90, Squads!A$3:A$1048576, 0), 2))</f>
-        <v/>
+        <v>Вожатый</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v>9210861421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="26">
+        <f t="shared" si="13"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="8">
         <v>9532602200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="str">
-        <f t="shared" ref="A91:A117" si="12">IF(AND(ISBLANK(B91),ISBLANK(C91)), "", A90 + 1)</f>
-        <v/>
       </c>
       <c r="E91" s="6" t="str">
         <f>IF(ISBLANK(F91), "",INDEX(Squads!A$3:B$1048576,MATCH(F91, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
+      </c>
+      <c r="H91" s="20" t="str">
+        <f>IF(AND(ISBLANK(B91),ISBLANK(C91)), "",TRIM(_xlfn.CONCAT($B91," ",$C91)))</f>
+        <v>Лариса Васильевна</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3" t="str">
@@ -4335,44 +4361,48 @@
         <v/>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>9532602200</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="D92" s="23"/>
+        <f t="shared" ref="A92:A118" si="14">IF(AND(ISBLANK(B92),ISBLANK(C92)), "", A91 + 1)</f>
+        <v/>
+      </c>
+      <c r="E92" s="6" t="str">
+        <f>IF(ISBLANK(F92), "",INDEX(Squads!A$3:B$1048576,MATCH(F92, Squads!B$3:B$1048576, 0), 1))</f>
+        <v/>
+      </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3" t="str">
         <f>IF(ISBLANK(F92), "",INDEX(Roles!A$3:B$1048576,MATCH(F92, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D93" s="23"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3" t="str">
         <f>IF(ISBLANK(F93), "",INDEX(Roles!A$3:B$1048576,MATCH(F93, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I94" s="3"/>
@@ -4381,13 +4411,13 @@
         <v/>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I95" s="3"/>
@@ -4396,13 +4426,13 @@
         <v/>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I96" s="3"/>
@@ -4411,13 +4441,13 @@
         <v/>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I97" s="3"/>
@@ -4426,13 +4456,13 @@
         <v/>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I98" s="3"/>
@@ -4441,13 +4471,13 @@
         <v/>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I99" s="3"/>
@@ -4456,13 +4486,13 @@
         <v/>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I100" s="3"/>
@@ -4471,13 +4501,13 @@
         <v/>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I101" s="3"/>
@@ -4486,13 +4516,13 @@
         <v/>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I102" s="3"/>
@@ -4501,13 +4531,13 @@
         <v/>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I103" s="3"/>
@@ -4516,13 +4546,13 @@
         <v/>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I104" s="3"/>
@@ -4531,13 +4561,13 @@
         <v/>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I105" s="3"/>
@@ -4546,13 +4576,13 @@
         <v/>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I106" s="3"/>
@@ -4561,13 +4591,13 @@
         <v/>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I107" s="3"/>
@@ -4576,13 +4606,13 @@
         <v/>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I108" s="3"/>
@@ -4591,13 +4621,13 @@
         <v/>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I109" s="3"/>
@@ -4606,13 +4636,13 @@
         <v/>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I110" s="3"/>
@@ -4621,13 +4651,13 @@
         <v/>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I111" s="3"/>
@@ -4636,13 +4666,13 @@
         <v/>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I112" s="3"/>
@@ -4651,13 +4681,13 @@
         <v/>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I113" s="3"/>
@@ -4666,13 +4696,13 @@
         <v/>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I114" s="3"/>
@@ -4681,13 +4711,13 @@
         <v/>
       </c>
       <c r="K114" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I115" s="3"/>
@@ -4696,13 +4726,13 @@
         <v/>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I116" s="3"/>
@@ -4711,13 +4741,13 @@
         <v/>
       </c>
       <c r="K116" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I117" s="3"/>
@@ -4726,13 +4756,13 @@
         <v/>
       </c>
       <c r="K117" s="3">
-        <f t="shared" ref="K117:K164" si="13">D117</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="str">
-        <f t="shared" ref="A118:A181" si="14">IF(AND(ISBLANK(B118),ISBLANK(C118)), "", A117 + 1)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I118" s="3"/>
@@ -4741,13 +4771,13 @@
         <v/>
       </c>
       <c r="K118" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="K118:K165" si="15">D118</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A119:A182" si="16">IF(AND(ISBLANK(B119),ISBLANK(C119)), "", A118 + 1)</f>
         <v/>
       </c>
       <c r="I119" s="3"/>
@@ -4756,13 +4786,13 @@
         <v/>
       </c>
       <c r="K119" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I120" s="3"/>
@@ -4771,13 +4801,13 @@
         <v/>
       </c>
       <c r="K120" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I121" s="3"/>
@@ -4786,13 +4816,13 @@
         <v/>
       </c>
       <c r="K121" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I122" s="3"/>
@@ -4801,13 +4831,13 @@
         <v/>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I123" s="3"/>
@@ -4816,13 +4846,13 @@
         <v/>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I124" s="3"/>
@@ -4831,13 +4861,13 @@
         <v/>
       </c>
       <c r="K124" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I125" s="3"/>
@@ -4846,13 +4876,13 @@
         <v/>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I126" s="3"/>
@@ -4861,13 +4891,13 @@
         <v/>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I127" s="3"/>
@@ -4876,13 +4906,13 @@
         <v/>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I128" s="3"/>
@@ -4891,13 +4921,13 @@
         <v/>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I129" s="3"/>
@@ -4906,13 +4936,13 @@
         <v/>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I130" s="3"/>
@@ -4921,13 +4951,13 @@
         <v/>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I131" s="3"/>
@@ -4936,13 +4966,13 @@
         <v/>
       </c>
       <c r="K131" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I132" s="3"/>
@@ -4951,13 +4981,13 @@
         <v/>
       </c>
       <c r="K132" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I133" s="3"/>
@@ -4966,13 +4996,13 @@
         <v/>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I134" s="3"/>
@@ -4981,13 +5011,13 @@
         <v/>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I135" s="3"/>
@@ -4996,13 +5026,13 @@
         <v/>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I136" s="3"/>
@@ -5011,13 +5041,13 @@
         <v/>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I137" s="3"/>
@@ -5026,13 +5056,13 @@
         <v/>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I138" s="3"/>
@@ -5041,13 +5071,13 @@
         <v/>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I139" s="3"/>
@@ -5056,13 +5086,13 @@
         <v/>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I140" s="3"/>
@@ -5071,13 +5101,13 @@
         <v/>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I141" s="3"/>
@@ -5086,13 +5116,13 @@
         <v/>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I142" s="3"/>
@@ -5101,13 +5131,13 @@
         <v/>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I143" s="3"/>
@@ -5116,13 +5146,13 @@
         <v/>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I144" s="3"/>
@@ -5131,13 +5161,13 @@
         <v/>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I145" s="3"/>
@@ -5146,13 +5176,13 @@
         <v/>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I146" s="3"/>
@@ -5161,13 +5191,13 @@
         <v/>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I147" s="3"/>
@@ -5176,13 +5206,13 @@
         <v/>
       </c>
       <c r="K147" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I148" s="3"/>
@@ -5191,13 +5221,13 @@
         <v/>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I149" s="3"/>
@@ -5206,13 +5236,13 @@
         <v/>
       </c>
       <c r="K149" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I150" s="3"/>
@@ -5221,13 +5251,13 @@
         <v/>
       </c>
       <c r="K150" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I151" s="3"/>
@@ -5236,13 +5266,13 @@
         <v/>
       </c>
       <c r="K151" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I152" s="3"/>
@@ -5251,13 +5281,13 @@
         <v/>
       </c>
       <c r="K152" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I153" s="3"/>
@@ -5266,13 +5296,13 @@
         <v/>
       </c>
       <c r="K153" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I154" s="3"/>
@@ -5281,13 +5311,13 @@
         <v/>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I155" s="3"/>
@@ -5296,13 +5326,13 @@
         <v/>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I156" s="3"/>
@@ -5311,13 +5341,13 @@
         <v/>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I157" s="3"/>
@@ -5326,13 +5356,13 @@
         <v/>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I158" s="3"/>
@@ -5341,13 +5371,13 @@
         <v/>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I159" s="3"/>
@@ -5356,13 +5386,13 @@
         <v/>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I160" s="3"/>
@@ -5371,13 +5401,13 @@
         <v/>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I161" s="3"/>
@@ -5386,13 +5416,13 @@
         <v/>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I162" s="3"/>
@@ -5401,13 +5431,13 @@
         <v/>
       </c>
       <c r="K162" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I163" s="3"/>
@@ -5416,13 +5446,13 @@
         <v/>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I164" s="3"/>
@@ -5431,13 +5461,13 @@
         <v/>
       </c>
       <c r="K164" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I165" s="3"/>
@@ -5445,10 +5475,14 @@
         <f>IF(ISBLANK(F165), "",INDEX(Roles!A$3:B$1048576,MATCH(F165, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
+      <c r="K165" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I166" s="3"/>
@@ -5459,7 +5493,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I167" s="3"/>
@@ -5470,7 +5504,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I168" s="3"/>
@@ -5481,7 +5515,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I169" s="3"/>
@@ -5492,7 +5526,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I170" s="3"/>
@@ -5503,7 +5537,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I171" s="3"/>
@@ -5514,7 +5548,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I172" s="3"/>
@@ -5525,7 +5559,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I173" s="3"/>
@@ -5536,7 +5570,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I174" s="3"/>
@@ -5547,7 +5581,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I175" s="3"/>
@@ -5558,7 +5592,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I176" s="3"/>
@@ -5569,7 +5603,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I177" s="3"/>
@@ -5580,7 +5614,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I178" s="3"/>
@@ -5591,7 +5625,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I179" s="3"/>
@@ -5602,7 +5636,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I180" s="3"/>
@@ -5613,7 +5647,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I181" s="3"/>
@@ -5624,7 +5658,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="str">
-        <f t="shared" ref="A182:A245" si="15">IF(AND(ISBLANK(B182),ISBLANK(C182)), "", A181 + 1)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I182" s="3"/>
@@ -5635,7 +5669,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A183:A246" si="17">IF(AND(ISBLANK(B183),ISBLANK(C183)), "", A182 + 1)</f>
         <v/>
       </c>
       <c r="I183" s="3"/>
@@ -5646,11 +5680,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="E184" s="6" t="str">
-        <f>IF(ISBLANK(F184), "",INDEX(Squads!A$3:B$1048576,MATCH(F184, Squads!B$3:B$1048576, 0), 1))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I184" s="3"/>
@@ -5661,7 +5691,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E185" s="6" t="str">
@@ -5669,10 +5699,14 @@
         <v/>
       </c>
       <c r="I185" s="3"/>
+      <c r="J185" s="3" t="str">
+        <f>IF(ISBLANK(F185), "",INDEX(Roles!A$3:B$1048576,MATCH(F185, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E186" s="6" t="str">
@@ -5683,7 +5717,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E187" s="6" t="str">
@@ -5694,7 +5728,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E188" s="6" t="str">
@@ -5705,7 +5739,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E189" s="6" t="str">
@@ -5716,7 +5750,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E190" s="6" t="str">
@@ -5727,7 +5761,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E191" s="6" t="str">
@@ -5738,7 +5772,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E192" s="6" t="str">
@@ -5749,7 +5783,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E193" s="6" t="str">
@@ -5760,7 +5794,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E194" s="6" t="str">
@@ -5771,7 +5805,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E195" s="6" t="str">
@@ -5782,7 +5816,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E196" s="6" t="str">
@@ -5793,7 +5827,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E197" s="6" t="str">
@@ -5804,7 +5838,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E198" s="6" t="str">
@@ -5815,7 +5849,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E199" s="6" t="str">
@@ -5826,7 +5860,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E200" s="6" t="str">
@@ -5837,7 +5871,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E201" s="6" t="str">
@@ -5848,7 +5882,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E202" s="6" t="str">
@@ -5859,7 +5893,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E203" s="6" t="str">
@@ -5870,7 +5904,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E204" s="6" t="str">
@@ -5881,7 +5915,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E205" s="6" t="str">
@@ -5892,7 +5926,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E206" s="6" t="str">
@@ -5903,7 +5937,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E207" s="6" t="str">
@@ -5914,7 +5948,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E208" s="6" t="str">
@@ -5925,7 +5959,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E209" s="6" t="str">
@@ -5936,7 +5970,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E210" s="6" t="str">
@@ -5947,7 +5981,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E211" s="6" t="str">
@@ -5958,7 +5992,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E212" s="6" t="str">
@@ -5969,7 +6003,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E213" s="6" t="str">
@@ -5980,7 +6014,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E214" s="6" t="str">
@@ -5991,7 +6025,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E215" s="6" t="str">
@@ -6002,7 +6036,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E216" s="6" t="str">
@@ -6013,7 +6047,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E217" s="6" t="str">
@@ -6024,7 +6058,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E218" s="6" t="str">
@@ -6035,7 +6069,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E219" s="6" t="str">
@@ -6046,7 +6080,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E220" s="6" t="str">
@@ -6057,7 +6091,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E221" s="6" t="str">
@@ -6068,7 +6102,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E222" s="6" t="str">
@@ -6079,7 +6113,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E223" s="6" t="str">
@@ -6090,7 +6124,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E224" s="6" t="str">
@@ -6101,7 +6135,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E225" s="6" t="str">
@@ -6112,7 +6146,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E226" s="6" t="str">
@@ -6123,7 +6157,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E227" s="6" t="str">
@@ -6134,7 +6168,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E228" s="6" t="str">
@@ -6145,7 +6179,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E229" s="6" t="str">
@@ -6156,7 +6190,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E230" s="6" t="str">
@@ -6167,7 +6201,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E231" s="6" t="str">
@@ -6178,7 +6212,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E232" s="6" t="str">
@@ -6189,7 +6223,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E233" s="6" t="str">
@@ -6200,7 +6234,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E234" s="6" t="str">
@@ -6211,7 +6245,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E235" s="6" t="str">
@@ -6222,7 +6256,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E236" s="6" t="str">
@@ -6233,7 +6267,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E237" s="6" t="str">
@@ -6244,7 +6278,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E238" s="6" t="str">
@@ -6255,7 +6289,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E239" s="6" t="str">
@@ -6266,7 +6300,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E240" s="6" t="str">
@@ -6277,7 +6311,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E241" s="6" t="str">
@@ -6288,7 +6322,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E242" s="6" t="str">
@@ -6299,7 +6333,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E243" s="6" t="str">
@@ -6310,7 +6344,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E244" s="6" t="str">
@@ -6321,7 +6355,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E245" s="6" t="str">
@@ -6332,7 +6366,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="str">
-        <f t="shared" ref="A246:A309" si="16">IF(AND(ISBLANK(B246),ISBLANK(C246)), "", A245 + 1)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E246" s="6" t="str">
@@ -6343,7 +6377,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="A247:A310" si="18">IF(AND(ISBLANK(B247),ISBLANK(C247)), "", A246 + 1)</f>
         <v/>
       </c>
       <c r="E247" s="6" t="str">
@@ -6354,7 +6388,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E248" s="6" t="str">
@@ -6365,7 +6399,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E249" s="6" t="str">
@@ -6376,7 +6410,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E250" s="6" t="str">
@@ -6387,7 +6421,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E251" s="6" t="str">
@@ -6398,7 +6432,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E252" s="6" t="str">
@@ -6409,7 +6443,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E253" s="6" t="str">
@@ -6420,7 +6454,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E254" s="6" t="str">
@@ -6431,7 +6465,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E255" s="6" t="str">
@@ -6442,7 +6476,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E256" s="6" t="str">
@@ -6453,7 +6487,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E257" s="6" t="str">
@@ -6464,7 +6498,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E258" s="6" t="str">
@@ -6475,7 +6509,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E259" s="6" t="str">
@@ -6486,7 +6520,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E260" s="6" t="str">
@@ -6497,7 +6531,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E261" s="6" t="str">
@@ -6508,7 +6542,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E262" s="6" t="str">
@@ -6519,7 +6553,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E263" s="6" t="str">
@@ -6530,7 +6564,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E264" s="6" t="str">
@@ -6541,7 +6575,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E265" s="6" t="str">
@@ -6552,7 +6586,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E266" s="6" t="str">
@@ -6563,7 +6597,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E267" s="6" t="str">
@@ -6574,7 +6608,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E268" s="6" t="str">
@@ -6585,7 +6619,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E269" s="6" t="str">
@@ -6596,7 +6630,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E270" s="6" t="str">
@@ -6607,7 +6641,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E271" s="6" t="str">
@@ -6618,7 +6652,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E272" s="6" t="str">
@@ -6629,7 +6663,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E273" s="6" t="str">
@@ -6640,7 +6674,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E274" s="6" t="str">
@@ -6651,7 +6685,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E275" s="6" t="str">
@@ -6662,7 +6696,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E276" s="6" t="str">
@@ -6673,7 +6707,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E277" s="6" t="str">
@@ -6684,7 +6718,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E278" s="6" t="str">
@@ -6695,7 +6729,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E279" s="6" t="str">
@@ -6706,7 +6740,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E280" s="6" t="str">
@@ -6717,7 +6751,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E281" s="6" t="str">
@@ -6728,7 +6762,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E282" s="6" t="str">
@@ -6739,7 +6773,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E283" s="6" t="str">
@@ -6750,7 +6784,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E284" s="6" t="str">
@@ -6761,17 +6795,18 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E285" s="6" t="str">
         <f>IF(ISBLANK(F285), "",INDEX(Squads!A$3:B$1048576,MATCH(F285, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
+      <c r="I285" s="3"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E286" s="6" t="str">
@@ -6781,7 +6816,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E287" s="6" t="str">
@@ -6791,7 +6826,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E288" s="6" t="str">
@@ -6801,7 +6836,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E289" s="6" t="str">
@@ -6811,7 +6846,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E290" s="6" t="str">
@@ -6821,7 +6856,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E291" s="6" t="str">
@@ -6831,7 +6866,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E292" s="6" t="str">
@@ -6841,21 +6876,17 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E293" s="6" t="str">
         <f>IF(ISBLANK(F293), "",INDEX(Squads!A$3:B$1048576,MATCH(F293, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
-      <c r="H293" s="7" t="str">
-        <f t="shared" ref="H293:H356" si="17">IF(ISBLANK(B293), "",_xlfn.CONCAT($B293," ",$C293))</f>
-        <v/>
-      </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E294" s="6" t="str">
@@ -6863,13 +6894,13 @@
         <v/>
       </c>
       <c r="H294" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="H294:H357" si="19">IF(ISBLANK(B294), "",_xlfn.CONCAT($B294," ",$C294))</f>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E295" s="6" t="str">
@@ -6877,13 +6908,13 @@
         <v/>
       </c>
       <c r="H295" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E296" s="6" t="str">
@@ -6891,13 +6922,13 @@
         <v/>
       </c>
       <c r="H296" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E297" s="6" t="str">
@@ -6905,13 +6936,13 @@
         <v/>
       </c>
       <c r="H297" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E298" s="6" t="str">
@@ -6919,13 +6950,13 @@
         <v/>
       </c>
       <c r="H298" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E299" s="6" t="str">
@@ -6933,13 +6964,13 @@
         <v/>
       </c>
       <c r="H299" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E300" s="6" t="str">
@@ -6947,13 +6978,13 @@
         <v/>
       </c>
       <c r="H300" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E301" s="6" t="str">
@@ -6961,13 +6992,13 @@
         <v/>
       </c>
       <c r="H301" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E302" s="6" t="str">
@@ -6975,13 +7006,13 @@
         <v/>
       </c>
       <c r="H302" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E303" s="6" t="str">
@@ -6989,13 +7020,13 @@
         <v/>
       </c>
       <c r="H303" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E304" s="6" t="str">
@@ -7003,13 +7034,13 @@
         <v/>
       </c>
       <c r="H304" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E305" s="6" t="str">
@@ -7017,13 +7048,13 @@
         <v/>
       </c>
       <c r="H305" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E306" s="6" t="str">
@@ -7031,13 +7062,13 @@
         <v/>
       </c>
       <c r="H306" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E307" s="6" t="str">
@@ -7045,13 +7076,13 @@
         <v/>
       </c>
       <c r="H307" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E308" s="6" t="str">
@@ -7059,13 +7090,13 @@
         <v/>
       </c>
       <c r="H308" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E309" s="6" t="str">
@@ -7073,13 +7104,13 @@
         <v/>
       </c>
       <c r="H309" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="21" t="str">
-        <f t="shared" ref="A310:A373" si="18">IF(AND(ISBLANK(B310),ISBLANK(C310)), "", A309 + 1)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E310" s="6" t="str">
@@ -7087,13 +7118,13 @@
         <v/>
       </c>
       <c r="H310" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="A311:A374" si="20">IF(AND(ISBLANK(B311),ISBLANK(C311)), "", A310 + 1)</f>
         <v/>
       </c>
       <c r="E311" s="6" t="str">
@@ -7101,13 +7132,13 @@
         <v/>
       </c>
       <c r="H311" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E312" s="6" t="str">
@@ -7115,13 +7146,13 @@
         <v/>
       </c>
       <c r="H312" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E313" s="6" t="str">
@@ -7129,13 +7160,13 @@
         <v/>
       </c>
       <c r="H313" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E314" s="6" t="str">
@@ -7143,13 +7174,13 @@
         <v/>
       </c>
       <c r="H314" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E315" s="6" t="str">
@@ -7157,13 +7188,13 @@
         <v/>
       </c>
       <c r="H315" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E316" s="6" t="str">
@@ -7171,13 +7202,13 @@
         <v/>
       </c>
       <c r="H316" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E317" s="6" t="str">
@@ -7185,13 +7216,13 @@
         <v/>
       </c>
       <c r="H317" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E318" s="6" t="str">
@@ -7199,13 +7230,13 @@
         <v/>
       </c>
       <c r="H318" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E319" s="6" t="str">
@@ -7213,13 +7244,13 @@
         <v/>
       </c>
       <c r="H319" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E320" s="6" t="str">
@@ -7227,13 +7258,13 @@
         <v/>
       </c>
       <c r="H320" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E321" s="6" t="str">
@@ -7241,13 +7272,13 @@
         <v/>
       </c>
       <c r="H321" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E322" s="6" t="str">
@@ -7255,13 +7286,13 @@
         <v/>
       </c>
       <c r="H322" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E323" s="6" t="str">
@@ -7269,13 +7300,13 @@
         <v/>
       </c>
       <c r="H323" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E324" s="6" t="str">
@@ -7283,13 +7314,13 @@
         <v/>
       </c>
       <c r="H324" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E325" s="6" t="str">
@@ -7297,13 +7328,13 @@
         <v/>
       </c>
       <c r="H325" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E326" s="6" t="str">
@@ -7311,13 +7342,13 @@
         <v/>
       </c>
       <c r="H326" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E327" s="6" t="str">
@@ -7325,13 +7356,13 @@
         <v/>
       </c>
       <c r="H327" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E328" s="6" t="str">
@@ -7339,13 +7370,13 @@
         <v/>
       </c>
       <c r="H328" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E329" s="6" t="str">
@@ -7353,13 +7384,13 @@
         <v/>
       </c>
       <c r="H329" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E330" s="6" t="str">
@@ -7367,13 +7398,13 @@
         <v/>
       </c>
       <c r="H330" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E331" s="6" t="str">
@@ -7381,13 +7412,13 @@
         <v/>
       </c>
       <c r="H331" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E332" s="6" t="str">
@@ -7395,13 +7426,13 @@
         <v/>
       </c>
       <c r="H332" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E333" s="6" t="str">
@@ -7409,13 +7440,13 @@
         <v/>
       </c>
       <c r="H333" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E334" s="6" t="str">
@@ -7423,13 +7454,13 @@
         <v/>
       </c>
       <c r="H334" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E335" s="6" t="str">
@@ -7437,13 +7468,13 @@
         <v/>
       </c>
       <c r="H335" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E336" s="6" t="str">
@@ -7451,13 +7482,13 @@
         <v/>
       </c>
       <c r="H336" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E337" s="6" t="str">
@@ -7465,13 +7496,13 @@
         <v/>
       </c>
       <c r="H337" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E338" s="6" t="str">
@@ -7479,13 +7510,13 @@
         <v/>
       </c>
       <c r="H338" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E339" s="6" t="str">
@@ -7493,13 +7524,13 @@
         <v/>
       </c>
       <c r="H339" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E340" s="6" t="str">
@@ -7507,13 +7538,13 @@
         <v/>
       </c>
       <c r="H340" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E341" s="6" t="str">
@@ -7521,13 +7552,13 @@
         <v/>
       </c>
       <c r="H341" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E342" s="6" t="str">
@@ -7535,13 +7566,13 @@
         <v/>
       </c>
       <c r="H342" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E343" s="6" t="str">
@@ -7549,13 +7580,13 @@
         <v/>
       </c>
       <c r="H343" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E344" s="6" t="str">
@@ -7563,13 +7594,13 @@
         <v/>
       </c>
       <c r="H344" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E345" s="6" t="str">
@@ -7577,13 +7608,13 @@
         <v/>
       </c>
       <c r="H345" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E346" s="6" t="str">
@@ -7591,13 +7622,13 @@
         <v/>
       </c>
       <c r="H346" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E347" s="6" t="str">
@@ -7605,13 +7636,13 @@
         <v/>
       </c>
       <c r="H347" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E348" s="6" t="str">
@@ -7619,13 +7650,13 @@
         <v/>
       </c>
       <c r="H348" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E349" s="6" t="str">
@@ -7633,13 +7664,13 @@
         <v/>
       </c>
       <c r="H349" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E350" s="6" t="str">
@@ -7647,13 +7678,13 @@
         <v/>
       </c>
       <c r="H350" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E351" s="6" t="str">
@@ -7661,13 +7692,13 @@
         <v/>
       </c>
       <c r="H351" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E352" s="6" t="str">
@@ -7675,13 +7706,13 @@
         <v/>
       </c>
       <c r="H352" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E353" s="6" t="str">
@@ -7689,13 +7720,13 @@
         <v/>
       </c>
       <c r="H353" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E354" s="6" t="str">
@@ -7703,13 +7734,13 @@
         <v/>
       </c>
       <c r="H354" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E355" s="6" t="str">
@@ -7717,13 +7748,13 @@
         <v/>
       </c>
       <c r="H355" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E356" s="6" t="str">
@@ -7731,13 +7762,13 @@
         <v/>
       </c>
       <c r="H356" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E357" s="6" t="str">
@@ -7745,13 +7776,13 @@
         <v/>
       </c>
       <c r="H357" s="7" t="str">
-        <f t="shared" ref="H357:H420" si="19">IF(ISBLANK(B357), "",_xlfn.CONCAT($B357," ",$C357))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E358" s="6" t="str">
@@ -7759,13 +7790,13 @@
         <v/>
       </c>
       <c r="H358" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H358:H421" si="21">IF(ISBLANK(B358), "",_xlfn.CONCAT($B358," ",$C358))</f>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E359" s="6" t="str">
@@ -7773,13 +7804,13 @@
         <v/>
       </c>
       <c r="H359" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E360" s="6" t="str">
@@ -7787,13 +7818,13 @@
         <v/>
       </c>
       <c r="H360" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E361" s="6" t="str">
@@ -7801,13 +7832,13 @@
         <v/>
       </c>
       <c r="H361" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E362" s="6" t="str">
@@ -7815,13 +7846,13 @@
         <v/>
       </c>
       <c r="H362" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E363" s="6" t="str">
@@ -7829,13 +7860,13 @@
         <v/>
       </c>
       <c r="H363" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E364" s="6" t="str">
@@ -7843,13 +7874,13 @@
         <v/>
       </c>
       <c r="H364" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E365" s="6" t="str">
@@ -7857,13 +7888,13 @@
         <v/>
       </c>
       <c r="H365" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E366" s="6" t="str">
@@ -7871,13 +7902,13 @@
         <v/>
       </c>
       <c r="H366" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E367" s="6" t="str">
@@ -7885,13 +7916,13 @@
         <v/>
       </c>
       <c r="H367" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E368" s="6" t="str">
@@ -7899,13 +7930,13 @@
         <v/>
       </c>
       <c r="H368" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E369" s="6" t="str">
@@ -7913,13 +7944,13 @@
         <v/>
       </c>
       <c r="H369" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E370" s="6" t="str">
@@ -7927,13 +7958,13 @@
         <v/>
       </c>
       <c r="H370" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E371" s="6" t="str">
@@ -7941,13 +7972,13 @@
         <v/>
       </c>
       <c r="H371" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E372" s="6" t="str">
@@ -7955,13 +7986,13 @@
         <v/>
       </c>
       <c r="H372" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E373" s="6" t="str">
@@ -7969,13 +8000,13 @@
         <v/>
       </c>
       <c r="H373" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="21" t="str">
-        <f t="shared" ref="A374:A437" si="20">IF(AND(ISBLANK(B374),ISBLANK(C374)), "", A373 + 1)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E374" s="6" t="str">
@@ -7983,13 +8014,13 @@
         <v/>
       </c>
       <c r="H374" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="A375:A438" si="22">IF(AND(ISBLANK(B375),ISBLANK(C375)), "", A374 + 1)</f>
         <v/>
       </c>
       <c r="E375" s="6" t="str">
@@ -7997,13 +8028,13 @@
         <v/>
       </c>
       <c r="H375" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E376" s="6" t="str">
@@ -8011,13 +8042,13 @@
         <v/>
       </c>
       <c r="H376" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E377" s="6" t="str">
@@ -8025,13 +8056,13 @@
         <v/>
       </c>
       <c r="H377" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E378" s="6" t="str">
@@ -8039,13 +8070,13 @@
         <v/>
       </c>
       <c r="H378" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E379" s="6" t="str">
@@ -8053,13 +8084,13 @@
         <v/>
       </c>
       <c r="H379" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E380" s="6" t="str">
@@ -8067,13 +8098,13 @@
         <v/>
       </c>
       <c r="H380" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E381" s="6" t="str">
@@ -8081,13 +8112,13 @@
         <v/>
       </c>
       <c r="H381" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E382" s="6" t="str">
@@ -8095,13 +8126,13 @@
         <v/>
       </c>
       <c r="H382" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E383" s="6" t="str">
@@ -8109,13 +8140,13 @@
         <v/>
       </c>
       <c r="H383" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E384" s="6" t="str">
@@ -8123,13 +8154,13 @@
         <v/>
       </c>
       <c r="H384" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E385" s="6" t="str">
@@ -8137,13 +8168,13 @@
         <v/>
       </c>
       <c r="H385" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E386" s="6" t="str">
@@ -8151,13 +8182,13 @@
         <v/>
       </c>
       <c r="H386" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E387" s="6" t="str">
@@ -8165,13 +8196,13 @@
         <v/>
       </c>
       <c r="H387" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E388" s="6" t="str">
@@ -8179,13 +8210,13 @@
         <v/>
       </c>
       <c r="H388" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E389" s="6" t="str">
@@ -8193,13 +8224,13 @@
         <v/>
       </c>
       <c r="H389" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E390" s="6" t="str">
@@ -8207,13 +8238,13 @@
         <v/>
       </c>
       <c r="H390" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E391" s="6" t="str">
@@ -8221,13 +8252,13 @@
         <v/>
       </c>
       <c r="H391" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E392" s="6" t="str">
@@ -8235,13 +8266,13 @@
         <v/>
       </c>
       <c r="H392" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E393" s="6" t="str">
@@ -8249,13 +8280,13 @@
         <v/>
       </c>
       <c r="H393" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E394" s="6" t="str">
@@ -8263,13 +8294,13 @@
         <v/>
       </c>
       <c r="H394" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E395" s="6" t="str">
@@ -8277,13 +8308,13 @@
         <v/>
       </c>
       <c r="H395" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E396" s="6" t="str">
@@ -8291,13 +8322,13 @@
         <v/>
       </c>
       <c r="H396" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E397" s="6" t="str">
@@ -8305,13 +8336,13 @@
         <v/>
       </c>
       <c r="H397" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E398" s="6" t="str">
@@ -8319,13 +8350,13 @@
         <v/>
       </c>
       <c r="H398" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E399" s="6" t="str">
@@ -8333,13 +8364,13 @@
         <v/>
       </c>
       <c r="H399" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E400" s="6" t="str">
@@ -8347,13 +8378,13 @@
         <v/>
       </c>
       <c r="H400" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E401" s="6" t="str">
@@ -8361,13 +8392,13 @@
         <v/>
       </c>
       <c r="H401" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E402" s="6" t="str">
@@ -8375,13 +8406,13 @@
         <v/>
       </c>
       <c r="H402" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E403" s="6" t="str">
@@ -8389,13 +8420,13 @@
         <v/>
       </c>
       <c r="H403" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E404" s="6" t="str">
@@ -8403,13 +8434,13 @@
         <v/>
       </c>
       <c r="H404" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E405" s="6" t="str">
@@ -8417,13 +8448,13 @@
         <v/>
       </c>
       <c r="H405" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E406" s="6" t="str">
@@ -8431,13 +8462,13 @@
         <v/>
       </c>
       <c r="H406" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E407" s="6" t="str">
@@ -8445,13 +8476,13 @@
         <v/>
       </c>
       <c r="H407" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E408" s="6" t="str">
@@ -8459,13 +8490,13 @@
         <v/>
       </c>
       <c r="H408" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E409" s="6" t="str">
@@ -8473,13 +8504,13 @@
         <v/>
       </c>
       <c r="H409" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E410" s="6" t="str">
@@ -8487,13 +8518,13 @@
         <v/>
       </c>
       <c r="H410" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E411" s="6" t="str">
@@ -8501,13 +8532,13 @@
         <v/>
       </c>
       <c r="H411" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E412" s="6" t="str">
@@ -8515,13 +8546,13 @@
         <v/>
       </c>
       <c r="H412" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E413" s="6" t="str">
@@ -8529,13 +8560,13 @@
         <v/>
       </c>
       <c r="H413" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E414" s="6" t="str">
@@ -8543,13 +8574,13 @@
         <v/>
       </c>
       <c r="H414" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E415" s="6" t="str">
@@ -8557,13 +8588,13 @@
         <v/>
       </c>
       <c r="H415" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E416" s="6" t="str">
@@ -8571,13 +8602,13 @@
         <v/>
       </c>
       <c r="H416" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E417" s="6" t="str">
@@ -8585,13 +8616,13 @@
         <v/>
       </c>
       <c r="H417" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E418" s="6" t="str">
@@ -8599,13 +8630,13 @@
         <v/>
       </c>
       <c r="H418" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E419" s="6" t="str">
@@ -8613,13 +8644,13 @@
         <v/>
       </c>
       <c r="H419" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E420" s="6" t="str">
@@ -8627,13 +8658,13 @@
         <v/>
       </c>
       <c r="H420" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E421" s="6" t="str">
@@ -8641,13 +8672,13 @@
         <v/>
       </c>
       <c r="H421" s="7" t="str">
-        <f t="shared" ref="H421:H484" si="21">IF(ISBLANK(B421), "",_xlfn.CONCAT($B421," ",$C421))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E422" s="6" t="str">
@@ -8655,13 +8686,13 @@
         <v/>
       </c>
       <c r="H422" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H422:H485" si="23">IF(ISBLANK(B422), "",_xlfn.CONCAT($B422," ",$C422))</f>
         <v/>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E423" s="6" t="str">
@@ -8669,13 +8700,13 @@
         <v/>
       </c>
       <c r="H423" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E424" s="6" t="str">
@@ -8683,13 +8714,13 @@
         <v/>
       </c>
       <c r="H424" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E425" s="6" t="str">
@@ -8697,13 +8728,13 @@
         <v/>
       </c>
       <c r="H425" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E426" s="6" t="str">
@@ -8711,13 +8742,13 @@
         <v/>
       </c>
       <c r="H426" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E427" s="6" t="str">
@@ -8725,13 +8756,13 @@
         <v/>
       </c>
       <c r="H427" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E428" s="6" t="str">
@@ -8739,13 +8770,13 @@
         <v/>
       </c>
       <c r="H428" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E429" s="6" t="str">
@@ -8753,13 +8784,13 @@
         <v/>
       </c>
       <c r="H429" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E430" s="6" t="str">
@@ -8767,13 +8798,13 @@
         <v/>
       </c>
       <c r="H430" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E431" s="6" t="str">
@@ -8781,13 +8812,13 @@
         <v/>
       </c>
       <c r="H431" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E432" s="6" t="str">
@@ -8795,13 +8826,13 @@
         <v/>
       </c>
       <c r="H432" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E433" s="6" t="str">
@@ -8809,13 +8840,13 @@
         <v/>
       </c>
       <c r="H433" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E434" s="6" t="str">
@@ -8823,13 +8854,13 @@
         <v/>
       </c>
       <c r="H434" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E435" s="6" t="str">
@@ -8837,13 +8868,13 @@
         <v/>
       </c>
       <c r="H435" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E436" s="6" t="str">
@@ -8851,13 +8882,13 @@
         <v/>
       </c>
       <c r="H436" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E437" s="6" t="str">
@@ -8865,13 +8896,13 @@
         <v/>
       </c>
       <c r="H437" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="21" t="str">
-        <f t="shared" ref="A438:A473" si="22">IF(AND(ISBLANK(B438),ISBLANK(C438)), "", A437 + 1)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E438" s="6" t="str">
@@ -8879,13 +8910,13 @@
         <v/>
       </c>
       <c r="H438" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="A439:A474" si="24">IF(AND(ISBLANK(B439),ISBLANK(C439)), "", A438 + 1)</f>
         <v/>
       </c>
       <c r="E439" s="6" t="str">
@@ -8893,13 +8924,13 @@
         <v/>
       </c>
       <c r="H439" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E440" s="6" t="str">
@@ -8907,13 +8938,13 @@
         <v/>
       </c>
       <c r="H440" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E441" s="6" t="str">
@@ -8921,13 +8952,13 @@
         <v/>
       </c>
       <c r="H441" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E442" s="6" t="str">
@@ -8935,13 +8966,13 @@
         <v/>
       </c>
       <c r="H442" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E443" s="6" t="str">
@@ -8949,13 +8980,13 @@
         <v/>
       </c>
       <c r="H443" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E444" s="6" t="str">
@@ -8963,13 +8994,13 @@
         <v/>
       </c>
       <c r="H444" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E445" s="6" t="str">
@@ -8977,13 +9008,13 @@
         <v/>
       </c>
       <c r="H445" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E446" s="6" t="str">
@@ -8991,13 +9022,13 @@
         <v/>
       </c>
       <c r="H446" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E447" s="6" t="str">
@@ -9005,13 +9036,13 @@
         <v/>
       </c>
       <c r="H447" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E448" s="6" t="str">
@@ -9019,13 +9050,13 @@
         <v/>
       </c>
       <c r="H448" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E449" s="6" t="str">
@@ -9033,13 +9064,13 @@
         <v/>
       </c>
       <c r="H449" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E450" s="6" t="str">
@@ -9047,13 +9078,13 @@
         <v/>
       </c>
       <c r="H450" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E451" s="6" t="str">
@@ -9061,13 +9092,13 @@
         <v/>
       </c>
       <c r="H451" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E452" s="6" t="str">
@@ -9075,13 +9106,13 @@
         <v/>
       </c>
       <c r="H452" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E453" s="6" t="str">
@@ -9089,13 +9120,13 @@
         <v/>
       </c>
       <c r="H453" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E454" s="6" t="str">
@@ -9103,13 +9134,13 @@
         <v/>
       </c>
       <c r="H454" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E455" s="6" t="str">
@@ -9117,13 +9148,13 @@
         <v/>
       </c>
       <c r="H455" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E456" s="6" t="str">
@@ -9131,13 +9162,13 @@
         <v/>
       </c>
       <c r="H456" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E457" s="6" t="str">
@@ -9145,13 +9176,13 @@
         <v/>
       </c>
       <c r="H457" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E458" s="6" t="str">
@@ -9159,13 +9190,13 @@
         <v/>
       </c>
       <c r="H458" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E459" s="6" t="str">
@@ -9173,13 +9204,13 @@
         <v/>
       </c>
       <c r="H459" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E460" s="6" t="str">
@@ -9187,13 +9218,13 @@
         <v/>
       </c>
       <c r="H460" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E461" s="6" t="str">
@@ -9201,13 +9232,13 @@
         <v/>
       </c>
       <c r="H461" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E462" s="6" t="str">
@@ -9215,13 +9246,13 @@
         <v/>
       </c>
       <c r="H462" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E463" s="6" t="str">
@@ -9229,13 +9260,13 @@
         <v/>
       </c>
       <c r="H463" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E464" s="6" t="str">
@@ -9243,13 +9274,13 @@
         <v/>
       </c>
       <c r="H464" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E465" s="6" t="str">
@@ -9257,13 +9288,13 @@
         <v/>
       </c>
       <c r="H465" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E466" s="6" t="str">
@@ -9271,13 +9302,13 @@
         <v/>
       </c>
       <c r="H466" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E467" s="6" t="str">
@@ -9285,13 +9316,13 @@
         <v/>
       </c>
       <c r="H467" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E468" s="6" t="str">
@@ -9299,13 +9330,13 @@
         <v/>
       </c>
       <c r="H468" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E469" s="6" t="str">
@@ -9313,13 +9344,13 @@
         <v/>
       </c>
       <c r="H469" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E470" s="6" t="str">
@@ -9327,13 +9358,13 @@
         <v/>
       </c>
       <c r="H470" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E471" s="6" t="str">
@@ -9341,13 +9372,13 @@
         <v/>
       </c>
       <c r="H471" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E472" s="6" t="str">
@@ -9355,13 +9386,13 @@
         <v/>
       </c>
       <c r="H472" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E473" s="6" t="str">
@@ -9369,17 +9400,21 @@
         <v/>
       </c>
       <c r="H473" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A474" s="21" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
       <c r="E474" s="6" t="str">
         <f>IF(ISBLANK(F474), "",INDEX(Squads!A$3:B$1048576,MATCH(F474, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H474" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9389,7 +9424,7 @@
         <v/>
       </c>
       <c r="H475" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9399,7 +9434,7 @@
         <v/>
       </c>
       <c r="H476" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9409,7 +9444,7 @@
         <v/>
       </c>
       <c r="H477" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9419,7 +9454,7 @@
         <v/>
       </c>
       <c r="H478" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9429,7 +9464,7 @@
         <v/>
       </c>
       <c r="H479" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9439,7 +9474,7 @@
         <v/>
       </c>
       <c r="H480" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9449,7 +9484,7 @@
         <v/>
       </c>
       <c r="H481" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9459,7 +9494,7 @@
         <v/>
       </c>
       <c r="H482" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9469,7 +9504,7 @@
         <v/>
       </c>
       <c r="H483" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9479,7 +9514,7 @@
         <v/>
       </c>
       <c r="H484" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9489,7 +9524,7 @@
         <v/>
       </c>
       <c r="H485" s="7" t="str">
-        <f t="shared" ref="H485:H548" si="23">IF(ISBLANK(B485), "",_xlfn.CONCAT($B485," ",$C485))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9499,7 +9534,7 @@
         <v/>
       </c>
       <c r="H486" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H486:H549" si="25">IF(ISBLANK(B486), "",_xlfn.CONCAT($B486," ",$C486))</f>
         <v/>
       </c>
     </row>
@@ -9509,7 +9544,7 @@
         <v/>
       </c>
       <c r="H487" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9519,7 +9554,7 @@
         <v/>
       </c>
       <c r="H488" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9529,7 +9564,7 @@
         <v/>
       </c>
       <c r="H489" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9539,7 +9574,7 @@
         <v/>
       </c>
       <c r="H490" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9549,7 +9584,7 @@
         <v/>
       </c>
       <c r="H491" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9559,7 +9594,7 @@
         <v/>
       </c>
       <c r="H492" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9569,7 +9604,7 @@
         <v/>
       </c>
       <c r="H493" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9579,7 +9614,7 @@
         <v/>
       </c>
       <c r="H494" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9589,7 +9624,7 @@
         <v/>
       </c>
       <c r="H495" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9599,7 +9634,7 @@
         <v/>
       </c>
       <c r="H496" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9609,7 +9644,7 @@
         <v/>
       </c>
       <c r="H497" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9619,7 +9654,7 @@
         <v/>
       </c>
       <c r="H498" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9629,7 +9664,7 @@
         <v/>
       </c>
       <c r="H499" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9639,7 +9674,7 @@
         <v/>
       </c>
       <c r="H500" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9649,7 +9684,7 @@
         <v/>
       </c>
       <c r="H501" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9659,7 +9694,7 @@
         <v/>
       </c>
       <c r="H502" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9669,7 +9704,7 @@
         <v/>
       </c>
       <c r="H503" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9679,7 +9714,7 @@
         <v/>
       </c>
       <c r="H504" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9689,7 +9724,7 @@
         <v/>
       </c>
       <c r="H505" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9699,7 +9734,7 @@
         <v/>
       </c>
       <c r="H506" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9709,7 +9744,7 @@
         <v/>
       </c>
       <c r="H507" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9719,7 +9754,7 @@
         <v/>
       </c>
       <c r="H508" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9729,7 +9764,7 @@
         <v/>
       </c>
       <c r="H509" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9739,7 +9774,7 @@
         <v/>
       </c>
       <c r="H510" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9749,7 +9784,7 @@
         <v/>
       </c>
       <c r="H511" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9759,7 +9794,7 @@
         <v/>
       </c>
       <c r="H512" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9769,7 +9804,7 @@
         <v/>
       </c>
       <c r="H513" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9779,7 +9814,7 @@
         <v/>
       </c>
       <c r="H514" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9789,7 +9824,7 @@
         <v/>
       </c>
       <c r="H515" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9799,7 +9834,7 @@
         <v/>
       </c>
       <c r="H516" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9809,7 +9844,7 @@
         <v/>
       </c>
       <c r="H517" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9819,7 +9854,7 @@
         <v/>
       </c>
       <c r="H518" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9829,7 +9864,7 @@
         <v/>
       </c>
       <c r="H519" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9839,7 +9874,7 @@
         <v/>
       </c>
       <c r="H520" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9849,7 +9884,7 @@
         <v/>
       </c>
       <c r="H521" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9859,7 +9894,7 @@
         <v/>
       </c>
       <c r="H522" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9869,7 +9904,7 @@
         <v/>
       </c>
       <c r="H523" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9879,7 +9914,7 @@
         <v/>
       </c>
       <c r="H524" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9889,7 +9924,7 @@
         <v/>
       </c>
       <c r="H525" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9899,7 +9934,7 @@
         <v/>
       </c>
       <c r="H526" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9909,7 +9944,7 @@
         <v/>
       </c>
       <c r="H527" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9919,7 +9954,7 @@
         <v/>
       </c>
       <c r="H528" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9929,7 +9964,7 @@
         <v/>
       </c>
       <c r="H529" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9939,7 +9974,7 @@
         <v/>
       </c>
       <c r="H530" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9949,7 +9984,7 @@
         <v/>
       </c>
       <c r="H531" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9959,7 +9994,7 @@
         <v/>
       </c>
       <c r="H532" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9969,7 +10004,7 @@
         <v/>
       </c>
       <c r="H533" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9979,7 +10014,7 @@
         <v/>
       </c>
       <c r="H534" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9989,7 +10024,7 @@
         <v/>
       </c>
       <c r="H535" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9999,7 +10034,7 @@
         <v/>
       </c>
       <c r="H536" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10009,7 +10044,7 @@
         <v/>
       </c>
       <c r="H537" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10019,7 +10054,7 @@
         <v/>
       </c>
       <c r="H538" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10029,7 +10064,7 @@
         <v/>
       </c>
       <c r="H539" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10039,7 +10074,7 @@
         <v/>
       </c>
       <c r="H540" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10049,7 +10084,7 @@
         <v/>
       </c>
       <c r="H541" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10059,7 +10094,7 @@
         <v/>
       </c>
       <c r="H542" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10069,7 +10104,7 @@
         <v/>
       </c>
       <c r="H543" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10079,7 +10114,7 @@
         <v/>
       </c>
       <c r="H544" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10089,7 +10124,7 @@
         <v/>
       </c>
       <c r="H545" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10099,7 +10134,7 @@
         <v/>
       </c>
       <c r="H546" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10109,7 +10144,7 @@
         <v/>
       </c>
       <c r="H547" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10119,7 +10154,7 @@
         <v/>
       </c>
       <c r="H548" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10129,7 +10164,7 @@
         <v/>
       </c>
       <c r="H549" s="7" t="str">
-        <f t="shared" ref="H549:H557" si="24">IF(ISBLANK(B549), "",_xlfn.CONCAT($B549," ",$C549))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10139,7 +10174,7 @@
         <v/>
       </c>
       <c r="H550" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H550:H558" si="26">IF(ISBLANK(B550), "",_xlfn.CONCAT($B550," ",$C550))</f>
         <v/>
       </c>
     </row>
@@ -10149,7 +10184,7 @@
         <v/>
       </c>
       <c r="H551" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -10159,7 +10194,7 @@
         <v/>
       </c>
       <c r="H552" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -10169,7 +10204,7 @@
         <v/>
       </c>
       <c r="H553" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -10179,7 +10214,7 @@
         <v/>
       </c>
       <c r="H554" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -10189,7 +10224,7 @@
         <v/>
       </c>
       <c r="H555" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -10199,7 +10234,7 @@
         <v/>
       </c>
       <c r="H556" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -10209,7 +10244,7 @@
         <v/>
       </c>
       <c r="H557" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -10219,7 +10254,7 @@
         <v/>
       </c>
       <c r="H558" s="7" t="str">
-        <f t="shared" ref="H558:H563" si="25">IF(ISBLANK(B556), "",_xlfn.CONCAT($B558," ",$C558))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -10229,7 +10264,7 @@
         <v/>
       </c>
       <c r="H559" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H559:H564" si="27">IF(ISBLANK(B557), "",_xlfn.CONCAT($B559," ",$C559))</f>
         <v/>
       </c>
     </row>
@@ -10239,7 +10274,7 @@
         <v/>
       </c>
       <c r="H560" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10249,7 +10284,7 @@
         <v/>
       </c>
       <c r="H561" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10259,7 +10294,7 @@
         <v/>
       </c>
       <c r="H562" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10269,7 +10304,7 @@
         <v/>
       </c>
       <c r="H563" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10278,6 +10313,10 @@
         <f>IF(ISBLANK(F564), "",INDEX(Squads!A$3:B$1048576,MATCH(F564, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
+      <c r="H564" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
     </row>
     <row r="565" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E565" s="6" t="str">
@@ -10306,6 +10345,12 @@
     <row r="569" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E569" s="6" t="str">
         <f>IF(ISBLANK(F569), "",INDEX(Squads!A$3:B$1048576,MATCH(F569, Squads!B$3:B$1048576, 0), 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="570" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E570" s="6" t="str">
+        <f>IF(ISBLANK(F570), "",INDEX(Squads!A$3:B$1048576,MATCH(F570, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
@@ -10314,14 +10359,14 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>2</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10341,20 +10386,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10362,10 +10407,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10374,10 +10419,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10625,23 +10670,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="6">
         <f>COUNT(People!A3:A1048576)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -10649,7 +10694,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4">
         <v>9115765926</v>
@@ -10657,26 +10702,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10711,10 +10756,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="19"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -10726,43 +10771,43 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="14">
         <v>87</v>
       </c>
       <c r="F3" s="12" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Владимир Николаевич</v>
+        <v>Садков Кирилл</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="14">
         <v>30</v>
       </c>
       <c r="F4" s="12" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Архипова Лера</v>
+        <v>Романенко Влада</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -10792,7 +10837,7 @@
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -10821,37 +10866,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>138</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10859,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -10882,7 +10927,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -10905,7 +10950,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -10928,7 +10973,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -11067,10 +11112,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
         <v>1</v>
@@ -11078,19 +11123,19 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="6">
         <v>9</v>
@@ -11102,79 +11147,79 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="6">
         <v>74</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Юрьев Кирилл</v>
+        <v>Михайлов Кирилл</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="6">
         <v>29</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Романенко Влада</v>
+        <v>Вологдина Катя</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="6">
         <v>50</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Северьянова Юля</v>
+        <v>Семьин Миша</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="6">
         <v>88</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Лариса Васильевна</v>
+        <v>Владимир Николаевич</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="6">
         <v>49</v>
       </c>
       <c r="D8" s="22" t="str">
         <f>IF(ISBLANK(B8), "",INDEX(People!$A$3:$K$1048576,MATCH(B8, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Семьин Миша</v>
+        <v>Кучеренкова Оля</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="6">
         <v>73</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>IF(ISBLANK(B9), "",INDEX(People!$A$3:$K$1048576,MATCH(B9, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Михайлов Кирилл</v>
+        <v>Варзина Настя</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="6">
         <v>13</v>
@@ -11186,31 +11231,31 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="6">
         <v>70</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>IF(ISBLANK(B11), "",INDEX(People!$A$3:$K$1048576,MATCH(B11, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Савинкина Лиза</v>
+        <v>Проценко Дарья</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="6">
         <v>72</v>
       </c>
       <c r="D12" s="11" t="str">
         <f>IF(ISBLANK(B12), "",INDEX(People!$A$3:$K$1048576,MATCH(B12, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Варзина Настя</v>
+        <v>Коробова Ксюша</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="6">
         <v>21</v>
@@ -11222,19 +11267,19 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="6">
         <v>70</v>
       </c>
       <c r="D14" s="11" t="str">
         <f>IF(ISBLANK(B14), "",INDEX(People!$A$3:$K$1048576,MATCH(B14, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Савинкина Лиза</v>
+        <v>Проценко Дарья</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="6">
         <v>9</v>
@@ -11246,67 +11291,67 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="6">
         <v>53</v>
       </c>
       <c r="D16" s="11" t="str">
         <f>IF(ISBLANK(B16), "",INDEX(People!$A$3:$K$1048576,MATCH(B16, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Кескюль Лина</v>
+        <v>Карамышева Ира</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="6">
         <v>78</v>
       </c>
       <c r="D17" s="11" t="str">
         <f>IF(ISBLANK(B17), "",INDEX(People!$A$3:$K$1048576,MATCH(B17, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Коротова Ангелина</v>
+        <v>Сумароков Саша</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="6">
         <v>30</v>
       </c>
       <c r="D18" s="11" t="str">
         <f>IF(ISBLANK(B18), "",INDEX(People!$A$3:$K$1048576,MATCH(B18, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Архипова Лера</v>
+        <v>Романенко Влада</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="6">
         <v>78</v>
       </c>
       <c r="D19" s="11" t="str">
         <f>IF(ISBLANK(B19), "",INDEX(People!$A$3:$K$1048576,MATCH(B19, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Коротова Ангелина</v>
+        <v>Сумароков Саша</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="6">
         <v>53</v>
       </c>
       <c r="D20" s="11" t="str">
         <f>IF(ISBLANK(B20), "",INDEX(People!$A$3:$K$1048576,MATCH(B20, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Кескюль Лина</v>
+        <v>Карамышева Ира</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="6">
         <v>10</v>
@@ -11443,7 +11488,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11458,25 +11503,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>6</v>
@@ -11484,13 +11529,13 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11499,14 +11544,14 @@
         <v>ДКС</v>
       </c>
       <c r="B3" s="26">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="25"/>
       <c r="F3" s="24" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Гурьев Гоша</v>
+        <v>Образцова Арина</v>
       </c>
       <c r="G3" s="25" t="str">
         <f t="array" ref="G3">IF(ISBLANK(B3), "",INDEX(Squads!$A$3:$D$6, H3, 2))</f>
@@ -11520,7 +11565,7 @@
         <v>ДКО 'Керосин'</v>
       </c>
       <c r="B4" s="26">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
@@ -11529,7 +11574,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Лашова Яна</v>
+        <v>Неумоина Соня</v>
       </c>
       <c r="G4" s="25" t="str">
         <f t="array" ref="G4">IF(ISBLANK(B4), "",INDEX(Squads!$A$3:$D$6, H4, 2))</f>
@@ -11546,7 +11591,7 @@
         <v>ДКО '12/09'</v>
       </c>
       <c r="B5" s="26">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C5" s="26">
         <v>2</v>
@@ -11555,7 +11600,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Пономарев Илья</v>
+        <v>Хинтба Алина</v>
       </c>
       <c r="G5" s="25" t="str">
         <f t="array" ref="G5">IF(ISBLANK(B5), "",INDEX(Squads!$A$3:$D$6, H5, 2))</f>
@@ -11572,7 +11617,7 @@
         <v>ДКО 'Путеводный'</v>
       </c>
       <c r="B6" s="26">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C6" s="26">
         <v>3</v>
@@ -11581,7 +11626,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="24" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Тюпышева Ксюша</v>
+        <v>Десятков Илья</v>
       </c>
       <c r="G6" s="25" t="str">
         <f t="array" ref="G6">IF(ISBLANK(B6), "",INDEX(Squads!$A$3:$D$6, H6, 2))</f>
@@ -11598,7 +11643,7 @@
         <v>ДКО '168 Часов'</v>
       </c>
       <c r="B7" s="26">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="26">
         <v>4</v>
@@ -11607,7 +11652,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="24" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Кажарская Лиза</v>
+        <v>Коротова Ангелина</v>
       </c>
       <c r="G7" s="25" t="str">
         <f t="array" ref="G7">IF(ISBLANK(B7), "",INDEX(Squads!$A$3:$D$6, H7, 2))</f>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA092BA-257D-4C2F-B0E0-712A1B6A6582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37AAFC3-B8E1-4119-B2A9-18067A0B3CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -417,18 +417,12 @@
     <t>Кажарская</t>
   </si>
   <si>
-    <t>Браницка</t>
-  </si>
-  <si>
     <t>Женя</t>
   </si>
   <si>
     <t>Тур</t>
   </si>
   <si>
-    <t>Угромова</t>
-  </si>
-  <si>
     <t>Хабарова</t>
   </si>
   <si>
@@ -631,6 +625,12 @@
   </si>
   <si>
     <t>Хинтба</t>
+  </si>
+  <si>
+    <t>Угрюмова</t>
+  </si>
+  <si>
+    <t>Браницкая</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M570"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A67" si="2">IF(AND(ISBLANK(B4),ISBLANK(C4)), "", A3 + 1)</f>
+        <f t="shared" ref="A4:A65" si="2">IF(AND(ISBLANK(B4),ISBLANK(C4)), "", A3 + 1)</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2061,10 +2061,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="29">
@@ -2317,10 +2317,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="25">
@@ -2353,10 +2353,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D37" s="8">
         <v>9314153251</v>
@@ -2391,10 +2391,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="25">
@@ -2612,7 +2612,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>30</v>
@@ -2686,7 +2686,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>88</v>
@@ -2870,10 +2870,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51">
@@ -4089,10 +4089,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="D84" s="8">
         <v>9116721129</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="H84" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>Браницка Женя</v>
+        <v>Браницкая Женя</v>
       </c>
       <c r="I84" s="3" t="str">
         <f>IF(ISBLANK(E84), "",INDEX(Squads!A$3:B$1048576,MATCH(E84, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4126,7 +4126,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>29</v>
@@ -4200,7 +4200,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>18</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H87" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>Угромова Аня</v>
+        <v>Угрюмова Аня</v>
       </c>
       <c r="I87" s="3" t="str">
         <f>IF(ISBLANK(E87), "",INDEX(Squads!A$3:B$1048576,MATCH(E87, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4237,7 +4237,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>24</v>
@@ -4274,7 +4274,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>98</v>
@@ -4311,7 +4311,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D90" s="6">
         <v>9210861421</v>
@@ -4342,7 +4342,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D91" s="8">
         <v>9532602200</v>
@@ -10396,10 +10396,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10407,10 +10407,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10419,10 +10419,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10677,7 +10677,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6">
         <f>COUNT(People!A3:A1048576)</f>
@@ -10686,7 +10686,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -10694,7 +10694,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4">
         <v>9115765926</v>
@@ -10702,26 +10702,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
         <v>173</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10771,22 +10771,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="14">
         <v>87</v>
@@ -10800,7 +10800,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B4" s="14">
         <v>30</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -10883,20 +10883,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10904,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -10927,7 +10927,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -10950,7 +10950,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -10973,7 +10973,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -11123,19 +11123,19 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6">
         <v>9</v>
@@ -11147,7 +11147,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="6">
         <v>74</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="6">
         <v>29</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="6">
         <v>50</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="6">
         <v>88</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" s="6">
         <v>49</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="6">
         <v>73</v>
@@ -11219,7 +11219,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="6">
         <v>13</v>
@@ -11231,7 +11231,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="6">
         <v>70</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="6">
         <v>72</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B13" s="6">
         <v>21</v>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" s="6">
         <v>70</v>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="6">
         <v>9</v>
@@ -11291,7 +11291,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B16" s="6">
         <v>53</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="6">
         <v>78</v>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" s="6">
         <v>30</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="6">
         <v>78</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B20" s="6">
         <v>53</v>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="6">
         <v>10</v>
@@ -11487,7 +11487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -11518,10 +11518,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>6</v>
@@ -11529,13 +11529,13 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37AAFC3-B8E1-4119-B2A9-18067A0B3CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3B69C1-C1B1-49D1-A6B8-066878E7C1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -1019,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M570"/>
+  <dimension ref="A1:M569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="20" t="str">
-        <f t="shared" ref="H3:H57" si="0">IF(AND(ISBLANK(B3),ISBLANK(C3)), "",TRIM(_xlfn.CONCAT($B3," ",$C3)))</f>
+        <f t="shared" ref="H3:H56" si="0">IF(AND(ISBLANK(B3),ISBLANK(C3)), "",TRIM(_xlfn.CONCAT($B3," ",$C3)))</f>
         <v>Булыгин Антон</v>
       </c>
       <c r="I3" s="3" t="str">
@@ -1126,13 +1126,13 @@
         <v>Вожатый</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K57" si="1">D3</f>
+        <f t="shared" ref="K3:K56" si="1">D3</f>
         <v>9021935635</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A65" si="2">IF(AND(ISBLANK(B4),ISBLANK(C4)), "", A3 + 1)</f>
+        <f t="shared" ref="A4:A64" si="2">IF(AND(ISBLANK(B4),ISBLANK(C4)), "", A3 + 1)</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1611,7 +1611,7 @@
         <v>9115670597</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1648,7 +1648,7 @@
         <v>9021950338</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1685,7 +1685,7 @@
         <v>9062855831</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1722,7 +1722,7 @@
         <v>9115922511</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1759,7 +1759,7 @@
         <v>9214735352</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1796,7 +1796,7 @@
         <v>9502540282</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1833,7 +1833,7 @@
         <v>9523079564</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1870,7 +1870,7 @@
         <v>9214921578</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1907,7 +1907,7 @@
         <v>9657317424</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1944,7 +1944,7 @@
         <v>9626609766</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1981,7 +1981,7 @@
         <v>9095564124</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2018,8 +2018,8 @@
         <v>9815549422</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2055,27 +2055,29 @@
         <v>9600041442</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="29">
+        <v>58</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="8">
+        <v>9626620852</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="H29" s="28" t="str">
-        <f t="shared" ref="H29" si="3">IF(AND(ISBLANK(B29),ISBLANK(C29)), "",TRIM(_xlfn.CONCAT($B29," ",$C29)))</f>
-        <v>Неумоина Соня</v>
+      <c r="H29" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Шитикова Аня</v>
       </c>
       <c r="I29" s="3" t="str">
         <f>IF(ISBLANK(E29), "",INDEX(Squads!A$3:B$1048576,MATCH(E29, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2086,25 +2088,22 @@
         <v>Участник</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" ref="K29" si="4">D29</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9626620852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="8">
-        <v>9626620852</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D30" s="8"/>
       <c r="E30">
         <v>1</v>
       </c>
@@ -2113,7 +2112,7 @@
       </c>
       <c r="H30" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Шитикова Аня</v>
+        <v>Вологдина Катя</v>
       </c>
       <c r="I30" s="3" t="str">
         <f>IF(ISBLANK(E30), "",INDEX(Squads!A$3:B$1048576,MATCH(E30, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2125,57 +2124,59 @@
       </c>
       <c r="K30" s="3">
         <f t="shared" si="1"/>
-        <v>9626620852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="D31" s="8">
+        <v>9600077240</v>
+      </c>
       <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>1</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
       </c>
       <c r="H31" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Вологдина Катя</v>
+        <v>Романенко Влада</v>
       </c>
       <c r="I31" s="3" t="str">
         <f>IF(ISBLANK(E31), "",INDEX(Squads!A$3:B$1048576,MATCH(E31, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>Керосин</v>
+        <v>12/09</v>
       </c>
       <c r="J31" s="3" t="str">
         <f>IF(ISBLANK(F31), "",INDEX(Roles!A$3:B$1048576,MATCH(F31, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Участник</v>
+        <v>Вожатый</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9600077240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D32" s="8">
-        <v>9600077240</v>
+        <v>9027080210</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2185,7 +2186,7 @@
       </c>
       <c r="H32" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Романенко Влада</v>
+        <v>Архипова Лера</v>
       </c>
       <c r="I32" s="3" t="str">
         <f>IF(ISBLANK(E32), "",INDEX(Squads!A$3:B$1048576,MATCH(E32, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2197,7 +2198,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="1"/>
-        <v>9600077240</v>
+        <v>9027080210</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2206,23 +2207,23 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D33" s="8">
-        <v>9027080210</v>
+        <v>9991460009</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Архипова Лера</v>
+        <v>Пономарев Илья</v>
       </c>
       <c r="I33" s="3" t="str">
         <f>IF(ISBLANK(E33), "",INDEX(Squads!A$3:B$1048576,MATCH(E33, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2230,11 +2231,11 @@
       </c>
       <c r="J33" s="3" t="str">
         <f>IF(ISBLANK(F33), "",INDEX(Roles!A$3:B$1048576,MATCH(F33, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Вожатый</v>
+        <v>Участник</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>9027080210</v>
+        <v>9991460009</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,13 +2244,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D34" s="8">
-        <v>9991460009</v>
+        <v>9052936055</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2259,7 +2260,7 @@
       </c>
       <c r="H34" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Пономарев Илья</v>
+        <v>Доценко Егор</v>
       </c>
       <c r="I34" s="3" t="str">
         <f>IF(ISBLANK(E34), "",INDEX(Squads!A$3:B$1048576,MATCH(E34, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2271,32 +2272,30 @@
       </c>
       <c r="K34" s="3">
         <f t="shared" si="1"/>
-        <v>9991460009</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9052936055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="8">
-        <v>9052936055</v>
-      </c>
-      <c r="E35">
+        <v>185</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="25">
         <v>2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="25">
         <v>2</v>
       </c>
-      <c r="H35" s="20" t="str">
+      <c r="H35" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Доценко Егор</v>
+        <v>Таран Максим</v>
       </c>
       <c r="I35" s="3" t="str">
         <f>IF(ISBLANK(E35), "",INDEX(Squads!A$3:B$1048576,MATCH(E35, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2308,8 +2307,9 @@
       </c>
       <c r="K35" s="3">
         <f t="shared" si="1"/>
-        <v>9052936055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
@@ -2317,12 +2317,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="D36" s="8">
+        <v>9314153251</v>
+      </c>
       <c r="E36" s="25">
         <v>2</v>
       </c>
@@ -2330,8 +2332,8 @@
         <v>2</v>
       </c>
       <c r="H36" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>Таран Максим</v>
+        <f t="shared" ref="H36" si="3">IF(AND(ISBLANK(B36),ISBLANK(C36)), "",TRIM(_xlfn.CONCAT($B36," ",$C36)))</f>
+        <v>Первышин Андрей</v>
       </c>
       <c r="I36" s="3" t="str">
         <f>IF(ISBLANK(E36), "",INDEX(Squads!A$3:B$1048576,MATCH(E36, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2342,8 +2344,8 @@
         <v>Участник</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="K36" si="4">D36</f>
+        <v>9314153251</v>
       </c>
       <c r="M36" s="3"/>
     </row>
@@ -2353,14 +2355,12 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="8">
-        <v>9314153251</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="25">
         <v>2</v>
       </c>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H37" s="24" t="str">
         <f t="shared" ref="H37" si="5">IF(AND(ISBLANK(B37),ISBLANK(C37)), "",TRIM(_xlfn.CONCAT($B37," ",$C37)))</f>
-        <v>Первышин Андрей</v>
+        <v>Соколов Иван</v>
       </c>
       <c r="I37" s="3" t="str">
         <f>IF(ISBLANK(E37), "",INDEX(Squads!A$3:B$1048576,MATCH(E37, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2381,31 +2381,33 @@
       </c>
       <c r="K37" s="3">
         <f t="shared" ref="K37" si="6">D37</f>
-        <v>9314153251</v>
+        <v>0</v>
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="25">
+        <v>67</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="8">
+        <v>9116573329</v>
+      </c>
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="H38" s="24" t="str">
-        <f t="shared" ref="H38" si="7">IF(AND(ISBLANK(B38),ISBLANK(C38)), "",TRIM(_xlfn.CONCAT($B38," ",$C38)))</f>
-        <v>Соколов Иван</v>
+      <c r="H38" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Вторушин Ярослав</v>
       </c>
       <c r="I38" s="3" t="str">
         <f>IF(ISBLANK(E38), "",INDEX(Squads!A$3:B$1048576,MATCH(E38, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2416,10 +2418,9 @@
         <v>Участник</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" ref="K38" si="8">D38</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="3"/>
+        <f t="shared" si="1"/>
+        <v>9116573329</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
@@ -2427,13 +2428,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" s="8">
-        <v>9116573329</v>
+        <v>9116869084</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2443,7 +2444,7 @@
       </c>
       <c r="H39" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Вторушин Ярослав</v>
+        <v>Семушин Лев</v>
       </c>
       <c r="I39" s="3" t="str">
         <f>IF(ISBLANK(E39), "",INDEX(Squads!A$3:B$1048576,MATCH(E39, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2455,7 +2456,7 @@
       </c>
       <c r="K39" s="3">
         <f t="shared" si="1"/>
-        <v>9116573329</v>
+        <v>9116869084</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,13 +2465,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D40" s="8">
-        <v>9116869084</v>
+        <v>9009136809</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2480,7 +2481,7 @@
       </c>
       <c r="H40" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Семушин Лев</v>
+        <v>Полозов Егор</v>
       </c>
       <c r="I40" s="3" t="str">
         <f>IF(ISBLANK(E40), "",INDEX(Squads!A$3:B$1048576,MATCH(E40, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2492,7 +2493,7 @@
       </c>
       <c r="K40" s="3">
         <f t="shared" si="1"/>
-        <v>9116869084</v>
+        <v>9009136809</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,13 +2502,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D41" s="8">
-        <v>9009136809</v>
+        <v>9657329507</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2517,7 +2518,7 @@
       </c>
       <c r="H41" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Полозов Егор</v>
+        <v>Дроздов Даня</v>
       </c>
       <c r="I41" s="3" t="str">
         <f>IF(ISBLANK(E41), "",INDEX(Squads!A$3:B$1048576,MATCH(E41, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2529,7 +2530,7 @@
       </c>
       <c r="K41" s="3">
         <f t="shared" si="1"/>
-        <v>9009136809</v>
+        <v>9657329507</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2538,13 +2539,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D42" s="8">
-        <v>9657329507</v>
+        <v>9522545149</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2554,7 +2555,7 @@
       </c>
       <c r="H42" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Дроздов Даня</v>
+        <v>Евтушенко Юля</v>
       </c>
       <c r="I42" s="3" t="str">
         <f>IF(ISBLANK(E42), "",INDEX(Squads!A$3:B$1048576,MATCH(E42, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2566,7 +2567,7 @@
       </c>
       <c r="K42" s="3">
         <f t="shared" si="1"/>
-        <v>9657329507</v>
+        <v>9522545149</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2575,13 +2576,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D43" s="8">
-        <v>9522545149</v>
+        <v>9539315895</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2591,7 +2592,7 @@
       </c>
       <c r="H43" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Евтушенко Юля</v>
+        <v>Хинтба Алина</v>
       </c>
       <c r="I43" s="3" t="str">
         <f>IF(ISBLANK(E43), "",INDEX(Squads!A$3:B$1048576,MATCH(E43, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2603,7 +2604,7 @@
       </c>
       <c r="K43" s="3">
         <f t="shared" si="1"/>
-        <v>9522545149</v>
+        <v>9539315895</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2612,13 +2613,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D44" s="8">
-        <v>9539315895</v>
+        <v>9314145713</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -2628,7 +2629,7 @@
       </c>
       <c r="H44" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Хинтба Алина</v>
+        <v>Орлова Алёна</v>
       </c>
       <c r="I44" s="3" t="str">
         <f>IF(ISBLANK(E44), "",INDEX(Squads!A$3:B$1048576,MATCH(E44, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2640,32 +2641,30 @@
       </c>
       <c r="K44" s="3">
         <f t="shared" si="1"/>
-        <v>9539315895</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9314145713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="8">
-        <v>9314145713</v>
-      </c>
-      <c r="E45">
+        <v>189</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="25">
         <v>2</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="25">
         <v>2</v>
       </c>
-      <c r="H45" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Орлова Алёна</v>
+      <c r="H45" s="24" t="str">
+        <f t="shared" ref="H45" si="7">IF(AND(ISBLANK(B45),ISBLANK(C45)), "",TRIM(_xlfn.CONCAT($B45," ",$C45)))</f>
+        <v>Жуматий Ира</v>
       </c>
       <c r="I45" s="3" t="str">
         <f>IF(ISBLANK(E45), "",INDEX(Squads!A$3:B$1048576,MATCH(E45, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2676,31 +2675,34 @@
         <v>Участник</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="1"/>
-        <v>9314145713</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="25" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K45" si="8">D45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="25">
+        <v>77</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="8">
+        <v>9502506035</v>
+      </c>
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46">
         <v>2</v>
       </c>
-      <c r="H46" s="24" t="str">
-        <f t="shared" ref="H46" si="9">IF(AND(ISBLANK(B46),ISBLANK(C46)), "",TRIM(_xlfn.CONCAT($B46," ",$C46)))</f>
-        <v>Жуматий Ира</v>
+      <c r="H46" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ульянова Саша</v>
       </c>
       <c r="I46" s="3" t="str">
         <f>IF(ISBLANK(E46), "",INDEX(Squads!A$3:B$1048576,MATCH(E46, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2711,10 +2713,9 @@
         <v>Участник</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" ref="K46" si="10">D46</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="3"/>
+        <f t="shared" si="1"/>
+        <v>9502506035</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
@@ -2722,13 +2723,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="8">
-        <v>9502506035</v>
+        <v>9210890586</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2738,7 +2739,7 @@
       </c>
       <c r="H47" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Ульянова Саша</v>
+        <v>Голдина Саша</v>
       </c>
       <c r="I47" s="3" t="str">
         <f>IF(ISBLANK(E47), "",INDEX(Squads!A$3:B$1048576,MATCH(E47, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2750,7 +2751,7 @@
       </c>
       <c r="K47" s="3">
         <f t="shared" si="1"/>
-        <v>9502506035</v>
+        <v>9210890586</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2759,13 +2760,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D48" s="8">
-        <v>9210890586</v>
+        <v>9009120532</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2775,7 +2776,7 @@
       </c>
       <c r="H48" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Голдина Саша</v>
+        <v>Куприяник Аня</v>
       </c>
       <c r="I48" s="3" t="str">
         <f>IF(ISBLANK(E48), "",INDEX(Squads!A$3:B$1048576,MATCH(E48, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2787,7 +2788,7 @@
       </c>
       <c r="K48" s="3">
         <f t="shared" si="1"/>
-        <v>9210890586</v>
+        <v>9009120532</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2796,13 +2797,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D49" s="8">
-        <v>9009120532</v>
+        <v>9502537642</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -2812,7 +2813,7 @@
       </c>
       <c r="H49" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Куприяник Аня</v>
+        <v>Кунец Алина</v>
       </c>
       <c r="I49" s="3" t="str">
         <f>IF(ISBLANK(E49), "",INDEX(Squads!A$3:B$1048576,MATCH(E49, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2824,7 +2825,7 @@
       </c>
       <c r="K49" s="3">
         <f t="shared" si="1"/>
-        <v>9009120532</v>
+        <v>9502537642</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2833,14 +2834,12 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="8">
-        <v>9502537642</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D50" s="8"/>
       <c r="E50">
         <v>2</v>
       </c>
@@ -2849,7 +2848,7 @@
       </c>
       <c r="H50" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Кунец Алина</v>
+        <v>Кучеренкова Оля</v>
       </c>
       <c r="I50" s="3" t="str">
         <f>IF(ISBLANK(E50), "",INDEX(Squads!A$3:B$1048576,MATCH(E50, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2861,7 +2860,7 @@
       </c>
       <c r="K50" s="3">
         <f t="shared" si="1"/>
-        <v>9502537642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2870,33 +2869,35 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="D51" s="8">
+        <v>9021982289</v>
+      </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Кучеренкова Оля</v>
+        <v>Семьин Миша</v>
       </c>
       <c r="I51" s="3" t="str">
         <f>IF(ISBLANK(E51), "",INDEX(Squads!A$3:B$1048576,MATCH(E51, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>12/09</v>
+        <v>Путеводный</v>
       </c>
       <c r="J51" s="3" t="str">
         <f>IF(ISBLANK(F51), "",INDEX(Roles!A$3:B$1048576,MATCH(F51, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Участник</v>
+        <v>Вожатый</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9021982289</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2905,13 +2906,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D52" s="8">
-        <v>9021982289</v>
+        <v>9210787810</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -2921,7 +2922,7 @@
       </c>
       <c r="H52" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Семьин Миша</v>
+        <v>Северьянова Юля</v>
       </c>
       <c r="I52" s="3" t="str">
         <f>IF(ISBLANK(E52), "",INDEX(Squads!A$3:B$1048576,MATCH(E52, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2933,7 +2934,7 @@
       </c>
       <c r="K52" s="3">
         <f t="shared" si="1"/>
-        <v>9021982289</v>
+        <v>9210787810</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2942,13 +2943,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D53" s="8">
-        <v>9210787810</v>
+        <v>9600036043</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -2958,7 +2959,7 @@
       </c>
       <c r="H53" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Северьянова Юля</v>
+        <v>Чаусова Катя</v>
       </c>
       <c r="I53" s="3" t="str">
         <f>IF(ISBLANK(E53), "",INDEX(Squads!A$3:B$1048576,MATCH(E53, Squads!A$3:A$1048576, 0), 2))</f>
@@ -2970,7 +2971,7 @@
       </c>
       <c r="K53" s="3">
         <f t="shared" si="1"/>
-        <v>9210787810</v>
+        <v>9600036043</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,13 +2980,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D54" s="8">
-        <v>9600036043</v>
+        <v>9025073259</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -2995,7 +2996,7 @@
       </c>
       <c r="H54" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Чаусова Катя</v>
+        <v>Карамышева Ира</v>
       </c>
       <c r="I54" s="3" t="str">
         <f>IF(ISBLANK(E54), "",INDEX(Squads!A$3:B$1048576,MATCH(E54, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3007,7 +3008,7 @@
       </c>
       <c r="K54" s="3">
         <f t="shared" si="1"/>
-        <v>9600036043</v>
+        <v>9025073259</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3016,13 +3017,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D55" s="8">
-        <v>9025073259</v>
+        <v>9626624368</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -3032,7 +3033,7 @@
       </c>
       <c r="H55" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Карамышева Ира</v>
+        <v>Кескюль Лина</v>
       </c>
       <c r="I55" s="3" t="str">
         <f>IF(ISBLANK(E55), "",INDEX(Squads!A$3:B$1048576,MATCH(E55, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3044,7 +3045,7 @@
       </c>
       <c r="K55" s="3">
         <f t="shared" si="1"/>
-        <v>9025073259</v>
+        <v>9626624368</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,23 +3054,23 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="8">
-        <v>9626624368</v>
+        <v>22</v>
+      </c>
+      <c r="D56" s="10">
+        <v>9532677435</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Кескюль Лина</v>
+        <v>Азановский Илья</v>
       </c>
       <c r="I56" s="3" t="str">
         <f>IF(ISBLANK(E56), "",INDEX(Squads!A$3:B$1048576,MATCH(E56, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3077,11 +3078,11 @@
       </c>
       <c r="J56" s="3" t="str">
         <f>IF(ISBLANK(F56), "",INDEX(Roles!A$3:B$1048576,MATCH(F56, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Вожатый</v>
+        <v>Участник</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" si="1"/>
-        <v>9626624368</v>
+        <v>9532677435</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3090,13 +3091,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="10">
-        <v>9532677435</v>
+        <v>9116851539</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -3105,8 +3106,8 @@
         <v>2</v>
       </c>
       <c r="H57" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Азановский Илья</v>
+        <f t="shared" ref="H57:H88" si="9">IF(AND(ISBLANK(B57),ISBLANK(C57)), "",TRIM(_xlfn.CONCAT($B57," ",$C57)))</f>
+        <v>Десятков Илья</v>
       </c>
       <c r="I57" s="3" t="str">
         <f>IF(ISBLANK(E57), "",INDEX(Squads!A$3:B$1048576,MATCH(E57, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3117,8 +3118,8 @@
         <v>Участник</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="1"/>
-        <v>9532677435</v>
+        <f t="shared" ref="K57:K116" si="10">D57</f>
+        <v>9116851539</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,13 +3128,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D58" s="10">
-        <v>9116851539</v>
+        <v>9600007061</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -3142,8 +3143,8 @@
         <v>2</v>
       </c>
       <c r="H58" s="20" t="str">
-        <f t="shared" ref="H58:H89" si="11">IF(AND(ISBLANK(B58),ISBLANK(C58)), "",TRIM(_xlfn.CONCAT($B58," ",$C58)))</f>
-        <v>Десятков Илья</v>
+        <f t="shared" si="9"/>
+        <v>Нуромский Саша</v>
       </c>
       <c r="I58" s="3" t="str">
         <f>IF(ISBLANK(E58), "",INDEX(Squads!A$3:B$1048576,MATCH(E58, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3154,8 +3155,8 @@
         <v>Участник</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" ref="K58:K117" si="12">D58</f>
-        <v>9116851539</v>
+        <f t="shared" si="10"/>
+        <v>9600007061</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3164,13 +3165,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D59" s="10">
-        <v>9600007061</v>
+        <v>9118785661</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -3179,8 +3180,8 @@
         <v>2</v>
       </c>
       <c r="H59" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Нуромский Саша</v>
+        <f t="shared" si="9"/>
+        <v>Лобанов Антон</v>
       </c>
       <c r="I59" s="3" t="str">
         <f>IF(ISBLANK(E59), "",INDEX(Squads!A$3:B$1048576,MATCH(E59, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3191,8 +3192,8 @@
         <v>Участник</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="12"/>
-        <v>9600007061</v>
+        <f t="shared" si="10"/>
+        <v>9118785661</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3201,13 +3202,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D60" s="10">
-        <v>9118785661</v>
+        <v>9642900185</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -3216,8 +3217,8 @@
         <v>2</v>
       </c>
       <c r="H60" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Лобанов Антон</v>
+        <f t="shared" si="9"/>
+        <v>Солопов Артём</v>
       </c>
       <c r="I60" s="3" t="str">
         <f>IF(ISBLANK(E60), "",INDEX(Squads!A$3:B$1048576,MATCH(E60, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3228,8 +3229,8 @@
         <v>Участник</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="12"/>
-        <v>9118785661</v>
+        <f t="shared" si="10"/>
+        <v>9642900185</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3238,13 +3239,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D61" s="10">
-        <v>9642900185</v>
+        <v>9600090480</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -3253,8 +3254,8 @@
         <v>2</v>
       </c>
       <c r="H61" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Солопов Артём</v>
+        <f t="shared" si="9"/>
+        <v>Тюпышев Матвей</v>
       </c>
       <c r="I61" s="3" t="str">
         <f>IF(ISBLANK(E61), "",INDEX(Squads!A$3:B$1048576,MATCH(E61, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3265,8 +3266,8 @@
         <v>Участник</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="12"/>
-        <v>9642900185</v>
+        <f t="shared" si="10"/>
+        <v>9600090480</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3275,13 +3276,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D62" s="10">
-        <v>9600090480</v>
+        <v>9210723677</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -3290,8 +3291,8 @@
         <v>2</v>
       </c>
       <c r="H62" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Тюпышев Матвей</v>
+        <f t="shared" si="9"/>
+        <v>Бабуль Кирилл</v>
       </c>
       <c r="I62" s="3" t="str">
         <f>IF(ISBLANK(E62), "",INDEX(Squads!A$3:B$1048576,MATCH(E62, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3302,8 +3303,8 @@
         <v>Участник</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="12"/>
-        <v>9600090480</v>
+        <f t="shared" si="10"/>
+        <v>9210723677</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3312,13 +3313,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D63" s="10">
-        <v>9210723677</v>
+        <v>9532632864</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -3327,8 +3328,8 @@
         <v>2</v>
       </c>
       <c r="H63" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Бабуль Кирилл</v>
+        <f t="shared" si="9"/>
+        <v>Чаусов Данил</v>
       </c>
       <c r="I63" s="3" t="str">
         <f>IF(ISBLANK(E63), "",INDEX(Squads!A$3:B$1048576,MATCH(E63, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3339,8 +3340,8 @@
         <v>Участник</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="12"/>
-        <v>9210723677</v>
+        <f t="shared" si="10"/>
+        <v>9532632864</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3349,13 +3350,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D64" s="10">
-        <v>9532632864</v>
+        <v>9600133311</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -3364,8 +3365,8 @@
         <v>2</v>
       </c>
       <c r="H64" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Чаусов Данил</v>
+        <f t="shared" si="9"/>
+        <v>Федоренко Даша</v>
       </c>
       <c r="I64" s="3" t="str">
         <f>IF(ISBLANK(E64), "",INDEX(Squads!A$3:B$1048576,MATCH(E64, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3376,23 +3377,23 @@
         <v>Участник</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="12"/>
-        <v>9532632864</v>
+        <f t="shared" si="10"/>
+        <v>9600133311</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A65:A90" si="11">IF(AND(ISBLANK(B65),ISBLANK(C65)), "", A64 + 1)</f>
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D65" s="10">
-        <v>9600133311</v>
+        <v>9115730722</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -3401,8 +3402,8 @@
         <v>2</v>
       </c>
       <c r="H65" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Федоренко Даша</v>
+        <f t="shared" si="9"/>
+        <v>Тюпышева Ксюша</v>
       </c>
       <c r="I65" s="3" t="str">
         <f>IF(ISBLANK(E65), "",INDEX(Squads!A$3:B$1048576,MATCH(E65, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3413,23 +3414,23 @@
         <v>Участник</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="12"/>
-        <v>9600133311</v>
+        <f t="shared" si="10"/>
+        <v>9115730722</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
-        <f t="shared" ref="A66:A91" si="13">IF(AND(ISBLANK(B66),ISBLANK(C66)), "", A65 + 1)</f>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D66" s="10">
-        <v>9115730722</v>
+        <v>9115667093</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -3438,8 +3439,8 @@
         <v>2</v>
       </c>
       <c r="H66" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Тюпышева Ксюша</v>
+        <f t="shared" si="9"/>
+        <v>Прокопьева Маша</v>
       </c>
       <c r="I66" s="3" t="str">
         <f>IF(ISBLANK(E66), "",INDEX(Squads!A$3:B$1048576,MATCH(E66, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3450,23 +3451,23 @@
         <v>Участник</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="12"/>
-        <v>9115730722</v>
+        <f t="shared" si="10"/>
+        <v>9115667093</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26">
-        <f t="shared" si="13"/>
+      <c r="A67" s="27">
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D67" s="10">
-        <v>9115667093</v>
+        <v>9214888784</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -3475,8 +3476,8 @@
         <v>2</v>
       </c>
       <c r="H67" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Прокопьева Маша</v>
+        <f t="shared" si="9"/>
+        <v>Крутикова Полина</v>
       </c>
       <c r="I67" s="3" t="str">
         <f>IF(ISBLANK(E67), "",INDEX(Squads!A$3:B$1048576,MATCH(E67, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3487,23 +3488,23 @@
         <v>Участник</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="12"/>
-        <v>9115667093</v>
+        <f t="shared" si="10"/>
+        <v>9214888784</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D68" s="10">
-        <v>9214888784</v>
+        <v>9539361130</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -3512,8 +3513,8 @@
         <v>2</v>
       </c>
       <c r="H68" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Крутикова Полина</v>
+        <f t="shared" si="9"/>
+        <v>Понасенкова Вероника</v>
       </c>
       <c r="I68" s="3" t="str">
         <f>IF(ISBLANK(E68), "",INDEX(Squads!A$3:B$1048576,MATCH(E68, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3524,23 +3525,23 @@
         <v>Участник</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="12"/>
-        <v>9214888784</v>
+        <f t="shared" si="10"/>
+        <v>9539361130</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D69" s="10">
-        <v>9539361130</v>
+        <v>9532649499</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3549,8 +3550,8 @@
         <v>2</v>
       </c>
       <c r="H69" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Понасенкова Вероника</v>
+        <f t="shared" si="9"/>
+        <v>Натахина Алёна</v>
       </c>
       <c r="I69" s="3" t="str">
         <f>IF(ISBLANK(E69), "",INDEX(Squads!A$3:B$1048576,MATCH(E69, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3561,23 +3562,23 @@
         <v>Участник</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="12"/>
-        <v>9539361130</v>
+        <f t="shared" si="10"/>
+        <v>9532649499</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D70" s="10">
-        <v>9532649499</v>
+        <v>9539314404</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -3586,8 +3587,8 @@
         <v>2</v>
       </c>
       <c r="H70" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Натахина Алёна</v>
+        <f t="shared" si="9"/>
+        <v>Дьячкова Арина</v>
       </c>
       <c r="I70" s="3" t="str">
         <f>IF(ISBLANK(E70), "",INDEX(Squads!A$3:B$1048576,MATCH(E70, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3598,23 +3599,23 @@
         <v>Участник</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="12"/>
-        <v>9532649499</v>
+        <f t="shared" si="10"/>
+        <v>9539314404</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D71" s="10">
-        <v>9539314404</v>
+        <v>9115803941</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -3623,8 +3624,8 @@
         <v>2</v>
       </c>
       <c r="H71" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Дьячкова Арина</v>
+        <f t="shared" si="9"/>
+        <v>Проценко Дарья</v>
       </c>
       <c r="I71" s="3" t="str">
         <f>IF(ISBLANK(E71), "",INDEX(Squads!A$3:B$1048576,MATCH(E71, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3635,60 +3636,60 @@
         <v>Участник</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="12"/>
-        <v>9539314404</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>9115803941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>110</v>
+      <c r="B72" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" s="10">
-        <v>9115803941</v>
+        <v>24</v>
+      </c>
+      <c r="D72" s="8">
+        <v>9210859610</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Проценко Дарья</v>
+        <f t="shared" si="9"/>
+        <v>Савинкина Лиза</v>
       </c>
       <c r="I72" s="3" t="str">
         <f>IF(ISBLANK(E72), "",INDEX(Squads!A$3:B$1048576,MATCH(E72, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>Путеводный</v>
+        <v>168 Часов</v>
       </c>
       <c r="J72" s="3" t="str">
         <f>IF(ISBLANK(F72), "",INDEX(Roles!A$3:B$1048576,MATCH(F72, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Участник</v>
+        <v>Вожатый</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="12"/>
-        <v>9115803941</v>
+        <f t="shared" si="10"/>
+        <v>9210859610</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="27">
-        <f t="shared" si="13"/>
+      <c r="A73" s="26">
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D73" s="8">
-        <v>9210859610</v>
+        <v>9210815080</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -3697,8 +3698,8 @@
         <v>1</v>
       </c>
       <c r="H73" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Савинкина Лиза</v>
+        <f t="shared" si="9"/>
+        <v>Коробова Ксюша</v>
       </c>
       <c r="I73" s="3" t="str">
         <f>IF(ISBLANK(E73), "",INDEX(Squads!A$3:B$1048576,MATCH(E73, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3709,23 +3710,23 @@
         <v>Вожатый</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="12"/>
-        <v>9210859610</v>
+        <f t="shared" si="10"/>
+        <v>9210815080</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="D74" s="8">
-        <v>9210815080</v>
+        <v>9969214573</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -3734,8 +3735,8 @@
         <v>1</v>
       </c>
       <c r="H74" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Коробова Ксюша</v>
+        <f t="shared" si="9"/>
+        <v>Варзина Настя</v>
       </c>
       <c r="I74" s="3" t="str">
         <f>IF(ISBLANK(E74), "",INDEX(Squads!A$3:B$1048576,MATCH(E74, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3746,23 +3747,23 @@
         <v>Вожатый</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="12"/>
-        <v>9210815080</v>
+        <f t="shared" si="10"/>
+        <v>9969214573</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D75" s="8">
-        <v>9969214573</v>
+        <v>9115800840</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -3771,8 +3772,8 @@
         <v>1</v>
       </c>
       <c r="H75" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Варзина Настя</v>
+        <f t="shared" si="9"/>
+        <v>Михайлов Кирилл</v>
       </c>
       <c r="I75" s="3" t="str">
         <f>IF(ISBLANK(E75), "",INDEX(Squads!A$3:B$1048576,MATCH(E75, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3783,33 +3784,33 @@
         <v>Вожатый</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="12"/>
-        <v>9969214573</v>
+        <f t="shared" si="10"/>
+        <v>9115800840</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D76" s="8">
-        <v>9115800840</v>
+        <v>9969216837</v>
       </c>
       <c r="E76">
         <v>4</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Михайлов Кирилл</v>
+        <f t="shared" si="9"/>
+        <v>Юрьев Кирилл</v>
       </c>
       <c r="I76" s="3" t="str">
         <f>IF(ISBLANK(E76), "",INDEX(Squads!A$3:B$1048576,MATCH(E76, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3817,26 +3818,26 @@
       </c>
       <c r="J76" s="3" t="str">
         <f>IF(ISBLANK(F76), "",INDEX(Roles!A$3:B$1048576,MATCH(F76, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Вожатый</v>
+        <v>Участник</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="12"/>
-        <v>9115800840</v>
+        <f t="shared" si="10"/>
+        <v>9969216837</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D77" s="8">
-        <v>9969216837</v>
+        <v>9626649990</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -3845,8 +3846,8 @@
         <v>2</v>
       </c>
       <c r="H77" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Юрьев Кирилл</v>
+        <f t="shared" si="9"/>
+        <v>Сынчиков Никита</v>
       </c>
       <c r="I77" s="3" t="str">
         <f>IF(ISBLANK(E77), "",INDEX(Squads!A$3:B$1048576,MATCH(E77, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3857,23 +3858,23 @@
         <v>Участник</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="12"/>
-        <v>9969216837</v>
+        <f t="shared" si="10"/>
+        <v>9626649990</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D78" s="8">
-        <v>9626649990</v>
+        <v>9009203089</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -3882,8 +3883,8 @@
         <v>2</v>
       </c>
       <c r="H78" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Сынчиков Никита</v>
+        <f t="shared" si="9"/>
+        <v>Веселков Матвей</v>
       </c>
       <c r="I78" s="3" t="str">
         <f>IF(ISBLANK(E78), "",INDEX(Squads!A$3:B$1048576,MATCH(E78, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3894,23 +3895,23 @@
         <v>Участник</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="12"/>
-        <v>9626649990</v>
+        <f t="shared" si="10"/>
+        <v>9009203089</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D79" s="8">
-        <v>9009203089</v>
+        <v>9022854509</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3919,8 +3920,8 @@
         <v>2</v>
       </c>
       <c r="H79" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Веселков Матвей</v>
+        <f t="shared" si="9"/>
+        <v>Сумароков Саша</v>
       </c>
       <c r="I79" s="3" t="str">
         <f>IF(ISBLANK(E79), "",INDEX(Squads!A$3:B$1048576,MATCH(E79, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3931,23 +3932,23 @@
         <v>Участник</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="12"/>
-        <v>9009203089</v>
+        <f t="shared" si="10"/>
+        <v>9022854509</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="D80" s="8">
-        <v>9022854509</v>
+        <v>9110581233</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -3956,8 +3957,8 @@
         <v>2</v>
       </c>
       <c r="H80" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Сумароков Саша</v>
+        <f t="shared" si="9"/>
+        <v>Коротова Ангелина</v>
       </c>
       <c r="I80" s="3" t="str">
         <f>IF(ISBLANK(E80), "",INDEX(Squads!A$3:B$1048576,MATCH(E80, Squads!A$3:A$1048576, 0), 2))</f>
@@ -3968,23 +3969,23 @@
         <v>Участник</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="12"/>
-        <v>9022854509</v>
+        <f t="shared" si="10"/>
+        <v>9110581233</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D81" s="8">
-        <v>9110581233</v>
+        <v>9115812807</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3993,8 +3994,8 @@
         <v>2</v>
       </c>
       <c r="H81" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Коротова Ангелина</v>
+        <f t="shared" si="9"/>
+        <v>Отяковская Альбина</v>
       </c>
       <c r="I81" s="3" t="str">
         <f>IF(ISBLANK(E81), "",INDEX(Squads!A$3:B$1048576,MATCH(E81, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4005,23 +4006,23 @@
         <v>Участник</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="12"/>
-        <v>9110581233</v>
+        <f t="shared" si="10"/>
+        <v>9115812807</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="D82" s="8">
-        <v>9115812807</v>
+        <v>9522528224</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -4030,8 +4031,8 @@
         <v>2</v>
       </c>
       <c r="H82" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Отяковская Альбина</v>
+        <f t="shared" si="9"/>
+        <v>Кажарская Лиза</v>
       </c>
       <c r="I82" s="3" t="str">
         <f>IF(ISBLANK(E82), "",INDEX(Squads!A$3:B$1048576,MATCH(E82, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4042,23 +4043,23 @@
         <v>Участник</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="12"/>
-        <v>9115812807</v>
+        <f t="shared" si="10"/>
+        <v>9522528224</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="D83" s="8">
-        <v>9522528224</v>
+        <v>9116721129</v>
       </c>
       <c r="E83">
         <v>4</v>
@@ -4067,8 +4068,8 @@
         <v>2</v>
       </c>
       <c r="H83" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Кажарская Лиза</v>
+        <f t="shared" si="9"/>
+        <v>Браницкая Женя</v>
       </c>
       <c r="I83" s="3" t="str">
         <f>IF(ISBLANK(E83), "",INDEX(Squads!A$3:B$1048576,MATCH(E83, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4079,23 +4080,23 @@
         <v>Участник</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="12"/>
-        <v>9522528224</v>
+        <f t="shared" si="10"/>
+        <v>9116721129</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="D84" s="8">
-        <v>9116721129</v>
+        <v>9643006592</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -4104,8 +4105,8 @@
         <v>2</v>
       </c>
       <c r="H84" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Браницкая Женя</v>
+        <f t="shared" si="9"/>
+        <v>Тур Лера</v>
       </c>
       <c r="I84" s="3" t="str">
         <f>IF(ISBLANK(E84), "",INDEX(Squads!A$3:B$1048576,MATCH(E84, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4116,23 +4117,23 @@
         <v>Участник</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="12"/>
-        <v>9116721129</v>
+        <f t="shared" si="10"/>
+        <v>9643006592</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="D85" s="8">
-        <v>9643006592</v>
+        <v>9027000003</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -4141,8 +4142,8 @@
         <v>2</v>
       </c>
       <c r="H85" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Тур Лера</v>
+        <f t="shared" si="9"/>
+        <v>Фролова Вероника</v>
       </c>
       <c r="I85" s="3" t="str">
         <f>IF(ISBLANK(E85), "",INDEX(Squads!A$3:B$1048576,MATCH(E85, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4153,23 +4154,23 @@
         <v>Участник</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="12"/>
-        <v>9643006592</v>
+        <f t="shared" si="10"/>
+        <v>9027000003</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D86" s="8">
-        <v>9027000003</v>
+        <v>9642958484</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -4178,8 +4179,8 @@
         <v>2</v>
       </c>
       <c r="H86" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Фролова Вероника</v>
+        <f t="shared" si="9"/>
+        <v>Угрюмова Аня</v>
       </c>
       <c r="I86" s="3" t="str">
         <f>IF(ISBLANK(E86), "",INDEX(Squads!A$3:B$1048576,MATCH(E86, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4190,23 +4191,23 @@
         <v>Участник</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="12"/>
-        <v>9027000003</v>
+        <f t="shared" si="10"/>
+        <v>9642958484</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D87" s="8">
-        <v>9642958484</v>
+        <v>9642936307</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -4215,8 +4216,8 @@
         <v>2</v>
       </c>
       <c r="H87" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Угрюмова Аня</v>
+        <f t="shared" si="9"/>
+        <v>Хабарова Лиза</v>
       </c>
       <c r="I87" s="3" t="str">
         <f>IF(ISBLANK(E87), "",INDEX(Squads!A$3:B$1048576,MATCH(E87, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4227,23 +4228,23 @@
         <v>Участник</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="12"/>
-        <v>9642958484</v>
+        <f t="shared" si="10"/>
+        <v>9642936307</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="D88" s="8">
-        <v>9642936307</v>
+        <v>9115994619</v>
       </c>
       <c r="E88">
         <v>4</v>
@@ -4252,8 +4253,8 @@
         <v>2</v>
       </c>
       <c r="H88" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Хабарова Лиза</v>
+        <f t="shared" si="9"/>
+        <v>Садков Кирилл</v>
       </c>
       <c r="I88" s="3" t="str">
         <f>IF(ISBLANK(E88), "",INDEX(Squads!A$3:B$1048576,MATCH(E88, Squads!A$3:A$1048576, 0), 2))</f>
@@ -4264,145 +4265,132 @@
         <v>Участник</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="12"/>
-        <v>9642936307</v>
+        <f t="shared" si="10"/>
+        <v>9115994619</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="C89" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="8">
-        <v>9115994619</v>
-      </c>
-      <c r="E89">
-        <v>4</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="H89" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>Садков Кирилл</v>
+        <v>160</v>
+      </c>
+      <c r="D89" s="6">
+        <v>9210861421</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7" t="str">
+        <f>IF(AND(ISBLANK(B89),ISBLANK(C89)), "",TRIM(_xlfn.CONCAT($B89," ",$C89)))</f>
+        <v>Владимир Николаевич</v>
       </c>
       <c r="I89" s="3" t="str">
         <f>IF(ISBLANK(E89), "",INDEX(Squads!A$3:B$1048576,MATCH(E89, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>168 Часов</v>
+        <v/>
       </c>
       <c r="J89" s="3" t="str">
-        <f>IF(ISBLANK(F89), "",INDEX(Roles!A$3:B$1048576,MATCH(F89, Roles!A$3:A$1048576, 0), 2))</f>
-        <v>Участник</v>
+        <f>IF(ISBLANK(F89), "",INDEX(Roles!A$3:B$1048576,MATCH(F89, Squads!A$3:A$1048576, 0), 2))</f>
+        <v>Вожатый</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="12"/>
-        <v>9115994619</v>
+        <f t="shared" si="10"/>
+        <v>9210861421</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="6">
-        <v>9210861421</v>
-      </c>
-      <c r="F90" s="6">
-        <v>1</v>
-      </c>
-      <c r="H90" s="7" t="str">
+        <v>175</v>
+      </c>
+      <c r="D90" s="8">
+        <v>9532602200</v>
+      </c>
+      <c r="E90" s="6" t="str">
+        <f>IF(ISBLANK(F90), "",INDEX(Squads!A$3:B$1048576,MATCH(F90, Squads!B$3:B$1048576, 0), 1))</f>
+        <v/>
+      </c>
+      <c r="H90" s="20" t="str">
         <f>IF(AND(ISBLANK(B90),ISBLANK(C90)), "",TRIM(_xlfn.CONCAT($B90," ",$C90)))</f>
-        <v>Владимир Николаевич</v>
-      </c>
-      <c r="I90" s="3" t="str">
-        <f>IF(ISBLANK(E90), "",INDEX(Squads!A$3:B$1048576,MATCH(E90, Squads!A$3:A$1048576, 0), 2))</f>
-        <v/>
-      </c>
+        <v>Лариса Васильевна</v>
+      </c>
+      <c r="I90" s="3"/>
       <c r="J90" s="3" t="str">
         <f>IF(ISBLANK(F90), "",INDEX(Roles!A$3:B$1048576,MATCH(F90, Squads!A$3:A$1048576, 0), 2))</f>
-        <v>Вожатый</v>
+        <v/>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="12"/>
-        <v>9210861421</v>
+        <f t="shared" si="10"/>
+        <v>9532602200</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="26">
-        <f t="shared" si="13"/>
+      <c r="A91" s="21">
+        <f t="shared" ref="A91:A117" si="12">IF(AND(ISBLANK(B91),ISBLANK(C91)), "", A90 + 1)</f>
         <v>89</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D91" s="8">
-        <v>9532602200</v>
-      </c>
-      <c r="E91" s="6" t="str">
-        <f>IF(ISBLANK(F91), "",INDEX(Squads!A$3:B$1048576,MATCH(F91, Squads!B$3:B$1048576, 0), 1))</f>
-        <v/>
-      </c>
-      <c r="H91" s="20" t="str">
-        <f>IF(AND(ISBLANK(B91),ISBLANK(C91)), "",TRIM(_xlfn.CONCAT($B91," ",$C91)))</f>
-        <v>Лариса Васильевна</v>
+      <c r="B91" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="29">
+        <v>1</v>
+      </c>
+      <c r="F91" s="29">
+        <v>2</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3" t="str">
         <f>IF(ISBLANK(F91), "",INDEX(Roles!A$3:B$1048576,MATCH(F91, Squads!A$3:A$1048576, 0), 2))</f>
-        <v/>
+        <v>Участник</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="12"/>
-        <v>9532602200</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="str">
-        <f t="shared" ref="A92:A118" si="14">IF(AND(ISBLANK(B92),ISBLANK(C92)), "", A91 + 1)</f>
-        <v/>
-      </c>
-      <c r="E92" s="6" t="str">
-        <f>IF(ISBLANK(F92), "",INDEX(Squads!A$3:B$1048576,MATCH(F92, Squads!B$3:B$1048576, 0), 1))</f>
-        <v/>
-      </c>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="D92" s="23"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3" t="str">
         <f>IF(ISBLANK(F92), "",INDEX(Roles!A$3:B$1048576,MATCH(F92, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="D93" s="23"/>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3" t="str">
         <f>IF(ISBLANK(F93), "",INDEX(Roles!A$3:B$1048576,MATCH(F93, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I94" s="3"/>
@@ -4411,13 +4399,13 @@
         <v/>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I95" s="3"/>
@@ -4426,13 +4414,13 @@
         <v/>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I96" s="3"/>
@@ -4441,13 +4429,13 @@
         <v/>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I97" s="3"/>
@@ -4456,13 +4444,13 @@
         <v/>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I98" s="3"/>
@@ -4471,13 +4459,13 @@
         <v/>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I99" s="3"/>
@@ -4486,13 +4474,13 @@
         <v/>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I100" s="3"/>
@@ -4501,13 +4489,13 @@
         <v/>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I101" s="3"/>
@@ -4516,13 +4504,13 @@
         <v/>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I102" s="3"/>
@@ -4531,13 +4519,13 @@
         <v/>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I103" s="3"/>
@@ -4546,13 +4534,13 @@
         <v/>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I104" s="3"/>
@@ -4561,13 +4549,13 @@
         <v/>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I105" s="3"/>
@@ -4576,13 +4564,13 @@
         <v/>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I106" s="3"/>
@@ -4591,13 +4579,13 @@
         <v/>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I107" s="3"/>
@@ -4606,13 +4594,13 @@
         <v/>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I108" s="3"/>
@@ -4621,13 +4609,13 @@
         <v/>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I109" s="3"/>
@@ -4636,13 +4624,13 @@
         <v/>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I110" s="3"/>
@@ -4651,13 +4639,13 @@
         <v/>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I111" s="3"/>
@@ -4666,13 +4654,13 @@
         <v/>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I112" s="3"/>
@@ -4681,13 +4669,13 @@
         <v/>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I113" s="3"/>
@@ -4696,13 +4684,13 @@
         <v/>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I114" s="3"/>
@@ -4711,13 +4699,13 @@
         <v/>
       </c>
       <c r="K114" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I115" s="3"/>
@@ -4726,13 +4714,13 @@
         <v/>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I116" s="3"/>
@@ -4741,13 +4729,13 @@
         <v/>
       </c>
       <c r="K116" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I117" s="3"/>
@@ -4756,13 +4744,13 @@
         <v/>
       </c>
       <c r="K117" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K117:K164" si="13">D117</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A118:A181" si="14">IF(AND(ISBLANK(B118),ISBLANK(C118)), "", A117 + 1)</f>
         <v/>
       </c>
       <c r="I118" s="3"/>
@@ -4771,13 +4759,13 @@
         <v/>
       </c>
       <c r="K118" s="3">
-        <f t="shared" ref="K118:K165" si="15">D118</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="str">
-        <f t="shared" ref="A119:A182" si="16">IF(AND(ISBLANK(B119),ISBLANK(C119)), "", A118 + 1)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I119" s="3"/>
@@ -4786,13 +4774,13 @@
         <v/>
       </c>
       <c r="K119" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I120" s="3"/>
@@ -4801,13 +4789,13 @@
         <v/>
       </c>
       <c r="K120" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I121" s="3"/>
@@ -4816,13 +4804,13 @@
         <v/>
       </c>
       <c r="K121" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I122" s="3"/>
@@ -4831,13 +4819,13 @@
         <v/>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I123" s="3"/>
@@ -4846,13 +4834,13 @@
         <v/>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I124" s="3"/>
@@ -4861,13 +4849,13 @@
         <v/>
       </c>
       <c r="K124" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I125" s="3"/>
@@ -4876,13 +4864,13 @@
         <v/>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I126" s="3"/>
@@ -4891,13 +4879,13 @@
         <v/>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I127" s="3"/>
@@ -4906,13 +4894,13 @@
         <v/>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I128" s="3"/>
@@ -4921,13 +4909,13 @@
         <v/>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I129" s="3"/>
@@ -4936,13 +4924,13 @@
         <v/>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I130" s="3"/>
@@ -4951,13 +4939,13 @@
         <v/>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I131" s="3"/>
@@ -4966,13 +4954,13 @@
         <v/>
       </c>
       <c r="K131" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I132" s="3"/>
@@ -4981,13 +4969,13 @@
         <v/>
       </c>
       <c r="K132" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I133" s="3"/>
@@ -4996,13 +4984,13 @@
         <v/>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I134" s="3"/>
@@ -5011,13 +4999,13 @@
         <v/>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I135" s="3"/>
@@ -5026,13 +5014,13 @@
         <v/>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I136" s="3"/>
@@ -5041,13 +5029,13 @@
         <v/>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I137" s="3"/>
@@ -5056,13 +5044,13 @@
         <v/>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I138" s="3"/>
@@ -5071,13 +5059,13 @@
         <v/>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I139" s="3"/>
@@ -5086,13 +5074,13 @@
         <v/>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I140" s="3"/>
@@ -5101,13 +5089,13 @@
         <v/>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I141" s="3"/>
@@ -5116,13 +5104,13 @@
         <v/>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I142" s="3"/>
@@ -5131,13 +5119,13 @@
         <v/>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I143" s="3"/>
@@ -5146,13 +5134,13 @@
         <v/>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I144" s="3"/>
@@ -5161,13 +5149,13 @@
         <v/>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I145" s="3"/>
@@ -5176,13 +5164,13 @@
         <v/>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I146" s="3"/>
@@ -5191,13 +5179,13 @@
         <v/>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I147" s="3"/>
@@ -5206,13 +5194,13 @@
         <v/>
       </c>
       <c r="K147" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I148" s="3"/>
@@ -5221,13 +5209,13 @@
         <v/>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I149" s="3"/>
@@ -5236,13 +5224,13 @@
         <v/>
       </c>
       <c r="K149" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I150" s="3"/>
@@ -5251,13 +5239,13 @@
         <v/>
       </c>
       <c r="K150" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I151" s="3"/>
@@ -5266,13 +5254,13 @@
         <v/>
       </c>
       <c r="K151" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I152" s="3"/>
@@ -5281,13 +5269,13 @@
         <v/>
       </c>
       <c r="K152" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I153" s="3"/>
@@ -5296,13 +5284,13 @@
         <v/>
       </c>
       <c r="K153" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I154" s="3"/>
@@ -5311,13 +5299,13 @@
         <v/>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I155" s="3"/>
@@ -5326,13 +5314,13 @@
         <v/>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I156" s="3"/>
@@ -5341,13 +5329,13 @@
         <v/>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I157" s="3"/>
@@ -5356,13 +5344,13 @@
         <v/>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I158" s="3"/>
@@ -5371,13 +5359,13 @@
         <v/>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I159" s="3"/>
@@ -5386,13 +5374,13 @@
         <v/>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I160" s="3"/>
@@ -5401,13 +5389,13 @@
         <v/>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I161" s="3"/>
@@ -5416,13 +5404,13 @@
         <v/>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I162" s="3"/>
@@ -5431,13 +5419,13 @@
         <v/>
       </c>
       <c r="K162" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I163" s="3"/>
@@ -5446,13 +5434,13 @@
         <v/>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I164" s="3"/>
@@ -5461,13 +5449,13 @@
         <v/>
       </c>
       <c r="K164" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I165" s="3"/>
@@ -5475,14 +5463,10 @@
         <f>IF(ISBLANK(F165), "",INDEX(Roles!A$3:B$1048576,MATCH(F165, Squads!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
-      <c r="K165" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I166" s="3"/>
@@ -5493,7 +5477,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I167" s="3"/>
@@ -5504,7 +5488,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I168" s="3"/>
@@ -5515,7 +5499,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I169" s="3"/>
@@ -5526,7 +5510,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I170" s="3"/>
@@ -5537,7 +5521,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I171" s="3"/>
@@ -5548,7 +5532,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I172" s="3"/>
@@ -5559,7 +5543,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I173" s="3"/>
@@ -5570,7 +5554,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I174" s="3"/>
@@ -5581,7 +5565,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I175" s="3"/>
@@ -5592,7 +5576,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I176" s="3"/>
@@ -5603,7 +5587,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I177" s="3"/>
@@ -5614,7 +5598,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I178" s="3"/>
@@ -5625,7 +5609,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I179" s="3"/>
@@ -5636,7 +5620,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I180" s="3"/>
@@ -5647,7 +5631,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I181" s="3"/>
@@ -5658,7 +5642,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="A182:A245" si="15">IF(AND(ISBLANK(B182),ISBLANK(C182)), "", A181 + 1)</f>
         <v/>
       </c>
       <c r="I182" s="3"/>
@@ -5669,7 +5653,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="str">
-        <f t="shared" ref="A183:A246" si="17">IF(AND(ISBLANK(B183),ISBLANK(C183)), "", A182 + 1)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I183" s="3"/>
@@ -5680,7 +5664,11 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E184" s="6" t="str">
+        <f>IF(ISBLANK(F184), "",INDEX(Squads!A$3:B$1048576,MATCH(F184, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="I184" s="3"/>
@@ -5691,7 +5679,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E185" s="6" t="str">
@@ -5699,14 +5687,10 @@
         <v/>
       </c>
       <c r="I185" s="3"/>
-      <c r="J185" s="3" t="str">
-        <f>IF(ISBLANK(F185), "",INDEX(Roles!A$3:B$1048576,MATCH(F185, Squads!A$3:A$1048576, 0), 2))</f>
-        <v/>
-      </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E186" s="6" t="str">
@@ -5717,7 +5701,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E187" s="6" t="str">
@@ -5728,7 +5712,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E188" s="6" t="str">
@@ -5739,7 +5723,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E189" s="6" t="str">
@@ -5750,7 +5734,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E190" s="6" t="str">
@@ -5761,7 +5745,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E191" s="6" t="str">
@@ -5772,7 +5756,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E192" s="6" t="str">
@@ -5783,7 +5767,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E193" s="6" t="str">
@@ -5794,7 +5778,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E194" s="6" t="str">
@@ -5805,7 +5789,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E195" s="6" t="str">
@@ -5816,7 +5800,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E196" s="6" t="str">
@@ -5827,7 +5811,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E197" s="6" t="str">
@@ -5838,7 +5822,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E198" s="6" t="str">
@@ -5849,7 +5833,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E199" s="6" t="str">
@@ -5860,7 +5844,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E200" s="6" t="str">
@@ -5871,7 +5855,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E201" s="6" t="str">
@@ -5882,7 +5866,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E202" s="6" t="str">
@@ -5893,7 +5877,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E203" s="6" t="str">
@@ -5904,7 +5888,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E204" s="6" t="str">
@@ -5915,7 +5899,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E205" s="6" t="str">
@@ -5926,7 +5910,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E206" s="6" t="str">
@@ -5937,7 +5921,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E207" s="6" t="str">
@@ -5948,7 +5932,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E208" s="6" t="str">
@@ -5959,7 +5943,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E209" s="6" t="str">
@@ -5970,7 +5954,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E210" s="6" t="str">
@@ -5981,7 +5965,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E211" s="6" t="str">
@@ -5992,7 +5976,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E212" s="6" t="str">
@@ -6003,7 +5987,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E213" s="6" t="str">
@@ -6014,7 +5998,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E214" s="6" t="str">
@@ -6025,7 +6009,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E215" s="6" t="str">
@@ -6036,7 +6020,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E216" s="6" t="str">
@@ -6047,7 +6031,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E217" s="6" t="str">
@@ -6058,7 +6042,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E218" s="6" t="str">
@@ -6069,7 +6053,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E219" s="6" t="str">
@@ -6080,7 +6064,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E220" s="6" t="str">
@@ -6091,7 +6075,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E221" s="6" t="str">
@@ -6102,7 +6086,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E222" s="6" t="str">
@@ -6113,7 +6097,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E223" s="6" t="str">
@@ -6124,7 +6108,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E224" s="6" t="str">
@@ -6135,7 +6119,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E225" s="6" t="str">
@@ -6146,7 +6130,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E226" s="6" t="str">
@@ -6157,7 +6141,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E227" s="6" t="str">
@@ -6168,7 +6152,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E228" s="6" t="str">
@@ -6179,7 +6163,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E229" s="6" t="str">
@@ -6190,7 +6174,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E230" s="6" t="str">
@@ -6201,7 +6185,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E231" s="6" t="str">
@@ -6212,7 +6196,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E232" s="6" t="str">
@@ -6223,7 +6207,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E233" s="6" t="str">
@@ -6234,7 +6218,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E234" s="6" t="str">
@@ -6245,7 +6229,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E235" s="6" t="str">
@@ -6256,7 +6240,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E236" s="6" t="str">
@@ -6267,7 +6251,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E237" s="6" t="str">
@@ -6278,7 +6262,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E238" s="6" t="str">
@@ -6289,7 +6273,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E239" s="6" t="str">
@@ -6300,7 +6284,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E240" s="6" t="str">
@@ -6311,7 +6295,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E241" s="6" t="str">
@@ -6322,7 +6306,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E242" s="6" t="str">
@@ -6333,7 +6317,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E243" s="6" t="str">
@@ -6344,7 +6328,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E244" s="6" t="str">
@@ -6355,7 +6339,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E245" s="6" t="str">
@@ -6366,7 +6350,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="A246:A309" si="16">IF(AND(ISBLANK(B246),ISBLANK(C246)), "", A245 + 1)</f>
         <v/>
       </c>
       <c r="E246" s="6" t="str">
@@ -6377,7 +6361,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="str">
-        <f t="shared" ref="A247:A310" si="18">IF(AND(ISBLANK(B247),ISBLANK(C247)), "", A246 + 1)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E247" s="6" t="str">
@@ -6388,7 +6372,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E248" s="6" t="str">
@@ -6399,7 +6383,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E249" s="6" t="str">
@@ -6410,7 +6394,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E250" s="6" t="str">
@@ -6421,7 +6405,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E251" s="6" t="str">
@@ -6432,7 +6416,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E252" s="6" t="str">
@@ -6443,7 +6427,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E253" s="6" t="str">
@@ -6454,7 +6438,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E254" s="6" t="str">
@@ -6465,7 +6449,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E255" s="6" t="str">
@@ -6476,7 +6460,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E256" s="6" t="str">
@@ -6487,7 +6471,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E257" s="6" t="str">
@@ -6498,7 +6482,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E258" s="6" t="str">
@@ -6509,7 +6493,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E259" s="6" t="str">
@@ -6520,7 +6504,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E260" s="6" t="str">
@@ -6531,7 +6515,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E261" s="6" t="str">
@@ -6542,7 +6526,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E262" s="6" t="str">
@@ -6553,7 +6537,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E263" s="6" t="str">
@@ -6564,7 +6548,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E264" s="6" t="str">
@@ -6575,7 +6559,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E265" s="6" t="str">
@@ -6586,7 +6570,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E266" s="6" t="str">
@@ -6597,7 +6581,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E267" s="6" t="str">
@@ -6608,7 +6592,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E268" s="6" t="str">
@@ -6619,7 +6603,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E269" s="6" t="str">
@@ -6630,7 +6614,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E270" s="6" t="str">
@@ -6641,7 +6625,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E271" s="6" t="str">
@@ -6652,7 +6636,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E272" s="6" t="str">
@@ -6663,7 +6647,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E273" s="6" t="str">
@@ -6674,7 +6658,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E274" s="6" t="str">
@@ -6685,7 +6669,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E275" s="6" t="str">
@@ -6696,7 +6680,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E276" s="6" t="str">
@@ -6707,7 +6691,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E277" s="6" t="str">
@@ -6718,7 +6702,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E278" s="6" t="str">
@@ -6729,7 +6713,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E279" s="6" t="str">
@@ -6740,7 +6724,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E280" s="6" t="str">
@@ -6751,7 +6735,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E281" s="6" t="str">
@@ -6762,7 +6746,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E282" s="6" t="str">
@@ -6773,7 +6757,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E283" s="6" t="str">
@@ -6784,7 +6768,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E284" s="6" t="str">
@@ -6795,18 +6779,17 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E285" s="6" t="str">
         <f>IF(ISBLANK(F285), "",INDEX(Squads!A$3:B$1048576,MATCH(F285, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
-      <c r="I285" s="3"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E286" s="6" t="str">
@@ -6816,7 +6799,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E287" s="6" t="str">
@@ -6826,7 +6809,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E288" s="6" t="str">
@@ -6836,7 +6819,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E289" s="6" t="str">
@@ -6846,7 +6829,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E290" s="6" t="str">
@@ -6856,7 +6839,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E291" s="6" t="str">
@@ -6866,7 +6849,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E292" s="6" t="str">
@@ -6876,17 +6859,21 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E293" s="6" t="str">
         <f>IF(ISBLANK(F293), "",INDEX(Squads!A$3:B$1048576,MATCH(F293, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
+      <c r="H293" s="7" t="str">
+        <f t="shared" ref="H293:H356" si="17">IF(ISBLANK(B293), "",_xlfn.CONCAT($B293," ",$C293))</f>
+        <v/>
+      </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E294" s="6" t="str">
@@ -6894,13 +6881,13 @@
         <v/>
       </c>
       <c r="H294" s="7" t="str">
-        <f t="shared" ref="H294:H357" si="19">IF(ISBLANK(B294), "",_xlfn.CONCAT($B294," ",$C294))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E295" s="6" t="str">
@@ -6908,13 +6895,13 @@
         <v/>
       </c>
       <c r="H295" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E296" s="6" t="str">
@@ -6922,13 +6909,13 @@
         <v/>
       </c>
       <c r="H296" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E297" s="6" t="str">
@@ -6936,13 +6923,13 @@
         <v/>
       </c>
       <c r="H297" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E298" s="6" t="str">
@@ -6950,13 +6937,13 @@
         <v/>
       </c>
       <c r="H298" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E299" s="6" t="str">
@@ -6964,13 +6951,13 @@
         <v/>
       </c>
       <c r="H299" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E300" s="6" t="str">
@@ -6978,13 +6965,13 @@
         <v/>
       </c>
       <c r="H300" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E301" s="6" t="str">
@@ -6992,13 +6979,13 @@
         <v/>
       </c>
       <c r="H301" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E302" s="6" t="str">
@@ -7006,13 +6993,13 @@
         <v/>
       </c>
       <c r="H302" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E303" s="6" t="str">
@@ -7020,13 +7007,13 @@
         <v/>
       </c>
       <c r="H303" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E304" s="6" t="str">
@@ -7034,13 +7021,13 @@
         <v/>
       </c>
       <c r="H304" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E305" s="6" t="str">
@@ -7048,13 +7035,13 @@
         <v/>
       </c>
       <c r="H305" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E306" s="6" t="str">
@@ -7062,13 +7049,13 @@
         <v/>
       </c>
       <c r="H306" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E307" s="6" t="str">
@@ -7076,13 +7063,13 @@
         <v/>
       </c>
       <c r="H307" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E308" s="6" t="str">
@@ -7090,13 +7077,13 @@
         <v/>
       </c>
       <c r="H308" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E309" s="6" t="str">
@@ -7104,13 +7091,13 @@
         <v/>
       </c>
       <c r="H309" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="A310:A373" si="18">IF(AND(ISBLANK(B310),ISBLANK(C310)), "", A309 + 1)</f>
         <v/>
       </c>
       <c r="E310" s="6" t="str">
@@ -7118,13 +7105,13 @@
         <v/>
       </c>
       <c r="H310" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="21" t="str">
-        <f t="shared" ref="A311:A374" si="20">IF(AND(ISBLANK(B311),ISBLANK(C311)), "", A310 + 1)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E311" s="6" t="str">
@@ -7132,13 +7119,13 @@
         <v/>
       </c>
       <c r="H311" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E312" s="6" t="str">
@@ -7146,13 +7133,13 @@
         <v/>
       </c>
       <c r="H312" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E313" s="6" t="str">
@@ -7160,13 +7147,13 @@
         <v/>
       </c>
       <c r="H313" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E314" s="6" t="str">
@@ -7174,13 +7161,13 @@
         <v/>
       </c>
       <c r="H314" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E315" s="6" t="str">
@@ -7188,13 +7175,13 @@
         <v/>
       </c>
       <c r="H315" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E316" s="6" t="str">
@@ -7202,13 +7189,13 @@
         <v/>
       </c>
       <c r="H316" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E317" s="6" t="str">
@@ -7216,13 +7203,13 @@
         <v/>
       </c>
       <c r="H317" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E318" s="6" t="str">
@@ -7230,13 +7217,13 @@
         <v/>
       </c>
       <c r="H318" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E319" s="6" t="str">
@@ -7244,13 +7231,13 @@
         <v/>
       </c>
       <c r="H319" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E320" s="6" t="str">
@@ -7258,13 +7245,13 @@
         <v/>
       </c>
       <c r="H320" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E321" s="6" t="str">
@@ -7272,13 +7259,13 @@
         <v/>
       </c>
       <c r="H321" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E322" s="6" t="str">
@@ -7286,13 +7273,13 @@
         <v/>
       </c>
       <c r="H322" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E323" s="6" t="str">
@@ -7300,13 +7287,13 @@
         <v/>
       </c>
       <c r="H323" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E324" s="6" t="str">
@@ -7314,13 +7301,13 @@
         <v/>
       </c>
       <c r="H324" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E325" s="6" t="str">
@@ -7328,13 +7315,13 @@
         <v/>
       </c>
       <c r="H325" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E326" s="6" t="str">
@@ -7342,13 +7329,13 @@
         <v/>
       </c>
       <c r="H326" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E327" s="6" t="str">
@@ -7356,13 +7343,13 @@
         <v/>
       </c>
       <c r="H327" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E328" s="6" t="str">
@@ -7370,13 +7357,13 @@
         <v/>
       </c>
       <c r="H328" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E329" s="6" t="str">
@@ -7384,13 +7371,13 @@
         <v/>
       </c>
       <c r="H329" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E330" s="6" t="str">
@@ -7398,13 +7385,13 @@
         <v/>
       </c>
       <c r="H330" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E331" s="6" t="str">
@@ -7412,13 +7399,13 @@
         <v/>
       </c>
       <c r="H331" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E332" s="6" t="str">
@@ -7426,13 +7413,13 @@
         <v/>
       </c>
       <c r="H332" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E333" s="6" t="str">
@@ -7440,13 +7427,13 @@
         <v/>
       </c>
       <c r="H333" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E334" s="6" t="str">
@@ -7454,13 +7441,13 @@
         <v/>
       </c>
       <c r="H334" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E335" s="6" t="str">
@@ -7468,13 +7455,13 @@
         <v/>
       </c>
       <c r="H335" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E336" s="6" t="str">
@@ -7482,13 +7469,13 @@
         <v/>
       </c>
       <c r="H336" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E337" s="6" t="str">
@@ -7496,13 +7483,13 @@
         <v/>
       </c>
       <c r="H337" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E338" s="6" t="str">
@@ -7510,13 +7497,13 @@
         <v/>
       </c>
       <c r="H338" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E339" s="6" t="str">
@@ -7524,13 +7511,13 @@
         <v/>
       </c>
       <c r="H339" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E340" s="6" t="str">
@@ -7538,13 +7525,13 @@
         <v/>
       </c>
       <c r="H340" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E341" s="6" t="str">
@@ -7552,13 +7539,13 @@
         <v/>
       </c>
       <c r="H341" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E342" s="6" t="str">
@@ -7566,13 +7553,13 @@
         <v/>
       </c>
       <c r="H342" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E343" s="6" t="str">
@@ -7580,13 +7567,13 @@
         <v/>
       </c>
       <c r="H343" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E344" s="6" t="str">
@@ -7594,13 +7581,13 @@
         <v/>
       </c>
       <c r="H344" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E345" s="6" t="str">
@@ -7608,13 +7595,13 @@
         <v/>
       </c>
       <c r="H345" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E346" s="6" t="str">
@@ -7622,13 +7609,13 @@
         <v/>
       </c>
       <c r="H346" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E347" s="6" t="str">
@@ -7636,13 +7623,13 @@
         <v/>
       </c>
       <c r="H347" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E348" s="6" t="str">
@@ -7650,13 +7637,13 @@
         <v/>
       </c>
       <c r="H348" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E349" s="6" t="str">
@@ -7664,13 +7651,13 @@
         <v/>
       </c>
       <c r="H349" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E350" s="6" t="str">
@@ -7678,13 +7665,13 @@
         <v/>
       </c>
       <c r="H350" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E351" s="6" t="str">
@@ -7692,13 +7679,13 @@
         <v/>
       </c>
       <c r="H351" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E352" s="6" t="str">
@@ -7706,13 +7693,13 @@
         <v/>
       </c>
       <c r="H352" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E353" s="6" t="str">
@@ -7720,13 +7707,13 @@
         <v/>
       </c>
       <c r="H353" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E354" s="6" t="str">
@@ -7734,13 +7721,13 @@
         <v/>
       </c>
       <c r="H354" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E355" s="6" t="str">
@@ -7748,13 +7735,13 @@
         <v/>
       </c>
       <c r="H355" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E356" s="6" t="str">
@@ -7762,13 +7749,13 @@
         <v/>
       </c>
       <c r="H356" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E357" s="6" t="str">
@@ -7776,13 +7763,13 @@
         <v/>
       </c>
       <c r="H357" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H357:H420" si="19">IF(ISBLANK(B357), "",_xlfn.CONCAT($B357," ",$C357))</f>
         <v/>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E358" s="6" t="str">
@@ -7790,13 +7777,13 @@
         <v/>
       </c>
       <c r="H358" s="7" t="str">
-        <f t="shared" ref="H358:H421" si="21">IF(ISBLANK(B358), "",_xlfn.CONCAT($B358," ",$C358))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E359" s="6" t="str">
@@ -7804,13 +7791,13 @@
         <v/>
       </c>
       <c r="H359" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E360" s="6" t="str">
@@ -7818,13 +7805,13 @@
         <v/>
       </c>
       <c r="H360" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E361" s="6" t="str">
@@ -7832,13 +7819,13 @@
         <v/>
       </c>
       <c r="H361" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E362" s="6" t="str">
@@ -7846,13 +7833,13 @@
         <v/>
       </c>
       <c r="H362" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E363" s="6" t="str">
@@ -7860,13 +7847,13 @@
         <v/>
       </c>
       <c r="H363" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E364" s="6" t="str">
@@ -7874,13 +7861,13 @@
         <v/>
       </c>
       <c r="H364" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E365" s="6" t="str">
@@ -7888,13 +7875,13 @@
         <v/>
       </c>
       <c r="H365" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E366" s="6" t="str">
@@ -7902,13 +7889,13 @@
         <v/>
       </c>
       <c r="H366" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E367" s="6" t="str">
@@ -7916,13 +7903,13 @@
         <v/>
       </c>
       <c r="H367" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E368" s="6" t="str">
@@ -7930,13 +7917,13 @@
         <v/>
       </c>
       <c r="H368" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E369" s="6" t="str">
@@ -7944,13 +7931,13 @@
         <v/>
       </c>
       <c r="H369" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E370" s="6" t="str">
@@ -7958,13 +7945,13 @@
         <v/>
       </c>
       <c r="H370" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E371" s="6" t="str">
@@ -7972,13 +7959,13 @@
         <v/>
       </c>
       <c r="H371" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E372" s="6" t="str">
@@ -7986,13 +7973,13 @@
         <v/>
       </c>
       <c r="H372" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E373" s="6" t="str">
@@ -8000,13 +7987,13 @@
         <v/>
       </c>
       <c r="H373" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="A374:A437" si="20">IF(AND(ISBLANK(B374),ISBLANK(C374)), "", A373 + 1)</f>
         <v/>
       </c>
       <c r="E374" s="6" t="str">
@@ -8014,13 +8001,13 @@
         <v/>
       </c>
       <c r="H374" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="21" t="str">
-        <f t="shared" ref="A375:A438" si="22">IF(AND(ISBLANK(B375),ISBLANK(C375)), "", A374 + 1)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E375" s="6" t="str">
@@ -8028,13 +8015,13 @@
         <v/>
       </c>
       <c r="H375" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E376" s="6" t="str">
@@ -8042,13 +8029,13 @@
         <v/>
       </c>
       <c r="H376" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E377" s="6" t="str">
@@ -8056,13 +8043,13 @@
         <v/>
       </c>
       <c r="H377" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E378" s="6" t="str">
@@ -8070,13 +8057,13 @@
         <v/>
       </c>
       <c r="H378" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E379" s="6" t="str">
@@ -8084,13 +8071,13 @@
         <v/>
       </c>
       <c r="H379" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E380" s="6" t="str">
@@ -8098,13 +8085,13 @@
         <v/>
       </c>
       <c r="H380" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E381" s="6" t="str">
@@ -8112,13 +8099,13 @@
         <v/>
       </c>
       <c r="H381" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E382" s="6" t="str">
@@ -8126,13 +8113,13 @@
         <v/>
       </c>
       <c r="H382" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E383" s="6" t="str">
@@ -8140,13 +8127,13 @@
         <v/>
       </c>
       <c r="H383" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E384" s="6" t="str">
@@ -8154,13 +8141,13 @@
         <v/>
       </c>
       <c r="H384" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E385" s="6" t="str">
@@ -8168,13 +8155,13 @@
         <v/>
       </c>
       <c r="H385" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E386" s="6" t="str">
@@ -8182,13 +8169,13 @@
         <v/>
       </c>
       <c r="H386" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E387" s="6" t="str">
@@ -8196,13 +8183,13 @@
         <v/>
       </c>
       <c r="H387" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E388" s="6" t="str">
@@ -8210,13 +8197,13 @@
         <v/>
       </c>
       <c r="H388" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E389" s="6" t="str">
@@ -8224,13 +8211,13 @@
         <v/>
       </c>
       <c r="H389" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E390" s="6" t="str">
@@ -8238,13 +8225,13 @@
         <v/>
       </c>
       <c r="H390" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E391" s="6" t="str">
@@ -8252,13 +8239,13 @@
         <v/>
       </c>
       <c r="H391" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E392" s="6" t="str">
@@ -8266,13 +8253,13 @@
         <v/>
       </c>
       <c r="H392" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E393" s="6" t="str">
@@ -8280,13 +8267,13 @@
         <v/>
       </c>
       <c r="H393" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E394" s="6" t="str">
@@ -8294,13 +8281,13 @@
         <v/>
       </c>
       <c r="H394" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E395" s="6" t="str">
@@ -8308,13 +8295,13 @@
         <v/>
       </c>
       <c r="H395" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E396" s="6" t="str">
@@ -8322,13 +8309,13 @@
         <v/>
       </c>
       <c r="H396" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E397" s="6" t="str">
@@ -8336,13 +8323,13 @@
         <v/>
       </c>
       <c r="H397" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E398" s="6" t="str">
@@ -8350,13 +8337,13 @@
         <v/>
       </c>
       <c r="H398" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E399" s="6" t="str">
@@ -8364,13 +8351,13 @@
         <v/>
       </c>
       <c r="H399" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E400" s="6" t="str">
@@ -8378,13 +8365,13 @@
         <v/>
       </c>
       <c r="H400" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E401" s="6" t="str">
@@ -8392,13 +8379,13 @@
         <v/>
       </c>
       <c r="H401" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E402" s="6" t="str">
@@ -8406,13 +8393,13 @@
         <v/>
       </c>
       <c r="H402" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E403" s="6" t="str">
@@ -8420,13 +8407,13 @@
         <v/>
       </c>
       <c r="H403" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E404" s="6" t="str">
@@ -8434,13 +8421,13 @@
         <v/>
       </c>
       <c r="H404" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E405" s="6" t="str">
@@ -8448,13 +8435,13 @@
         <v/>
       </c>
       <c r="H405" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E406" s="6" t="str">
@@ -8462,13 +8449,13 @@
         <v/>
       </c>
       <c r="H406" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E407" s="6" t="str">
@@ -8476,13 +8463,13 @@
         <v/>
       </c>
       <c r="H407" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E408" s="6" t="str">
@@ -8490,13 +8477,13 @@
         <v/>
       </c>
       <c r="H408" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E409" s="6" t="str">
@@ -8504,13 +8491,13 @@
         <v/>
       </c>
       <c r="H409" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E410" s="6" t="str">
@@ -8518,13 +8505,13 @@
         <v/>
       </c>
       <c r="H410" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E411" s="6" t="str">
@@ -8532,13 +8519,13 @@
         <v/>
       </c>
       <c r="H411" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E412" s="6" t="str">
@@ -8546,13 +8533,13 @@
         <v/>
       </c>
       <c r="H412" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E413" s="6" t="str">
@@ -8560,13 +8547,13 @@
         <v/>
       </c>
       <c r="H413" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E414" s="6" t="str">
@@ -8574,13 +8561,13 @@
         <v/>
       </c>
       <c r="H414" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E415" s="6" t="str">
@@ -8588,13 +8575,13 @@
         <v/>
       </c>
       <c r="H415" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E416" s="6" t="str">
@@ -8602,13 +8589,13 @@
         <v/>
       </c>
       <c r="H416" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E417" s="6" t="str">
@@ -8616,13 +8603,13 @@
         <v/>
       </c>
       <c r="H417" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E418" s="6" t="str">
@@ -8630,13 +8617,13 @@
         <v/>
       </c>
       <c r="H418" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E419" s="6" t="str">
@@ -8644,13 +8631,13 @@
         <v/>
       </c>
       <c r="H419" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E420" s="6" t="str">
@@ -8658,13 +8645,13 @@
         <v/>
       </c>
       <c r="H420" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E421" s="6" t="str">
@@ -8672,13 +8659,13 @@
         <v/>
       </c>
       <c r="H421" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H421:H484" si="21">IF(ISBLANK(B421), "",_xlfn.CONCAT($B421," ",$C421))</f>
         <v/>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E422" s="6" t="str">
@@ -8686,13 +8673,13 @@
         <v/>
       </c>
       <c r="H422" s="7" t="str">
-        <f t="shared" ref="H422:H485" si="23">IF(ISBLANK(B422), "",_xlfn.CONCAT($B422," ",$C422))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E423" s="6" t="str">
@@ -8700,13 +8687,13 @@
         <v/>
       </c>
       <c r="H423" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E424" s="6" t="str">
@@ -8714,13 +8701,13 @@
         <v/>
       </c>
       <c r="H424" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E425" s="6" t="str">
@@ -8728,13 +8715,13 @@
         <v/>
       </c>
       <c r="H425" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E426" s="6" t="str">
@@ -8742,13 +8729,13 @@
         <v/>
       </c>
       <c r="H426" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E427" s="6" t="str">
@@ -8756,13 +8743,13 @@
         <v/>
       </c>
       <c r="H427" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E428" s="6" t="str">
@@ -8770,13 +8757,13 @@
         <v/>
       </c>
       <c r="H428" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E429" s="6" t="str">
@@ -8784,13 +8771,13 @@
         <v/>
       </c>
       <c r="H429" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E430" s="6" t="str">
@@ -8798,13 +8785,13 @@
         <v/>
       </c>
       <c r="H430" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E431" s="6" t="str">
@@ -8812,13 +8799,13 @@
         <v/>
       </c>
       <c r="H431" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E432" s="6" t="str">
@@ -8826,13 +8813,13 @@
         <v/>
       </c>
       <c r="H432" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E433" s="6" t="str">
@@ -8840,13 +8827,13 @@
         <v/>
       </c>
       <c r="H433" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E434" s="6" t="str">
@@ -8854,13 +8841,13 @@
         <v/>
       </c>
       <c r="H434" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E435" s="6" t="str">
@@ -8868,13 +8855,13 @@
         <v/>
       </c>
       <c r="H435" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E436" s="6" t="str">
@@ -8882,13 +8869,13 @@
         <v/>
       </c>
       <c r="H436" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E437" s="6" t="str">
@@ -8896,13 +8883,13 @@
         <v/>
       </c>
       <c r="H437" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="A438:A473" si="22">IF(AND(ISBLANK(B438),ISBLANK(C438)), "", A437 + 1)</f>
         <v/>
       </c>
       <c r="E438" s="6" t="str">
@@ -8910,13 +8897,13 @@
         <v/>
       </c>
       <c r="H438" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="21" t="str">
-        <f t="shared" ref="A439:A474" si="24">IF(AND(ISBLANK(B439),ISBLANK(C439)), "", A438 + 1)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E439" s="6" t="str">
@@ -8924,13 +8911,13 @@
         <v/>
       </c>
       <c r="H439" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E440" s="6" t="str">
@@ -8938,13 +8925,13 @@
         <v/>
       </c>
       <c r="H440" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E441" s="6" t="str">
@@ -8952,13 +8939,13 @@
         <v/>
       </c>
       <c r="H441" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E442" s="6" t="str">
@@ -8966,13 +8953,13 @@
         <v/>
       </c>
       <c r="H442" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E443" s="6" t="str">
@@ -8980,13 +8967,13 @@
         <v/>
       </c>
       <c r="H443" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E444" s="6" t="str">
@@ -8994,13 +8981,13 @@
         <v/>
       </c>
       <c r="H444" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E445" s="6" t="str">
@@ -9008,13 +8995,13 @@
         <v/>
       </c>
       <c r="H445" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E446" s="6" t="str">
@@ -9022,13 +9009,13 @@
         <v/>
       </c>
       <c r="H446" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E447" s="6" t="str">
@@ -9036,13 +9023,13 @@
         <v/>
       </c>
       <c r="H447" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E448" s="6" t="str">
@@ -9050,13 +9037,13 @@
         <v/>
       </c>
       <c r="H448" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E449" s="6" t="str">
@@ -9064,13 +9051,13 @@
         <v/>
       </c>
       <c r="H449" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E450" s="6" t="str">
@@ -9078,13 +9065,13 @@
         <v/>
       </c>
       <c r="H450" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E451" s="6" t="str">
@@ -9092,13 +9079,13 @@
         <v/>
       </c>
       <c r="H451" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E452" s="6" t="str">
@@ -9106,13 +9093,13 @@
         <v/>
       </c>
       <c r="H452" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E453" s="6" t="str">
@@ -9120,13 +9107,13 @@
         <v/>
       </c>
       <c r="H453" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E454" s="6" t="str">
@@ -9134,13 +9121,13 @@
         <v/>
       </c>
       <c r="H454" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E455" s="6" t="str">
@@ -9148,13 +9135,13 @@
         <v/>
       </c>
       <c r="H455" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E456" s="6" t="str">
@@ -9162,13 +9149,13 @@
         <v/>
       </c>
       <c r="H456" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E457" s="6" t="str">
@@ -9176,13 +9163,13 @@
         <v/>
       </c>
       <c r="H457" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E458" s="6" t="str">
@@ -9190,13 +9177,13 @@
         <v/>
       </c>
       <c r="H458" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E459" s="6" t="str">
@@ -9204,13 +9191,13 @@
         <v/>
       </c>
       <c r="H459" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E460" s="6" t="str">
@@ -9218,13 +9205,13 @@
         <v/>
       </c>
       <c r="H460" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E461" s="6" t="str">
@@ -9232,13 +9219,13 @@
         <v/>
       </c>
       <c r="H461" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E462" s="6" t="str">
@@ -9246,13 +9233,13 @@
         <v/>
       </c>
       <c r="H462" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E463" s="6" t="str">
@@ -9260,13 +9247,13 @@
         <v/>
       </c>
       <c r="H463" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E464" s="6" t="str">
@@ -9274,13 +9261,13 @@
         <v/>
       </c>
       <c r="H464" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E465" s="6" t="str">
@@ -9288,13 +9275,13 @@
         <v/>
       </c>
       <c r="H465" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E466" s="6" t="str">
@@ -9302,13 +9289,13 @@
         <v/>
       </c>
       <c r="H466" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E467" s="6" t="str">
@@ -9316,13 +9303,13 @@
         <v/>
       </c>
       <c r="H467" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E468" s="6" t="str">
@@ -9330,13 +9317,13 @@
         <v/>
       </c>
       <c r="H468" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E469" s="6" t="str">
@@ -9344,13 +9331,13 @@
         <v/>
       </c>
       <c r="H469" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E470" s="6" t="str">
@@ -9358,13 +9345,13 @@
         <v/>
       </c>
       <c r="H470" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E471" s="6" t="str">
@@ -9372,13 +9359,13 @@
         <v/>
       </c>
       <c r="H471" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E472" s="6" t="str">
@@ -9386,13 +9373,13 @@
         <v/>
       </c>
       <c r="H472" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E473" s="6" t="str">
@@ -9400,21 +9387,17 @@
         <v/>
       </c>
       <c r="H473" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A474" s="21" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
       <c r="E474" s="6" t="str">
         <f>IF(ISBLANK(F474), "",INDEX(Squads!A$3:B$1048576,MATCH(F474, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
       <c r="H474" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9424,7 +9407,7 @@
         <v/>
       </c>
       <c r="H475" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9434,7 +9417,7 @@
         <v/>
       </c>
       <c r="H476" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9444,7 +9427,7 @@
         <v/>
       </c>
       <c r="H477" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9454,7 +9437,7 @@
         <v/>
       </c>
       <c r="H478" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9464,7 +9447,7 @@
         <v/>
       </c>
       <c r="H479" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9474,7 +9457,7 @@
         <v/>
       </c>
       <c r="H480" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9484,7 +9467,7 @@
         <v/>
       </c>
       <c r="H481" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9494,7 +9477,7 @@
         <v/>
       </c>
       <c r="H482" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9504,7 +9487,7 @@
         <v/>
       </c>
       <c r="H483" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9514,7 +9497,7 @@
         <v/>
       </c>
       <c r="H484" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9524,7 +9507,7 @@
         <v/>
       </c>
       <c r="H485" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H485:H548" si="23">IF(ISBLANK(B485), "",_xlfn.CONCAT($B485," ",$C485))</f>
         <v/>
       </c>
     </row>
@@ -9534,7 +9517,7 @@
         <v/>
       </c>
       <c r="H486" s="7" t="str">
-        <f t="shared" ref="H486:H549" si="25">IF(ISBLANK(B486), "",_xlfn.CONCAT($B486," ",$C486))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9544,7 +9527,7 @@
         <v/>
       </c>
       <c r="H487" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9554,7 +9537,7 @@
         <v/>
       </c>
       <c r="H488" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9564,7 +9547,7 @@
         <v/>
       </c>
       <c r="H489" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9574,7 +9557,7 @@
         <v/>
       </c>
       <c r="H490" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9584,7 +9567,7 @@
         <v/>
       </c>
       <c r="H491" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9594,7 +9577,7 @@
         <v/>
       </c>
       <c r="H492" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9604,7 +9587,7 @@
         <v/>
       </c>
       <c r="H493" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9614,7 +9597,7 @@
         <v/>
       </c>
       <c r="H494" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9624,7 +9607,7 @@
         <v/>
       </c>
       <c r="H495" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9634,7 +9617,7 @@
         <v/>
       </c>
       <c r="H496" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9644,7 +9627,7 @@
         <v/>
       </c>
       <c r="H497" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9654,7 +9637,7 @@
         <v/>
       </c>
       <c r="H498" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9664,7 +9647,7 @@
         <v/>
       </c>
       <c r="H499" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9674,7 +9657,7 @@
         <v/>
       </c>
       <c r="H500" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9684,7 +9667,7 @@
         <v/>
       </c>
       <c r="H501" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9694,7 +9677,7 @@
         <v/>
       </c>
       <c r="H502" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9704,7 +9687,7 @@
         <v/>
       </c>
       <c r="H503" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9714,7 +9697,7 @@
         <v/>
       </c>
       <c r="H504" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9724,7 +9707,7 @@
         <v/>
       </c>
       <c r="H505" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9734,7 +9717,7 @@
         <v/>
       </c>
       <c r="H506" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9744,7 +9727,7 @@
         <v/>
       </c>
       <c r="H507" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9754,7 +9737,7 @@
         <v/>
       </c>
       <c r="H508" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9764,7 +9747,7 @@
         <v/>
       </c>
       <c r="H509" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9774,7 +9757,7 @@
         <v/>
       </c>
       <c r="H510" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9784,7 +9767,7 @@
         <v/>
       </c>
       <c r="H511" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9794,7 +9777,7 @@
         <v/>
       </c>
       <c r="H512" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9804,7 +9787,7 @@
         <v/>
       </c>
       <c r="H513" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9814,7 +9797,7 @@
         <v/>
       </c>
       <c r="H514" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9824,7 +9807,7 @@
         <v/>
       </c>
       <c r="H515" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9834,7 +9817,7 @@
         <v/>
       </c>
       <c r="H516" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9844,7 +9827,7 @@
         <v/>
       </c>
       <c r="H517" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9854,7 +9837,7 @@
         <v/>
       </c>
       <c r="H518" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9864,7 +9847,7 @@
         <v/>
       </c>
       <c r="H519" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9874,7 +9857,7 @@
         <v/>
       </c>
       <c r="H520" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9884,7 +9867,7 @@
         <v/>
       </c>
       <c r="H521" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9894,7 +9877,7 @@
         <v/>
       </c>
       <c r="H522" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9904,7 +9887,7 @@
         <v/>
       </c>
       <c r="H523" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9914,7 +9897,7 @@
         <v/>
       </c>
       <c r="H524" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9924,7 +9907,7 @@
         <v/>
       </c>
       <c r="H525" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9934,7 +9917,7 @@
         <v/>
       </c>
       <c r="H526" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9944,7 +9927,7 @@
         <v/>
       </c>
       <c r="H527" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9954,7 +9937,7 @@
         <v/>
       </c>
       <c r="H528" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9964,7 +9947,7 @@
         <v/>
       </c>
       <c r="H529" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9974,7 +9957,7 @@
         <v/>
       </c>
       <c r="H530" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9984,7 +9967,7 @@
         <v/>
       </c>
       <c r="H531" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9994,7 +9977,7 @@
         <v/>
       </c>
       <c r="H532" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10004,7 +9987,7 @@
         <v/>
       </c>
       <c r="H533" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10014,7 +9997,7 @@
         <v/>
       </c>
       <c r="H534" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10024,7 +10007,7 @@
         <v/>
       </c>
       <c r="H535" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10034,7 +10017,7 @@
         <v/>
       </c>
       <c r="H536" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10044,7 +10027,7 @@
         <v/>
       </c>
       <c r="H537" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10054,7 +10037,7 @@
         <v/>
       </c>
       <c r="H538" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10064,7 +10047,7 @@
         <v/>
       </c>
       <c r="H539" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10074,7 +10057,7 @@
         <v/>
       </c>
       <c r="H540" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10084,7 +10067,7 @@
         <v/>
       </c>
       <c r="H541" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10094,7 +10077,7 @@
         <v/>
       </c>
       <c r="H542" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10104,7 +10087,7 @@
         <v/>
       </c>
       <c r="H543" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10114,7 +10097,7 @@
         <v/>
       </c>
       <c r="H544" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10124,7 +10107,7 @@
         <v/>
       </c>
       <c r="H545" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10134,7 +10117,7 @@
         <v/>
       </c>
       <c r="H546" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10144,7 +10127,7 @@
         <v/>
       </c>
       <c r="H547" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10154,7 +10137,7 @@
         <v/>
       </c>
       <c r="H548" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10164,7 +10147,7 @@
         <v/>
       </c>
       <c r="H549" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H549:H557" si="24">IF(ISBLANK(B549), "",_xlfn.CONCAT($B549," ",$C549))</f>
         <v/>
       </c>
     </row>
@@ -10174,7 +10157,7 @@
         <v/>
       </c>
       <c r="H550" s="7" t="str">
-        <f t="shared" ref="H550:H558" si="26">IF(ISBLANK(B550), "",_xlfn.CONCAT($B550," ",$C550))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -10184,7 +10167,7 @@
         <v/>
       </c>
       <c r="H551" s="7" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -10194,7 +10177,7 @@
         <v/>
       </c>
       <c r="H552" s="7" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -10204,7 +10187,7 @@
         <v/>
       </c>
       <c r="H553" s="7" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -10214,7 +10197,7 @@
         <v/>
       </c>
       <c r="H554" s="7" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -10224,7 +10207,7 @@
         <v/>
       </c>
       <c r="H555" s="7" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -10234,7 +10217,7 @@
         <v/>
       </c>
       <c r="H556" s="7" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -10244,7 +10227,7 @@
         <v/>
       </c>
       <c r="H557" s="7" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -10254,7 +10237,7 @@
         <v/>
       </c>
       <c r="H558" s="7" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H558:H563" si="25">IF(ISBLANK(B556), "",_xlfn.CONCAT($B558," ",$C558))</f>
         <v/>
       </c>
     </row>
@@ -10264,7 +10247,7 @@
         <v/>
       </c>
       <c r="H559" s="7" t="str">
-        <f t="shared" ref="H559:H564" si="27">IF(ISBLANK(B557), "",_xlfn.CONCAT($B559," ",$C559))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10274,7 +10257,7 @@
         <v/>
       </c>
       <c r="H560" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10284,7 +10267,7 @@
         <v/>
       </c>
       <c r="H561" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10294,7 +10277,7 @@
         <v/>
       </c>
       <c r="H562" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10304,7 +10287,7 @@
         <v/>
       </c>
       <c r="H563" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -10313,10 +10296,6 @@
         <f>IF(ISBLANK(F564), "",INDEX(Squads!A$3:B$1048576,MATCH(F564, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
-      <c r="H564" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
     </row>
     <row r="565" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E565" s="6" t="str">
@@ -10345,12 +10324,6 @@
     <row r="569" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E569" s="6" t="str">
         <f>IF(ISBLANK(F569), "",INDEX(Squads!A$3:B$1048576,MATCH(F569, Squads!B$3:B$1048576, 0), 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="570" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E570" s="6" t="str">
-        <f>IF(ISBLANK(F570), "",INDEX(Squads!A$3:B$1048576,MATCH(F570, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
     </row>
@@ -10793,7 +10766,7 @@
       </c>
       <c r="F3" s="12" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Садков Кирилл</v>
+        <v>Владимир Николаевич</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
@@ -10807,7 +10780,7 @@
       </c>
       <c r="F4" s="12" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Романенко Влада</v>
+        <v>Архипова Лера</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -11154,7 +11127,7 @@
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Михайлов Кирилл</v>
+        <v>Юрьев Кирилл</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11166,7 +11139,7 @@
       </c>
       <c r="D5" s="11" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Вологдина Катя</v>
+        <v>Романенко Влада</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11178,7 +11151,7 @@
       </c>
       <c r="D6" s="11" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Семьин Миша</v>
+        <v>Северьянова Юля</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11190,7 +11163,7 @@
       </c>
       <c r="D7" s="11" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Владимир Николаевич</v>
+        <v>Лариса Васильевна</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11202,7 +11175,7 @@
       </c>
       <c r="D8" s="22" t="str">
         <f>IF(ISBLANK(B8), "",INDEX(People!$A$3:$K$1048576,MATCH(B8, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Кучеренкова Оля</v>
+        <v>Семьин Миша</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11214,7 +11187,7 @@
       </c>
       <c r="D9" s="11" t="str">
         <f>IF(ISBLANK(B9), "",INDEX(People!$A$3:$K$1048576,MATCH(B9, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Варзина Настя</v>
+        <v>Михайлов Кирилл</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -11238,7 +11211,7 @@
       </c>
       <c r="D11" s="11" t="str">
         <f>IF(ISBLANK(B11), "",INDEX(People!$A$3:$K$1048576,MATCH(B11, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Проценко Дарья</v>
+        <v>Савинкина Лиза</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -11250,7 +11223,7 @@
       </c>
       <c r="D12" s="11" t="str">
         <f>IF(ISBLANK(B12), "",INDEX(People!$A$3:$K$1048576,MATCH(B12, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Коробова Ксюша</v>
+        <v>Варзина Настя</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11274,7 +11247,7 @@
       </c>
       <c r="D14" s="11" t="str">
         <f>IF(ISBLANK(B14), "",INDEX(People!$A$3:$K$1048576,MATCH(B14, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Проценко Дарья</v>
+        <v>Савинкина Лиза</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -11298,7 +11271,7 @@
       </c>
       <c r="D16" s="11" t="str">
         <f>IF(ISBLANK(B16), "",INDEX(People!$A$3:$K$1048576,MATCH(B16, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Карамышева Ира</v>
+        <v>Кескюль Лина</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11310,7 +11283,7 @@
       </c>
       <c r="D17" s="11" t="str">
         <f>IF(ISBLANK(B17), "",INDEX(People!$A$3:$K$1048576,MATCH(B17, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Сумароков Саша</v>
+        <v>Коротова Ангелина</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11322,7 +11295,7 @@
       </c>
       <c r="D18" s="11" t="str">
         <f>IF(ISBLANK(B18), "",INDEX(People!$A$3:$K$1048576,MATCH(B18, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Романенко Влада</v>
+        <v>Архипова Лера</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11334,7 +11307,7 @@
       </c>
       <c r="D19" s="11" t="str">
         <f>IF(ISBLANK(B19), "",INDEX(People!$A$3:$K$1048576,MATCH(B19, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Сумароков Саша</v>
+        <v>Коротова Ангелина</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11346,7 +11319,7 @@
       </c>
       <c r="D20" s="11" t="str">
         <f>IF(ISBLANK(B20), "",INDEX(People!$A$3:$K$1048576,MATCH(B20, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Карамышева Ира</v>
+        <v>Кескюль Лина</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11574,7 +11547,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Неумоина Соня</v>
+        <v>Шитикова Аня</v>
       </c>
       <c r="G4" s="25" t="str">
         <f t="array" ref="G4">IF(ISBLANK(B4), "",INDEX(Squads!$A$3:$D$6, H4, 2))</f>
@@ -11600,7 +11573,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Хинтба Алина</v>
+        <v>Орлова Алёна</v>
       </c>
       <c r="G5" s="25" t="str">
         <f t="array" ref="G5">IF(ISBLANK(B5), "",INDEX(Squads!$A$3:$D$6, H5, 2))</f>
@@ -11626,7 +11599,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="24" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Десятков Илья</v>
+        <v>Нуромский Саша</v>
       </c>
       <c r="G6" s="25" t="str">
         <f t="array" ref="G6">IF(ISBLANK(B6), "",INDEX(Squads!$A$3:$D$6, H6, 2))</f>
@@ -11652,7 +11625,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="24" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Коротова Ангелина</v>
+        <v>Отяковская Альбина</v>
       </c>
       <c r="G7" s="25" t="str">
         <f t="array" ref="G7">IF(ISBLANK(B7), "",INDEX(Squads!$A$3:$D$6, H7, 2))</f>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3B69C1-C1B1-49D1-A6B8-066878E7C1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE581E0-FA09-4E14-A7BF-784418353C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,8 +4283,8 @@
       <c r="F89" s="6">
         <v>1</v>
       </c>
-      <c r="H89" s="7" t="str">
-        <f>IF(AND(ISBLANK(B89),ISBLANK(C89)), "",TRIM(_xlfn.CONCAT($B89," ",$C89)))</f>
+      <c r="H89" s="28" t="str">
+        <f t="shared" ref="H89:H92" si="12">IF(AND(ISBLANK(B89),ISBLANK(C89)), "",TRIM(_xlfn.CONCAT($B89," ",$C89)))</f>
         <v>Владимир Николаевич</v>
       </c>
       <c r="I89" s="3" t="str">
@@ -4292,11 +4292,11 @@
         <v/>
       </c>
       <c r="J89" s="3" t="str">
-        <f>IF(ISBLANK(F89), "",INDEX(Roles!A$3:B$1048576,MATCH(F89, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F89), "",INDEX(Roles!A$3:B$1048576,MATCH(F89, Roles!A$3:A$1048576, 0), 2))</f>
         <v>Вожатый</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="K89:K92" si="13">D89</f>
         <v>9210861421</v>
       </c>
     </row>
@@ -4315,23 +4315,26 @@
         <f>IF(ISBLANK(F90), "",INDEX(Squads!A$3:B$1048576,MATCH(F90, Squads!B$3:B$1048576, 0), 1))</f>
         <v/>
       </c>
-      <c r="H90" s="20" t="str">
-        <f>IF(AND(ISBLANK(B90),ISBLANK(C90)), "",TRIM(_xlfn.CONCAT($B90," ",$C90)))</f>
+      <c r="H90" s="28" t="str">
+        <f t="shared" si="12"/>
         <v>Лариса Васильевна</v>
       </c>
-      <c r="I90" s="3"/>
+      <c r="I90" s="3">
+        <f>IF(ISBLANK(E90), "",INDEX(Squads!A$3:B$1048576,MATCH(E90, Squads!A$3:A$1048576, 0), 2))</f>
+        <v>0</v>
+      </c>
       <c r="J90" s="3" t="str">
-        <f>IF(ISBLANK(F90), "",INDEX(Roles!A$3:B$1048576,MATCH(F90, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F90), "",INDEX(Roles!A$3:B$1048576,MATCH(F90, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9532602200</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
-        <f t="shared" ref="A91:A117" si="12">IF(AND(ISBLANK(B91),ISBLANK(C91)), "", A90 + 1)</f>
+        <f t="shared" ref="A91:A117" si="14">IF(AND(ISBLANK(B91),ISBLANK(C91)), "", A90 + 1)</f>
         <v>89</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -4347,350 +4350,511 @@
       <c r="F91" s="29">
         <v>2</v>
       </c>
-      <c r="I91" s="3"/>
+      <c r="H91" s="28" t="str">
+        <f t="shared" si="12"/>
+        <v>Неумоина Соня</v>
+      </c>
+      <c r="I91" s="3" t="str">
+        <f>IF(ISBLANK(E91), "",INDEX(Squads!A$3:B$1048576,MATCH(E91, Squads!A$3:A$1048576, 0), 2))</f>
+        <v>Керосин</v>
+      </c>
       <c r="J91" s="3" t="str">
-        <f>IF(ISBLANK(F91), "",INDEX(Roles!A$3:B$1048576,MATCH(F91, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F91), "",INDEX(Roles!A$3:B$1048576,MATCH(F91, Roles!A$3:A$1048576, 0), 2))</f>
         <v>Участник</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="H92" s="28" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="D92" s="23"/>
-      <c r="I92" s="3"/>
+      <c r="I92" s="3" t="str">
+        <f>IF(ISBLANK(E92), "",INDEX(Squads!A$3:B$1048576,MATCH(E92, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J92" s="3" t="str">
-        <f>IF(ISBLANK(F92), "",INDEX(Roles!A$3:B$1048576,MATCH(F92, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F92), "",INDEX(Roles!A$3:B$1048576,MATCH(F92, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I93" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H93" s="28" t="str">
+        <f t="shared" ref="H93:H113" si="15">IF(AND(ISBLANK(B93),ISBLANK(C93)), "",TRIM(_xlfn.CONCAT($B93," ",$C93)))</f>
+        <v/>
+      </c>
+      <c r="I93" s="3" t="str">
+        <f>IF(ISBLANK(E93), "",INDEX(Squads!A$3:B$1048576,MATCH(E93, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J93" s="3" t="str">
-        <f>IF(ISBLANK(F93), "",INDEX(Roles!A$3:B$1048576,MATCH(F93, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F93), "",INDEX(Roles!A$3:B$1048576,MATCH(F93, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="K93:K113" si="16">D93</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I94" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H94" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I94" s="3" t="str">
+        <f>IF(ISBLANK(E94), "",INDEX(Squads!A$3:B$1048576,MATCH(E94, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J94" s="3" t="str">
-        <f>IF(ISBLANK(F94), "",INDEX(Roles!A$3:B$1048576,MATCH(F94, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F94), "",INDEX(Roles!A$3:B$1048576,MATCH(F94, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I95" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H95" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I95" s="3" t="str">
+        <f>IF(ISBLANK(E95), "",INDEX(Squads!A$3:B$1048576,MATCH(E95, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J95" s="3" t="str">
-        <f>IF(ISBLANK(F95), "",INDEX(Roles!A$3:B$1048576,MATCH(F95, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F95), "",INDEX(Roles!A$3:B$1048576,MATCH(F95, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I96" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H96" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I96" s="3" t="str">
+        <f>IF(ISBLANK(E96), "",INDEX(Squads!A$3:B$1048576,MATCH(E96, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J96" s="3" t="str">
-        <f>IF(ISBLANK(F96), "",INDEX(Roles!A$3:B$1048576,MATCH(F96, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F96), "",INDEX(Roles!A$3:B$1048576,MATCH(F96, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I97" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H97" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I97" s="3" t="str">
+        <f>IF(ISBLANK(E97), "",INDEX(Squads!A$3:B$1048576,MATCH(E97, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J97" s="3" t="str">
-        <f>IF(ISBLANK(F97), "",INDEX(Roles!A$3:B$1048576,MATCH(F97, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F97), "",INDEX(Roles!A$3:B$1048576,MATCH(F97, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I98" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H98" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I98" s="3" t="str">
+        <f>IF(ISBLANK(E98), "",INDEX(Squads!A$3:B$1048576,MATCH(E98, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J98" s="3" t="str">
-        <f>IF(ISBLANK(F98), "",INDEX(Roles!A$3:B$1048576,MATCH(F98, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F98), "",INDEX(Roles!A$3:B$1048576,MATCH(F98, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I99" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H99" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I99" s="3" t="str">
+        <f>IF(ISBLANK(E99), "",INDEX(Squads!A$3:B$1048576,MATCH(E99, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J99" s="3" t="str">
-        <f>IF(ISBLANK(F99), "",INDEX(Roles!A$3:B$1048576,MATCH(F99, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F99), "",INDEX(Roles!A$3:B$1048576,MATCH(F99, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I100" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H100" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I100" s="3" t="str">
+        <f>IF(ISBLANK(E100), "",INDEX(Squads!A$3:B$1048576,MATCH(E100, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J100" s="3" t="str">
-        <f>IF(ISBLANK(F100), "",INDEX(Roles!A$3:B$1048576,MATCH(F100, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F100), "",INDEX(Roles!A$3:B$1048576,MATCH(F100, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I101" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H101" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I101" s="3" t="str">
+        <f>IF(ISBLANK(E101), "",INDEX(Squads!A$3:B$1048576,MATCH(E101, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J101" s="3" t="str">
-        <f>IF(ISBLANK(F101), "",INDEX(Roles!A$3:B$1048576,MATCH(F101, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F101), "",INDEX(Roles!A$3:B$1048576,MATCH(F101, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I102" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H102" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I102" s="3" t="str">
+        <f>IF(ISBLANK(E102), "",INDEX(Squads!A$3:B$1048576,MATCH(E102, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J102" s="3" t="str">
-        <f>IF(ISBLANK(F102), "",INDEX(Roles!A$3:B$1048576,MATCH(F102, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F102), "",INDEX(Roles!A$3:B$1048576,MATCH(F102, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I103" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H103" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I103" s="3" t="str">
+        <f>IF(ISBLANK(E103), "",INDEX(Squads!A$3:B$1048576,MATCH(E103, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J103" s="3" t="str">
-        <f>IF(ISBLANK(F103), "",INDEX(Roles!A$3:B$1048576,MATCH(F103, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F103), "",INDEX(Roles!A$3:B$1048576,MATCH(F103, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I104" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H104" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I104" s="3" t="str">
+        <f>IF(ISBLANK(E104), "",INDEX(Squads!A$3:B$1048576,MATCH(E104, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J104" s="3" t="str">
-        <f>IF(ISBLANK(F104), "",INDEX(Roles!A$3:B$1048576,MATCH(F104, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F104), "",INDEX(Roles!A$3:B$1048576,MATCH(F104, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I105" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H105" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I105" s="3" t="str">
+        <f>IF(ISBLANK(E105), "",INDEX(Squads!A$3:B$1048576,MATCH(E105, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J105" s="3" t="str">
-        <f>IF(ISBLANK(F105), "",INDEX(Roles!A$3:B$1048576,MATCH(F105, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F105), "",INDEX(Roles!A$3:B$1048576,MATCH(F105, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I106" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H106" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I106" s="3" t="str">
+        <f>IF(ISBLANK(E106), "",INDEX(Squads!A$3:B$1048576,MATCH(E106, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J106" s="3" t="str">
-        <f>IF(ISBLANK(F106), "",INDEX(Roles!A$3:B$1048576,MATCH(F106, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F106), "",INDEX(Roles!A$3:B$1048576,MATCH(F106, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I107" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H107" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I107" s="3" t="str">
+        <f>IF(ISBLANK(E107), "",INDEX(Squads!A$3:B$1048576,MATCH(E107, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J107" s="3" t="str">
-        <f>IF(ISBLANK(F107), "",INDEX(Roles!A$3:B$1048576,MATCH(F107, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F107), "",INDEX(Roles!A$3:B$1048576,MATCH(F107, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I108" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H108" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I108" s="3" t="str">
+        <f>IF(ISBLANK(E108), "",INDEX(Squads!A$3:B$1048576,MATCH(E108, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J108" s="3" t="str">
-        <f>IF(ISBLANK(F108), "",INDEX(Roles!A$3:B$1048576,MATCH(F108, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F108), "",INDEX(Roles!A$3:B$1048576,MATCH(F108, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I109" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H109" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I109" s="3" t="str">
+        <f>IF(ISBLANK(E109), "",INDEX(Squads!A$3:B$1048576,MATCH(E109, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J109" s="3" t="str">
-        <f>IF(ISBLANK(F109), "",INDEX(Roles!A$3:B$1048576,MATCH(F109, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F109), "",INDEX(Roles!A$3:B$1048576,MATCH(F109, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I110" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H110" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I110" s="3" t="str">
+        <f>IF(ISBLANK(E110), "",INDEX(Squads!A$3:B$1048576,MATCH(E110, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J110" s="3" t="str">
-        <f>IF(ISBLANK(F110), "",INDEX(Roles!A$3:B$1048576,MATCH(F110, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F110), "",INDEX(Roles!A$3:B$1048576,MATCH(F110, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I111" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H111" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I111" s="3" t="str">
+        <f>IF(ISBLANK(E111), "",INDEX(Squads!A$3:B$1048576,MATCH(E111, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J111" s="3" t="str">
-        <f>IF(ISBLANK(F111), "",INDEX(Roles!A$3:B$1048576,MATCH(F111, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F111), "",INDEX(Roles!A$3:B$1048576,MATCH(F111, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I112" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H112" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I112" s="3" t="str">
+        <f>IF(ISBLANK(E112), "",INDEX(Squads!A$3:B$1048576,MATCH(E112, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J112" s="3" t="str">
-        <f>IF(ISBLANK(F112), "",INDEX(Roles!A$3:B$1048576,MATCH(F112, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F112), "",INDEX(Roles!A$3:B$1048576,MATCH(F112, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I113" s="3"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H113" s="28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I113" s="3" t="str">
+        <f>IF(ISBLANK(E113), "",INDEX(Squads!A$3:B$1048576,MATCH(E113, Squads!A$3:A$1048576, 0), 2))</f>
+        <v/>
+      </c>
       <c r="J113" s="3" t="str">
-        <f>IF(ISBLANK(F113), "",INDEX(Roles!A$3:B$1048576,MATCH(F113, Squads!A$3:A$1048576, 0), 2))</f>
+        <f>IF(ISBLANK(F113), "",INDEX(Roles!A$3:B$1048576,MATCH(F113, Roles!A$3:A$1048576, 0), 2))</f>
         <v/>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I114" s="3"/>
@@ -4705,7 +4869,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I115" s="3"/>
@@ -4720,7 +4884,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I116" s="3"/>
@@ -4735,7 +4899,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I117" s="3"/>
@@ -4744,13 +4908,13 @@
         <v/>
       </c>
       <c r="K117" s="3">
-        <f t="shared" ref="K117:K164" si="13">D117</f>
+        <f t="shared" ref="K117:K164" si="17">D117</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="str">
-        <f t="shared" ref="A118:A181" si="14">IF(AND(ISBLANK(B118),ISBLANK(C118)), "", A117 + 1)</f>
+        <f t="shared" ref="A118:A181" si="18">IF(AND(ISBLANK(B118),ISBLANK(C118)), "", A117 + 1)</f>
         <v/>
       </c>
       <c r="I118" s="3"/>
@@ -4759,13 +4923,13 @@
         <v/>
       </c>
       <c r="K118" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I119" s="3"/>
@@ -4774,13 +4938,13 @@
         <v/>
       </c>
       <c r="K119" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I120" s="3"/>
@@ -4789,13 +4953,13 @@
         <v/>
       </c>
       <c r="K120" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I121" s="3"/>
@@ -4804,13 +4968,13 @@
         <v/>
       </c>
       <c r="K121" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I122" s="3"/>
@@ -4819,13 +4983,13 @@
         <v/>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I123" s="3"/>
@@ -4834,13 +4998,13 @@
         <v/>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I124" s="3"/>
@@ -4849,13 +5013,13 @@
         <v/>
       </c>
       <c r="K124" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I125" s="3"/>
@@ -4864,13 +5028,13 @@
         <v/>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I126" s="3"/>
@@ -4879,13 +5043,13 @@
         <v/>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I127" s="3"/>
@@ -4894,13 +5058,13 @@
         <v/>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I128" s="3"/>
@@ -4909,13 +5073,13 @@
         <v/>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I129" s="3"/>
@@ -4924,13 +5088,13 @@
         <v/>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I130" s="3"/>
@@ -4939,13 +5103,13 @@
         <v/>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I131" s="3"/>
@@ -4954,13 +5118,13 @@
         <v/>
       </c>
       <c r="K131" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I132" s="3"/>
@@ -4969,13 +5133,13 @@
         <v/>
       </c>
       <c r="K132" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I133" s="3"/>
@@ -4984,13 +5148,13 @@
         <v/>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I134" s="3"/>
@@ -4999,13 +5163,13 @@
         <v/>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I135" s="3"/>
@@ -5014,13 +5178,13 @@
         <v/>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I136" s="3"/>
@@ -5029,13 +5193,13 @@
         <v/>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I137" s="3"/>
@@ -5044,13 +5208,13 @@
         <v/>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I138" s="3"/>
@@ -5059,13 +5223,13 @@
         <v/>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I139" s="3"/>
@@ -5074,13 +5238,13 @@
         <v/>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I140" s="3"/>
@@ -5089,13 +5253,13 @@
         <v/>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I141" s="3"/>
@@ -5104,13 +5268,13 @@
         <v/>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I142" s="3"/>
@@ -5119,13 +5283,13 @@
         <v/>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I143" s="3"/>
@@ -5134,13 +5298,13 @@
         <v/>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I144" s="3"/>
@@ -5149,13 +5313,13 @@
         <v/>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I145" s="3"/>
@@ -5164,13 +5328,13 @@
         <v/>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I146" s="3"/>
@@ -5179,13 +5343,13 @@
         <v/>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I147" s="3"/>
@@ -5194,13 +5358,13 @@
         <v/>
       </c>
       <c r="K147" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I148" s="3"/>
@@ -5209,13 +5373,13 @@
         <v/>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I149" s="3"/>
@@ -5224,13 +5388,13 @@
         <v/>
       </c>
       <c r="K149" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I150" s="3"/>
@@ -5239,13 +5403,13 @@
         <v/>
       </c>
       <c r="K150" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I151" s="3"/>
@@ -5254,13 +5418,13 @@
         <v/>
       </c>
       <c r="K151" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I152" s="3"/>
@@ -5269,13 +5433,13 @@
         <v/>
       </c>
       <c r="K152" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I153" s="3"/>
@@ -5284,13 +5448,13 @@
         <v/>
       </c>
       <c r="K153" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I154" s="3"/>
@@ -5299,13 +5463,13 @@
         <v/>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I155" s="3"/>
@@ -5314,13 +5478,13 @@
         <v/>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I156" s="3"/>
@@ -5329,13 +5493,13 @@
         <v/>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I157" s="3"/>
@@ -5344,13 +5508,13 @@
         <v/>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I158" s="3"/>
@@ -5359,13 +5523,13 @@
         <v/>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I159" s="3"/>
@@ -5374,13 +5538,13 @@
         <v/>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I160" s="3"/>
@@ -5389,13 +5553,13 @@
         <v/>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I161" s="3"/>
@@ -5404,13 +5568,13 @@
         <v/>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I162" s="3"/>
@@ -5419,13 +5583,13 @@
         <v/>
       </c>
       <c r="K162" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I163" s="3"/>
@@ -5434,13 +5598,13 @@
         <v/>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I164" s="3"/>
@@ -5449,13 +5613,13 @@
         <v/>
       </c>
       <c r="K164" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I165" s="3"/>
@@ -5466,7 +5630,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I166" s="3"/>
@@ -5477,7 +5641,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I167" s="3"/>
@@ -5488,7 +5652,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I168" s="3"/>
@@ -5499,7 +5663,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I169" s="3"/>
@@ -5510,7 +5674,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I170" s="3"/>
@@ -5521,7 +5685,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I171" s="3"/>
@@ -5532,7 +5696,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I172" s="3"/>
@@ -5543,7 +5707,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I173" s="3"/>
@@ -5554,7 +5718,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I174" s="3"/>
@@ -5565,7 +5729,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I175" s="3"/>
@@ -5576,7 +5740,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I176" s="3"/>
@@ -5587,7 +5751,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I177" s="3"/>
@@ -5598,7 +5762,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I178" s="3"/>
@@ -5609,7 +5773,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I179" s="3"/>
@@ -5620,7 +5784,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I180" s="3"/>
@@ -5631,7 +5795,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I181" s="3"/>
@@ -5642,7 +5806,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="str">
-        <f t="shared" ref="A182:A245" si="15">IF(AND(ISBLANK(B182),ISBLANK(C182)), "", A181 + 1)</f>
+        <f t="shared" ref="A182:A245" si="19">IF(AND(ISBLANK(B182),ISBLANK(C182)), "", A181 + 1)</f>
         <v/>
       </c>
       <c r="I182" s="3"/>
@@ -5653,7 +5817,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I183" s="3"/>
@@ -5664,7 +5828,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E184" s="6" t="str">
@@ -5679,7 +5843,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E185" s="6" t="str">
@@ -5690,7 +5854,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E186" s="6" t="str">
@@ -5701,7 +5865,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E187" s="6" t="str">
@@ -5712,7 +5876,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E188" s="6" t="str">
@@ -5723,7 +5887,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E189" s="6" t="str">
@@ -5734,7 +5898,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E190" s="6" t="str">
@@ -5745,7 +5909,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E191" s="6" t="str">
@@ -5756,7 +5920,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E192" s="6" t="str">
@@ -5767,7 +5931,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E193" s="6" t="str">
@@ -5778,7 +5942,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E194" s="6" t="str">
@@ -5789,7 +5953,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E195" s="6" t="str">
@@ -5800,7 +5964,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E196" s="6" t="str">
@@ -5811,7 +5975,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E197" s="6" t="str">
@@ -5822,7 +5986,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E198" s="6" t="str">
@@ -5833,7 +5997,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E199" s="6" t="str">
@@ -5844,7 +6008,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E200" s="6" t="str">
@@ -5855,7 +6019,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E201" s="6" t="str">
@@ -5866,7 +6030,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E202" s="6" t="str">
@@ -5877,7 +6041,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E203" s="6" t="str">
@@ -5888,7 +6052,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E204" s="6" t="str">
@@ -5899,7 +6063,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E205" s="6" t="str">
@@ -5910,7 +6074,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E206" s="6" t="str">
@@ -5921,7 +6085,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E207" s="6" t="str">
@@ -5932,7 +6096,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E208" s="6" t="str">
@@ -5943,7 +6107,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E209" s="6" t="str">
@@ -5954,7 +6118,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E210" s="6" t="str">
@@ -5965,7 +6129,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E211" s="6" t="str">
@@ -5976,7 +6140,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E212" s="6" t="str">
@@ -5987,7 +6151,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E213" s="6" t="str">
@@ -5998,7 +6162,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E214" s="6" t="str">
@@ -6009,7 +6173,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E215" s="6" t="str">
@@ -6020,7 +6184,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E216" s="6" t="str">
@@ -6031,7 +6195,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E217" s="6" t="str">
@@ -6042,7 +6206,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E218" s="6" t="str">
@@ -6053,7 +6217,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E219" s="6" t="str">
@@ -6064,7 +6228,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E220" s="6" t="str">
@@ -6075,7 +6239,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E221" s="6" t="str">
@@ -6086,7 +6250,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E222" s="6" t="str">
@@ -6097,7 +6261,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E223" s="6" t="str">
@@ -6108,7 +6272,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E224" s="6" t="str">
@@ -6119,7 +6283,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E225" s="6" t="str">
@@ -6130,7 +6294,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E226" s="6" t="str">
@@ -6141,7 +6305,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E227" s="6" t="str">
@@ -6152,7 +6316,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E228" s="6" t="str">
@@ -6163,7 +6327,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E229" s="6" t="str">
@@ -6174,7 +6338,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E230" s="6" t="str">
@@ -6185,7 +6349,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E231" s="6" t="str">
@@ -6196,7 +6360,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E232" s="6" t="str">
@@ -6207,7 +6371,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E233" s="6" t="str">
@@ -6218,7 +6382,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E234" s="6" t="str">
@@ -6229,7 +6393,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E235" s="6" t="str">
@@ -6240,7 +6404,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E236" s="6" t="str">
@@ -6251,7 +6415,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E237" s="6" t="str">
@@ -6262,7 +6426,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E238" s="6" t="str">
@@ -6273,7 +6437,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E239" s="6" t="str">
@@ -6284,7 +6448,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E240" s="6" t="str">
@@ -6295,7 +6459,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E241" s="6" t="str">
@@ -6306,7 +6470,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E242" s="6" t="str">
@@ -6317,7 +6481,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E243" s="6" t="str">
@@ -6328,7 +6492,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E244" s="6" t="str">
@@ -6339,7 +6503,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E245" s="6" t="str">
@@ -6350,7 +6514,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="str">
-        <f t="shared" ref="A246:A309" si="16">IF(AND(ISBLANK(B246),ISBLANK(C246)), "", A245 + 1)</f>
+        <f t="shared" ref="A246:A309" si="20">IF(AND(ISBLANK(B246),ISBLANK(C246)), "", A245 + 1)</f>
         <v/>
       </c>
       <c r="E246" s="6" t="str">
@@ -6361,7 +6525,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E247" s="6" t="str">
@@ -6372,7 +6536,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E248" s="6" t="str">
@@ -6383,7 +6547,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E249" s="6" t="str">
@@ -6394,7 +6558,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E250" s="6" t="str">
@@ -6405,7 +6569,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E251" s="6" t="str">
@@ -6416,7 +6580,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E252" s="6" t="str">
@@ -6427,7 +6591,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E253" s="6" t="str">
@@ -6438,7 +6602,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E254" s="6" t="str">
@@ -6449,7 +6613,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E255" s="6" t="str">
@@ -6460,7 +6624,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E256" s="6" t="str">
@@ -6471,7 +6635,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E257" s="6" t="str">
@@ -6482,7 +6646,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E258" s="6" t="str">
@@ -6493,7 +6657,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E259" s="6" t="str">
@@ -6504,7 +6668,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E260" s="6" t="str">
@@ -6515,7 +6679,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E261" s="6" t="str">
@@ -6526,7 +6690,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E262" s="6" t="str">
@@ -6537,7 +6701,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E263" s="6" t="str">
@@ -6548,7 +6712,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E264" s="6" t="str">
@@ -6559,7 +6723,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E265" s="6" t="str">
@@ -6570,7 +6734,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E266" s="6" t="str">
@@ -6581,7 +6745,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E267" s="6" t="str">
@@ -6592,7 +6756,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E268" s="6" t="str">
@@ -6603,7 +6767,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E269" s="6" t="str">
@@ -6614,7 +6778,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E270" s="6" t="str">
@@ -6625,7 +6789,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E271" s="6" t="str">
@@ -6636,7 +6800,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E272" s="6" t="str">
@@ -6647,7 +6811,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E273" s="6" t="str">
@@ -6658,7 +6822,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E274" s="6" t="str">
@@ -6669,7 +6833,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E275" s="6" t="str">
@@ -6680,7 +6844,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E276" s="6" t="str">
@@ -6691,7 +6855,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E277" s="6" t="str">
@@ -6702,7 +6866,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E278" s="6" t="str">
@@ -6713,7 +6877,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E279" s="6" t="str">
@@ -6724,7 +6888,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E280" s="6" t="str">
@@ -6735,7 +6899,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E281" s="6" t="str">
@@ -6746,7 +6910,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E282" s="6" t="str">
@@ -6757,7 +6921,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E283" s="6" t="str">
@@ -6768,7 +6932,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E284" s="6" t="str">
@@ -6779,7 +6943,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E285" s="6" t="str">
@@ -6789,7 +6953,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E286" s="6" t="str">
@@ -6799,7 +6963,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E287" s="6" t="str">
@@ -6809,7 +6973,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E288" s="6" t="str">
@@ -6819,7 +6983,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E289" s="6" t="str">
@@ -6829,7 +6993,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E290" s="6" t="str">
@@ -6839,7 +7003,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E291" s="6" t="str">
@@ -6849,7 +7013,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E292" s="6" t="str">
@@ -6859,7 +7023,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E293" s="6" t="str">
@@ -6867,13 +7031,13 @@
         <v/>
       </c>
       <c r="H293" s="7" t="str">
-        <f t="shared" ref="H293:H356" si="17">IF(ISBLANK(B293), "",_xlfn.CONCAT($B293," ",$C293))</f>
+        <f t="shared" ref="H293:H356" si="21">IF(ISBLANK(B293), "",_xlfn.CONCAT($B293," ",$C293))</f>
         <v/>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E294" s="6" t="str">
@@ -6881,13 +7045,13 @@
         <v/>
       </c>
       <c r="H294" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E295" s="6" t="str">
@@ -6895,13 +7059,13 @@
         <v/>
       </c>
       <c r="H295" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E296" s="6" t="str">
@@ -6909,13 +7073,13 @@
         <v/>
       </c>
       <c r="H296" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E297" s="6" t="str">
@@ -6923,13 +7087,13 @@
         <v/>
       </c>
       <c r="H297" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E298" s="6" t="str">
@@ -6937,13 +7101,13 @@
         <v/>
       </c>
       <c r="H298" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E299" s="6" t="str">
@@ -6951,13 +7115,13 @@
         <v/>
       </c>
       <c r="H299" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E300" s="6" t="str">
@@ -6965,13 +7129,13 @@
         <v/>
       </c>
       <c r="H300" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E301" s="6" t="str">
@@ -6979,13 +7143,13 @@
         <v/>
       </c>
       <c r="H301" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E302" s="6" t="str">
@@ -6993,13 +7157,13 @@
         <v/>
       </c>
       <c r="H302" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E303" s="6" t="str">
@@ -7007,13 +7171,13 @@
         <v/>
       </c>
       <c r="H303" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E304" s="6" t="str">
@@ -7021,13 +7185,13 @@
         <v/>
       </c>
       <c r="H304" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E305" s="6" t="str">
@@ -7035,13 +7199,13 @@
         <v/>
       </c>
       <c r="H305" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E306" s="6" t="str">
@@ -7049,13 +7213,13 @@
         <v/>
       </c>
       <c r="H306" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E307" s="6" t="str">
@@ -7063,13 +7227,13 @@
         <v/>
       </c>
       <c r="H307" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E308" s="6" t="str">
@@ -7077,13 +7241,13 @@
         <v/>
       </c>
       <c r="H308" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E309" s="6" t="str">
@@ -7091,13 +7255,13 @@
         <v/>
       </c>
       <c r="H309" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="21" t="str">
-        <f t="shared" ref="A310:A373" si="18">IF(AND(ISBLANK(B310),ISBLANK(C310)), "", A309 + 1)</f>
+        <f t="shared" ref="A310:A373" si="22">IF(AND(ISBLANK(B310),ISBLANK(C310)), "", A309 + 1)</f>
         <v/>
       </c>
       <c r="E310" s="6" t="str">
@@ -7105,13 +7269,13 @@
         <v/>
       </c>
       <c r="H310" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E311" s="6" t="str">
@@ -7119,13 +7283,13 @@
         <v/>
       </c>
       <c r="H311" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E312" s="6" t="str">
@@ -7133,13 +7297,13 @@
         <v/>
       </c>
       <c r="H312" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E313" s="6" t="str">
@@ -7147,13 +7311,13 @@
         <v/>
       </c>
       <c r="H313" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E314" s="6" t="str">
@@ -7161,13 +7325,13 @@
         <v/>
       </c>
       <c r="H314" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E315" s="6" t="str">
@@ -7175,13 +7339,13 @@
         <v/>
       </c>
       <c r="H315" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E316" s="6" t="str">
@@ -7189,13 +7353,13 @@
         <v/>
       </c>
       <c r="H316" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E317" s="6" t="str">
@@ -7203,13 +7367,13 @@
         <v/>
       </c>
       <c r="H317" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E318" s="6" t="str">
@@ -7217,13 +7381,13 @@
         <v/>
       </c>
       <c r="H318" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E319" s="6" t="str">
@@ -7231,13 +7395,13 @@
         <v/>
       </c>
       <c r="H319" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E320" s="6" t="str">
@@ -7245,13 +7409,13 @@
         <v/>
       </c>
       <c r="H320" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E321" s="6" t="str">
@@ -7259,13 +7423,13 @@
         <v/>
       </c>
       <c r="H321" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E322" s="6" t="str">
@@ -7273,13 +7437,13 @@
         <v/>
       </c>
       <c r="H322" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E323" s="6" t="str">
@@ -7287,13 +7451,13 @@
         <v/>
       </c>
       <c r="H323" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E324" s="6" t="str">
@@ -7301,13 +7465,13 @@
         <v/>
       </c>
       <c r="H324" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E325" s="6" t="str">
@@ -7315,13 +7479,13 @@
         <v/>
       </c>
       <c r="H325" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E326" s="6" t="str">
@@ -7329,13 +7493,13 @@
         <v/>
       </c>
       <c r="H326" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E327" s="6" t="str">
@@ -7343,13 +7507,13 @@
         <v/>
       </c>
       <c r="H327" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E328" s="6" t="str">
@@ -7357,13 +7521,13 @@
         <v/>
       </c>
       <c r="H328" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E329" s="6" t="str">
@@ -7371,13 +7535,13 @@
         <v/>
       </c>
       <c r="H329" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E330" s="6" t="str">
@@ -7385,13 +7549,13 @@
         <v/>
       </c>
       <c r="H330" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E331" s="6" t="str">
@@ -7399,13 +7563,13 @@
         <v/>
       </c>
       <c r="H331" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E332" s="6" t="str">
@@ -7413,13 +7577,13 @@
         <v/>
       </c>
       <c r="H332" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E333" s="6" t="str">
@@ -7427,13 +7591,13 @@
         <v/>
       </c>
       <c r="H333" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E334" s="6" t="str">
@@ -7441,13 +7605,13 @@
         <v/>
       </c>
       <c r="H334" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E335" s="6" t="str">
@@ -7455,13 +7619,13 @@
         <v/>
       </c>
       <c r="H335" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E336" s="6" t="str">
@@ -7469,13 +7633,13 @@
         <v/>
       </c>
       <c r="H336" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E337" s="6" t="str">
@@ -7483,13 +7647,13 @@
         <v/>
       </c>
       <c r="H337" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E338" s="6" t="str">
@@ -7497,13 +7661,13 @@
         <v/>
       </c>
       <c r="H338" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E339" s="6" t="str">
@@ -7511,13 +7675,13 @@
         <v/>
       </c>
       <c r="H339" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E340" s="6" t="str">
@@ -7525,13 +7689,13 @@
         <v/>
       </c>
       <c r="H340" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E341" s="6" t="str">
@@ -7539,13 +7703,13 @@
         <v/>
       </c>
       <c r="H341" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E342" s="6" t="str">
@@ -7553,13 +7717,13 @@
         <v/>
       </c>
       <c r="H342" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E343" s="6" t="str">
@@ -7567,13 +7731,13 @@
         <v/>
       </c>
       <c r="H343" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E344" s="6" t="str">
@@ -7581,13 +7745,13 @@
         <v/>
       </c>
       <c r="H344" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E345" s="6" t="str">
@@ -7595,13 +7759,13 @@
         <v/>
       </c>
       <c r="H345" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E346" s="6" t="str">
@@ -7609,13 +7773,13 @@
         <v/>
       </c>
       <c r="H346" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E347" s="6" t="str">
@@ -7623,13 +7787,13 @@
         <v/>
       </c>
       <c r="H347" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E348" s="6" t="str">
@@ -7637,13 +7801,13 @@
         <v/>
       </c>
       <c r="H348" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E349" s="6" t="str">
@@ -7651,13 +7815,13 @@
         <v/>
       </c>
       <c r="H349" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E350" s="6" t="str">
@@ -7665,13 +7829,13 @@
         <v/>
       </c>
       <c r="H350" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E351" s="6" t="str">
@@ -7679,13 +7843,13 @@
         <v/>
       </c>
       <c r="H351" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E352" s="6" t="str">
@@ -7693,13 +7857,13 @@
         <v/>
       </c>
       <c r="H352" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E353" s="6" t="str">
@@ -7707,13 +7871,13 @@
         <v/>
       </c>
       <c r="H353" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E354" s="6" t="str">
@@ -7721,13 +7885,13 @@
         <v/>
       </c>
       <c r="H354" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E355" s="6" t="str">
@@ -7735,13 +7899,13 @@
         <v/>
       </c>
       <c r="H355" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E356" s="6" t="str">
@@ -7749,13 +7913,13 @@
         <v/>
       </c>
       <c r="H356" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E357" s="6" t="str">
@@ -7763,13 +7927,13 @@
         <v/>
       </c>
       <c r="H357" s="7" t="str">
-        <f t="shared" ref="H357:H420" si="19">IF(ISBLANK(B357), "",_xlfn.CONCAT($B357," ",$C357))</f>
+        <f t="shared" ref="H357:H420" si="23">IF(ISBLANK(B357), "",_xlfn.CONCAT($B357," ",$C357))</f>
         <v/>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E358" s="6" t="str">
@@ -7777,13 +7941,13 @@
         <v/>
       </c>
       <c r="H358" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E359" s="6" t="str">
@@ -7791,13 +7955,13 @@
         <v/>
       </c>
       <c r="H359" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E360" s="6" t="str">
@@ -7805,13 +7969,13 @@
         <v/>
       </c>
       <c r="H360" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E361" s="6" t="str">
@@ -7819,13 +7983,13 @@
         <v/>
       </c>
       <c r="H361" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E362" s="6" t="str">
@@ -7833,13 +7997,13 @@
         <v/>
       </c>
       <c r="H362" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E363" s="6" t="str">
@@ -7847,13 +8011,13 @@
         <v/>
       </c>
       <c r="H363" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E364" s="6" t="str">
@@ -7861,13 +8025,13 @@
         <v/>
       </c>
       <c r="H364" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E365" s="6" t="str">
@@ -7875,13 +8039,13 @@
         <v/>
       </c>
       <c r="H365" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E366" s="6" t="str">
@@ -7889,13 +8053,13 @@
         <v/>
       </c>
       <c r="H366" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E367" s="6" t="str">
@@ -7903,13 +8067,13 @@
         <v/>
       </c>
       <c r="H367" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E368" s="6" t="str">
@@ -7917,13 +8081,13 @@
         <v/>
       </c>
       <c r="H368" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E369" s="6" t="str">
@@ -7931,13 +8095,13 @@
         <v/>
       </c>
       <c r="H369" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E370" s="6" t="str">
@@ -7945,13 +8109,13 @@
         <v/>
       </c>
       <c r="H370" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E371" s="6" t="str">
@@ -7959,13 +8123,13 @@
         <v/>
       </c>
       <c r="H371" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E372" s="6" t="str">
@@ -7973,13 +8137,13 @@
         <v/>
       </c>
       <c r="H372" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="21" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E373" s="6" t="str">
@@ -7987,13 +8151,13 @@
         <v/>
       </c>
       <c r="H373" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="21" t="str">
-        <f t="shared" ref="A374:A437" si="20">IF(AND(ISBLANK(B374),ISBLANK(C374)), "", A373 + 1)</f>
+        <f t="shared" ref="A374:A437" si="24">IF(AND(ISBLANK(B374),ISBLANK(C374)), "", A373 + 1)</f>
         <v/>
       </c>
       <c r="E374" s="6" t="str">
@@ -8001,13 +8165,13 @@
         <v/>
       </c>
       <c r="H374" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E375" s="6" t="str">
@@ -8015,13 +8179,13 @@
         <v/>
       </c>
       <c r="H375" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E376" s="6" t="str">
@@ -8029,13 +8193,13 @@
         <v/>
       </c>
       <c r="H376" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E377" s="6" t="str">
@@ -8043,13 +8207,13 @@
         <v/>
       </c>
       <c r="H377" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E378" s="6" t="str">
@@ -8057,13 +8221,13 @@
         <v/>
       </c>
       <c r="H378" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E379" s="6" t="str">
@@ -8071,13 +8235,13 @@
         <v/>
       </c>
       <c r="H379" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E380" s="6" t="str">
@@ -8085,13 +8249,13 @@
         <v/>
       </c>
       <c r="H380" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E381" s="6" t="str">
@@ -8099,13 +8263,13 @@
         <v/>
       </c>
       <c r="H381" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E382" s="6" t="str">
@@ -8113,13 +8277,13 @@
         <v/>
       </c>
       <c r="H382" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E383" s="6" t="str">
@@ -8127,13 +8291,13 @@
         <v/>
       </c>
       <c r="H383" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E384" s="6" t="str">
@@ -8141,13 +8305,13 @@
         <v/>
       </c>
       <c r="H384" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E385" s="6" t="str">
@@ -8155,13 +8319,13 @@
         <v/>
       </c>
       <c r="H385" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E386" s="6" t="str">
@@ -8169,13 +8333,13 @@
         <v/>
       </c>
       <c r="H386" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E387" s="6" t="str">
@@ -8183,13 +8347,13 @@
         <v/>
       </c>
       <c r="H387" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E388" s="6" t="str">
@@ -8197,13 +8361,13 @@
         <v/>
       </c>
       <c r="H388" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E389" s="6" t="str">
@@ -8211,13 +8375,13 @@
         <v/>
       </c>
       <c r="H389" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E390" s="6" t="str">
@@ -8225,13 +8389,13 @@
         <v/>
       </c>
       <c r="H390" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E391" s="6" t="str">
@@ -8239,13 +8403,13 @@
         <v/>
       </c>
       <c r="H391" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E392" s="6" t="str">
@@ -8253,13 +8417,13 @@
         <v/>
       </c>
       <c r="H392" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E393" s="6" t="str">
@@ -8267,13 +8431,13 @@
         <v/>
       </c>
       <c r="H393" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E394" s="6" t="str">
@@ -8281,13 +8445,13 @@
         <v/>
       </c>
       <c r="H394" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E395" s="6" t="str">
@@ -8295,13 +8459,13 @@
         <v/>
       </c>
       <c r="H395" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E396" s="6" t="str">
@@ -8309,13 +8473,13 @@
         <v/>
       </c>
       <c r="H396" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E397" s="6" t="str">
@@ -8323,13 +8487,13 @@
         <v/>
       </c>
       <c r="H397" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E398" s="6" t="str">
@@ -8337,13 +8501,13 @@
         <v/>
       </c>
       <c r="H398" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E399" s="6" t="str">
@@ -8351,13 +8515,13 @@
         <v/>
       </c>
       <c r="H399" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E400" s="6" t="str">
@@ -8365,13 +8529,13 @@
         <v/>
       </c>
       <c r="H400" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E401" s="6" t="str">
@@ -8379,13 +8543,13 @@
         <v/>
       </c>
       <c r="H401" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E402" s="6" t="str">
@@ -8393,13 +8557,13 @@
         <v/>
       </c>
       <c r="H402" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E403" s="6" t="str">
@@ -8407,13 +8571,13 @@
         <v/>
       </c>
       <c r="H403" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E404" s="6" t="str">
@@ -8421,13 +8585,13 @@
         <v/>
       </c>
       <c r="H404" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E405" s="6" t="str">
@@ -8435,13 +8599,13 @@
         <v/>
       </c>
       <c r="H405" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E406" s="6" t="str">
@@ -8449,13 +8613,13 @@
         <v/>
       </c>
       <c r="H406" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E407" s="6" t="str">
@@ -8463,13 +8627,13 @@
         <v/>
       </c>
       <c r="H407" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E408" s="6" t="str">
@@ -8477,13 +8641,13 @@
         <v/>
       </c>
       <c r="H408" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E409" s="6" t="str">
@@ -8491,13 +8655,13 @@
         <v/>
       </c>
       <c r="H409" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E410" s="6" t="str">
@@ -8505,13 +8669,13 @@
         <v/>
       </c>
       <c r="H410" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E411" s="6" t="str">
@@ -8519,13 +8683,13 @@
         <v/>
       </c>
       <c r="H411" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E412" s="6" t="str">
@@ -8533,13 +8697,13 @@
         <v/>
       </c>
       <c r="H412" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E413" s="6" t="str">
@@ -8547,13 +8711,13 @@
         <v/>
       </c>
       <c r="H413" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E414" s="6" t="str">
@@ -8561,13 +8725,13 @@
         <v/>
       </c>
       <c r="H414" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E415" s="6" t="str">
@@ -8575,13 +8739,13 @@
         <v/>
       </c>
       <c r="H415" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E416" s="6" t="str">
@@ -8589,13 +8753,13 @@
         <v/>
       </c>
       <c r="H416" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E417" s="6" t="str">
@@ -8603,13 +8767,13 @@
         <v/>
       </c>
       <c r="H417" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E418" s="6" t="str">
@@ -8617,13 +8781,13 @@
         <v/>
       </c>
       <c r="H418" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E419" s="6" t="str">
@@ -8631,13 +8795,13 @@
         <v/>
       </c>
       <c r="H419" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E420" s="6" t="str">
@@ -8645,13 +8809,13 @@
         <v/>
       </c>
       <c r="H420" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E421" s="6" t="str">
@@ -8659,13 +8823,13 @@
         <v/>
       </c>
       <c r="H421" s="7" t="str">
-        <f t="shared" ref="H421:H484" si="21">IF(ISBLANK(B421), "",_xlfn.CONCAT($B421," ",$C421))</f>
+        <f t="shared" ref="H421:H484" si="25">IF(ISBLANK(B421), "",_xlfn.CONCAT($B421," ",$C421))</f>
         <v/>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E422" s="6" t="str">
@@ -8673,13 +8837,13 @@
         <v/>
       </c>
       <c r="H422" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E423" s="6" t="str">
@@ -8687,13 +8851,13 @@
         <v/>
       </c>
       <c r="H423" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E424" s="6" t="str">
@@ -8701,13 +8865,13 @@
         <v/>
       </c>
       <c r="H424" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E425" s="6" t="str">
@@ -8715,13 +8879,13 @@
         <v/>
       </c>
       <c r="H425" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E426" s="6" t="str">
@@ -8729,13 +8893,13 @@
         <v/>
       </c>
       <c r="H426" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E427" s="6" t="str">
@@ -8743,13 +8907,13 @@
         <v/>
       </c>
       <c r="H427" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E428" s="6" t="str">
@@ -8757,13 +8921,13 @@
         <v/>
       </c>
       <c r="H428" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E429" s="6" t="str">
@@ -8771,13 +8935,13 @@
         <v/>
       </c>
       <c r="H429" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E430" s="6" t="str">
@@ -8785,13 +8949,13 @@
         <v/>
       </c>
       <c r="H430" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E431" s="6" t="str">
@@ -8799,13 +8963,13 @@
         <v/>
       </c>
       <c r="H431" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E432" s="6" t="str">
@@ -8813,13 +8977,13 @@
         <v/>
       </c>
       <c r="H432" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E433" s="6" t="str">
@@ -8827,13 +8991,13 @@
         <v/>
       </c>
       <c r="H433" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E434" s="6" t="str">
@@ -8841,13 +9005,13 @@
         <v/>
       </c>
       <c r="H434" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E435" s="6" t="str">
@@ -8855,13 +9019,13 @@
         <v/>
       </c>
       <c r="H435" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E436" s="6" t="str">
@@ -8869,13 +9033,13 @@
         <v/>
       </c>
       <c r="H436" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E437" s="6" t="str">
@@ -8883,13 +9047,13 @@
         <v/>
       </c>
       <c r="H437" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="21" t="str">
-        <f t="shared" ref="A438:A473" si="22">IF(AND(ISBLANK(B438),ISBLANK(C438)), "", A437 + 1)</f>
+        <f t="shared" ref="A438:A473" si="26">IF(AND(ISBLANK(B438),ISBLANK(C438)), "", A437 + 1)</f>
         <v/>
       </c>
       <c r="E438" s="6" t="str">
@@ -8897,13 +9061,13 @@
         <v/>
       </c>
       <c r="H438" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E439" s="6" t="str">
@@ -8911,13 +9075,13 @@
         <v/>
       </c>
       <c r="H439" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E440" s="6" t="str">
@@ -8925,13 +9089,13 @@
         <v/>
       </c>
       <c r="H440" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E441" s="6" t="str">
@@ -8939,13 +9103,13 @@
         <v/>
       </c>
       <c r="H441" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E442" s="6" t="str">
@@ -8953,13 +9117,13 @@
         <v/>
       </c>
       <c r="H442" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E443" s="6" t="str">
@@ -8967,13 +9131,13 @@
         <v/>
       </c>
       <c r="H443" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E444" s="6" t="str">
@@ -8981,13 +9145,13 @@
         <v/>
       </c>
       <c r="H444" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E445" s="6" t="str">
@@ -8995,13 +9159,13 @@
         <v/>
       </c>
       <c r="H445" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E446" s="6" t="str">
@@ -9009,13 +9173,13 @@
         <v/>
       </c>
       <c r="H446" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E447" s="6" t="str">
@@ -9023,13 +9187,13 @@
         <v/>
       </c>
       <c r="H447" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E448" s="6" t="str">
@@ -9037,13 +9201,13 @@
         <v/>
       </c>
       <c r="H448" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E449" s="6" t="str">
@@ -9051,13 +9215,13 @@
         <v/>
       </c>
       <c r="H449" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E450" s="6" t="str">
@@ -9065,13 +9229,13 @@
         <v/>
       </c>
       <c r="H450" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E451" s="6" t="str">
@@ -9079,13 +9243,13 @@
         <v/>
       </c>
       <c r="H451" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E452" s="6" t="str">
@@ -9093,13 +9257,13 @@
         <v/>
       </c>
       <c r="H452" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E453" s="6" t="str">
@@ -9107,13 +9271,13 @@
         <v/>
       </c>
       <c r="H453" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E454" s="6" t="str">
@@ -9121,13 +9285,13 @@
         <v/>
       </c>
       <c r="H454" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E455" s="6" t="str">
@@ -9135,13 +9299,13 @@
         <v/>
       </c>
       <c r="H455" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E456" s="6" t="str">
@@ -9149,13 +9313,13 @@
         <v/>
       </c>
       <c r="H456" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E457" s="6" t="str">
@@ -9163,13 +9327,13 @@
         <v/>
       </c>
       <c r="H457" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E458" s="6" t="str">
@@ -9177,13 +9341,13 @@
         <v/>
       </c>
       <c r="H458" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E459" s="6" t="str">
@@ -9191,13 +9355,13 @@
         <v/>
       </c>
       <c r="H459" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E460" s="6" t="str">
@@ -9205,13 +9369,13 @@
         <v/>
       </c>
       <c r="H460" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E461" s="6" t="str">
@@ -9219,13 +9383,13 @@
         <v/>
       </c>
       <c r="H461" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E462" s="6" t="str">
@@ -9233,13 +9397,13 @@
         <v/>
       </c>
       <c r="H462" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E463" s="6" t="str">
@@ -9247,13 +9411,13 @@
         <v/>
       </c>
       <c r="H463" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E464" s="6" t="str">
@@ -9261,13 +9425,13 @@
         <v/>
       </c>
       <c r="H464" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E465" s="6" t="str">
@@ -9275,13 +9439,13 @@
         <v/>
       </c>
       <c r="H465" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E466" s="6" t="str">
@@ -9289,13 +9453,13 @@
         <v/>
       </c>
       <c r="H466" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E467" s="6" t="str">
@@ -9303,13 +9467,13 @@
         <v/>
       </c>
       <c r="H467" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E468" s="6" t="str">
@@ -9317,13 +9481,13 @@
         <v/>
       </c>
       <c r="H468" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E469" s="6" t="str">
@@ -9331,13 +9495,13 @@
         <v/>
       </c>
       <c r="H469" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E470" s="6" t="str">
@@ -9345,13 +9509,13 @@
         <v/>
       </c>
       <c r="H470" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E471" s="6" t="str">
@@ -9359,13 +9523,13 @@
         <v/>
       </c>
       <c r="H471" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E472" s="6" t="str">
@@ -9373,13 +9537,13 @@
         <v/>
       </c>
       <c r="H472" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E473" s="6" t="str">
@@ -9387,7 +9551,7 @@
         <v/>
       </c>
       <c r="H473" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9397,7 +9561,7 @@
         <v/>
       </c>
       <c r="H474" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9407,7 +9571,7 @@
         <v/>
       </c>
       <c r="H475" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9417,7 +9581,7 @@
         <v/>
       </c>
       <c r="H476" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9427,7 +9591,7 @@
         <v/>
       </c>
       <c r="H477" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9437,7 +9601,7 @@
         <v/>
       </c>
       <c r="H478" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9447,7 +9611,7 @@
         <v/>
       </c>
       <c r="H479" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9457,7 +9621,7 @@
         <v/>
       </c>
       <c r="H480" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9467,7 +9631,7 @@
         <v/>
       </c>
       <c r="H481" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9477,7 +9641,7 @@
         <v/>
       </c>
       <c r="H482" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9487,7 +9651,7 @@
         <v/>
       </c>
       <c r="H483" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9497,7 +9661,7 @@
         <v/>
       </c>
       <c r="H484" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9507,7 +9671,7 @@
         <v/>
       </c>
       <c r="H485" s="7" t="str">
-        <f t="shared" ref="H485:H548" si="23">IF(ISBLANK(B485), "",_xlfn.CONCAT($B485," ",$C485))</f>
+        <f t="shared" ref="H485:H548" si="27">IF(ISBLANK(B485), "",_xlfn.CONCAT($B485," ",$C485))</f>
         <v/>
       </c>
     </row>
@@ -9517,7 +9681,7 @@
         <v/>
       </c>
       <c r="H486" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9527,7 +9691,7 @@
         <v/>
       </c>
       <c r="H487" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9537,7 +9701,7 @@
         <v/>
       </c>
       <c r="H488" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9547,7 +9711,7 @@
         <v/>
       </c>
       <c r="H489" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9557,7 +9721,7 @@
         <v/>
       </c>
       <c r="H490" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9567,7 +9731,7 @@
         <v/>
       </c>
       <c r="H491" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9577,7 +9741,7 @@
         <v/>
       </c>
       <c r="H492" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9587,7 +9751,7 @@
         <v/>
       </c>
       <c r="H493" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9597,7 +9761,7 @@
         <v/>
       </c>
       <c r="H494" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9607,7 +9771,7 @@
         <v/>
       </c>
       <c r="H495" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9617,7 +9781,7 @@
         <v/>
       </c>
       <c r="H496" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9627,7 +9791,7 @@
         <v/>
       </c>
       <c r="H497" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9637,7 +9801,7 @@
         <v/>
       </c>
       <c r="H498" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9647,7 +9811,7 @@
         <v/>
       </c>
       <c r="H499" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9657,7 +9821,7 @@
         <v/>
       </c>
       <c r="H500" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9667,7 +9831,7 @@
         <v/>
       </c>
       <c r="H501" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9677,7 +9841,7 @@
         <v/>
       </c>
       <c r="H502" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9687,7 +9851,7 @@
         <v/>
       </c>
       <c r="H503" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9697,7 +9861,7 @@
         <v/>
       </c>
       <c r="H504" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9707,7 +9871,7 @@
         <v/>
       </c>
       <c r="H505" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9717,7 +9881,7 @@
         <v/>
       </c>
       <c r="H506" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9727,7 +9891,7 @@
         <v/>
       </c>
       <c r="H507" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9737,7 +9901,7 @@
         <v/>
       </c>
       <c r="H508" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9747,7 +9911,7 @@
         <v/>
       </c>
       <c r="H509" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9757,7 +9921,7 @@
         <v/>
       </c>
       <c r="H510" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9767,7 +9931,7 @@
         <v/>
       </c>
       <c r="H511" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9777,7 +9941,7 @@
         <v/>
       </c>
       <c r="H512" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9787,7 +9951,7 @@
         <v/>
       </c>
       <c r="H513" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9797,7 +9961,7 @@
         <v/>
       </c>
       <c r="H514" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9807,7 +9971,7 @@
         <v/>
       </c>
       <c r="H515" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9817,7 +9981,7 @@
         <v/>
       </c>
       <c r="H516" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9827,7 +9991,7 @@
         <v/>
       </c>
       <c r="H517" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9837,7 +10001,7 @@
         <v/>
       </c>
       <c r="H518" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9847,7 +10011,7 @@
         <v/>
       </c>
       <c r="H519" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9857,7 +10021,7 @@
         <v/>
       </c>
       <c r="H520" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9867,7 +10031,7 @@
         <v/>
       </c>
       <c r="H521" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9877,7 +10041,7 @@
         <v/>
       </c>
       <c r="H522" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9887,7 +10051,7 @@
         <v/>
       </c>
       <c r="H523" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9897,7 +10061,7 @@
         <v/>
       </c>
       <c r="H524" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9907,7 +10071,7 @@
         <v/>
       </c>
       <c r="H525" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9917,7 +10081,7 @@
         <v/>
       </c>
       <c r="H526" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9927,7 +10091,7 @@
         <v/>
       </c>
       <c r="H527" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9937,7 +10101,7 @@
         <v/>
       </c>
       <c r="H528" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9947,7 +10111,7 @@
         <v/>
       </c>
       <c r="H529" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9957,7 +10121,7 @@
         <v/>
       </c>
       <c r="H530" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9967,7 +10131,7 @@
         <v/>
       </c>
       <c r="H531" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9977,7 +10141,7 @@
         <v/>
       </c>
       <c r="H532" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9987,7 +10151,7 @@
         <v/>
       </c>
       <c r="H533" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -9997,7 +10161,7 @@
         <v/>
       </c>
       <c r="H534" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10007,7 +10171,7 @@
         <v/>
       </c>
       <c r="H535" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10017,7 +10181,7 @@
         <v/>
       </c>
       <c r="H536" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10027,7 +10191,7 @@
         <v/>
       </c>
       <c r="H537" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10037,7 +10201,7 @@
         <v/>
       </c>
       <c r="H538" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10047,7 +10211,7 @@
         <v/>
       </c>
       <c r="H539" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10057,7 +10221,7 @@
         <v/>
       </c>
       <c r="H540" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10067,7 +10231,7 @@
         <v/>
       </c>
       <c r="H541" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10077,7 +10241,7 @@
         <v/>
       </c>
       <c r="H542" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10087,7 +10251,7 @@
         <v/>
       </c>
       <c r="H543" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10097,7 +10261,7 @@
         <v/>
       </c>
       <c r="H544" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10107,7 +10271,7 @@
         <v/>
       </c>
       <c r="H545" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10117,7 +10281,7 @@
         <v/>
       </c>
       <c r="H546" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10127,7 +10291,7 @@
         <v/>
       </c>
       <c r="H547" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10137,7 +10301,7 @@
         <v/>
       </c>
       <c r="H548" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -10147,7 +10311,7 @@
         <v/>
       </c>
       <c r="H549" s="7" t="str">
-        <f t="shared" ref="H549:H557" si="24">IF(ISBLANK(B549), "",_xlfn.CONCAT($B549," ",$C549))</f>
+        <f t="shared" ref="H549:H557" si="28">IF(ISBLANK(B549), "",_xlfn.CONCAT($B549," ",$C549))</f>
         <v/>
       </c>
     </row>
@@ -10157,7 +10321,7 @@
         <v/>
       </c>
       <c r="H550" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -10167,7 +10331,7 @@
         <v/>
       </c>
       <c r="H551" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -10177,7 +10341,7 @@
         <v/>
       </c>
       <c r="H552" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -10187,7 +10351,7 @@
         <v/>
       </c>
       <c r="H553" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -10197,7 +10361,7 @@
         <v/>
       </c>
       <c r="H554" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -10207,7 +10371,7 @@
         <v/>
       </c>
       <c r="H555" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -10217,7 +10381,7 @@
         <v/>
       </c>
       <c r="H556" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -10227,7 +10391,7 @@
         <v/>
       </c>
       <c r="H557" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -10237,7 +10401,7 @@
         <v/>
       </c>
       <c r="H558" s="7" t="str">
-        <f t="shared" ref="H558:H563" si="25">IF(ISBLANK(B556), "",_xlfn.CONCAT($B558," ",$C558))</f>
+        <f t="shared" ref="H558:H563" si="29">IF(ISBLANK(B556), "",_xlfn.CONCAT($B558," ",$C558))</f>
         <v/>
       </c>
     </row>
@@ -10247,7 +10411,7 @@
         <v/>
       </c>
       <c r="H559" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -10257,7 +10421,7 @@
         <v/>
       </c>
       <c r="H560" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -10267,7 +10431,7 @@
         <v/>
       </c>
       <c r="H561" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -10277,7 +10441,7 @@
         <v/>
       </c>
       <c r="H562" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -10287,7 +10451,7 @@
         <v/>
       </c>
       <c r="H563" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE581E0-FA09-4E14-A7BF-784418353C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C336D56-7EBB-4124-AFBD-BF1199DC170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
   <si>
     <t>Информация для бота</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>Браницкая</t>
+  </si>
+  <si>
+    <t>Евтюхова</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4368,26 +4371,40 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="str">
+      <c r="A92" s="21">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="D92" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="23">
+        <v>9523086261</v>
+      </c>
+      <c r="E92" s="6">
+        <v>4</v>
+      </c>
+      <c r="F92" s="6">
+        <v>2</v>
+      </c>
       <c r="H92" s="28" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>Евтюхова Саша</v>
       </c>
       <c r="I92" s="3" t="str">
         <f>IF(ISBLANK(E92), "",INDEX(Squads!A$3:B$1048576,MATCH(E92, Squads!A$3:A$1048576, 0), 2))</f>
-        <v/>
+        <v>168 Часов</v>
       </c>
       <c r="J92" s="3" t="str">
         <f>IF(ISBLANK(F92), "",INDEX(Roles!A$3:B$1048576,MATCH(F92, Roles!A$3:A$1048576, 0), 2))</f>
-        <v/>
+        <v>Участник</v>
       </c>
       <c r="K92" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9523086261</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -10496,7 +10513,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>2</formula2>
@@ -10818,7 +10835,7 @@
       </c>
       <c r="B2" s="6">
         <f>COUNT(People!A3:A1048576)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10990,7 +11007,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11237,7 +11254,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11624,8 +11641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11681,14 +11698,14 @@
         <v>ДКС</v>
       </c>
       <c r="B3" s="26">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="25"/>
       <c r="F3" s="24" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Образцова Арина</v>
+        <v>Тюпышева Ксюша</v>
       </c>
       <c r="G3" s="25" t="str">
         <f t="array" ref="G3">IF(ISBLANK(B3), "",INDEX(Squads!$A$3:$D$6, H3, 2))</f>
@@ -11702,7 +11719,7 @@
         <v>ДКО 'Керосин'</v>
       </c>
       <c r="B4" s="26">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
@@ -11711,7 +11728,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Шитикова Аня</v>
+        <v>Окунева Лиза</v>
       </c>
       <c r="G4" s="25" t="str">
         <f t="array" ref="G4">IF(ISBLANK(B4), "",INDEX(Squads!$A$3:$D$6, H4, 2))</f>
@@ -11728,7 +11745,7 @@
         <v>ДКО '12/09'</v>
       </c>
       <c r="B5" s="26">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" s="26">
         <v>2</v>
@@ -11737,7 +11754,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Орлова Алёна</v>
+        <v>Соколов Иван</v>
       </c>
       <c r="G5" s="25" t="str">
         <f t="array" ref="G5">IF(ISBLANK(B5), "",INDEX(Squads!$A$3:$D$6, H5, 2))</f>
@@ -11754,7 +11771,7 @@
         <v>ДКО 'Путеводный'</v>
       </c>
       <c r="B6" s="26">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C6" s="26">
         <v>3</v>
@@ -11763,7 +11780,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="24" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Нуромский Саша</v>
+        <v>Прокопьева Маша</v>
       </c>
       <c r="G6" s="25" t="str">
         <f t="array" ref="G6">IF(ISBLANK(B6), "",INDEX(Squads!$A$3:$D$6, H6, 2))</f>
@@ -11780,7 +11797,7 @@
         <v>ДКО '168 Часов'</v>
       </c>
       <c r="B7" s="26">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C7" s="26">
         <v>4</v>
@@ -11789,7 +11806,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="24" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Отяковская Альбина</v>
+        <v>Евтюхова Саша</v>
       </c>
       <c r="G7" s="25" t="str">
         <f t="array" ref="G7">IF(ISBLANK(B7), "",INDEX(Squads!$A$3:$D$6, H7, 2))</f>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C336D56-7EBB-4124-AFBD-BF1199DC170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535999C1-5894-4F14-8AAA-9D2365915C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M569"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2142,7 @@
         <v>62</v>
       </c>
       <c r="D31" s="8">
-        <v>9600077240</v>
+        <v>9021994861</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="K31" s="3">
         <f t="shared" si="1"/>
-        <v>9600077240</v>
+        <v>9021994861</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4210,7 +4210,7 @@
         <v>24</v>
       </c>
       <c r="D87" s="8">
-        <v>9642936307</v>
+        <v>9009182965</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="K87" s="3">
         <f t="shared" si="10"/>
-        <v>9642936307</v>
+        <v>9009182965</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -10513,7 +10513,7 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>2</formula2>
@@ -11641,8 +11641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11698,14 +11698,14 @@
         <v>ДКС</v>
       </c>
       <c r="B3" s="26">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="25"/>
       <c r="F3" s="24" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Тюпышева Ксюша</v>
+        <v>Акимов Егор</v>
       </c>
       <c r="G3" s="25" t="str">
         <f t="array" ref="G3">IF(ISBLANK(B3), "",INDEX(Squads!$A$3:$D$6, H3, 2))</f>
@@ -11719,7 +11719,7 @@
         <v>ДКО 'Керосин'</v>
       </c>
       <c r="B4" s="26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
@@ -11728,7 +11728,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Окунева Лиза</v>
+        <v>Данилова Маша</v>
       </c>
       <c r="G4" s="25" t="str">
         <f t="array" ref="G4">IF(ISBLANK(B4), "",INDEX(Squads!$A$3:$D$6, H4, 2))</f>
@@ -11745,7 +11745,7 @@
         <v>ДКО '12/09'</v>
       </c>
       <c r="B5" s="26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="26">
         <v>2</v>
@@ -11754,7 +11754,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Соколов Иван</v>
+        <v>Вторушин Ярослав</v>
       </c>
       <c r="G5" s="25" t="str">
         <f t="array" ref="G5">IF(ISBLANK(B5), "",INDEX(Squads!$A$3:$D$6, H5, 2))</f>
@@ -11771,7 +11771,7 @@
         <v>ДКО 'Путеводный'</v>
       </c>
       <c r="B6" s="26">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="26">
         <v>3</v>
@@ -11780,7 +11780,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="24" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Прокопьева Маша</v>
+        <v>Бабуль Кирилл</v>
       </c>
       <c r="G6" s="25" t="str">
         <f t="array" ref="G6">IF(ISBLANK(B6), "",INDEX(Squads!$A$3:$D$6, H6, 2))</f>
@@ -11797,7 +11797,7 @@
         <v>ДКО '168 Часов'</v>
       </c>
       <c r="B7" s="26">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C7" s="26">
         <v>4</v>
@@ -11806,7 +11806,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="24" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Евтюхова Саша</v>
+        <v>Хабарова Лиза</v>
       </c>
       <c r="G7" s="25" t="str">
         <f t="array" ref="G7">IF(ISBLANK(B7), "",INDEX(Squads!$A$3:$D$6, H7, 2))</f>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535999C1-5894-4F14-8AAA-9D2365915C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161CEB08-66EB-4093-A8DD-6DA1C1F34514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="201">
   <si>
     <t>Информация для бота</t>
   </si>
@@ -634,6 +634,12 @@
   </si>
   <si>
     <t>Евтюхова</t>
+  </si>
+  <si>
+    <t>Хоменко</t>
+  </si>
+  <si>
+    <t>Валерия</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4408,25 +4414,40 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="str">
+      <c r="A93" s="21">
         <f t="shared" si="14"/>
-        <v/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="6">
+        <v>9115574147</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1</v>
       </c>
       <c r="H93" s="28" t="str">
         <f t="shared" ref="H93:H113" si="15">IF(AND(ISBLANK(B93),ISBLANK(C93)), "",TRIM(_xlfn.CONCAT($B93," ",$C93)))</f>
-        <v/>
+        <v>Хоменко Валерия</v>
       </c>
       <c r="I93" s="3" t="str">
         <f>IF(ISBLANK(E93), "",INDEX(Squads!A$3:B$1048576,MATCH(E93, Squads!A$3:A$1048576, 0), 2))</f>
-        <v/>
+        <v>Керосин</v>
       </c>
       <c r="J93" s="3" t="str">
         <f>IF(ISBLANK(F93), "",INDEX(Roles!A$3:B$1048576,MATCH(F93, Roles!A$3:A$1048576, 0), 2))</f>
-        <v/>
+        <v>Вожатый</v>
       </c>
       <c r="K93" s="3">
         <f t="shared" ref="K93:K113" si="16">D93</f>
-        <v>0</v>
+        <v>9115574147</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -10835,7 +10856,7 @@
       </c>
       <c r="B2" s="6">
         <f>COUNT(People!A3:A1048576)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11641,8 +11662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11698,14 +11719,14 @@
         <v>ДКС</v>
       </c>
       <c r="B3" s="26">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="25"/>
       <c r="F3" s="24" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Акимов Егор</v>
+        <v>Хоменко Валерия</v>
       </c>
       <c r="G3" s="25" t="str">
         <f t="array" ref="G3">IF(ISBLANK(B3), "",INDEX(Squads!$A$3:$D$6, H3, 2))</f>
@@ -11719,7 +11740,7 @@
         <v>ДКО 'Керосин'</v>
       </c>
       <c r="B4" s="26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
@@ -11728,7 +11749,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Данилова Маша</v>
+        <v>Никонова Лера</v>
       </c>
       <c r="G4" s="25" t="str">
         <f t="array" ref="G4">IF(ISBLANK(B4), "",INDEX(Squads!$A$3:$D$6, H4, 2))</f>
@@ -11745,7 +11766,7 @@
         <v>ДКО '12/09'</v>
       </c>
       <c r="B5" s="26">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="26">
         <v>2</v>
@@ -11754,7 +11775,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Вторушин Ярослав</v>
+        <v>Семушин Лев</v>
       </c>
       <c r="G5" s="25" t="str">
         <f t="array" ref="G5">IF(ISBLANK(B5), "",INDEX(Squads!$A$3:$D$6, H5, 2))</f>
@@ -11771,7 +11792,7 @@
         <v>ДКО 'Путеводный'</v>
       </c>
       <c r="B6" s="26">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="26">
         <v>3</v>
@@ -11780,7 +11801,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="24" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Бабуль Кирилл</v>
+        <v>Тюпышева Ксюша</v>
       </c>
       <c r="G6" s="25" t="str">
         <f t="array" ref="G6">IF(ISBLANK(B6), "",INDEX(Squads!$A$3:$D$6, H6, 2))</f>
@@ -11797,7 +11818,7 @@
         <v>ДКО '168 Часов'</v>
       </c>
       <c r="B7" s="26">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="26">
         <v>4</v>
@@ -11806,7 +11827,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="24" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Хабарова Лиза</v>
+        <v>Угрюмова Аня</v>
       </c>
       <c r="G7" s="25" t="str">
         <f t="array" ref="G7">IF(ISBLANK(B7), "",INDEX(Squads!$A$3:$D$6, H7, 2))</f>

--- a/resource/data/sbor_data.xlsx
+++ b/resource/data/sbor_data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Creativity\Programing\Personal\SBOR_BOT\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161CEB08-66EB-4093-A8DD-6DA1C1F34514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5BDF52-0523-4615-AE74-B8F38E145A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
     <sheet name="Roles" sheetId="2" r:id="rId2"/>
     <sheet name="Info" sheetId="3" r:id="rId3"/>
     <sheet name="Supervisors" sheetId="7" r:id="rId4"/>
-    <sheet name="Squads" sheetId="4" r:id="rId5"/>
-    <sheet name="Services" sheetId="5" r:id="rId6"/>
+    <sheet name="Services" sheetId="5" r:id="rId5"/>
+    <sheet name="Squads" sheetId="4" r:id="rId6"/>
     <sheet name="Commanders" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M569"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11024,11 +11024,399 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Гущина Маша</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="6">
+        <v>74</v>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Юрьев Кирилл</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="6">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Романенко Влада</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="6">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Северьянова Юля</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="6">
+        <v>91</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Хоменко Валерия</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="6">
+        <v>49</v>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>IF(ISBLANK(B8), "",INDEX(People!$A$3:$K$1048576,MATCH(B8, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Семьин Миша</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="6">
+        <v>73</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f>IF(ISBLANK(B9), "",INDEX(People!$A$3:$K$1048576,MATCH(B9, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Михайлов Кирилл</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="6">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>IF(ISBLANK(B10), "",INDEX(People!$A$3:$K$1048576,MATCH(B10, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Гурьев Гоша</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="6">
+        <v>70</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>IF(ISBLANK(B11), "",INDEX(People!$A$3:$K$1048576,MATCH(B11, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Савинкина Лиза</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="6">
+        <v>72</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>IF(ISBLANK(B12), "",INDEX(People!$A$3:$K$1048576,MATCH(B12, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Варзина Настя</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="6">
+        <v>63</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f>IF(ISBLANK(B13), "",INDEX(People!$A$3:$K$1048576,MATCH(B13, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Тюпышева Ксюша</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="6">
+        <v>70</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f>IF(ISBLANK(B14), "",INDEX(People!$A$3:$K$1048576,MATCH(B14, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Савинкина Лиза</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f>IF(ISBLANK(B15), "",INDEX(People!$A$3:$K$1048576,MATCH(B15, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Гущина Маша</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="6">
+        <v>53</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f>IF(ISBLANK(B16), "",INDEX(People!$A$3:$K$1048576,MATCH(B16, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Кескюль Лина</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="6">
+        <v>78</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>IF(ISBLANK(B17), "",INDEX(People!$A$3:$K$1048576,MATCH(B17, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Коротова Ангелина</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="6">
+        <v>30</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f>IF(ISBLANK(B18), "",INDEX(People!$A$3:$K$1048576,MATCH(B18, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Архипова Лера</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="6">
+        <v>19</v>
+      </c>
+      <c r="D19" s="11" t="str">
+        <f>IF(ISBLANK(B19), "",INDEX(People!$A$3:$K$1048576,MATCH(B19, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Лашова Яна</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="6">
+        <v>53</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f>IF(ISBLANK(B20), "",INDEX(People!$A$3:$K$1048576,MATCH(B20, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Кескюль Лина</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="str">
+        <f>IF(ISBLANK(B21), "",INDEX(People!$A$3:$K$1048576,MATCH(B21, People!$A$3:$A$1048576, 0), 8))</f>
+        <v>Акимов Егор</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="11" t="str">
+        <f>IF(ISBLANK(B22), "",INDEX(People!$A$3:$K$1048576,MATCH(B22, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="11" t="str">
+        <f>IF(ISBLANK(B23), "",INDEX(People!$A$3:$K$1048576,MATCH(B23, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="11" t="str">
+        <f>IF(ISBLANK(B24), "",INDEX(People!$A$3:$K$1048576,MATCH(B24, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="11" t="str">
+        <f>IF(ISBLANK(B25), "",INDEX(People!$A$3:$K$1048576,MATCH(B25, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="11" t="str">
+        <f>IF(ISBLANK(B26), "",INDEX(People!$A$3:$K$1048576,MATCH(B26, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="11" t="str">
+        <f>IF(ISBLANK(B27), "",INDEX(People!$A$3:$K$1048576,MATCH(B27, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="7" t="str">
+        <f>IF(ISBLANK(B34), "",INDEX(People!$A$3:$K$1048576,MATCH(B34, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="7" t="str">
+        <f>IF(ISBLANK(B35), "",INDEX(People!$A$3:$K$1048576,MATCH(B35, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="7" t="str">
+        <f>IF(ISBLANK(B36), "",INDEX(People!$A$3:$K$1048576,MATCH(B36, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="7" t="str">
+        <f>IF(ISBLANK(B37), "",INDEX(People!$A$3:$K$1048576,MATCH(B37, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="7" t="str">
+        <f>IF(ISBLANK(B38), "",INDEX(People!$A$3:$K$1048576,MATCH(B38, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="7" t="str">
+        <f>IF(ISBLANK(B39), "",INDEX(People!$A$3:$K$1048576,MATCH(B39, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="7" t="str">
+        <f>IF(ISBLANK(B40), "",INDEX(People!$A$3:$K$1048576,MATCH(B40, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="7" t="str">
+        <f>IF(ISBLANK(B41), "",INDEX(People!$A$3:$K$1048576,MATCH(B41, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="7" t="str">
+        <f>IF(ISBLANK(B42), "",INDEX(People!$A$3:$K$1048576,MATCH(B42, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="7" t="str">
+        <f>IF(ISBLANK(B43), "",INDEX(People!$A$3:$K$1048576,MATCH(B43, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="7" t="str">
+        <f>IF(ISBLANK(B44), "",INDEX(People!$A$3:$K$1048576,MATCH(B44, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="7" t="str">
+        <f>IF(ISBLANK(B45), "",INDEX(People!$A$3:$K$1048576,MATCH(B45, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="str">
+        <f>IF(ISBLANK(B46), "",INDEX(People!$A$3:$K$1048576,MATCH(B46, People!$A$3:$A$1048576, 0), 8))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11270,400 +11658,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="6">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Гущина Маша</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="6">
-        <v>74</v>
-      </c>
-      <c r="D4" s="11" t="str">
-        <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Юрьев Кирилл</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="6">
-        <v>29</v>
-      </c>
-      <c r="D5" s="11" t="str">
-        <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Романенко Влада</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="6">
-        <v>50</v>
-      </c>
-      <c r="D6" s="11" t="str">
-        <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Северьянова Юля</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="6">
-        <v>88</v>
-      </c>
-      <c r="D7" s="11" t="str">
-        <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Лариса Васильевна</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="6">
-        <v>49</v>
-      </c>
-      <c r="D8" s="22" t="str">
-        <f>IF(ISBLANK(B8), "",INDEX(People!$A$3:$K$1048576,MATCH(B8, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Семьин Миша</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="6">
-        <v>73</v>
-      </c>
-      <c r="D9" s="11" t="str">
-        <f>IF(ISBLANK(B9), "",INDEX(People!$A$3:$K$1048576,MATCH(B9, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Михайлов Кирилл</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="6">
-        <v>13</v>
-      </c>
-      <c r="D10" s="11" t="str">
-        <f>IF(ISBLANK(B10), "",INDEX(People!$A$3:$K$1048576,MATCH(B10, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Гурьев Гоша</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="6">
-        <v>70</v>
-      </c>
-      <c r="D11" s="11" t="str">
-        <f>IF(ISBLANK(B11), "",INDEX(People!$A$3:$K$1048576,MATCH(B11, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Савинкина Лиза</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="6">
-        <v>72</v>
-      </c>
-      <c r="D12" s="11" t="str">
-        <f>IF(ISBLANK(B12), "",INDEX(People!$A$3:$K$1048576,MATCH(B12, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Варзина Настя</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="6">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11" t="str">
-        <f>IF(ISBLANK(B13), "",INDEX(People!$A$3:$K$1048576,MATCH(B13, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Образцова Арина</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="6">
-        <v>70</v>
-      </c>
-      <c r="D14" s="11" t="str">
-        <f>IF(ISBLANK(B14), "",INDEX(People!$A$3:$K$1048576,MATCH(B14, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Савинкина Лиза</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="6">
-        <v>9</v>
-      </c>
-      <c r="D15" s="11" t="str">
-        <f>IF(ISBLANK(B15), "",INDEX(People!$A$3:$K$1048576,MATCH(B15, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Гущина Маша</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="6">
-        <v>53</v>
-      </c>
-      <c r="D16" s="11" t="str">
-        <f>IF(ISBLANK(B16), "",INDEX(People!$A$3:$K$1048576,MATCH(B16, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Кескюль Лина</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="6">
-        <v>78</v>
-      </c>
-      <c r="D17" s="11" t="str">
-        <f>IF(ISBLANK(B17), "",INDEX(People!$A$3:$K$1048576,MATCH(B17, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Коротова Ангелина</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="6">
-        <v>30</v>
-      </c>
-      <c r="D18" s="11" t="str">
-        <f>IF(ISBLANK(B18), "",INDEX(People!$A$3:$K$1048576,MATCH(B18, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Архипова Лера</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="6">
-        <v>78</v>
-      </c>
-      <c r="D19" s="11" t="str">
-        <f>IF(ISBLANK(B19), "",INDEX(People!$A$3:$K$1048576,MATCH(B19, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Коротова Ангелина</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="6">
-        <v>53</v>
-      </c>
-      <c r="D20" s="11" t="str">
-        <f>IF(ISBLANK(B20), "",INDEX(People!$A$3:$K$1048576,MATCH(B20, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Кескюль Лина</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="6">
-        <v>10</v>
-      </c>
-      <c r="D21" s="11" t="str">
-        <f>IF(ISBLANK(B21), "",INDEX(People!$A$3:$K$1048576,MATCH(B21, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Акимов Егор</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="str">
-        <f>IF(ISBLANK(B22), "",INDEX(People!$A$3:$K$1048576,MATCH(B22, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="11" t="str">
-        <f>IF(ISBLANK(B23), "",INDEX(People!$A$3:$K$1048576,MATCH(B23, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="11" t="str">
-        <f>IF(ISBLANK(B24), "",INDEX(People!$A$3:$K$1048576,MATCH(B24, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="11" t="str">
-        <f>IF(ISBLANK(B25), "",INDEX(People!$A$3:$K$1048576,MATCH(B25, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="11" t="str">
-        <f>IF(ISBLANK(B26), "",INDEX(People!$A$3:$K$1048576,MATCH(B26, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="11" t="str">
-        <f>IF(ISBLANK(B27), "",INDEX(People!$A$3:$K$1048576,MATCH(B27, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="7" t="str">
-        <f>IF(ISBLANK(B34), "",INDEX(People!$A$3:$K$1048576,MATCH(B34, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="7" t="str">
-        <f>IF(ISBLANK(B35), "",INDEX(People!$A$3:$K$1048576,MATCH(B35, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="7" t="str">
-        <f>IF(ISBLANK(B36), "",INDEX(People!$A$3:$K$1048576,MATCH(B36, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="7" t="str">
-        <f>IF(ISBLANK(B37), "",INDEX(People!$A$3:$K$1048576,MATCH(B37, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="7" t="str">
-        <f>IF(ISBLANK(B38), "",INDEX(People!$A$3:$K$1048576,MATCH(B38, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="7" t="str">
-        <f>IF(ISBLANK(B39), "",INDEX(People!$A$3:$K$1048576,MATCH(B39, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="7" t="str">
-        <f>IF(ISBLANK(B40), "",INDEX(People!$A$3:$K$1048576,MATCH(B40, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="7" t="str">
-        <f>IF(ISBLANK(B41), "",INDEX(People!$A$3:$K$1048576,MATCH(B41, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="7" t="str">
-        <f>IF(ISBLANK(B42), "",INDEX(People!$A$3:$K$1048576,MATCH(B42, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="7" t="str">
-        <f>IF(ISBLANK(B43), "",INDEX(People!$A$3:$K$1048576,MATCH(B43, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="7" t="str">
-        <f>IF(ISBLANK(B44), "",INDEX(People!$A$3:$K$1048576,MATCH(B44, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="7" t="str">
-        <f>IF(ISBLANK(B45), "",INDEX(People!$A$3:$K$1048576,MATCH(B45, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="7" t="str">
-        <f>IF(ISBLANK(B46), "",INDEX(People!$A$3:$K$1048576,MATCH(B46, People!$A$3:$A$1048576, 0), 8))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11719,19 +11719,16 @@
         <v>ДКС</v>
       </c>
       <c r="B3" s="26">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="25"/>
       <c r="F3" s="24" t="str">
         <f>IF(ISBLANK(B3), "",INDEX(People!$A$3:$K$1048576,MATCH(B3, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Хоменко Валерия</v>
-      </c>
-      <c r="G3" s="25" t="str">
-        <f t="array" ref="G3">IF(ISBLANK(B3), "",INDEX(Squads!$A$3:$D$6, H3, 2))</f>
-        <v>Керосин</v>
-      </c>
+        <v>Сумароков Саша</v>
+      </c>
+      <c r="G3" s="25"/>
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11740,7 +11737,7 @@
         <v>ДКО 'Керосин'</v>
       </c>
       <c r="B4" s="26">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
@@ -11749,7 +11746,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="str">
         <f>IF(ISBLANK(B4), "",INDEX(People!$A$3:$K$1048576,MATCH(B4, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Никонова Лера</v>
+        <v>Воробьев Глеб</v>
       </c>
       <c r="G4" s="25" t="str">
         <f t="array" ref="G4">IF(ISBLANK(B4), "",INDEX(Squads!$A$3:$D$6, H4, 2))</f>
@@ -11766,7 +11763,7 @@
         <v>ДКО '12/09'</v>
       </c>
       <c r="B5" s="26">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5" s="26">
         <v>2</v>
@@ -11775,7 +11772,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="24" t="str">
         <f>IF(ISBLANK(B5), "",INDEX(People!$A$3:$K$1048576,MATCH(B5, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Семушин Лев</v>
+        <v>Куприяник Аня</v>
       </c>
       <c r="G5" s="25" t="str">
         <f t="array" ref="G5">IF(ISBLANK(B5), "",INDEX(Squads!$A$3:$D$6, H5, 2))</f>
@@ -11792,7 +11789,7 @@
         <v>ДКО 'Путеводный'</v>
       </c>
       <c r="B6" s="26">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6" s="26">
         <v>3</v>
@@ -11801,7 +11798,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="24" t="str">
         <f>IF(ISBLANK(B6), "",INDEX(People!$A$3:$K$1048576,MATCH(B6, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Тюпышева Ксюша</v>
+        <v>Дьячкова Арина</v>
       </c>
       <c r="G6" s="25" t="str">
         <f t="array" ref="G6">IF(ISBLANK(B6), "",INDEX(Squads!$A$3:$D$6, H6, 2))</f>
@@ -11818,7 +11815,7 @@
         <v>ДКО '168 Часов'</v>
       </c>
       <c r="B7" s="26">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C7" s="26">
         <v>4</v>
@@ -11827,7 +11824,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="24" t="str">
         <f>IF(ISBLANK(B7), "",INDEX(People!$A$3:$K$1048576,MATCH(B7, People!$A$3:$A$1048576, 0), 8))</f>
-        <v>Угрюмова Аня</v>
+        <v>Веселков Матвей</v>
       </c>
       <c r="G7" s="25" t="str">
         <f t="array" ref="G7">IF(ISBLANK(B7), "",INDEX(Squads!$A$3:$D$6, H7, 2))</f>
